--- a/Фопи/Зарплата ФОП 2021/Петришак В.П. 2021.xlsx
+++ b/Фопи/Зарплата ФОП 2021/Петришак В.П. 2021.xlsx
@@ -5,43 +5,44 @@
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Фопи\Зарплата ФОП 2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nastia\GitHub\Фопи\Зарплата ФОП 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="60" windowWidth="11340" windowHeight="6040" tabRatio="784" firstSheet="14" activeTab="21"/>
+    <workbookView xWindow="360" yWindow="60" windowWidth="11340" windowHeight="6040" tabRatio="784"/>
   </bookViews>
   <sheets>
-    <sheet name="08-21 " sheetId="138" r:id="rId1"/>
-    <sheet name="07-21 " sheetId="134" r:id="rId2"/>
-    <sheet name="06-21" sheetId="133" r:id="rId3"/>
-    <sheet name="05-21" sheetId="132" r:id="rId4"/>
-    <sheet name="04-21 " sheetId="131" r:id="rId5"/>
-    <sheet name="03-21 " sheetId="130" r:id="rId6"/>
-    <sheet name="02-21 " sheetId="129" r:id="rId7"/>
-    <sheet name="01-21" sheetId="127" r:id="rId8"/>
-    <sheet name="12" sheetId="126" r:id="rId9"/>
-    <sheet name="11" sheetId="125" r:id="rId10"/>
-    <sheet name="10" sheetId="124" r:id="rId11"/>
-    <sheet name="09" sheetId="123" r:id="rId12"/>
-    <sheet name="08" sheetId="122" r:id="rId13"/>
-    <sheet name="07" sheetId="121" r:id="rId14"/>
-    <sheet name="06" sheetId="120" r:id="rId15"/>
-    <sheet name="05" sheetId="119" r:id="rId16"/>
-    <sheet name="04" sheetId="118" r:id="rId17"/>
-    <sheet name="003" sheetId="137" r:id="rId18"/>
-    <sheet name="02" sheetId="116" r:id="rId19"/>
-    <sheet name="01" sheetId="115" r:id="rId20"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId21"/>
-    <sheet name="Звірка21" sheetId="128" r:id="rId22"/>
-    <sheet name="звірка" sheetId="88" r:id="rId23"/>
+    <sheet name="09-21 " sheetId="139" r:id="rId1"/>
+    <sheet name="08-21 " sheetId="138" r:id="rId2"/>
+    <sheet name="07-21 " sheetId="134" r:id="rId3"/>
+    <sheet name="06-21" sheetId="133" r:id="rId4"/>
+    <sheet name="05-21" sheetId="132" r:id="rId5"/>
+    <sheet name="04-21 " sheetId="131" r:id="rId6"/>
+    <sheet name="03-21 " sheetId="130" r:id="rId7"/>
+    <sheet name="02-21 " sheetId="129" r:id="rId8"/>
+    <sheet name="01-21" sheetId="127" r:id="rId9"/>
+    <sheet name="12" sheetId="126" r:id="rId10"/>
+    <sheet name="11" sheetId="125" r:id="rId11"/>
+    <sheet name="10" sheetId="124" r:id="rId12"/>
+    <sheet name="09" sheetId="123" r:id="rId13"/>
+    <sheet name="08" sheetId="122" r:id="rId14"/>
+    <sheet name="07" sheetId="121" r:id="rId15"/>
+    <sheet name="06" sheetId="120" r:id="rId16"/>
+    <sheet name="05" sheetId="119" r:id="rId17"/>
+    <sheet name="04" sheetId="118" r:id="rId18"/>
+    <sheet name="003" sheetId="137" r:id="rId19"/>
+    <sheet name="02" sheetId="116" r:id="rId20"/>
+    <sheet name="01" sheetId="115" r:id="rId21"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId22"/>
+    <sheet name="Звірка21" sheetId="128" r:id="rId23"/>
+    <sheet name="звірка" sheetId="88" r:id="rId24"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="81">
   <si>
     <t>№</t>
   </si>
@@ -281,6 +282,9 @@
   </si>
   <si>
     <t>20 СЕРПНЯ 2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Розрахунково – платіжна відомість за ВЕРЕСЕНЬ 2021 р. </t>
   </si>
 </sst>
 </file>
@@ -752,11 +756,14 @@
     <xf numFmtId="4" fontId="26" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -764,16 +771,16 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -781,9 +788,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1098,8 +1102,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Q18"/>
   <sheetViews>
-    <sheetView topLeftCell="F7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5"/>
@@ -1127,24 +1131,24 @@
       <c r="B2" s="7"/>
     </row>
     <row r="3" spans="1:17" ht="20">
-      <c r="A3" s="47" t="s">
-        <v>75</v>
-      </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="47"/>
-      <c r="N3" s="47"/>
-      <c r="O3" s="47"/>
-      <c r="P3" s="47"/>
+      <c r="A3" s="49" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="49"/>
+      <c r="P3" s="49"/>
     </row>
     <row r="4" spans="1:17" ht="20">
       <c r="B4" s="8"/>
@@ -1172,7 +1176,7 @@
       <c r="D7" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="49" t="s">
+      <c r="E7" s="50" t="s">
         <v>54</v>
       </c>
       <c r="F7" s="48" t="s">
@@ -1214,7 +1218,7 @@
       <c r="B8" s="48"/>
       <c r="C8" s="48"/>
       <c r="D8" s="48"/>
-      <c r="E8" s="50"/>
+      <c r="E8" s="51"/>
       <c r="F8" s="48"/>
       <c r="G8" s="48"/>
       <c r="H8" s="48"/>
@@ -1348,16 +1352,16 @@
     </row>
     <row r="12" spans="1:17" ht="13" thickBot="1"/>
     <row r="13" spans="1:17" ht="16" thickBot="1">
-      <c r="B13" s="51" t="s">
+      <c r="B13" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="51"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="51"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="47"/>
       <c r="J13" s="12">
         <v>0.22</v>
       </c>
@@ -1377,16 +1381,16 @@
       <c r="P14" s="16"/>
     </row>
     <row r="15" spans="1:17" ht="16" thickBot="1">
-      <c r="B15" s="51" t="s">
+      <c r="B15" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="51"/>
-      <c r="I15" s="51"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="47"/>
       <c r="J15" s="12">
         <v>0.22</v>
       </c>
@@ -1397,30 +1401,30 @@
       <c r="M15" s="24"/>
     </row>
     <row r="16" spans="1:17" ht="16" thickBot="1">
-      <c r="B16" s="51"/>
-      <c r="C16" s="51"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="51"/>
-      <c r="I16" s="51"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="47"/>
       <c r="J16" s="12"/>
       <c r="K16" s="12"/>
       <c r="L16" s="25"/>
     </row>
     <row r="17" spans="2:13" ht="13" thickBot="1"/>
     <row r="18" spans="2:13" ht="16" thickBot="1">
-      <c r="B18" s="51" t="s">
+      <c r="B18" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="51"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="51"/>
-      <c r="G18" s="51"/>
-      <c r="H18" s="51"/>
-      <c r="I18" s="51"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="47"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="47"/>
       <c r="L18" s="27">
         <f>M10+L10+L13+L15</f>
         <v>3868.4691499999999</v>
@@ -1429,14 +1433,17 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="B13:I13"/>
+    <mergeCell ref="B15:I15"/>
+    <mergeCell ref="B16:I16"/>
     <mergeCell ref="B18:I18"/>
-    <mergeCell ref="I7:I8"/>
     <mergeCell ref="J7:J8"/>
     <mergeCell ref="K7:K8"/>
     <mergeCell ref="L7:L8"/>
-    <mergeCell ref="B13:I13"/>
-    <mergeCell ref="B15:I15"/>
-    <mergeCell ref="B16:I16"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="O7:O8"/>
     <mergeCell ref="A3:P3"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
@@ -1446,10 +1453,7 @@
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="G7:G8"/>
     <mergeCell ref="H7:H8"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="P7:P8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="I7:I8"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
@@ -1458,6 +1462,356 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:Q18"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:P3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5"/>
+  <cols>
+    <col min="1" max="1" width="3.453125" customWidth="1"/>
+    <col min="2" max="2" width="17.90625" customWidth="1"/>
+    <col min="3" max="3" width="13.54296875" customWidth="1"/>
+    <col min="4" max="4" width="10.6328125" customWidth="1"/>
+    <col min="5" max="5" width="6" customWidth="1"/>
+    <col min="6" max="6" width="8.54296875" customWidth="1"/>
+    <col min="7" max="7" width="11.90625" customWidth="1"/>
+    <col min="8" max="8" width="5.6328125" customWidth="1"/>
+    <col min="9" max="9" width="6.90625" customWidth="1"/>
+    <col min="10" max="10" width="10" customWidth="1"/>
+    <col min="11" max="11" width="8.08984375" customWidth="1"/>
+    <col min="12" max="12" width="11.08984375" customWidth="1"/>
+    <col min="13" max="13" width="11.36328125" customWidth="1"/>
+    <col min="14" max="14" width="8.453125" customWidth="1"/>
+    <col min="15" max="15" width="9.36328125" customWidth="1"/>
+    <col min="16" max="16" width="11.6328125" customWidth="1"/>
+    <col min="19" max="19" width="12.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:17" ht="27" customHeight="1">
+      <c r="B2" s="7"/>
+    </row>
+    <row r="3" spans="1:17" ht="20">
+      <c r="A3" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="49"/>
+      <c r="P3" s="49"/>
+    </row>
+    <row r="4" spans="1:17" ht="20">
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+    </row>
+    <row r="5" spans="1:17" ht="15.75" customHeight="1"/>
+    <row r="6" spans="1:17" ht="15.75" customHeight="1">
+      <c r="F6">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A7" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="48" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7" s="48" t="s">
+        <v>53</v>
+      </c>
+      <c r="G7" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="I7" s="48" t="s">
+        <v>42</v>
+      </c>
+      <c r="J7" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="K7" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="L7" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="M7" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="N7" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="O7" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="P7" s="48" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="48.75" customHeight="1">
+      <c r="A8" s="48"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="48"/>
+      <c r="I8" s="48"/>
+      <c r="J8" s="48"/>
+      <c r="K8" s="48"/>
+      <c r="L8" s="48"/>
+      <c r="M8" s="48"/>
+      <c r="N8" s="48"/>
+      <c r="O8" s="48"/>
+      <c r="P8" s="48"/>
+    </row>
+    <row r="9" spans="1:17" ht="31.5" customHeight="1">
+      <c r="A9" s="3">
+        <v>1</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="6">
+        <v>2522813188</v>
+      </c>
+      <c r="D9" s="5">
+        <v>5050</v>
+      </c>
+      <c r="E9" s="5">
+        <v>1</v>
+      </c>
+      <c r="F9" s="5">
+        <v>174</v>
+      </c>
+      <c r="G9" s="10">
+        <f>D9/F6*F9</f>
+        <v>5050</v>
+      </c>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="46">
+        <f>G9</f>
+        <v>5050</v>
+      </c>
+      <c r="K9" s="10">
+        <v>2000</v>
+      </c>
+      <c r="L9" s="5">
+        <f>ROUND((G9)*18/100,2)</f>
+        <v>909</v>
+      </c>
+      <c r="M9" s="5">
+        <f>G9*0.015</f>
+        <v>75.75</v>
+      </c>
+      <c r="N9" s="5">
+        <f>SUM(L9:M9)</f>
+        <v>984.75</v>
+      </c>
+      <c r="O9" s="5">
+        <f>G9-N9</f>
+        <v>4065.25</v>
+      </c>
+      <c r="P9" s="5">
+        <f>O9-K9</f>
+        <v>2065.25</v>
+      </c>
+      <c r="Q9" s="9"/>
+    </row>
+    <row r="10" spans="1:17" ht="27.75" customHeight="1">
+      <c r="A10" s="3"/>
+      <c r="B10" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="14"/>
+      <c r="D10" s="15">
+        <f>SUM(D9:D9)</f>
+        <v>5050</v>
+      </c>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15">
+        <f>SUM(G9:G9)</f>
+        <v>5050</v>
+      </c>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15">
+        <f t="shared" ref="I10:P10" si="0">SUM(I9:I9)</f>
+        <v>0</v>
+      </c>
+      <c r="J10" s="45"/>
+      <c r="K10" s="15">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+      <c r="L10" s="15">
+        <f t="shared" si="0"/>
+        <v>909</v>
+      </c>
+      <c r="M10" s="15">
+        <f t="shared" si="0"/>
+        <v>75.75</v>
+      </c>
+      <c r="N10" s="15">
+        <f t="shared" si="0"/>
+        <v>984.75</v>
+      </c>
+      <c r="O10" s="15">
+        <f t="shared" si="0"/>
+        <v>4065.25</v>
+      </c>
+      <c r="P10" s="15">
+        <f t="shared" si="0"/>
+        <v>2065.25</v>
+      </c>
+      <c r="Q10" s="9"/>
+    </row>
+    <row r="11" spans="1:17" ht="15">
+      <c r="L11" s="11"/>
+      <c r="P11" s="15">
+        <f>P10+K10</f>
+        <v>4065.25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="13" thickBot="1"/>
+    <row r="13" spans="1:17" ht="16" thickBot="1">
+      <c r="B13" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="47"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="47"/>
+      <c r="J13" s="12">
+        <v>0.22</v>
+      </c>
+      <c r="K13" s="12"/>
+      <c r="L13" s="26">
+        <f>J9*0.22</f>
+        <v>1111</v>
+      </c>
+      <c r="M13" s="24"/>
+      <c r="N13" s="35">
+        <f>M10+L10+L13</f>
+        <v>2095.75</v>
+      </c>
+      <c r="P13" s="16"/>
+    </row>
+    <row r="14" spans="1:17" ht="13.5" thickBot="1">
+      <c r="P14" s="16"/>
+    </row>
+    <row r="15" spans="1:17" ht="16" thickBot="1">
+      <c r="B15" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="47"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="12">
+        <v>0.22</v>
+      </c>
+      <c r="K15" s="12"/>
+      <c r="L15" s="26">
+        <v>1100</v>
+      </c>
+      <c r="M15" s="24"/>
+    </row>
+    <row r="16" spans="1:17" ht="16" thickBot="1">
+      <c r="B16" s="47"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="25"/>
+    </row>
+    <row r="17" spans="2:13" ht="13" thickBot="1"/>
+    <row r="18" spans="2:13" ht="16" thickBot="1">
+      <c r="B18" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="47"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="47"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="47"/>
+      <c r="L18" s="27">
+        <f>M10+L10+L13+L15</f>
+        <v>3195.75</v>
+      </c>
+      <c r="M18" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="21">
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="B16:I16"/>
+    <mergeCell ref="B13:I13"/>
+    <mergeCell ref="B15:I15"/>
+    <mergeCell ref="A3:P3"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+  </mergeCells>
+  <pageMargins left="0" right="0" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
+  <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Q18"/>
   <sheetViews>
@@ -1490,24 +1844,24 @@
       <c r="B2" s="7"/>
     </row>
     <row r="3" spans="1:17" ht="20">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="47"/>
-      <c r="N3" s="47"/>
-      <c r="O3" s="47"/>
-      <c r="P3" s="47"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="49"/>
+      <c r="P3" s="49"/>
     </row>
     <row r="4" spans="1:17" ht="20">
       <c r="B4" s="8"/>
@@ -1532,7 +1886,7 @@
       <c r="D7" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="49" t="s">
+      <c r="E7" s="50" t="s">
         <v>54</v>
       </c>
       <c r="F7" s="48" t="s">
@@ -1574,7 +1928,7 @@
       <c r="B8" s="48"/>
       <c r="C8" s="48"/>
       <c r="D8" s="48"/>
-      <c r="E8" s="50"/>
+      <c r="E8" s="51"/>
       <c r="F8" s="48"/>
       <c r="G8" s="48"/>
       <c r="H8" s="48"/>
@@ -1698,16 +2052,16 @@
     </row>
     <row r="12" spans="1:17" ht="13" thickBot="1"/>
     <row r="13" spans="1:17" ht="16" thickBot="1">
-      <c r="B13" s="51" t="s">
+      <c r="B13" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="51"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="51"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="47"/>
       <c r="J13" s="12">
         <v>0.22</v>
       </c>
@@ -1727,16 +2081,16 @@
       <c r="P14" s="16"/>
     </row>
     <row r="15" spans="1:17" ht="16" thickBot="1">
-      <c r="B15" s="51" t="s">
+      <c r="B15" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="51"/>
-      <c r="I15" s="51"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="47"/>
       <c r="J15" s="12">
         <v>0.22</v>
       </c>
@@ -1747,30 +2101,30 @@
       <c r="M15" s="24"/>
     </row>
     <row r="16" spans="1:17" ht="16" thickBot="1">
-      <c r="B16" s="51"/>
-      <c r="C16" s="51"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="51"/>
-      <c r="I16" s="51"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="47"/>
       <c r="J16" s="12"/>
       <c r="K16" s="12"/>
       <c r="L16" s="25"/>
     </row>
     <row r="17" spans="2:13" ht="13" thickBot="1"/>
     <row r="18" spans="2:13" ht="16" thickBot="1">
-      <c r="B18" s="51" t="s">
+      <c r="B18" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="51"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="51"/>
-      <c r="G18" s="51"/>
-      <c r="H18" s="51"/>
-      <c r="I18" s="51"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="47"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="47"/>
       <c r="L18" s="27">
         <f>M10+L10+L13+L15</f>
         <v>3195.75</v>
@@ -1779,14 +2133,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A3:P3"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="P7:P8"/>
-    <mergeCell ref="O7:O8"/>
     <mergeCell ref="B13:I13"/>
     <mergeCell ref="N7:N8"/>
     <mergeCell ref="B15:I15"/>
@@ -1800,6 +2146,14 @@
     <mergeCell ref="H7:H8"/>
     <mergeCell ref="I7:I8"/>
     <mergeCell ref="G7:G8"/>
+    <mergeCell ref="A3:P3"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="O7:O8"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
@@ -1807,7 +2161,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Q18"/>
   <sheetViews>
@@ -1840,24 +2194,24 @@
       <c r="B2" s="7"/>
     </row>
     <row r="3" spans="1:17" ht="20">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="47"/>
-      <c r="N3" s="47"/>
-      <c r="O3" s="47"/>
-      <c r="P3" s="47"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="49"/>
+      <c r="P3" s="49"/>
     </row>
     <row r="4" spans="1:17" ht="20">
       <c r="B4" s="8"/>
@@ -1882,7 +2236,7 @@
       <c r="D7" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="49" t="s">
+      <c r="E7" s="50" t="s">
         <v>54</v>
       </c>
       <c r="F7" s="48" t="s">
@@ -1924,7 +2278,7 @@
       <c r="B8" s="48"/>
       <c r="C8" s="48"/>
       <c r="D8" s="48"/>
-      <c r="E8" s="50"/>
+      <c r="E8" s="51"/>
       <c r="F8" s="48"/>
       <c r="G8" s="48"/>
       <c r="H8" s="48"/>
@@ -2048,16 +2402,16 @@
     </row>
     <row r="12" spans="1:17" ht="13" thickBot="1"/>
     <row r="13" spans="1:17" ht="16" thickBot="1">
-      <c r="B13" s="51" t="s">
+      <c r="B13" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="51"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="51"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="47"/>
       <c r="J13" s="12">
         <v>0.22</v>
       </c>
@@ -2077,16 +2431,16 @@
       <c r="P14" s="16"/>
     </row>
     <row r="15" spans="1:17" ht="16" thickBot="1">
-      <c r="B15" s="51" t="s">
+      <c r="B15" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="51"/>
-      <c r="I15" s="51"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="47"/>
       <c r="J15" s="12">
         <v>0.22</v>
       </c>
@@ -2097,30 +2451,30 @@
       <c r="M15" s="24"/>
     </row>
     <row r="16" spans="1:17" ht="16" thickBot="1">
-      <c r="B16" s="51"/>
-      <c r="C16" s="51"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="51"/>
-      <c r="I16" s="51"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="47"/>
       <c r="J16" s="12"/>
       <c r="K16" s="12"/>
       <c r="L16" s="25"/>
     </row>
     <row r="17" spans="2:13" ht="13" thickBot="1"/>
     <row r="18" spans="2:13" ht="16" thickBot="1">
-      <c r="B18" s="51" t="s">
+      <c r="B18" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="51"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="51"/>
-      <c r="G18" s="51"/>
-      <c r="H18" s="51"/>
-      <c r="I18" s="51"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="47"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="47"/>
       <c r="L18" s="27">
         <f>M10+L10+L13+L15</f>
         <v>3195.75</v>
@@ -2129,6 +2483,14 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="B16:I16"/>
+    <mergeCell ref="B13:I13"/>
+    <mergeCell ref="B15:I15"/>
     <mergeCell ref="A3:P3"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
@@ -2142,14 +2504,6 @@
     <mergeCell ref="H7:H8"/>
     <mergeCell ref="I7:I8"/>
     <mergeCell ref="G7:G8"/>
-    <mergeCell ref="B18:I18"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="B16:I16"/>
-    <mergeCell ref="B13:I13"/>
-    <mergeCell ref="B15:I15"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
@@ -2157,7 +2511,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Q18"/>
   <sheetViews>
@@ -2190,24 +2544,24 @@
       <c r="B2" s="7"/>
     </row>
     <row r="3" spans="1:17" ht="20">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="47"/>
-      <c r="N3" s="47"/>
-      <c r="O3" s="47"/>
-      <c r="P3" s="47"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="49"/>
+      <c r="P3" s="49"/>
     </row>
     <row r="4" spans="1:17" ht="20">
       <c r="B4" s="8"/>
@@ -2232,7 +2586,7 @@
       <c r="D7" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="49" t="s">
+      <c r="E7" s="50" t="s">
         <v>54</v>
       </c>
       <c r="F7" s="48" t="s">
@@ -2274,7 +2628,7 @@
       <c r="B8" s="48"/>
       <c r="C8" s="48"/>
       <c r="D8" s="48"/>
-      <c r="E8" s="50"/>
+      <c r="E8" s="51"/>
       <c r="F8" s="48"/>
       <c r="G8" s="48"/>
       <c r="H8" s="48"/>
@@ -2398,16 +2752,16 @@
     </row>
     <row r="12" spans="1:17" ht="13" thickBot="1"/>
     <row r="13" spans="1:17" ht="16" thickBot="1">
-      <c r="B13" s="51" t="s">
+      <c r="B13" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="51"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="51"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="47"/>
       <c r="J13" s="12">
         <v>0.22</v>
       </c>
@@ -2427,16 +2781,16 @@
       <c r="P14" s="16"/>
     </row>
     <row r="15" spans="1:17" ht="16" thickBot="1">
-      <c r="B15" s="51" t="s">
+      <c r="B15" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="51"/>
-      <c r="I15" s="51"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="47"/>
       <c r="J15" s="12">
         <v>0.22</v>
       </c>
@@ -2447,30 +2801,30 @@
       <c r="M15" s="24"/>
     </row>
     <row r="16" spans="1:17" ht="16" thickBot="1">
-      <c r="B16" s="51"/>
-      <c r="C16" s="51"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="51"/>
-      <c r="I16" s="51"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="47"/>
       <c r="J16" s="12"/>
       <c r="K16" s="12"/>
       <c r="L16" s="25"/>
     </row>
     <row r="17" spans="2:13" ht="13" thickBot="1"/>
     <row r="18" spans="2:13" ht="16" thickBot="1">
-      <c r="B18" s="51" t="s">
+      <c r="B18" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="51"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="51"/>
-      <c r="G18" s="51"/>
-      <c r="H18" s="51"/>
-      <c r="I18" s="51"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="47"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="47"/>
       <c r="L18" s="27">
         <f>M10+L10+L13+L15</f>
         <v>3195.75</v>
@@ -2479,15 +2833,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B18:I18"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="B16:I16"/>
-    <mergeCell ref="B13:I13"/>
-    <mergeCell ref="B15:I15"/>
     <mergeCell ref="O7:O8"/>
     <mergeCell ref="E7:E8"/>
     <mergeCell ref="A3:P3"/>
@@ -2500,6 +2845,15 @@
     <mergeCell ref="N7:N8"/>
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="H7:H8"/>
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="B16:I16"/>
+    <mergeCell ref="B13:I13"/>
+    <mergeCell ref="B15:I15"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
@@ -2507,7 +2861,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Q18"/>
   <sheetViews>
@@ -2540,24 +2894,24 @@
       <c r="B2" s="7"/>
     </row>
     <row r="3" spans="1:17" ht="20">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="47"/>
-      <c r="N3" s="47"/>
-      <c r="O3" s="47"/>
-      <c r="P3" s="47"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="49"/>
+      <c r="P3" s="49"/>
     </row>
     <row r="4" spans="1:17" ht="20">
       <c r="B4" s="8"/>
@@ -2582,7 +2936,7 @@
       <c r="D7" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="49" t="s">
+      <c r="E7" s="50" t="s">
         <v>54</v>
       </c>
       <c r="F7" s="48" t="s">
@@ -2624,7 +2978,7 @@
       <c r="B8" s="48"/>
       <c r="C8" s="48"/>
       <c r="D8" s="48"/>
-      <c r="E8" s="50"/>
+      <c r="E8" s="51"/>
       <c r="F8" s="48"/>
       <c r="G8" s="48"/>
       <c r="H8" s="48"/>
@@ -2748,16 +3102,16 @@
     </row>
     <row r="12" spans="1:17" ht="13" thickBot="1"/>
     <row r="13" spans="1:17" ht="16" thickBot="1">
-      <c r="B13" s="51" t="s">
+      <c r="B13" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="51"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="51"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="47"/>
       <c r="J13" s="12">
         <v>0.22</v>
       </c>
@@ -2777,16 +3131,16 @@
       <c r="P14" s="16"/>
     </row>
     <row r="15" spans="1:17" ht="16" thickBot="1">
-      <c r="B15" s="51" t="s">
+      <c r="B15" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="51"/>
-      <c r="I15" s="51"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="47"/>
       <c r="J15" s="12">
         <v>0.22</v>
       </c>
@@ -2797,30 +3151,30 @@
       <c r="M15" s="24"/>
     </row>
     <row r="16" spans="1:17" ht="16" thickBot="1">
-      <c r="B16" s="51"/>
-      <c r="C16" s="51"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="51"/>
-      <c r="I16" s="51"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="47"/>
       <c r="J16" s="12"/>
       <c r="K16" s="12"/>
       <c r="L16" s="25"/>
     </row>
     <row r="17" spans="2:13" ht="13" thickBot="1"/>
     <row r="18" spans="2:13" ht="16" thickBot="1">
-      <c r="B18" s="51" t="s">
+      <c r="B18" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="51"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="51"/>
-      <c r="G18" s="51"/>
-      <c r="H18" s="51"/>
-      <c r="I18" s="51"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="47"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="47"/>
       <c r="L18" s="27">
         <f>M10+L10+L13+L15</f>
         <v>3018.61</v>
@@ -2829,6 +3183,14 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A3:P3"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="N7:N8"/>
     <mergeCell ref="B18:I18"/>
     <mergeCell ref="J7:J8"/>
     <mergeCell ref="K7:K8"/>
@@ -2842,14 +3204,6 @@
     <mergeCell ref="B15:I15"/>
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="H7:H8"/>
-    <mergeCell ref="A3:P3"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="P7:P8"/>
-    <mergeCell ref="N7:N8"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
@@ -2857,7 +3211,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Q18"/>
   <sheetViews>
@@ -2890,24 +3244,24 @@
       <c r="B2" s="7"/>
     </row>
     <row r="3" spans="1:17" ht="20">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="47"/>
-      <c r="N3" s="47"/>
-      <c r="O3" s="47"/>
-      <c r="P3" s="47"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="49"/>
+      <c r="P3" s="49"/>
     </row>
     <row r="4" spans="1:17" ht="20">
       <c r="B4" s="8"/>
@@ -2932,7 +3286,7 @@
       <c r="D7" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="49" t="s">
+      <c r="E7" s="50" t="s">
         <v>54</v>
       </c>
       <c r="F7" s="48" t="s">
@@ -2974,7 +3328,7 @@
       <c r="B8" s="48"/>
       <c r="C8" s="48"/>
       <c r="D8" s="48"/>
-      <c r="E8" s="50"/>
+      <c r="E8" s="51"/>
       <c r="F8" s="48"/>
       <c r="G8" s="48"/>
       <c r="H8" s="48"/>
@@ -3098,16 +3452,16 @@
     </row>
     <row r="12" spans="1:17" ht="13" thickBot="1"/>
     <row r="13" spans="1:17" ht="16" thickBot="1">
-      <c r="B13" s="51" t="s">
+      <c r="B13" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="51"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="51"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="47"/>
       <c r="J13" s="12">
         <v>0.22</v>
       </c>
@@ -3127,16 +3481,16 @@
       <c r="P14" s="16"/>
     </row>
     <row r="15" spans="1:17" ht="16" thickBot="1">
-      <c r="B15" s="51" t="s">
+      <c r="B15" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="51"/>
-      <c r="I15" s="51"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="47"/>
       <c r="J15" s="12">
         <v>0.22</v>
       </c>
@@ -3147,30 +3501,30 @@
       <c r="M15" s="24"/>
     </row>
     <row r="16" spans="1:17" ht="16" thickBot="1">
-      <c r="B16" s="51"/>
-      <c r="C16" s="51"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="51"/>
-      <c r="I16" s="51"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="47"/>
       <c r="J16" s="12"/>
       <c r="K16" s="12"/>
       <c r="L16" s="25"/>
     </row>
     <row r="17" spans="2:13" ht="13" thickBot="1"/>
     <row r="18" spans="2:13" ht="16" thickBot="1">
-      <c r="B18" s="51" t="s">
+      <c r="B18" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="51"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="51"/>
-      <c r="G18" s="51"/>
-      <c r="H18" s="51"/>
-      <c r="I18" s="51"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="47"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="47"/>
       <c r="L18" s="27">
         <f>M10+L10+L13+L15</f>
         <v>3018.61</v>
@@ -3179,16 +3533,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B18:I18"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="B16:I16"/>
-    <mergeCell ref="B13:I13"/>
-    <mergeCell ref="B15:I15"/>
-    <mergeCell ref="F7:F8"/>
     <mergeCell ref="O7:O8"/>
     <mergeCell ref="H7:H8"/>
     <mergeCell ref="A3:P3"/>
@@ -3200,6 +3544,16 @@
     <mergeCell ref="P7:P8"/>
     <mergeCell ref="N7:N8"/>
     <mergeCell ref="L7:L8"/>
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="B16:I16"/>
+    <mergeCell ref="B13:I13"/>
+    <mergeCell ref="B15:I15"/>
+    <mergeCell ref="F7:F8"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
@@ -3207,7 +3561,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Q18"/>
   <sheetViews>
@@ -3240,24 +3594,24 @@
       <c r="B2" s="7"/>
     </row>
     <row r="3" spans="1:17" ht="20">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="47"/>
-      <c r="N3" s="47"/>
-      <c r="O3" s="47"/>
-      <c r="P3" s="47"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="49"/>
+      <c r="P3" s="49"/>
     </row>
     <row r="4" spans="1:17" ht="20">
       <c r="B4" s="8"/>
@@ -3282,7 +3636,7 @@
       <c r="D7" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="49" t="s">
+      <c r="E7" s="50" t="s">
         <v>54</v>
       </c>
       <c r="F7" s="48" t="s">
@@ -3324,7 +3678,7 @@
       <c r="B8" s="48"/>
       <c r="C8" s="48"/>
       <c r="D8" s="48"/>
-      <c r="E8" s="50"/>
+      <c r="E8" s="51"/>
       <c r="F8" s="48"/>
       <c r="G8" s="48"/>
       <c r="H8" s="48"/>
@@ -3448,16 +3802,16 @@
     </row>
     <row r="12" spans="1:17" ht="13" thickBot="1"/>
     <row r="13" spans="1:17" ht="16" thickBot="1">
-      <c r="B13" s="51" t="s">
+      <c r="B13" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="51"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="51"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="47"/>
       <c r="J13" s="12">
         <v>0.22</v>
       </c>
@@ -3477,16 +3831,16 @@
       <c r="P14" s="16"/>
     </row>
     <row r="15" spans="1:17" ht="16" thickBot="1">
-      <c r="B15" s="51" t="s">
+      <c r="B15" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="51"/>
-      <c r="I15" s="51"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="47"/>
       <c r="J15" s="12">
         <v>0.22</v>
       </c>
@@ -3497,30 +3851,30 @@
       <c r="M15" s="24"/>
     </row>
     <row r="16" spans="1:17" ht="16" thickBot="1">
-      <c r="B16" s="51"/>
-      <c r="C16" s="51"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="51"/>
-      <c r="I16" s="51"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="47"/>
       <c r="J16" s="12"/>
       <c r="K16" s="12"/>
       <c r="L16" s="25"/>
     </row>
     <row r="17" spans="2:13" ht="13" thickBot="1"/>
     <row r="18" spans="2:13" ht="16" thickBot="1">
-      <c r="B18" s="51" t="s">
+      <c r="B18" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="51"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="51"/>
-      <c r="G18" s="51"/>
-      <c r="H18" s="51"/>
-      <c r="I18" s="51"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="47"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="47"/>
       <c r="L18" s="27">
         <f>M10+L10+L13+L15</f>
         <v>3018.61</v>
@@ -3529,6 +3883,14 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="B16:I16"/>
+    <mergeCell ref="B13:I13"/>
+    <mergeCell ref="B15:I15"/>
+    <mergeCell ref="F7:F8"/>
     <mergeCell ref="L7:L8"/>
     <mergeCell ref="A3:P3"/>
     <mergeCell ref="A7:A8"/>
@@ -3542,14 +3904,6 @@
     <mergeCell ref="G7:G8"/>
     <mergeCell ref="O7:O8"/>
     <mergeCell ref="H7:H8"/>
-    <mergeCell ref="B18:I18"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="B16:I16"/>
-    <mergeCell ref="B13:I13"/>
-    <mergeCell ref="B15:I15"/>
-    <mergeCell ref="F7:F8"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
@@ -3557,7 +3911,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Q18"/>
   <sheetViews>
@@ -3590,24 +3944,24 @@
       <c r="B2" s="7"/>
     </row>
     <row r="3" spans="1:17" ht="20">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="47"/>
-      <c r="N3" s="47"/>
-      <c r="O3" s="47"/>
-      <c r="P3" s="47"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="49"/>
+      <c r="P3" s="49"/>
     </row>
     <row r="4" spans="1:17" ht="20">
       <c r="B4" s="8"/>
@@ -3632,7 +3986,7 @@
       <c r="D7" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="49" t="s">
+      <c r="E7" s="50" t="s">
         <v>54</v>
       </c>
       <c r="F7" s="48" t="s">
@@ -3674,7 +4028,7 @@
       <c r="B8" s="48"/>
       <c r="C8" s="48"/>
       <c r="D8" s="48"/>
-      <c r="E8" s="50"/>
+      <c r="E8" s="51"/>
       <c r="F8" s="48"/>
       <c r="G8" s="48"/>
       <c r="H8" s="48"/>
@@ -3798,16 +4152,16 @@
     </row>
     <row r="12" spans="1:17" ht="13" thickBot="1"/>
     <row r="13" spans="1:17" ht="16" thickBot="1">
-      <c r="B13" s="51" t="s">
+      <c r="B13" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="51"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="51"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="47"/>
       <c r="J13" s="12">
         <v>0.22</v>
       </c>
@@ -3827,16 +4181,16 @@
       <c r="P14" s="16"/>
     </row>
     <row r="15" spans="1:17" ht="16" thickBot="1">
-      <c r="B15" s="51" t="s">
+      <c r="B15" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="51"/>
-      <c r="I15" s="51"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="47"/>
       <c r="J15" s="12">
         <v>0.22</v>
       </c>
@@ -3847,30 +4201,30 @@
       <c r="M15" s="24"/>
     </row>
     <row r="16" spans="1:17" ht="16" thickBot="1">
-      <c r="B16" s="51"/>
-      <c r="C16" s="51"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="51"/>
-      <c r="I16" s="51"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="47"/>
       <c r="J16" s="12"/>
       <c r="K16" s="12"/>
       <c r="L16" s="25"/>
     </row>
     <row r="17" spans="2:13" ht="13" thickBot="1"/>
     <row r="18" spans="2:13" ht="16" thickBot="1">
-      <c r="B18" s="51" t="s">
+      <c r="B18" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="51"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="51"/>
-      <c r="G18" s="51"/>
-      <c r="H18" s="51"/>
-      <c r="I18" s="51"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="47"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="47"/>
       <c r="L18" s="27">
         <f>M10+L10+L13+L15</f>
         <v>1979.5500000000002</v>
@@ -3879,6 +4233,14 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="B16:I16"/>
+    <mergeCell ref="B13:I13"/>
+    <mergeCell ref="B15:I15"/>
+    <mergeCell ref="F7:F8"/>
     <mergeCell ref="O7:O8"/>
     <mergeCell ref="H7:H8"/>
     <mergeCell ref="L7:L8"/>
@@ -3892,14 +4254,6 @@
     <mergeCell ref="G7:G8"/>
     <mergeCell ref="N7:N8"/>
     <mergeCell ref="M7:M8"/>
-    <mergeCell ref="B18:I18"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="B16:I16"/>
-    <mergeCell ref="B13:I13"/>
-    <mergeCell ref="B15:I15"/>
-    <mergeCell ref="F7:F8"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
@@ -3907,7 +4261,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Q18"/>
   <sheetViews>
@@ -3940,24 +4294,24 @@
       <c r="B2" s="7"/>
     </row>
     <row r="3" spans="1:17" ht="20">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="49" t="s">
         <v>56</v>
       </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="47"/>
-      <c r="N3" s="47"/>
-      <c r="O3" s="47"/>
-      <c r="P3" s="47"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="49"/>
+      <c r="P3" s="49"/>
     </row>
     <row r="4" spans="1:17" ht="20">
       <c r="B4" s="8"/>
@@ -3982,7 +4336,7 @@
       <c r="D7" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="49" t="s">
+      <c r="E7" s="50" t="s">
         <v>54</v>
       </c>
       <c r="F7" s="48" t="s">
@@ -4024,7 +4378,7 @@
       <c r="B8" s="48"/>
       <c r="C8" s="48"/>
       <c r="D8" s="48"/>
-      <c r="E8" s="50"/>
+      <c r="E8" s="51"/>
       <c r="F8" s="48"/>
       <c r="G8" s="48"/>
       <c r="H8" s="48"/>
@@ -4148,16 +4502,16 @@
     </row>
     <row r="12" spans="1:17" ht="13" thickBot="1"/>
     <row r="13" spans="1:17" ht="16" thickBot="1">
-      <c r="B13" s="51" t="s">
+      <c r="B13" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="51"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="51"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="47"/>
       <c r="J13" s="12">
         <v>0.22</v>
       </c>
@@ -4177,16 +4531,16 @@
       <c r="P14" s="16"/>
     </row>
     <row r="15" spans="1:17" ht="16" thickBot="1">
-      <c r="B15" s="51" t="s">
+      <c r="B15" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="51"/>
-      <c r="I15" s="51"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="47"/>
       <c r="J15" s="12">
         <v>0.22</v>
       </c>
@@ -4197,30 +4551,30 @@
       <c r="M15" s="24"/>
     </row>
     <row r="16" spans="1:17" ht="16" thickBot="1">
-      <c r="B16" s="51"/>
-      <c r="C16" s="51"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="51"/>
-      <c r="I16" s="51"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="47"/>
       <c r="J16" s="12"/>
       <c r="K16" s="12"/>
       <c r="L16" s="25"/>
     </row>
     <row r="17" spans="2:13" ht="13" thickBot="1"/>
     <row r="18" spans="2:13" ht="16" thickBot="1">
-      <c r="B18" s="51" t="s">
+      <c r="B18" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="51"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="51"/>
-      <c r="G18" s="51"/>
-      <c r="H18" s="51"/>
-      <c r="I18" s="51"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="47"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="47"/>
       <c r="L18" s="27">
         <f>M10+L10+L13+L15</f>
         <v>1979.5500000000002</v>
@@ -4229,16 +4583,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B18:I18"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="B16:I16"/>
-    <mergeCell ref="B15:I15"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="B13:I13"/>
-    <mergeCell ref="H7:H8"/>
     <mergeCell ref="N7:N8"/>
     <mergeCell ref="M7:M8"/>
     <mergeCell ref="A3:P3"/>
@@ -4250,6 +4594,16 @@
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="O7:O8"/>
     <mergeCell ref="L7:L8"/>
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="B16:I16"/>
+    <mergeCell ref="B15:I15"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="B13:I13"/>
+    <mergeCell ref="H7:H8"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
@@ -4257,7 +4611,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:P18"/>
   <sheetViews>
@@ -4446,7 +4800,370 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:Q18"/>
+  <sheetViews>
+    <sheetView topLeftCell="F7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5"/>
+  <cols>
+    <col min="1" max="1" width="3.453125" customWidth="1"/>
+    <col min="2" max="2" width="17.90625" customWidth="1"/>
+    <col min="3" max="3" width="13.54296875" customWidth="1"/>
+    <col min="4" max="4" width="10.6328125" customWidth="1"/>
+    <col min="5" max="5" width="6" customWidth="1"/>
+    <col min="6" max="6" width="8.54296875" customWidth="1"/>
+    <col min="7" max="7" width="9.90625" customWidth="1"/>
+    <col min="8" max="8" width="8.08984375" customWidth="1"/>
+    <col min="9" max="9" width="10.453125" customWidth="1"/>
+    <col min="10" max="10" width="10" customWidth="1"/>
+    <col min="11" max="11" width="8.08984375" customWidth="1"/>
+    <col min="12" max="12" width="11.08984375" customWidth="1"/>
+    <col min="13" max="13" width="11.36328125" customWidth="1"/>
+    <col min="14" max="14" width="8.453125" customWidth="1"/>
+    <col min="15" max="15" width="9.36328125" customWidth="1"/>
+    <col min="16" max="16" width="11.6328125" customWidth="1"/>
+    <col min="19" max="19" width="12.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:17" ht="27" customHeight="1">
+      <c r="B2" s="7"/>
+    </row>
+    <row r="3" spans="1:17" ht="20">
+      <c r="A3" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="49"/>
+      <c r="P3" s="49"/>
+    </row>
+    <row r="4" spans="1:17" ht="20">
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+    </row>
+    <row r="5" spans="1:17" ht="15.75" customHeight="1"/>
+    <row r="6" spans="1:17" ht="15.75" customHeight="1">
+      <c r="F6">
+        <v>176</v>
+      </c>
+      <c r="L6">
+        <v>3180</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A7" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="48" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7" s="48" t="s">
+        <v>53</v>
+      </c>
+      <c r="G7" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="48" t="s">
+        <v>76</v>
+      </c>
+      <c r="I7" s="48" t="s">
+        <v>42</v>
+      </c>
+      <c r="J7" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="K7" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="L7" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="M7" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="N7" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="O7" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="P7" s="48" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="48.75" customHeight="1">
+      <c r="A8" s="48"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="48"/>
+      <c r="I8" s="48"/>
+      <c r="J8" s="48"/>
+      <c r="K8" s="48"/>
+      <c r="L8" s="48"/>
+      <c r="M8" s="48"/>
+      <c r="N8" s="48"/>
+      <c r="O8" s="48"/>
+      <c r="P8" s="48"/>
+    </row>
+    <row r="9" spans="1:17" ht="31.5" customHeight="1">
+      <c r="A9" s="3">
+        <v>1</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="6">
+        <v>2522813188</v>
+      </c>
+      <c r="D9" s="5">
+        <v>6060</v>
+      </c>
+      <c r="E9" s="5">
+        <v>1</v>
+      </c>
+      <c r="F9" s="5">
+        <v>176</v>
+      </c>
+      <c r="G9" s="10">
+        <f>D9/F6*F9+I9</f>
+        <v>6060</v>
+      </c>
+      <c r="H9" s="5">
+        <v>80.89</v>
+      </c>
+      <c r="I9" s="5">
+        <v>0</v>
+      </c>
+      <c r="J9" s="46">
+        <f>G9++H9+I9</f>
+        <v>6140.89</v>
+      </c>
+      <c r="K9" s="10">
+        <v>3000</v>
+      </c>
+      <c r="L9" s="5">
+        <f>ROUND((J9)*18/100,2)</f>
+        <v>1105.3599999999999</v>
+      </c>
+      <c r="M9" s="5">
+        <f>J9*0.015</f>
+        <v>92.113349999999997</v>
+      </c>
+      <c r="N9" s="5">
+        <f>SUM(L9:M9)</f>
+        <v>1197.47335</v>
+      </c>
+      <c r="O9" s="5">
+        <f>J9-N9</f>
+        <v>4943.4166500000001</v>
+      </c>
+      <c r="P9" s="5">
+        <f>O9-K9</f>
+        <v>1943.4166500000001</v>
+      </c>
+      <c r="Q9" s="9"/>
+    </row>
+    <row r="10" spans="1:17" ht="27.75" customHeight="1">
+      <c r="A10" s="3"/>
+      <c r="B10" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="14"/>
+      <c r="D10" s="15">
+        <f>SUM(D9:D9)</f>
+        <v>6060</v>
+      </c>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15">
+        <f>SUM(G9:G9)</f>
+        <v>6060</v>
+      </c>
+      <c r="H10" s="15">
+        <f>SUM(H9:H9)</f>
+        <v>80.89</v>
+      </c>
+      <c r="I10" s="15">
+        <f>SUM(I9:I9)</f>
+        <v>0</v>
+      </c>
+      <c r="J10" s="15">
+        <f>SUM(J9:J9)</f>
+        <v>6140.89</v>
+      </c>
+      <c r="K10" s="15">
+        <f t="shared" ref="K10:P10" si="0">SUM(K9:K9)</f>
+        <v>3000</v>
+      </c>
+      <c r="L10" s="15">
+        <f t="shared" si="0"/>
+        <v>1105.3599999999999</v>
+      </c>
+      <c r="M10" s="15">
+        <f t="shared" si="0"/>
+        <v>92.113349999999997</v>
+      </c>
+      <c r="N10" s="15">
+        <f t="shared" si="0"/>
+        <v>1197.47335</v>
+      </c>
+      <c r="O10" s="15">
+        <f t="shared" si="0"/>
+        <v>4943.4166500000001</v>
+      </c>
+      <c r="P10" s="15">
+        <f t="shared" si="0"/>
+        <v>1943.4166500000001</v>
+      </c>
+      <c r="Q10" s="9"/>
+    </row>
+    <row r="11" spans="1:17" ht="15">
+      <c r="L11" s="11"/>
+      <c r="P11" s="15">
+        <f>P10+K10</f>
+        <v>4943.4166500000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="13" thickBot="1"/>
+    <row r="13" spans="1:17" ht="16" thickBot="1">
+      <c r="B13" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="47"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="47"/>
+      <c r="J13" s="12">
+        <v>0.22</v>
+      </c>
+      <c r="K13" s="12"/>
+      <c r="L13" s="26">
+        <f>J9*0.22</f>
+        <v>1350.9958000000001</v>
+      </c>
+      <c r="M13" s="24"/>
+      <c r="N13" s="35">
+        <f>M10+L10+L13</f>
+        <v>2548.4691499999999</v>
+      </c>
+      <c r="P13" s="16"/>
+    </row>
+    <row r="14" spans="1:17" ht="13.5" thickBot="1">
+      <c r="P14" s="16"/>
+    </row>
+    <row r="15" spans="1:17" ht="16" thickBot="1">
+      <c r="B15" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="47"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="12">
+        <v>0.22</v>
+      </c>
+      <c r="K15" s="12"/>
+      <c r="L15" s="26">
+        <v>1320</v>
+      </c>
+      <c r="M15" s="24"/>
+    </row>
+    <row r="16" spans="1:17" ht="16" thickBot="1">
+      <c r="B16" s="47"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="25"/>
+    </row>
+    <row r="17" spans="2:13" ht="13" thickBot="1"/>
+    <row r="18" spans="2:13" ht="16" thickBot="1">
+      <c r="B18" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="47"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="47"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="47"/>
+      <c r="L18" s="27">
+        <f>M10+L10+L13+L15</f>
+        <v>3868.4691499999999</v>
+      </c>
+      <c r="M18" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="21">
+    <mergeCell ref="A3:P3"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="B13:I13"/>
+    <mergeCell ref="B15:I15"/>
+    <mergeCell ref="B16:I16"/>
+  </mergeCells>
+  <pageMargins left="0" right="0" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
+  <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:O18"/>
   <sheetViews>
@@ -4477,22 +5194,22 @@
       <c r="B2" s="7"/>
     </row>
     <row r="3" spans="1:15" ht="20">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="47"/>
-      <c r="N3" s="47"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
     </row>
     <row r="4" spans="1:15" ht="20">
       <c r="B4" s="8"/>
@@ -4662,14 +5379,14 @@
     </row>
     <row r="12" spans="1:15" ht="13" thickBot="1"/>
     <row r="13" spans="1:15" ht="16" thickBot="1">
-      <c r="B13" s="51" t="s">
+      <c r="B13" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="51"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="51"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
       <c r="H13" s="12">
         <v>0.22</v>
       </c>
@@ -4689,14 +5406,14 @@
       <c r="N14" s="16"/>
     </row>
     <row r="15" spans="1:15" ht="16" thickBot="1">
-      <c r="B15" s="51" t="s">
+      <c r="B15" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="51"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="47"/>
       <c r="H15" s="12">
         <v>0.22</v>
       </c>
@@ -4707,26 +5424,26 @@
       <c r="K15" s="24"/>
     </row>
     <row r="16" spans="1:15" ht="16" thickBot="1">
-      <c r="B16" s="51"/>
-      <c r="C16" s="51"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="51"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="47"/>
       <c r="H16" s="12"/>
       <c r="I16" s="12"/>
       <c r="J16" s="25"/>
     </row>
     <row r="17" spans="2:11" ht="13" thickBot="1"/>
     <row r="18" spans="2:11" ht="16" thickBot="1">
-      <c r="B18" s="51" t="s">
+      <c r="B18" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="51"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="51"/>
-      <c r="G18" s="51"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="47"/>
       <c r="J18" s="27">
         <f>K10+J10+J13+J15</f>
         <v>3018.61</v>
@@ -4735,6 +5452,11 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
     <mergeCell ref="N7:N8"/>
     <mergeCell ref="B13:G13"/>
     <mergeCell ref="A3:N3"/>
@@ -4749,11 +5471,6 @@
     <mergeCell ref="H7:H8"/>
     <mergeCell ref="I7:I8"/>
     <mergeCell ref="M7:M8"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="B18:G18"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" scale="95" orientation="landscape" r:id="rId1"/>
@@ -4761,7 +5478,1450 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:O18"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:N3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5"/>
+  <cols>
+    <col min="1" max="1" width="3.453125" customWidth="1"/>
+    <col min="2" max="2" width="19.6328125" customWidth="1"/>
+    <col min="3" max="3" width="13.54296875" customWidth="1"/>
+    <col min="4" max="4" width="10.6328125" customWidth="1"/>
+    <col min="5" max="5" width="5.453125" customWidth="1"/>
+    <col min="6" max="6" width="9.08984375" customWidth="1"/>
+    <col min="7" max="7" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" customWidth="1"/>
+    <col min="9" max="9" width="8.08984375" customWidth="1"/>
+    <col min="10" max="10" width="11.08984375" customWidth="1"/>
+    <col min="11" max="11" width="11.36328125" customWidth="1"/>
+    <col min="12" max="12" width="8.453125" customWidth="1"/>
+    <col min="13" max="13" width="9.36328125" customWidth="1"/>
+    <col min="14" max="14" width="11.6328125" customWidth="1"/>
+    <col min="17" max="17" width="12.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:15" ht="27" customHeight="1">
+      <c r="B2" s="7"/>
+    </row>
+    <row r="3" spans="1:15" ht="20">
+      <c r="A3" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
+    </row>
+    <row r="4" spans="1:15" ht="20">
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+    </row>
+    <row r="5" spans="1:15" ht="15.75" customHeight="1"/>
+    <row r="6" spans="1:15" ht="15.75" customHeight="1"/>
+    <row r="7" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A7" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="48" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" s="48" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="K7" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="L7" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="M7" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="N7" s="48" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="48.75" customHeight="1">
+      <c r="A8" s="48"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="48"/>
+      <c r="I8" s="48"/>
+      <c r="J8" s="48"/>
+      <c r="K8" s="48"/>
+      <c r="L8" s="48"/>
+      <c r="M8" s="48"/>
+      <c r="N8" s="48"/>
+    </row>
+    <row r="9" spans="1:15" ht="31.5" customHeight="1">
+      <c r="A9" s="3">
+        <v>1</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="6">
+        <v>2522813188</v>
+      </c>
+      <c r="D9" s="5">
+        <v>4770</v>
+      </c>
+      <c r="E9" s="5">
+        <v>1</v>
+      </c>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="10">
+        <f>D9+F9+G9</f>
+        <v>4770</v>
+      </c>
+      <c r="I9" s="10">
+        <v>2000</v>
+      </c>
+      <c r="J9" s="5">
+        <f>ROUND((H9)*18/100,2)</f>
+        <v>858.6</v>
+      </c>
+      <c r="K9" s="5">
+        <f>H9*0.015</f>
+        <v>71.55</v>
+      </c>
+      <c r="L9" s="5">
+        <f>SUM(J9:K9)</f>
+        <v>930.15</v>
+      </c>
+      <c r="M9" s="5">
+        <f>H9-L9</f>
+        <v>3839.85</v>
+      </c>
+      <c r="N9" s="5">
+        <f>M9-I9</f>
+        <v>1839.85</v>
+      </c>
+      <c r="O9" s="9"/>
+    </row>
+    <row r="10" spans="1:15" ht="27.75" customHeight="1">
+      <c r="A10" s="3"/>
+      <c r="B10" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="14"/>
+      <c r="D10" s="15">
+        <f>SUM(D9:D9)</f>
+        <v>4770</v>
+      </c>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15">
+        <f t="shared" ref="G10:N10" si="0">SUM(G9:G9)</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="15">
+        <f t="shared" si="0"/>
+        <v>4770</v>
+      </c>
+      <c r="I10" s="15">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+      <c r="J10" s="15">
+        <f t="shared" si="0"/>
+        <v>858.6</v>
+      </c>
+      <c r="K10" s="15">
+        <f t="shared" si="0"/>
+        <v>71.55</v>
+      </c>
+      <c r="L10" s="15">
+        <f t="shared" si="0"/>
+        <v>930.15</v>
+      </c>
+      <c r="M10" s="15">
+        <f t="shared" si="0"/>
+        <v>3839.85</v>
+      </c>
+      <c r="N10" s="15">
+        <f t="shared" si="0"/>
+        <v>1839.85</v>
+      </c>
+      <c r="O10" s="9"/>
+    </row>
+    <row r="11" spans="1:15" ht="15">
+      <c r="J11" s="11"/>
+      <c r="N11" s="15">
+        <f>N10+I10</f>
+        <v>3839.85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="13" thickBot="1"/>
+    <row r="13" spans="1:15" ht="16" thickBot="1">
+      <c r="B13" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="47"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="12">
+        <v>0.22</v>
+      </c>
+      <c r="I13" s="12"/>
+      <c r="J13" s="26">
+        <f>H9*0.22</f>
+        <v>1049.4000000000001</v>
+      </c>
+      <c r="K13" s="24"/>
+      <c r="L13" s="35">
+        <f>K10+J10+J13</f>
+        <v>1979.5500000000002</v>
+      </c>
+      <c r="N13" s="16"/>
+    </row>
+    <row r="14" spans="1:15" ht="13.5" thickBot="1">
+      <c r="N14" s="16"/>
+    </row>
+    <row r="15" spans="1:15" ht="16" thickBot="1">
+      <c r="B15" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="47"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="12">
+        <v>0.22</v>
+      </c>
+      <c r="I15" s="12"/>
+      <c r="J15" s="26">
+        <v>1039.06</v>
+      </c>
+      <c r="K15" s="24"/>
+    </row>
+    <row r="16" spans="1:15" ht="16" thickBot="1">
+      <c r="B16" s="47"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="25"/>
+    </row>
+    <row r="17" spans="2:11" ht="13" thickBot="1"/>
+    <row r="18" spans="2:11" ht="16" thickBot="1">
+      <c r="B18" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="47"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="47"/>
+      <c r="J18" s="27">
+        <f>K10+J10+J13+J15</f>
+        <v>3018.61</v>
+      </c>
+      <c r="K18" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="19">
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="A3:N3"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="M7:M8"/>
+  </mergeCells>
+  <pageMargins left="0" right="0" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
+  <pageSetup paperSize="9" scale="95" orientation="landscape" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Лист4"/>
+  <dimension ref="A2:J33"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="12.5"/>
+  <cols>
+    <col min="1" max="2" width="9.08984375" style="9"/>
+    <col min="3" max="3" width="5.36328125" style="9" customWidth="1"/>
+    <col min="4" max="4" width="21.453125" style="9" customWidth="1"/>
+    <col min="5" max="5" width="10.36328125" style="9" customWidth="1"/>
+    <col min="6" max="6" width="18" style="9" customWidth="1"/>
+    <col min="7" max="16384" width="9.08984375" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:10" ht="17.5">
+      <c r="C2" s="17"/>
+    </row>
+    <row r="3" spans="1:10" ht="20.5">
+      <c r="A3" s="54" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+    </row>
+    <row r="4" spans="1:10" ht="15.5">
+      <c r="C4" s="19"/>
+    </row>
+    <row r="5" spans="1:10" ht="22.5">
+      <c r="A5" s="56" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" s="56"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+    </row>
+    <row r="6" spans="1:10" ht="17.5">
+      <c r="A6" s="57" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="57"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+    </row>
+    <row r="7" spans="1:10" ht="17.5">
+      <c r="A7" s="57" t="s">
+        <v>78</v>
+      </c>
+      <c r="B7" s="57"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+    </row>
+    <row r="8" spans="1:10" ht="8.25" customHeight="1">
+      <c r="C8" s="21"/>
+    </row>
+    <row r="9" spans="1:10" ht="39.75" customHeight="1">
+      <c r="C9" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="52" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="17.5" hidden="1">
+      <c r="C10" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="52"/>
+      <c r="E10" s="52"/>
+      <c r="F10" s="52"/>
+    </row>
+    <row r="11" spans="1:10" ht="31.5" customHeight="1">
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="2">
+        <v>1943.4166500000001</v>
+      </c>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="1:10" ht="30">
+      <c r="C12" s="3"/>
+      <c r="D12" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="2">
+        <f>E11</f>
+        <v>1943.4166500000001</v>
+      </c>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="1:10" ht="17.5">
+      <c r="C13" s="21"/>
+    </row>
+    <row r="14" spans="1:10" ht="36.75" customHeight="1">
+      <c r="A14" s="53"/>
+      <c r="B14" s="53"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="53"/>
+      <c r="H14" s="17"/>
+    </row>
+    <row r="15" spans="1:10" ht="14.25" customHeight="1">
+      <c r="C15" s="19"/>
+    </row>
+    <row r="16" spans="1:10" ht="18">
+      <c r="A16" s="55" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="55"/>
+      <c r="C16" s="55"/>
+      <c r="D16" s="55"/>
+    </row>
+    <row r="17" spans="1:10" ht="18">
+      <c r="A17" s="55"/>
+      <c r="B17" s="55"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="55"/>
+      <c r="G17" s="55"/>
+      <c r="H17" s="55"/>
+    </row>
+    <row r="18" spans="1:10" ht="44.25" customHeight="1"/>
+    <row r="19" spans="1:10" ht="17.5">
+      <c r="C19" s="17"/>
+    </row>
+    <row r="20" spans="1:10" ht="20.5">
+      <c r="A20" s="54" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="54"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+    </row>
+    <row r="21" spans="1:10" ht="15.5">
+      <c r="C21" s="19"/>
+    </row>
+    <row r="22" spans="1:10" ht="22.5">
+      <c r="A22" s="56" t="str">
+        <f>A5</f>
+        <v xml:space="preserve">  СЕРПЕНЬ 2021</v>
+      </c>
+      <c r="B22" s="56"/>
+      <c r="C22" s="56"/>
+      <c r="D22" s="56"/>
+      <c r="E22" s="56"/>
+      <c r="F22" s="56"/>
+      <c r="G22" s="56"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
+    </row>
+    <row r="23" spans="1:10" ht="17.5">
+      <c r="A23" s="57" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" s="57"/>
+      <c r="C23" s="57"/>
+      <c r="D23" s="57"/>
+      <c r="E23" s="57"/>
+      <c r="F23" s="57"/>
+      <c r="G23" s="57"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
+    </row>
+    <row r="24" spans="1:10" ht="17.5">
+      <c r="A24" s="57" t="s">
+        <v>79</v>
+      </c>
+      <c r="B24" s="57"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="57"/>
+      <c r="E24" s="57"/>
+      <c r="F24" s="57"/>
+      <c r="G24" s="57"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="21"/>
+    </row>
+    <row r="25" spans="1:10" ht="8.25" customHeight="1">
+      <c r="C25" s="21"/>
+    </row>
+    <row r="26" spans="1:10" ht="39.75" customHeight="1">
+      <c r="C26" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="D26" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="F26" s="52" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="17.5" hidden="1">
+      <c r="C27" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" s="52"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="52"/>
+    </row>
+    <row r="28" spans="1:10" ht="31.5" customHeight="1">
+      <c r="C28" s="1">
+        <v>1</v>
+      </c>
+      <c r="D28" s="4" t="str">
+        <f>D11</f>
+        <v>Петришак Г.Ю.</v>
+      </c>
+      <c r="E28" s="2">
+        <v>3000</v>
+      </c>
+      <c r="F28" s="3"/>
+    </row>
+    <row r="29" spans="1:10" ht="30">
+      <c r="C29" s="3"/>
+      <c r="D29" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="23">
+        <f>SUM(E28:E28)</f>
+        <v>3000</v>
+      </c>
+      <c r="F29" s="3"/>
+    </row>
+    <row r="30" spans="1:10" ht="17.5">
+      <c r="C30" s="21"/>
+    </row>
+    <row r="31" spans="1:10" ht="36.75" customHeight="1">
+      <c r="A31" s="53"/>
+      <c r="B31" s="53"/>
+      <c r="C31" s="53"/>
+      <c r="D31" s="53"/>
+      <c r="E31" s="53"/>
+      <c r="F31" s="53"/>
+      <c r="G31" s="53"/>
+      <c r="H31" s="17"/>
+    </row>
+    <row r="32" spans="1:10" ht="14.25" customHeight="1">
+      <c r="C32" s="19"/>
+    </row>
+    <row r="33" spans="1:4" ht="18">
+      <c r="A33" s="55" t="s">
+        <v>21</v>
+      </c>
+      <c r="B33" s="55"/>
+      <c r="C33" s="55"/>
+      <c r="D33" s="55"/>
+    </row>
+  </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="A31:G31"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A22:G22"/>
+    <mergeCell ref="A23:G23"/>
+    <mergeCell ref="A24:G24"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="A14:G14"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="D17:H17"/>
+    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="A7:G7"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="D9:D10"/>
+  </mergeCells>
+  <phoneticPr fontId="0" type="noConversion"/>
+  <pageMargins left="0.78740157480314965" right="0" top="0" bottom="0" header="0.51181102362204722" footer="0.51181102362204722"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I21"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="15.5"/>
+  <cols>
+    <col min="1" max="1" width="12" style="29" customWidth="1"/>
+    <col min="2" max="2" width="15.54296875" style="29" customWidth="1"/>
+    <col min="3" max="3" width="15" style="29" customWidth="1"/>
+    <col min="4" max="4" width="12.36328125" style="29" customWidth="1"/>
+    <col min="5" max="5" width="9.08984375" style="29" customWidth="1"/>
+    <col min="6" max="6" width="12" style="29" customWidth="1"/>
+    <col min="7" max="7" width="10.08984375" style="29" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.08984375" style="29"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="21.75" customHeight="1">
+      <c r="A1" s="58" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+    </row>
+    <row r="2" spans="1:9" ht="45" customHeight="1">
+      <c r="A2" s="59"/>
+      <c r="B2" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="34" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="10.5" customHeight="1">
+      <c r="A3" s="59"/>
+      <c r="B3" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="30" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="10.5" customHeight="1">
+      <c r="A4" s="38"/>
+      <c r="B4" s="30">
+        <v>9.99</v>
+      </c>
+      <c r="C4" s="30">
+        <v>-3300</v>
+      </c>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30">
+        <v>1058.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="14.25" customHeight="1">
+      <c r="A5" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="32">
+        <v>1320</v>
+      </c>
+      <c r="C5" s="32">
+        <v>1320</v>
+      </c>
+      <c r="D5" s="32">
+        <v>883.54</v>
+      </c>
+      <c r="E5" s="32">
+        <v>73.63</v>
+      </c>
+      <c r="F5" s="32">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="14.25" customHeight="1">
+      <c r="A6" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="32">
+        <v>1333.2</v>
+      </c>
+      <c r="C6" s="32">
+        <v>1320</v>
+      </c>
+      <c r="D6" s="32">
+        <v>1090.8</v>
+      </c>
+      <c r="E6" s="32">
+        <v>90.9</v>
+      </c>
+      <c r="F6" s="32">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="14.25" customHeight="1">
+      <c r="A7" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="32">
+        <v>1333.2</v>
+      </c>
+      <c r="C7" s="32">
+        <v>1320</v>
+      </c>
+      <c r="D7" s="32">
+        <v>1090.8</v>
+      </c>
+      <c r="E7" s="32">
+        <v>90.9</v>
+      </c>
+      <c r="F7" s="32">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="14.25" customHeight="1">
+      <c r="A8" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="32">
+        <v>1333.2</v>
+      </c>
+      <c r="C8" s="32">
+        <v>1320</v>
+      </c>
+      <c r="D8" s="32">
+        <v>1090.8</v>
+      </c>
+      <c r="E8" s="32">
+        <v>90.9</v>
+      </c>
+      <c r="F8" s="32">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="14.25" customHeight="1">
+      <c r="A9" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="32">
+        <v>1333.2</v>
+      </c>
+      <c r="C9" s="32">
+        <v>1320</v>
+      </c>
+      <c r="D9" s="32">
+        <v>1090.8</v>
+      </c>
+      <c r="E9" s="32">
+        <v>90.9</v>
+      </c>
+      <c r="F9" s="32">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="14.25" customHeight="1">
+      <c r="A10" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="32">
+        <v>1333.2</v>
+      </c>
+      <c r="C10" s="32">
+        <v>1320</v>
+      </c>
+      <c r="D10" s="32">
+        <v>1090.8</v>
+      </c>
+      <c r="E10" s="32">
+        <v>90.9</v>
+      </c>
+      <c r="F10" s="32">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="14.25" customHeight="1">
+      <c r="A11" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="32">
+        <v>1367.9754</v>
+      </c>
+      <c r="C11" s="32">
+        <v>1320</v>
+      </c>
+      <c r="D11" s="32">
+        <v>1119.25</v>
+      </c>
+      <c r="E11" s="32">
+        <v>93.271050000000002</v>
+      </c>
+      <c r="F11" s="32">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="14.25" customHeight="1">
+      <c r="A12" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="32">
+        <v>1350.99</v>
+      </c>
+      <c r="C12" s="32">
+        <v>1320</v>
+      </c>
+      <c r="D12" s="32">
+        <v>1105.3599999999999</v>
+      </c>
+      <c r="E12" s="32">
+        <v>92.113349999999997</v>
+      </c>
+      <c r="F12" s="32">
+        <v>900</v>
+      </c>
+      <c r="G12" s="33"/>
+    </row>
+    <row r="13" spans="1:9" ht="14.25" customHeight="1">
+      <c r="A13" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="32">
+        <v>1350.9958000000001</v>
+      </c>
+      <c r="C13" s="32">
+        <v>1320</v>
+      </c>
+      <c r="D13" s="32">
+        <v>1105.3599999999999</v>
+      </c>
+      <c r="E13" s="32">
+        <v>92.113349999999997</v>
+      </c>
+      <c r="F13" s="32">
+        <v>900</v>
+      </c>
+      <c r="G13" s="33"/>
+      <c r="I13" s="33"/>
+    </row>
+    <row r="14" spans="1:9" ht="14.25" customHeight="1">
+      <c r="A14" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="32"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32">
+        <v>900</v>
+      </c>
+      <c r="G14" s="33"/>
+    </row>
+    <row r="15" spans="1:9" ht="14.25" customHeight="1">
+      <c r="A15" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="32"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="33"/>
+    </row>
+    <row r="16" spans="1:9" ht="14.25" customHeight="1">
+      <c r="A16" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="32"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="33"/>
+    </row>
+    <row r="17" spans="1:7" ht="20.25" customHeight="1">
+      <c r="A17" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="40">
+        <f>SUM(B5:B16)</f>
+        <v>12055.9612</v>
+      </c>
+      <c r="C17" s="40">
+        <f>SUM(C5:C16)</f>
+        <v>11880</v>
+      </c>
+      <c r="D17" s="40">
+        <f>SUM(D5:D16)</f>
+        <v>9667.51</v>
+      </c>
+      <c r="E17" s="40">
+        <f>SUM(E5:E16)</f>
+        <v>805.62774999999988</v>
+      </c>
+      <c r="F17" s="40">
+        <f>SUM(F5:F16)</f>
+        <v>9000</v>
+      </c>
+      <c r="G17" s="33"/>
+    </row>
+    <row r="18" spans="1:7" ht="20.25" customHeight="1">
+      <c r="A18" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="44">
+        <v>9343.99</v>
+      </c>
+      <c r="C18" s="44">
+        <v>9240</v>
+      </c>
+      <c r="D18" s="44">
+        <v>7456.79</v>
+      </c>
+      <c r="E18" s="44">
+        <v>621.4</v>
+      </c>
+      <c r="F18" s="44">
+        <v>6141.2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="17.25" customHeight="1">
+      <c r="A19" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="41">
+        <f>B18-B17+B4</f>
+        <v>-2701.9812000000002</v>
+      </c>
+      <c r="C19" s="41">
+        <f>C18-C17</f>
+        <v>-2640</v>
+      </c>
+      <c r="D19" s="41">
+        <f>D18-D17</f>
+        <v>-2210.7200000000003</v>
+      </c>
+      <c r="E19" s="41">
+        <f>E18-E17</f>
+        <v>-184.2277499999999</v>
+      </c>
+      <c r="F19" s="41">
+        <f>F18-F17+F4</f>
+        <v>-1800.0000000000002</v>
+      </c>
+      <c r="G19" s="33"/>
+    </row>
+    <row r="20" spans="1:7" ht="16" thickBot="1">
+      <c r="F20" s="33"/>
+    </row>
+    <row r="21" spans="1:7" ht="16" thickBot="1">
+      <c r="A21" s="36"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="37"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:A3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="K29" sqref="K29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="15.5"/>
+  <cols>
+    <col min="1" max="1" width="12" style="29" customWidth="1"/>
+    <col min="2" max="2" width="15.54296875" style="29" customWidth="1"/>
+    <col min="3" max="3" width="15" style="29" customWidth="1"/>
+    <col min="4" max="4" width="12.36328125" style="29" customWidth="1"/>
+    <col min="5" max="5" width="9.08984375" style="29" customWidth="1"/>
+    <col min="6" max="6" width="12" style="29" customWidth="1"/>
+    <col min="7" max="7" width="10.08984375" style="29" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.08984375" style="29"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="21.75" customHeight="1">
+      <c r="A1" s="58" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+    </row>
+    <row r="2" spans="1:9" ht="45" customHeight="1">
+      <c r="A2" s="59"/>
+      <c r="B2" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="34" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="10.5" customHeight="1">
+      <c r="A3" s="59"/>
+      <c r="B3" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="30" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="10.5" customHeight="1">
+      <c r="A4" s="38"/>
+      <c r="B4" s="30">
+        <v>-10</v>
+      </c>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+    </row>
+    <row r="5" spans="1:9" ht="14.25" customHeight="1">
+      <c r="A5" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="32">
+        <v>1049.4000000000001</v>
+      </c>
+      <c r="C5" s="32">
+        <v>1039.06</v>
+      </c>
+      <c r="D5" s="32">
+        <v>858.6</v>
+      </c>
+      <c r="E5" s="32">
+        <v>71.55</v>
+      </c>
+      <c r="F5" s="32">
+        <v>708.45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="14.25" customHeight="1">
+      <c r="A6" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="32">
+        <v>1049.4000000000001</v>
+      </c>
+      <c r="C6" s="32">
+        <v>1039.06</v>
+      </c>
+      <c r="D6" s="32">
+        <v>858.6</v>
+      </c>
+      <c r="E6" s="32">
+        <v>71.55</v>
+      </c>
+      <c r="F6" s="32">
+        <v>708.45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="14.25" customHeight="1">
+      <c r="A7" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="32">
+        <v>1049.4000000000001</v>
+      </c>
+      <c r="C7" s="32">
+        <v>0</v>
+      </c>
+      <c r="D7" s="32">
+        <v>858.6</v>
+      </c>
+      <c r="E7" s="32">
+        <v>71.55</v>
+      </c>
+      <c r="F7" s="32">
+        <v>708.45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="14.25" customHeight="1">
+      <c r="A8" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="32">
+        <v>1049.4000000000001</v>
+      </c>
+      <c r="C8" s="32">
+        <v>0</v>
+      </c>
+      <c r="D8" s="32">
+        <v>858.6</v>
+      </c>
+      <c r="E8" s="32">
+        <v>71.55</v>
+      </c>
+      <c r="F8" s="32">
+        <v>708.45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="14.25" customHeight="1">
+      <c r="A9" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="32">
+        <v>1049.4000000000001</v>
+      </c>
+      <c r="C9" s="32">
+        <v>0</v>
+      </c>
+      <c r="D9" s="32">
+        <v>858.6</v>
+      </c>
+      <c r="E9" s="32">
+        <v>71.55</v>
+      </c>
+      <c r="F9" s="32">
+        <v>708.45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="14.25" customHeight="1">
+      <c r="A10" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="32">
+        <v>1049.4000000000001</v>
+      </c>
+      <c r="C10" s="32">
+        <v>1039.06</v>
+      </c>
+      <c r="D10" s="32">
+        <v>858.6</v>
+      </c>
+      <c r="E10" s="32">
+        <v>71.55</v>
+      </c>
+      <c r="F10" s="32">
+        <v>708.45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="14.25" customHeight="1">
+      <c r="A11" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="32">
+        <v>1049.4000000000001</v>
+      </c>
+      <c r="C11" s="32">
+        <v>1039.06</v>
+      </c>
+      <c r="D11" s="32">
+        <v>858.6</v>
+      </c>
+      <c r="E11" s="32">
+        <v>71.55</v>
+      </c>
+      <c r="F11" s="32">
+        <v>708.45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="14.25" customHeight="1">
+      <c r="A12" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="32">
+        <v>1049.4000000000001</v>
+      </c>
+      <c r="C12" s="32">
+        <v>1039.06</v>
+      </c>
+      <c r="D12" s="32">
+        <v>858.6</v>
+      </c>
+      <c r="E12" s="32">
+        <v>71.55</v>
+      </c>
+      <c r="F12" s="32">
+        <v>708.45</v>
+      </c>
+      <c r="G12" s="33"/>
+    </row>
+    <row r="13" spans="1:9" ht="14.25" customHeight="1">
+      <c r="A13" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="32">
+        <v>1111</v>
+      </c>
+      <c r="C13" s="32">
+        <v>1100</v>
+      </c>
+      <c r="D13" s="32">
+        <v>909</v>
+      </c>
+      <c r="E13" s="32">
+        <v>75.75</v>
+      </c>
+      <c r="F13" s="32">
+        <v>708.45</v>
+      </c>
+      <c r="G13" s="33"/>
+      <c r="I13" s="33"/>
+    </row>
+    <row r="14" spans="1:9" ht="14.25" customHeight="1">
+      <c r="A14" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="32">
+        <v>1111</v>
+      </c>
+      <c r="C14" s="32">
+        <v>1100</v>
+      </c>
+      <c r="D14" s="32">
+        <v>909</v>
+      </c>
+      <c r="E14" s="32">
+        <v>75.75</v>
+      </c>
+      <c r="F14" s="32">
+        <v>708.45</v>
+      </c>
+      <c r="G14" s="33"/>
+    </row>
+    <row r="15" spans="1:9" ht="14.25" customHeight="1">
+      <c r="A15" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="32">
+        <v>1111</v>
+      </c>
+      <c r="C15" s="32">
+        <v>1100</v>
+      </c>
+      <c r="D15" s="32">
+        <v>909</v>
+      </c>
+      <c r="E15" s="32">
+        <v>75.75</v>
+      </c>
+      <c r="F15" s="32">
+        <v>708.45</v>
+      </c>
+      <c r="G15" s="33"/>
+    </row>
+    <row r="16" spans="1:9" ht="14.25" customHeight="1">
+      <c r="A16" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="32">
+        <v>1111</v>
+      </c>
+      <c r="C16" s="32">
+        <v>1100</v>
+      </c>
+      <c r="D16" s="32">
+        <v>909</v>
+      </c>
+      <c r="E16" s="32">
+        <v>75.75</v>
+      </c>
+      <c r="F16" s="32">
+        <v>708.45</v>
+      </c>
+      <c r="G16" s="33"/>
+    </row>
+    <row r="17" spans="1:7" ht="20.25" customHeight="1">
+      <c r="A17" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="40">
+        <f>SUM(B5:B16)</f>
+        <v>12839.199999999999</v>
+      </c>
+      <c r="C17" s="40">
+        <f>SUM(C5:C16)</f>
+        <v>9595.2999999999993</v>
+      </c>
+      <c r="D17" s="40">
+        <f>SUM(D5:D16)</f>
+        <v>10504.800000000001</v>
+      </c>
+      <c r="E17" s="40">
+        <f>SUM(E5:E16)</f>
+        <v>875.4</v>
+      </c>
+      <c r="F17" s="40">
+        <f>SUM(F5:F16)</f>
+        <v>8501.4</v>
+      </c>
+      <c r="G17" s="33"/>
+    </row>
+    <row r="18" spans="1:7" ht="20.25" customHeight="1">
+      <c r="A18" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="44">
+        <v>11738.2</v>
+      </c>
+      <c r="C18" s="44">
+        <v>8495.2999999999993</v>
+      </c>
+      <c r="D18" s="44">
+        <v>9595.7999999999993</v>
+      </c>
+      <c r="E18" s="44">
+        <v>799.65</v>
+      </c>
+      <c r="F18" s="44">
+        <v>8501.4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="17.25" customHeight="1">
+      <c r="A19" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="41">
+        <f>B18-B17</f>
+        <v>-1100.9999999999982</v>
+      </c>
+      <c r="C19" s="41">
+        <f>C18-C17</f>
+        <v>-1100</v>
+      </c>
+      <c r="D19" s="41">
+        <f>D18-D17</f>
+        <v>-909.00000000000182</v>
+      </c>
+      <c r="E19" s="41">
+        <f>E18-E17</f>
+        <v>-75.75</v>
+      </c>
+      <c r="F19" s="41">
+        <f>F18-F17</f>
+        <v>0</v>
+      </c>
+      <c r="G19" s="33"/>
+    </row>
+    <row r="20" spans="1:7" ht="16" thickBot="1"/>
+    <row r="21" spans="1:7" ht="16" thickBot="1">
+      <c r="A21" s="36"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="37"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:A3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:R18"/>
   <sheetViews>
@@ -4795,25 +6955,25 @@
       <c r="B2" s="7"/>
     </row>
     <row r="3" spans="1:18" ht="20">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="47"/>
-      <c r="N3" s="47"/>
-      <c r="O3" s="47"/>
-      <c r="P3" s="47"/>
-      <c r="Q3" s="47"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="49"/>
+      <c r="P3" s="49"/>
+      <c r="Q3" s="49"/>
     </row>
     <row r="4" spans="1:18" ht="20">
       <c r="B4" s="8"/>
@@ -4841,7 +7001,7 @@
       <c r="D7" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="49" t="s">
+      <c r="E7" s="50" t="s">
         <v>54</v>
       </c>
       <c r="F7" s="48" t="s">
@@ -4886,7 +7046,7 @@
       <c r="B8" s="48"/>
       <c r="C8" s="48"/>
       <c r="D8" s="48"/>
-      <c r="E8" s="50"/>
+      <c r="E8" s="51"/>
       <c r="F8" s="48"/>
       <c r="G8" s="48"/>
       <c r="H8" s="48"/>
@@ -5028,17 +7188,17 @@
     </row>
     <row r="12" spans="1:18" ht="13" thickBot="1"/>
     <row r="13" spans="1:18" ht="16" thickBot="1">
-      <c r="B13" s="51" t="s">
+      <c r="B13" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="51"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="51"/>
-      <c r="J13" s="51"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="47"/>
+      <c r="J13" s="47"/>
       <c r="K13" s="12">
         <v>0.22</v>
       </c>
@@ -5058,17 +7218,17 @@
       <c r="Q14" s="16"/>
     </row>
     <row r="15" spans="1:18" ht="16" thickBot="1">
-      <c r="B15" s="51" t="s">
+      <c r="B15" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="51"/>
-      <c r="I15" s="51"/>
-      <c r="J15" s="51"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="47"/>
       <c r="K15" s="12">
         <v>0.22</v>
       </c>
@@ -5079,32 +7239,32 @@
       <c r="N15" s="24"/>
     </row>
     <row r="16" spans="1:18" ht="16" thickBot="1">
-      <c r="B16" s="51"/>
-      <c r="C16" s="51"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="51"/>
-      <c r="I16" s="51"/>
-      <c r="J16" s="51"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="47"/>
       <c r="K16" s="12"/>
       <c r="L16" s="12"/>
       <c r="M16" s="25"/>
     </row>
     <row r="17" spans="2:14" ht="13" thickBot="1"/>
     <row r="18" spans="2:14" ht="16" thickBot="1">
-      <c r="B18" s="51" t="s">
+      <c r="B18" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="51"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="51"/>
-      <c r="G18" s="51"/>
-      <c r="H18" s="51"/>
-      <c r="I18" s="51"/>
-      <c r="J18" s="51"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="47"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="47"/>
+      <c r="J18" s="47"/>
       <c r="M18" s="27">
         <f>N10+M10+M13+M15</f>
         <v>3900.4964500000001</v>
@@ -5113,13 +7273,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="B13:J13"/>
-    <mergeCell ref="B15:J15"/>
-    <mergeCell ref="B16:J16"/>
-    <mergeCell ref="B18:J18"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J7:J8"/>
     <mergeCell ref="O7:O8"/>
     <mergeCell ref="P7:P8"/>
     <mergeCell ref="A3:Q3"/>
@@ -5135,1793 +7288,13 @@
     <mergeCell ref="L7:L8"/>
     <mergeCell ref="M7:M8"/>
     <mergeCell ref="N7:N8"/>
-  </mergeCells>
-  <pageMargins left="0" right="0" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:O18"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:N3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5"/>
-  <cols>
-    <col min="1" max="1" width="3.453125" customWidth="1"/>
-    <col min="2" max="2" width="19.6328125" customWidth="1"/>
-    <col min="3" max="3" width="13.54296875" customWidth="1"/>
-    <col min="4" max="4" width="10.6328125" customWidth="1"/>
-    <col min="5" max="5" width="5.453125" customWidth="1"/>
-    <col min="6" max="6" width="9.08984375" customWidth="1"/>
-    <col min="7" max="7" width="9.90625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10" customWidth="1"/>
-    <col min="9" max="9" width="8.08984375" customWidth="1"/>
-    <col min="10" max="10" width="11.08984375" customWidth="1"/>
-    <col min="11" max="11" width="11.36328125" customWidth="1"/>
-    <col min="12" max="12" width="8.453125" customWidth="1"/>
-    <col min="13" max="13" width="9.36328125" customWidth="1"/>
-    <col min="14" max="14" width="11.6328125" customWidth="1"/>
-    <col min="17" max="17" width="12.453125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:15" ht="27" customHeight="1">
-      <c r="B2" s="7"/>
-    </row>
-    <row r="3" spans="1:15" ht="20">
-      <c r="A3" s="47" t="s">
-        <v>47</v>
-      </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="47"/>
-      <c r="N3" s="47"/>
-    </row>
-    <row r="4" spans="1:15" ht="20">
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-    </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1"/>
-    <row r="6" spans="1:15" ht="15.75" customHeight="1"/>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A7" s="48" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="48" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="48" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="48" t="s">
-        <v>46</v>
-      </c>
-      <c r="G7" s="48" t="s">
-        <v>42</v>
-      </c>
-      <c r="H7" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="I7" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="J7" s="48" t="s">
-        <v>14</v>
-      </c>
-      <c r="K7" s="48" t="s">
-        <v>24</v>
-      </c>
-      <c r="L7" s="48" t="s">
-        <v>12</v>
-      </c>
-      <c r="M7" s="48" t="s">
-        <v>13</v>
-      </c>
-      <c r="N7" s="48" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="48.75" customHeight="1">
-      <c r="A8" s="48"/>
-      <c r="B8" s="48"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="48"/>
-      <c r="J8" s="48"/>
-      <c r="K8" s="48"/>
-      <c r="L8" s="48"/>
-      <c r="M8" s="48"/>
-      <c r="N8" s="48"/>
-    </row>
-    <row r="9" spans="1:15" ht="31.5" customHeight="1">
-      <c r="A9" s="3">
-        <v>1</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="6">
-        <v>2522813188</v>
-      </c>
-      <c r="D9" s="5">
-        <v>4770</v>
-      </c>
-      <c r="E9" s="5">
-        <v>1</v>
-      </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="10">
-        <f>D9+F9+G9</f>
-        <v>4770</v>
-      </c>
-      <c r="I9" s="10">
-        <v>2000</v>
-      </c>
-      <c r="J9" s="5">
-        <f>ROUND((H9)*18/100,2)</f>
-        <v>858.6</v>
-      </c>
-      <c r="K9" s="5">
-        <f>H9*0.015</f>
-        <v>71.55</v>
-      </c>
-      <c r="L9" s="5">
-        <f>SUM(J9:K9)</f>
-        <v>930.15</v>
-      </c>
-      <c r="M9" s="5">
-        <f>H9-L9</f>
-        <v>3839.85</v>
-      </c>
-      <c r="N9" s="5">
-        <f>M9-I9</f>
-        <v>1839.85</v>
-      </c>
-      <c r="O9" s="9"/>
-    </row>
-    <row r="10" spans="1:15" ht="27.75" customHeight="1">
-      <c r="A10" s="3"/>
-      <c r="B10" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="15">
-        <f>SUM(D9:D9)</f>
-        <v>4770</v>
-      </c>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15">
-        <f t="shared" ref="G10:N10" si="0">SUM(G9:G9)</f>
-        <v>0</v>
-      </c>
-      <c r="H10" s="15">
-        <f t="shared" si="0"/>
-        <v>4770</v>
-      </c>
-      <c r="I10" s="15">
-        <f t="shared" si="0"/>
-        <v>2000</v>
-      </c>
-      <c r="J10" s="15">
-        <f t="shared" si="0"/>
-        <v>858.6</v>
-      </c>
-      <c r="K10" s="15">
-        <f t="shared" si="0"/>
-        <v>71.55</v>
-      </c>
-      <c r="L10" s="15">
-        <f t="shared" si="0"/>
-        <v>930.15</v>
-      </c>
-      <c r="M10" s="15">
-        <f t="shared" si="0"/>
-        <v>3839.85</v>
-      </c>
-      <c r="N10" s="15">
-        <f t="shared" si="0"/>
-        <v>1839.85</v>
-      </c>
-      <c r="O10" s="9"/>
-    </row>
-    <row r="11" spans="1:15" ht="15">
-      <c r="J11" s="11"/>
-      <c r="N11" s="15">
-        <f>N10+I10</f>
-        <v>3839.85</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="13" thickBot="1"/>
-    <row r="13" spans="1:15" ht="16" thickBot="1">
-      <c r="B13" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="51"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="12">
-        <v>0.22</v>
-      </c>
-      <c r="I13" s="12"/>
-      <c r="J13" s="26">
-        <f>H9*0.22</f>
-        <v>1049.4000000000001</v>
-      </c>
-      <c r="K13" s="24"/>
-      <c r="L13" s="35">
-        <f>K10+J10+J13</f>
-        <v>1979.5500000000002</v>
-      </c>
-      <c r="N13" s="16"/>
-    </row>
-    <row r="14" spans="1:15" ht="13.5" thickBot="1">
-      <c r="N14" s="16"/>
-    </row>
-    <row r="15" spans="1:15" ht="16" thickBot="1">
-      <c r="B15" s="51" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="12">
-        <v>0.22</v>
-      </c>
-      <c r="I15" s="12"/>
-      <c r="J15" s="26">
-        <v>1039.06</v>
-      </c>
-      <c r="K15" s="24"/>
-    </row>
-    <row r="16" spans="1:15" ht="16" thickBot="1">
-      <c r="B16" s="51"/>
-      <c r="C16" s="51"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="25"/>
-    </row>
-    <row r="17" spans="2:11" ht="13" thickBot="1"/>
-    <row r="18" spans="2:11" ht="16" thickBot="1">
-      <c r="B18" s="51" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="51"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="51"/>
-      <c r="G18" s="51"/>
-      <c r="J18" s="27">
-        <f>K10+J10+J13+J15</f>
-        <v>3018.61</v>
-      </c>
-      <c r="K18" s="28"/>
-    </row>
-  </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="B13:G13"/>
-    <mergeCell ref="A3:N3"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="B13:J13"/>
+    <mergeCell ref="B15:J15"/>
+    <mergeCell ref="B16:J16"/>
+    <mergeCell ref="B18:J18"/>
     <mergeCell ref="H7:H8"/>
     <mergeCell ref="I7:I8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="B18:G18"/>
     <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
-  </mergeCells>
-  <pageMargins left="0" right="0" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="95" orientation="landscape" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Лист4"/>
-  <dimension ref="A2:J33"/>
-  <sheetViews>
-    <sheetView topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="12.5"/>
-  <cols>
-    <col min="1" max="2" width="9.08984375" style="9"/>
-    <col min="3" max="3" width="5.36328125" style="9" customWidth="1"/>
-    <col min="4" max="4" width="21.453125" style="9" customWidth="1"/>
-    <col min="5" max="5" width="10.36328125" style="9" customWidth="1"/>
-    <col min="6" max="6" width="18" style="9" customWidth="1"/>
-    <col min="7" max="16384" width="9.08984375" style="9"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:10" ht="17.5">
-      <c r="C2" s="17"/>
-    </row>
-    <row r="3" spans="1:10" ht="20.5">
-      <c r="A3" s="54" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-    </row>
-    <row r="4" spans="1:10" ht="15.5">
-      <c r="C4" s="19"/>
-    </row>
-    <row r="5" spans="1:10" ht="22.5">
-      <c r="A5" s="55" t="s">
-        <v>77</v>
-      </c>
-      <c r="B5" s="55"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-    </row>
-    <row r="6" spans="1:10" ht="17.5">
-      <c r="A6" s="56" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="56"/>
-      <c r="C6" s="56"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="56"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-    </row>
-    <row r="7" spans="1:10" ht="17.5">
-      <c r="A7" s="56" t="s">
-        <v>78</v>
-      </c>
-      <c r="B7" s="56"/>
-      <c r="C7" s="56"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-    </row>
-    <row r="8" spans="1:10" ht="8.25" customHeight="1">
-      <c r="C8" s="21"/>
-    </row>
-    <row r="9" spans="1:10" ht="39.75" customHeight="1">
-      <c r="C9" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="D9" s="57" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="57" t="s">
-        <v>6</v>
-      </c>
-      <c r="F9" s="57" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="17.5" hidden="1">
-      <c r="C10" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="57"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="57"/>
-    </row>
-    <row r="11" spans="1:10" ht="31.5" customHeight="1">
-      <c r="C11" s="1">
-        <v>1</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="2">
-        <v>1943.4166500000001</v>
-      </c>
-      <c r="F11" s="3"/>
-    </row>
-    <row r="12" spans="1:10" ht="30">
-      <c r="C12" s="3"/>
-      <c r="D12" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="2">
-        <f>E11</f>
-        <v>1943.4166500000001</v>
-      </c>
-      <c r="F12" s="3"/>
-    </row>
-    <row r="13" spans="1:10" ht="17.5">
-      <c r="C13" s="21"/>
-    </row>
-    <row r="14" spans="1:10" ht="36.75" customHeight="1">
-      <c r="A14" s="52"/>
-      <c r="B14" s="52"/>
-      <c r="C14" s="52"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="52"/>
-      <c r="H14" s="17"/>
-    </row>
-    <row r="15" spans="1:10" ht="14.25" customHeight="1">
-      <c r="C15" s="19"/>
-    </row>
-    <row r="16" spans="1:10" ht="18">
-      <c r="A16" s="53" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="53"/>
-      <c r="C16" s="53"/>
-      <c r="D16" s="53"/>
-    </row>
-    <row r="17" spans="1:10" ht="18">
-      <c r="A17" s="53"/>
-      <c r="B17" s="53"/>
-      <c r="D17" s="53"/>
-      <c r="E17" s="53"/>
-      <c r="F17" s="53"/>
-      <c r="G17" s="53"/>
-      <c r="H17" s="53"/>
-    </row>
-    <row r="18" spans="1:10" ht="44.25" customHeight="1"/>
-    <row r="19" spans="1:10" ht="17.5">
-      <c r="C19" s="17"/>
-    </row>
-    <row r="20" spans="1:10" ht="20.5">
-      <c r="A20" s="54" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="54"/>
-      <c r="C20" s="54"/>
-      <c r="D20" s="54"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
-    </row>
-    <row r="21" spans="1:10" ht="15.5">
-      <c r="C21" s="19"/>
-    </row>
-    <row r="22" spans="1:10" ht="22.5">
-      <c r="A22" s="55" t="str">
-        <f>A5</f>
-        <v xml:space="preserve">  СЕРПЕНЬ 2021</v>
-      </c>
-      <c r="B22" s="55"/>
-      <c r="C22" s="55"/>
-      <c r="D22" s="55"/>
-      <c r="E22" s="55"/>
-      <c r="F22" s="55"/>
-      <c r="G22" s="55"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="20"/>
-    </row>
-    <row r="23" spans="1:10" ht="17.5">
-      <c r="A23" s="56" t="s">
-        <v>52</v>
-      </c>
-      <c r="B23" s="56"/>
-      <c r="C23" s="56"/>
-      <c r="D23" s="56"/>
-      <c r="E23" s="56"/>
-      <c r="F23" s="56"/>
-      <c r="G23" s="56"/>
-      <c r="H23" s="21"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="21"/>
-    </row>
-    <row r="24" spans="1:10" ht="17.5">
-      <c r="A24" s="56" t="s">
-        <v>79</v>
-      </c>
-      <c r="B24" s="56"/>
-      <c r="C24" s="56"/>
-      <c r="D24" s="56"/>
-      <c r="E24" s="56"/>
-      <c r="F24" s="56"/>
-      <c r="G24" s="56"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="21"/>
-      <c r="J24" s="21"/>
-    </row>
-    <row r="25" spans="1:10" ht="8.25" customHeight="1">
-      <c r="C25" s="21"/>
-    </row>
-    <row r="26" spans="1:10" ht="39.75" customHeight="1">
-      <c r="C26" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="D26" s="57" t="s">
-        <v>18</v>
-      </c>
-      <c r="E26" s="57" t="s">
-        <v>6</v>
-      </c>
-      <c r="F26" s="57" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="17.5" hidden="1">
-      <c r="C27" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="D27" s="57"/>
-      <c r="E27" s="57"/>
-      <c r="F27" s="57"/>
-    </row>
-    <row r="28" spans="1:10" ht="31.5" customHeight="1">
-      <c r="C28" s="1">
-        <v>1</v>
-      </c>
-      <c r="D28" s="4" t="str">
-        <f>D11</f>
-        <v>Петришак Г.Ю.</v>
-      </c>
-      <c r="E28" s="2">
-        <v>3000</v>
-      </c>
-      <c r="F28" s="3"/>
-    </row>
-    <row r="29" spans="1:10" ht="30">
-      <c r="C29" s="3"/>
-      <c r="D29" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="23">
-        <f>SUM(E28:E28)</f>
-        <v>3000</v>
-      </c>
-      <c r="F29" s="3"/>
-    </row>
-    <row r="30" spans="1:10" ht="17.5">
-      <c r="C30" s="21"/>
-    </row>
-    <row r="31" spans="1:10" ht="36.75" customHeight="1">
-      <c r="A31" s="52"/>
-      <c r="B31" s="52"/>
-      <c r="C31" s="52"/>
-      <c r="D31" s="52"/>
-      <c r="E31" s="52"/>
-      <c r="F31" s="52"/>
-      <c r="G31" s="52"/>
-      <c r="H31" s="17"/>
-    </row>
-    <row r="32" spans="1:10" ht="14.25" customHeight="1">
-      <c r="C32" s="19"/>
-    </row>
-    <row r="33" spans="1:4" ht="18">
-      <c r="A33" s="53" t="s">
-        <v>21</v>
-      </c>
-      <c r="B33" s="53"/>
-      <c r="C33" s="53"/>
-      <c r="D33" s="53"/>
-    </row>
-  </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="A14:G14"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="D17:H17"/>
-    <mergeCell ref="A5:G5"/>
-    <mergeCell ref="A6:G6"/>
-    <mergeCell ref="A7:G7"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="A31:G31"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A22:G22"/>
-    <mergeCell ref="A23:G23"/>
-    <mergeCell ref="A24:G24"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-  </mergeCells>
-  <phoneticPr fontId="0" type="noConversion"/>
-  <pageMargins left="0.78740157480314965" right="0" top="0" bottom="0" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I21"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F4" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="15.5"/>
-  <cols>
-    <col min="1" max="1" width="12" style="29" customWidth="1"/>
-    <col min="2" max="2" width="15.54296875" style="29" customWidth="1"/>
-    <col min="3" max="3" width="15" style="29" customWidth="1"/>
-    <col min="4" max="4" width="12.36328125" style="29" customWidth="1"/>
-    <col min="5" max="5" width="9.08984375" style="29" customWidth="1"/>
-    <col min="6" max="6" width="12" style="29" customWidth="1"/>
-    <col min="7" max="7" width="10.08984375" style="29" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.08984375" style="29"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="21.75" customHeight="1">
-      <c r="A1" s="58" t="s">
-        <v>64</v>
-      </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-    </row>
-    <row r="2" spans="1:9" ht="45" customHeight="1">
-      <c r="A2" s="59"/>
-      <c r="B2" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="D2" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" s="34" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="10.5" customHeight="1">
-      <c r="A3" s="59"/>
-      <c r="B3" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" s="30" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="10.5" customHeight="1">
-      <c r="A4" s="38"/>
-      <c r="B4" s="30">
-        <v>9.99</v>
-      </c>
-      <c r="C4" s="30">
-        <v>-3300</v>
-      </c>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30">
-        <v>1058.8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A5" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="32">
-        <v>1320</v>
-      </c>
-      <c r="C5" s="32">
-        <v>1320</v>
-      </c>
-      <c r="D5" s="32">
-        <v>883.54</v>
-      </c>
-      <c r="E5" s="32">
-        <v>73.63</v>
-      </c>
-      <c r="F5" s="32">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A6" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="32">
-        <v>1333.2</v>
-      </c>
-      <c r="C6" s="32">
-        <v>1320</v>
-      </c>
-      <c r="D6" s="32">
-        <v>1090.8</v>
-      </c>
-      <c r="E6" s="32">
-        <v>90.9</v>
-      </c>
-      <c r="F6" s="32">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A7" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="32">
-        <v>1333.2</v>
-      </c>
-      <c r="C7" s="32">
-        <v>1320</v>
-      </c>
-      <c r="D7" s="32">
-        <v>1090.8</v>
-      </c>
-      <c r="E7" s="32">
-        <v>90.9</v>
-      </c>
-      <c r="F7" s="32">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A8" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="32">
-        <v>1333.2</v>
-      </c>
-      <c r="C8" s="32">
-        <v>1320</v>
-      </c>
-      <c r="D8" s="32">
-        <v>1090.8</v>
-      </c>
-      <c r="E8" s="32">
-        <v>90.9</v>
-      </c>
-      <c r="F8" s="32">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A9" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" s="32">
-        <v>1333.2</v>
-      </c>
-      <c r="C9" s="32">
-        <v>1320</v>
-      </c>
-      <c r="D9" s="32">
-        <v>1090.8</v>
-      </c>
-      <c r="E9" s="32">
-        <v>90.9</v>
-      </c>
-      <c r="F9" s="32">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A10" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="32">
-        <v>1333.2</v>
-      </c>
-      <c r="C10" s="32">
-        <v>1320</v>
-      </c>
-      <c r="D10" s="32">
-        <v>1090.8</v>
-      </c>
-      <c r="E10" s="32">
-        <v>90.9</v>
-      </c>
-      <c r="F10" s="32">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A11" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="32">
-        <v>1367.9754</v>
-      </c>
-      <c r="C11" s="32">
-        <v>1320</v>
-      </c>
-      <c r="D11" s="32">
-        <v>1119.25</v>
-      </c>
-      <c r="E11" s="32">
-        <v>93.271050000000002</v>
-      </c>
-      <c r="F11" s="32">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A12" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" s="32">
-        <v>1350.99</v>
-      </c>
-      <c r="C12" s="32">
-        <v>1320</v>
-      </c>
-      <c r="D12" s="32">
-        <v>1105.3599999999999</v>
-      </c>
-      <c r="E12" s="32">
-        <v>92.113349999999997</v>
-      </c>
-      <c r="F12" s="32">
-        <v>900</v>
-      </c>
-      <c r="G12" s="33"/>
-    </row>
-    <row r="13" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A13" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" s="32"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32">
-        <v>900</v>
-      </c>
-      <c r="G13" s="33"/>
-      <c r="I13" s="33"/>
-    </row>
-    <row r="14" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A14" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14" s="32"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="33"/>
-    </row>
-    <row r="15" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A15" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="B15" s="32"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="33"/>
-    </row>
-    <row r="16" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A16" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="B16" s="32"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="33"/>
-    </row>
-    <row r="17" spans="1:7" ht="20.25" customHeight="1">
-      <c r="A17" s="39" t="s">
-        <v>39</v>
-      </c>
-      <c r="B17" s="40">
-        <f>SUM(B5:B16)</f>
-        <v>10704.965399999999</v>
-      </c>
-      <c r="C17" s="40">
-        <f>SUM(C5:C16)</f>
-        <v>10560</v>
-      </c>
-      <c r="D17" s="40">
-        <f>SUM(D5:D16)</f>
-        <v>8562.15</v>
-      </c>
-      <c r="E17" s="40">
-        <f>SUM(E5:E16)</f>
-        <v>713.51439999999991</v>
-      </c>
-      <c r="F17" s="40">
-        <f>SUM(F5:F16)</f>
-        <v>8100</v>
-      </c>
-      <c r="G17" s="33"/>
-    </row>
-    <row r="18" spans="1:7" ht="20.25" customHeight="1">
-      <c r="A18" s="42" t="s">
-        <v>40</v>
-      </c>
-      <c r="B18" s="44">
-        <v>9343.99</v>
-      </c>
-      <c r="C18" s="44">
-        <v>9240</v>
-      </c>
-      <c r="D18" s="44">
-        <v>7456.79</v>
-      </c>
-      <c r="E18" s="44">
-        <v>621.4</v>
-      </c>
-      <c r="F18" s="44">
-        <v>6141.2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="17.25" customHeight="1">
-      <c r="A19" s="43" t="s">
-        <v>41</v>
-      </c>
-      <c r="B19" s="41">
-        <f>B18-B17+B4</f>
-        <v>-1350.9853999999993</v>
-      </c>
-      <c r="C19" s="41">
-        <f>C18-C17</f>
-        <v>-1320</v>
-      </c>
-      <c r="D19" s="41">
-        <f>D18-D17</f>
-        <v>-1105.3599999999997</v>
-      </c>
-      <c r="E19" s="41">
-        <f>E18-E17</f>
-        <v>-92.114399999999932</v>
-      </c>
-      <c r="F19" s="41">
-        <f>F18-F17+F4</f>
-        <v>-900.00000000000023</v>
-      </c>
-      <c r="G19" s="33"/>
-    </row>
-    <row r="20" spans="1:7" ht="16" thickBot="1">
-      <c r="F20" s="33"/>
-    </row>
-    <row r="21" spans="1:7" ht="16" thickBot="1">
-      <c r="A21" s="36"/>
-      <c r="B21" s="37"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="37"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:A3"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K29" sqref="K29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="15.5"/>
-  <cols>
-    <col min="1" max="1" width="12" style="29" customWidth="1"/>
-    <col min="2" max="2" width="15.54296875" style="29" customWidth="1"/>
-    <col min="3" max="3" width="15" style="29" customWidth="1"/>
-    <col min="4" max="4" width="12.36328125" style="29" customWidth="1"/>
-    <col min="5" max="5" width="9.08984375" style="29" customWidth="1"/>
-    <col min="6" max="6" width="12" style="29" customWidth="1"/>
-    <col min="7" max="7" width="10.08984375" style="29" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.08984375" style="29"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="21.75" customHeight="1">
-      <c r="A1" s="58" t="s">
-        <v>48</v>
-      </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-    </row>
-    <row r="2" spans="1:9" ht="45" customHeight="1">
-      <c r="A2" s="59"/>
-      <c r="B2" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="D2" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" s="34" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="10.5" customHeight="1">
-      <c r="A3" s="59"/>
-      <c r="B3" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" s="30" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="10.5" customHeight="1">
-      <c r="A4" s="38"/>
-      <c r="B4" s="30">
-        <v>-10</v>
-      </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-    </row>
-    <row r="5" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A5" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="32">
-        <v>1049.4000000000001</v>
-      </c>
-      <c r="C5" s="32">
-        <v>1039.06</v>
-      </c>
-      <c r="D5" s="32">
-        <v>858.6</v>
-      </c>
-      <c r="E5" s="32">
-        <v>71.55</v>
-      </c>
-      <c r="F5" s="32">
-        <v>708.45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A6" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="32">
-        <v>1049.4000000000001</v>
-      </c>
-      <c r="C6" s="32">
-        <v>1039.06</v>
-      </c>
-      <c r="D6" s="32">
-        <v>858.6</v>
-      </c>
-      <c r="E6" s="32">
-        <v>71.55</v>
-      </c>
-      <c r="F6" s="32">
-        <v>708.45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A7" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="32">
-        <v>1049.4000000000001</v>
-      </c>
-      <c r="C7" s="32">
-        <v>0</v>
-      </c>
-      <c r="D7" s="32">
-        <v>858.6</v>
-      </c>
-      <c r="E7" s="32">
-        <v>71.55</v>
-      </c>
-      <c r="F7" s="32">
-        <v>708.45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A8" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="32">
-        <v>1049.4000000000001</v>
-      </c>
-      <c r="C8" s="32">
-        <v>0</v>
-      </c>
-      <c r="D8" s="32">
-        <v>858.6</v>
-      </c>
-      <c r="E8" s="32">
-        <v>71.55</v>
-      </c>
-      <c r="F8" s="32">
-        <v>708.45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A9" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" s="32">
-        <v>1049.4000000000001</v>
-      </c>
-      <c r="C9" s="32">
-        <v>0</v>
-      </c>
-      <c r="D9" s="32">
-        <v>858.6</v>
-      </c>
-      <c r="E9" s="32">
-        <v>71.55</v>
-      </c>
-      <c r="F9" s="32">
-        <v>708.45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A10" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="32">
-        <v>1049.4000000000001</v>
-      </c>
-      <c r="C10" s="32">
-        <v>1039.06</v>
-      </c>
-      <c r="D10" s="32">
-        <v>858.6</v>
-      </c>
-      <c r="E10" s="32">
-        <v>71.55</v>
-      </c>
-      <c r="F10" s="32">
-        <v>708.45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A11" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="32">
-        <v>1049.4000000000001</v>
-      </c>
-      <c r="C11" s="32">
-        <v>1039.06</v>
-      </c>
-      <c r="D11" s="32">
-        <v>858.6</v>
-      </c>
-      <c r="E11" s="32">
-        <v>71.55</v>
-      </c>
-      <c r="F11" s="32">
-        <v>708.45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A12" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" s="32">
-        <v>1049.4000000000001</v>
-      </c>
-      <c r="C12" s="32">
-        <v>1039.06</v>
-      </c>
-      <c r="D12" s="32">
-        <v>858.6</v>
-      </c>
-      <c r="E12" s="32">
-        <v>71.55</v>
-      </c>
-      <c r="F12" s="32">
-        <v>708.45</v>
-      </c>
-      <c r="G12" s="33"/>
-    </row>
-    <row r="13" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A13" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" s="32">
-        <v>1111</v>
-      </c>
-      <c r="C13" s="32">
-        <v>1100</v>
-      </c>
-      <c r="D13" s="32">
-        <v>909</v>
-      </c>
-      <c r="E13" s="32">
-        <v>75.75</v>
-      </c>
-      <c r="F13" s="32">
-        <v>708.45</v>
-      </c>
-      <c r="G13" s="33"/>
-      <c r="I13" s="33"/>
-    </row>
-    <row r="14" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A14" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14" s="32">
-        <v>1111</v>
-      </c>
-      <c r="C14" s="32">
-        <v>1100</v>
-      </c>
-      <c r="D14" s="32">
-        <v>909</v>
-      </c>
-      <c r="E14" s="32">
-        <v>75.75</v>
-      </c>
-      <c r="F14" s="32">
-        <v>708.45</v>
-      </c>
-      <c r="G14" s="33"/>
-    </row>
-    <row r="15" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A15" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="B15" s="32">
-        <v>1111</v>
-      </c>
-      <c r="C15" s="32">
-        <v>1100</v>
-      </c>
-      <c r="D15" s="32">
-        <v>909</v>
-      </c>
-      <c r="E15" s="32">
-        <v>75.75</v>
-      </c>
-      <c r="F15" s="32">
-        <v>708.45</v>
-      </c>
-      <c r="G15" s="33"/>
-    </row>
-    <row r="16" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A16" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="B16" s="32">
-        <v>1111</v>
-      </c>
-      <c r="C16" s="32">
-        <v>1100</v>
-      </c>
-      <c r="D16" s="32">
-        <v>909</v>
-      </c>
-      <c r="E16" s="32">
-        <v>75.75</v>
-      </c>
-      <c r="F16" s="32">
-        <v>708.45</v>
-      </c>
-      <c r="G16" s="33"/>
-    </row>
-    <row r="17" spans="1:7" ht="20.25" customHeight="1">
-      <c r="A17" s="39" t="s">
-        <v>39</v>
-      </c>
-      <c r="B17" s="40">
-        <f>SUM(B5:B16)</f>
-        <v>12839.199999999999</v>
-      </c>
-      <c r="C17" s="40">
-        <f>SUM(C5:C16)</f>
-        <v>9595.2999999999993</v>
-      </c>
-      <c r="D17" s="40">
-        <f>SUM(D5:D16)</f>
-        <v>10504.800000000001</v>
-      </c>
-      <c r="E17" s="40">
-        <f>SUM(E5:E16)</f>
-        <v>875.4</v>
-      </c>
-      <c r="F17" s="40">
-        <f>SUM(F5:F16)</f>
-        <v>8501.4</v>
-      </c>
-      <c r="G17" s="33"/>
-    </row>
-    <row r="18" spans="1:7" ht="20.25" customHeight="1">
-      <c r="A18" s="42" t="s">
-        <v>40</v>
-      </c>
-      <c r="B18" s="44">
-        <v>11738.2</v>
-      </c>
-      <c r="C18" s="44">
-        <v>8495.2999999999993</v>
-      </c>
-      <c r="D18" s="44">
-        <v>9595.7999999999993</v>
-      </c>
-      <c r="E18" s="44">
-        <v>799.65</v>
-      </c>
-      <c r="F18" s="44">
-        <v>8501.4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="17.25" customHeight="1">
-      <c r="A19" s="43" t="s">
-        <v>41</v>
-      </c>
-      <c r="B19" s="41">
-        <f>B18-B17</f>
-        <v>-1100.9999999999982</v>
-      </c>
-      <c r="C19" s="41">
-        <f>C18-C17</f>
-        <v>-1100</v>
-      </c>
-      <c r="D19" s="41">
-        <f>D18-D17</f>
-        <v>-909.00000000000182</v>
-      </c>
-      <c r="E19" s="41">
-        <f>E18-E17</f>
-        <v>-75.75</v>
-      </c>
-      <c r="F19" s="41">
-        <f>F18-F17</f>
-        <v>0</v>
-      </c>
-      <c r="G19" s="33"/>
-    </row>
-    <row r="20" spans="1:7" ht="16" thickBot="1"/>
-    <row r="21" spans="1:7" ht="16" thickBot="1">
-      <c r="A21" s="36"/>
-      <c r="B21" s="37"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="37"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:A3"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:Q18"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:P3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5"/>
-  <cols>
-    <col min="1" max="1" width="3.453125" customWidth="1"/>
-    <col min="2" max="2" width="17.90625" customWidth="1"/>
-    <col min="3" max="3" width="13.54296875" customWidth="1"/>
-    <col min="4" max="4" width="10.6328125" customWidth="1"/>
-    <col min="5" max="5" width="6" customWidth="1"/>
-    <col min="6" max="6" width="8.54296875" customWidth="1"/>
-    <col min="7" max="7" width="11.90625" customWidth="1"/>
-    <col min="8" max="8" width="5.6328125" customWidth="1"/>
-    <col min="9" max="9" width="10.453125" customWidth="1"/>
-    <col min="10" max="10" width="10" customWidth="1"/>
-    <col min="11" max="11" width="8.08984375" customWidth="1"/>
-    <col min="12" max="12" width="11.08984375" customWidth="1"/>
-    <col min="13" max="13" width="11.36328125" customWidth="1"/>
-    <col min="14" max="14" width="8.453125" customWidth="1"/>
-    <col min="15" max="15" width="9.36328125" customWidth="1"/>
-    <col min="16" max="16" width="11.6328125" customWidth="1"/>
-    <col min="19" max="19" width="12.453125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:17" ht="27" customHeight="1">
-      <c r="B2" s="7"/>
-    </row>
-    <row r="3" spans="1:17" ht="20">
-      <c r="A3" s="47" t="s">
-        <v>67</v>
-      </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="47"/>
-      <c r="N3" s="47"/>
-      <c r="O3" s="47"/>
-      <c r="P3" s="47"/>
-    </row>
-    <row r="4" spans="1:17" ht="20">
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-    </row>
-    <row r="5" spans="1:17" ht="15.75" customHeight="1"/>
-    <row r="6" spans="1:17" ht="15.75" customHeight="1">
-      <c r="F6">
-        <v>160</v>
-      </c>
-      <c r="L6">
-        <v>3180</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A7" s="48" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="48" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="48" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" s="49" t="s">
-        <v>54</v>
-      </c>
-      <c r="F7" s="48" t="s">
-        <v>53</v>
-      </c>
-      <c r="G7" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="I7" s="48" t="s">
-        <v>42</v>
-      </c>
-      <c r="J7" s="48" t="s">
-        <v>55</v>
-      </c>
-      <c r="K7" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="L7" s="48" t="s">
-        <v>14</v>
-      </c>
-      <c r="M7" s="48" t="s">
-        <v>24</v>
-      </c>
-      <c r="N7" s="48" t="s">
-        <v>12</v>
-      </c>
-      <c r="O7" s="48" t="s">
-        <v>13</v>
-      </c>
-      <c r="P7" s="48" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="48.75" customHeight="1">
-      <c r="A8" s="48"/>
-      <c r="B8" s="48"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="48"/>
-      <c r="J8" s="48"/>
-      <c r="K8" s="48"/>
-      <c r="L8" s="48"/>
-      <c r="M8" s="48"/>
-      <c r="N8" s="48"/>
-      <c r="O8" s="48"/>
-      <c r="P8" s="48"/>
-    </row>
-    <row r="9" spans="1:17" ht="31.5" customHeight="1">
-      <c r="A9" s="3">
-        <v>1</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="6">
-        <v>2522813188</v>
-      </c>
-      <c r="D9" s="5">
-        <v>6060</v>
-      </c>
-      <c r="E9" s="5">
-        <v>1</v>
-      </c>
-      <c r="F9" s="5">
-        <v>160</v>
-      </c>
-      <c r="G9" s="10">
-        <f>D9/F6*F9+I9</f>
-        <v>6060</v>
-      </c>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5">
-        <v>0</v>
-      </c>
-      <c r="J9" s="46">
-        <f>G9</f>
-        <v>6060</v>
-      </c>
-      <c r="K9" s="10">
-        <v>3000</v>
-      </c>
-      <c r="L9" s="5">
-        <f>ROUND((G9)*18/100,2)</f>
-        <v>1090.8</v>
-      </c>
-      <c r="M9" s="5">
-        <f>G9*0.015</f>
-        <v>90.899999999999991</v>
-      </c>
-      <c r="N9" s="5">
-        <f>SUM(L9:M9)</f>
-        <v>1181.7</v>
-      </c>
-      <c r="O9" s="5">
-        <f>G9-N9</f>
-        <v>4878.3</v>
-      </c>
-      <c r="P9" s="5">
-        <f>O9-K9</f>
-        <v>1878.3000000000002</v>
-      </c>
-      <c r="Q9" s="9"/>
-    </row>
-    <row r="10" spans="1:17" ht="27.75" customHeight="1">
-      <c r="A10" s="3"/>
-      <c r="B10" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="15">
-        <f>SUM(D9:D9)</f>
-        <v>6060</v>
-      </c>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15">
-        <f>SUM(G9:G9)</f>
-        <v>6060</v>
-      </c>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15">
-        <v>0</v>
-      </c>
-      <c r="J10" s="45"/>
-      <c r="K10" s="15">
-        <f t="shared" ref="K10:P10" si="0">SUM(K9:K9)</f>
-        <v>3000</v>
-      </c>
-      <c r="L10" s="15">
-        <f t="shared" si="0"/>
-        <v>1090.8</v>
-      </c>
-      <c r="M10" s="15">
-        <f t="shared" si="0"/>
-        <v>90.899999999999991</v>
-      </c>
-      <c r="N10" s="15">
-        <f t="shared" si="0"/>
-        <v>1181.7</v>
-      </c>
-      <c r="O10" s="15">
-        <f t="shared" si="0"/>
-        <v>4878.3</v>
-      </c>
-      <c r="P10" s="15">
-        <f t="shared" si="0"/>
-        <v>1878.3000000000002</v>
-      </c>
-      <c r="Q10" s="9"/>
-    </row>
-    <row r="11" spans="1:17" ht="15">
-      <c r="L11" s="11"/>
-      <c r="P11" s="15">
-        <f>P10+K10</f>
-        <v>4878.3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" ht="13" thickBot="1"/>
-    <row r="13" spans="1:17" ht="16" thickBot="1">
-      <c r="B13" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="51"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="51"/>
-      <c r="J13" s="12">
-        <v>0.22</v>
-      </c>
-      <c r="K13" s="12"/>
-      <c r="L13" s="26">
-        <f>J9*0.22</f>
-        <v>1333.2</v>
-      </c>
-      <c r="M13" s="24"/>
-      <c r="N13" s="35">
-        <f>M10+L10+L13</f>
-        <v>2514.9</v>
-      </c>
-      <c r="P13" s="16"/>
-    </row>
-    <row r="14" spans="1:17" ht="13.5" thickBot="1">
-      <c r="P14" s="16"/>
-    </row>
-    <row r="15" spans="1:17" ht="16" thickBot="1">
-      <c r="B15" s="51" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="51"/>
-      <c r="I15" s="51"/>
-      <c r="J15" s="12">
-        <v>0.22</v>
-      </c>
-      <c r="K15" s="12"/>
-      <c r="L15" s="26">
-        <v>1320</v>
-      </c>
-      <c r="M15" s="24"/>
-    </row>
-    <row r="16" spans="1:17" ht="16" thickBot="1">
-      <c r="B16" s="51"/>
-      <c r="C16" s="51"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="51"/>
-      <c r="I16" s="51"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="25"/>
-    </row>
-    <row r="17" spans="2:13" ht="13" thickBot="1"/>
-    <row r="18" spans="2:13" ht="16" thickBot="1">
-      <c r="B18" s="51" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="51"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="51"/>
-      <c r="G18" s="51"/>
-      <c r="H18" s="51"/>
-      <c r="I18" s="51"/>
-      <c r="L18" s="27">
-        <f>M10+L10+L13+L15</f>
-        <v>3834.9</v>
-      </c>
-      <c r="M18" s="28"/>
-    </row>
-  </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="A3:P3"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="P7:P8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="B16:I16"/>
-    <mergeCell ref="B18:I18"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="B13:I13"/>
-    <mergeCell ref="B15:I15"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
@@ -6962,24 +7335,24 @@
       <c r="B2" s="7"/>
     </row>
     <row r="3" spans="1:17" ht="20">
-      <c r="A3" s="47" t="s">
-        <v>69</v>
-      </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="47"/>
-      <c r="N3" s="47"/>
-      <c r="O3" s="47"/>
-      <c r="P3" s="47"/>
+      <c r="A3" s="49" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="49"/>
+      <c r="P3" s="49"/>
     </row>
     <row r="4" spans="1:17" ht="20">
       <c r="B4" s="8"/>
@@ -6988,7 +7361,7 @@
     <row r="5" spans="1:17" ht="15.75" customHeight="1"/>
     <row r="6" spans="1:17" ht="15.75" customHeight="1">
       <c r="F6">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="L6">
         <v>3180</v>
@@ -7007,7 +7380,7 @@
       <c r="D7" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="49" t="s">
+      <c r="E7" s="50" t="s">
         <v>54</v>
       </c>
       <c r="F7" s="48" t="s">
@@ -7049,7 +7422,7 @@
       <c r="B8" s="48"/>
       <c r="C8" s="48"/>
       <c r="D8" s="48"/>
-      <c r="E8" s="50"/>
+      <c r="E8" s="51"/>
       <c r="F8" s="48"/>
       <c r="G8" s="48"/>
       <c r="H8" s="48"/>
@@ -7079,7 +7452,7 @@
         <v>1</v>
       </c>
       <c r="F9" s="5">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="G9" s="10">
         <f>D9/F6*F9+I9</f>
@@ -7174,16 +7547,16 @@
     </row>
     <row r="12" spans="1:17" ht="13" thickBot="1"/>
     <row r="13" spans="1:17" ht="16" thickBot="1">
-      <c r="B13" s="51" t="s">
+      <c r="B13" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="51"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="51"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="47"/>
       <c r="J13" s="12">
         <v>0.22</v>
       </c>
@@ -7203,16 +7576,16 @@
       <c r="P14" s="16"/>
     </row>
     <row r="15" spans="1:17" ht="16" thickBot="1">
-      <c r="B15" s="51" t="s">
+      <c r="B15" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="51"/>
-      <c r="I15" s="51"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="47"/>
       <c r="J15" s="12">
         <v>0.22</v>
       </c>
@@ -7223,30 +7596,30 @@
       <c r="M15" s="24"/>
     </row>
     <row r="16" spans="1:17" ht="16" thickBot="1">
-      <c r="B16" s="51"/>
-      <c r="C16" s="51"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="51"/>
-      <c r="I16" s="51"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="47"/>
       <c r="J16" s="12"/>
       <c r="K16" s="12"/>
       <c r="L16" s="25"/>
     </row>
     <row r="17" spans="2:13" ht="13" thickBot="1"/>
     <row r="18" spans="2:13" ht="16" thickBot="1">
-      <c r="B18" s="51" t="s">
+      <c r="B18" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="51"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="51"/>
-      <c r="G18" s="51"/>
-      <c r="H18" s="51"/>
-      <c r="I18" s="51"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="47"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="47"/>
       <c r="L18" s="27">
         <f>M10+L10+L13+L15</f>
         <v>3834.9</v>
@@ -7255,6 +7628,15 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B16:I16"/>
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="B13:I13"/>
+    <mergeCell ref="B15:I15"/>
     <mergeCell ref="A3:P3"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
@@ -7265,17 +7647,8 @@
     <mergeCell ref="G7:G8"/>
     <mergeCell ref="N7:N8"/>
     <mergeCell ref="P7:P8"/>
+    <mergeCell ref="M7:M8"/>
     <mergeCell ref="O7:O8"/>
-    <mergeCell ref="B18:I18"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="B13:I13"/>
-    <mergeCell ref="B15:I15"/>
-    <mergeCell ref="B16:I16"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
@@ -7316,24 +7689,24 @@
       <c r="B2" s="7"/>
     </row>
     <row r="3" spans="1:17" ht="20">
-      <c r="A3" s="47" t="s">
-        <v>70</v>
-      </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="47"/>
-      <c r="N3" s="47"/>
-      <c r="O3" s="47"/>
-      <c r="P3" s="47"/>
+      <c r="A3" s="49" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="49"/>
+      <c r="P3" s="49"/>
     </row>
     <row r="4" spans="1:17" ht="20">
       <c r="B4" s="8"/>
@@ -7361,7 +7734,7 @@
       <c r="D7" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="49" t="s">
+      <c r="E7" s="50" t="s">
         <v>54</v>
       </c>
       <c r="F7" s="48" t="s">
@@ -7403,7 +7776,7 @@
       <c r="B8" s="48"/>
       <c r="C8" s="48"/>
       <c r="D8" s="48"/>
-      <c r="E8" s="50"/>
+      <c r="E8" s="51"/>
       <c r="F8" s="48"/>
       <c r="G8" s="48"/>
       <c r="H8" s="48"/>
@@ -7528,16 +7901,16 @@
     </row>
     <row r="12" spans="1:17" ht="13" thickBot="1"/>
     <row r="13" spans="1:17" ht="16" thickBot="1">
-      <c r="B13" s="51" t="s">
+      <c r="B13" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="51"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="51"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="47"/>
       <c r="J13" s="12">
         <v>0.22</v>
       </c>
@@ -7557,16 +7930,16 @@
       <c r="P14" s="16"/>
     </row>
     <row r="15" spans="1:17" ht="16" thickBot="1">
-      <c r="B15" s="51" t="s">
+      <c r="B15" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="51"/>
-      <c r="I15" s="51"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="47"/>
       <c r="J15" s="12">
         <v>0.22</v>
       </c>
@@ -7577,30 +7950,30 @@
       <c r="M15" s="24"/>
     </row>
     <row r="16" spans="1:17" ht="16" thickBot="1">
-      <c r="B16" s="51"/>
-      <c r="C16" s="51"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="51"/>
-      <c r="I16" s="51"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="47"/>
       <c r="J16" s="12"/>
       <c r="K16" s="12"/>
       <c r="L16" s="25"/>
     </row>
     <row r="17" spans="2:13" ht="13" thickBot="1"/>
     <row r="18" spans="2:13" ht="16" thickBot="1">
-      <c r="B18" s="51" t="s">
+      <c r="B18" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="51"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="51"/>
-      <c r="G18" s="51"/>
-      <c r="H18" s="51"/>
-      <c r="I18" s="51"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="47"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="47"/>
       <c r="L18" s="27">
         <f>M10+L10+L13+L15</f>
         <v>3834.9</v>
@@ -7609,6 +7982,16 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="B13:I13"/>
+    <mergeCell ref="B15:I15"/>
+    <mergeCell ref="B16:I16"/>
     <mergeCell ref="A3:P3"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
@@ -7620,16 +8003,6 @@
     <mergeCell ref="N7:N8"/>
     <mergeCell ref="P7:P8"/>
     <mergeCell ref="O7:O8"/>
-    <mergeCell ref="B18:I18"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="B13:I13"/>
-    <mergeCell ref="B15:I15"/>
-    <mergeCell ref="B16:I16"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
@@ -7670,24 +8043,24 @@
       <c r="B2" s="7"/>
     </row>
     <row r="3" spans="1:17" ht="20">
-      <c r="A3" s="47" t="s">
-        <v>71</v>
-      </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="47"/>
-      <c r="N3" s="47"/>
-      <c r="O3" s="47"/>
-      <c r="P3" s="47"/>
+      <c r="A3" s="49" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="49"/>
+      <c r="P3" s="49"/>
     </row>
     <row r="4" spans="1:17" ht="20">
       <c r="B4" s="8"/>
@@ -7715,7 +8088,7 @@
       <c r="D7" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="49" t="s">
+      <c r="E7" s="50" t="s">
         <v>54</v>
       </c>
       <c r="F7" s="48" t="s">
@@ -7757,7 +8130,7 @@
       <c r="B8" s="48"/>
       <c r="C8" s="48"/>
       <c r="D8" s="48"/>
-      <c r="E8" s="50"/>
+      <c r="E8" s="51"/>
       <c r="F8" s="48"/>
       <c r="G8" s="48"/>
       <c r="H8" s="48"/>
@@ -7802,7 +8175,7 @@
         <v>6060</v>
       </c>
       <c r="K9" s="10">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="L9" s="5">
         <f>ROUND((G9)*18/100,2)</f>
@@ -7822,7 +8195,7 @@
       </c>
       <c r="P9" s="5">
         <f>O9-K9</f>
-        <v>2878.3</v>
+        <v>1878.3000000000002</v>
       </c>
       <c r="Q9" s="9"/>
     </row>
@@ -7849,7 +8222,7 @@
       <c r="J10" s="45"/>
       <c r="K10" s="15">
         <f t="shared" ref="K10:P10" si="0">SUM(K9:K9)</f>
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="L10" s="15">
         <f t="shared" si="0"/>
@@ -7869,7 +8242,7 @@
       </c>
       <c r="P10" s="15">
         <f t="shared" si="0"/>
-        <v>2878.3</v>
+        <v>1878.3000000000002</v>
       </c>
       <c r="Q10" s="9"/>
     </row>
@@ -7882,16 +8255,16 @@
     </row>
     <row r="12" spans="1:17" ht="13" thickBot="1"/>
     <row r="13" spans="1:17" ht="16" thickBot="1">
-      <c r="B13" s="51" t="s">
+      <c r="B13" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="51"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="51"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="47"/>
       <c r="J13" s="12">
         <v>0.22</v>
       </c>
@@ -7911,16 +8284,16 @@
       <c r="P14" s="16"/>
     </row>
     <row r="15" spans="1:17" ht="16" thickBot="1">
-      <c r="B15" s="51" t="s">
+      <c r="B15" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="51"/>
-      <c r="I15" s="51"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="47"/>
       <c r="J15" s="12">
         <v>0.22</v>
       </c>
@@ -7931,30 +8304,30 @@
       <c r="M15" s="24"/>
     </row>
     <row r="16" spans="1:17" ht="16" thickBot="1">
-      <c r="B16" s="51"/>
-      <c r="C16" s="51"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="51"/>
-      <c r="I16" s="51"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="47"/>
       <c r="J16" s="12"/>
       <c r="K16" s="12"/>
       <c r="L16" s="25"/>
     </row>
     <row r="17" spans="2:13" ht="13" thickBot="1"/>
     <row r="18" spans="2:13" ht="16" thickBot="1">
-      <c r="B18" s="51" t="s">
+      <c r="B18" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="51"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="51"/>
-      <c r="G18" s="51"/>
-      <c r="H18" s="51"/>
-      <c r="I18" s="51"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="47"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="47"/>
       <c r="L18" s="27">
         <f>M10+L10+L13+L15</f>
         <v>3834.9</v>
@@ -7970,9 +8343,8 @@
     <mergeCell ref="M7:M8"/>
     <mergeCell ref="I7:I8"/>
     <mergeCell ref="H7:H8"/>
-    <mergeCell ref="G7:G8"/>
     <mergeCell ref="B13:I13"/>
-    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="B15:I15"/>
     <mergeCell ref="B16:I16"/>
     <mergeCell ref="A3:P3"/>
     <mergeCell ref="A7:A8"/>
@@ -7981,8 +8353,9 @@
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="E7:E8"/>
     <mergeCell ref="F7:F8"/>
-    <mergeCell ref="B15:I15"/>
+    <mergeCell ref="G7:G8"/>
     <mergeCell ref="N7:N8"/>
+    <mergeCell ref="P7:P8"/>
     <mergeCell ref="O7:O8"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -8024,24 +8397,24 @@
       <c r="B2" s="7"/>
     </row>
     <row r="3" spans="1:17" ht="20">
-      <c r="A3" s="47" t="s">
-        <v>72</v>
-      </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="47"/>
-      <c r="N3" s="47"/>
-      <c r="O3" s="47"/>
-      <c r="P3" s="47"/>
+      <c r="A3" s="49" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="49"/>
+      <c r="P3" s="49"/>
     </row>
     <row r="4" spans="1:17" ht="20">
       <c r="B4" s="8"/>
@@ -8050,7 +8423,7 @@
     <row r="5" spans="1:17" ht="15.75" customHeight="1"/>
     <row r="6" spans="1:17" ht="15.75" customHeight="1">
       <c r="F6">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="L6">
         <v>3180</v>
@@ -8069,7 +8442,7 @@
       <c r="D7" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="49" t="s">
+      <c r="E7" s="50" t="s">
         <v>54</v>
       </c>
       <c r="F7" s="48" t="s">
@@ -8111,7 +8484,7 @@
       <c r="B8" s="48"/>
       <c r="C8" s="48"/>
       <c r="D8" s="48"/>
-      <c r="E8" s="50"/>
+      <c r="E8" s="51"/>
       <c r="F8" s="48"/>
       <c r="G8" s="48"/>
       <c r="H8" s="48"/>
@@ -8141,7 +8514,7 @@
         <v>1</v>
       </c>
       <c r="F9" s="5">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="G9" s="10">
         <f>D9/F6*F9+I9</f>
@@ -8236,16 +8609,16 @@
     </row>
     <row r="12" spans="1:17" ht="13" thickBot="1"/>
     <row r="13" spans="1:17" ht="16" thickBot="1">
-      <c r="B13" s="51" t="s">
+      <c r="B13" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="51"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="51"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="47"/>
       <c r="J13" s="12">
         <v>0.22</v>
       </c>
@@ -8265,16 +8638,16 @@
       <c r="P14" s="16"/>
     </row>
     <row r="15" spans="1:17" ht="16" thickBot="1">
-      <c r="B15" s="51" t="s">
+      <c r="B15" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="51"/>
-      <c r="I15" s="51"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="47"/>
       <c r="J15" s="12">
         <v>0.22</v>
       </c>
@@ -8285,30 +8658,30 @@
       <c r="M15" s="24"/>
     </row>
     <row r="16" spans="1:17" ht="16" thickBot="1">
-      <c r="B16" s="51"/>
-      <c r="C16" s="51"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="51"/>
-      <c r="I16" s="51"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="47"/>
       <c r="J16" s="12"/>
       <c r="K16" s="12"/>
       <c r="L16" s="25"/>
     </row>
     <row r="17" spans="2:13" ht="13" thickBot="1"/>
     <row r="18" spans="2:13" ht="16" thickBot="1">
-      <c r="B18" s="51" t="s">
+      <c r="B18" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="51"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="51"/>
-      <c r="G18" s="51"/>
-      <c r="H18" s="51"/>
-      <c r="I18" s="51"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="47"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="47"/>
       <c r="L18" s="27">
         <f>M10+L10+L13+L15</f>
         <v>3834.9</v>
@@ -8317,27 +8690,27 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="B16:I16"/>
+    <mergeCell ref="A3:P3"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="B15:I15"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="O7:O8"/>
     <mergeCell ref="B18:I18"/>
     <mergeCell ref="J7:J8"/>
     <mergeCell ref="K7:K8"/>
     <mergeCell ref="L7:L8"/>
     <mergeCell ref="M7:M8"/>
-    <mergeCell ref="B16:I16"/>
-    <mergeCell ref="B15:I15"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="G7:G8"/>
     <mergeCell ref="B13:I13"/>
-    <mergeCell ref="A3:P3"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="P7:P8"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
@@ -8378,24 +8751,24 @@
       <c r="B2" s="7"/>
     </row>
     <row r="3" spans="1:17" ht="20">
-      <c r="A3" s="47" t="s">
-        <v>73</v>
-      </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="47"/>
-      <c r="N3" s="47"/>
-      <c r="O3" s="47"/>
-      <c r="P3" s="47"/>
+      <c r="A3" s="49" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="49"/>
+      <c r="P3" s="49"/>
     </row>
     <row r="4" spans="1:17" ht="20">
       <c r="B4" s="8"/>
@@ -8404,7 +8777,7 @@
     <row r="5" spans="1:17" ht="15.75" customHeight="1"/>
     <row r="6" spans="1:17" ht="15.75" customHeight="1">
       <c r="F6">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="L6">
         <v>3180</v>
@@ -8423,7 +8796,7 @@
       <c r="D7" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="49" t="s">
+      <c r="E7" s="50" t="s">
         <v>54</v>
       </c>
       <c r="F7" s="48" t="s">
@@ -8465,7 +8838,7 @@
       <c r="B8" s="48"/>
       <c r="C8" s="48"/>
       <c r="D8" s="48"/>
-      <c r="E8" s="50"/>
+      <c r="E8" s="51"/>
       <c r="F8" s="48"/>
       <c r="G8" s="48"/>
       <c r="H8" s="48"/>
@@ -8495,42 +8868,42 @@
         <v>1</v>
       </c>
       <c r="F9" s="5">
-        <v>24</v>
+        <v>160</v>
       </c>
       <c r="G9" s="10">
         <f>D9/F6*F9+I9</f>
-        <v>4908.5388079470204</v>
+        <v>6060</v>
       </c>
       <c r="H9" s="5"/>
       <c r="I9" s="5">
-        <v>3945.36</v>
+        <v>0</v>
       </c>
       <c r="J9" s="46">
         <f>G9</f>
-        <v>4908.5388079470204</v>
+        <v>6060</v>
       </c>
       <c r="K9" s="10">
         <v>2000</v>
       </c>
       <c r="L9" s="5">
         <f>ROUND((G9)*18/100,2)</f>
-        <v>883.54</v>
+        <v>1090.8</v>
       </c>
       <c r="M9" s="5">
         <f>G9*0.015</f>
-        <v>73.628082119205303</v>
+        <v>90.899999999999991</v>
       </c>
       <c r="N9" s="5">
         <f>SUM(L9:M9)</f>
-        <v>957.16808211920522</v>
+        <v>1181.7</v>
       </c>
       <c r="O9" s="5">
         <f>G9-N9</f>
-        <v>3951.370725827815</v>
+        <v>4878.3</v>
       </c>
       <c r="P9" s="5">
         <f>O9-K9</f>
-        <v>1951.370725827815</v>
+        <v>2878.3</v>
       </c>
       <c r="Q9" s="9"/>
     </row>
@@ -8548,37 +8921,36 @@
       <c r="F10" s="15"/>
       <c r="G10" s="15">
         <f>SUM(G9:G9)</f>
-        <v>4908.5388079470204</v>
+        <v>6060</v>
       </c>
       <c r="H10" s="15"/>
       <c r="I10" s="15">
-        <f t="shared" ref="I10:P10" si="0">SUM(I9:I9)</f>
-        <v>3945.36</v>
+        <v>0</v>
       </c>
       <c r="J10" s="45"/>
       <c r="K10" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="K10:P10" si="0">SUM(K9:K9)</f>
         <v>2000</v>
       </c>
       <c r="L10" s="15">
         <f t="shared" si="0"/>
-        <v>883.54</v>
+        <v>1090.8</v>
       </c>
       <c r="M10" s="15">
         <f t="shared" si="0"/>
-        <v>73.628082119205303</v>
+        <v>90.899999999999991</v>
       </c>
       <c r="N10" s="15">
         <f t="shared" si="0"/>
-        <v>957.16808211920522</v>
+        <v>1181.7</v>
       </c>
       <c r="O10" s="15">
         <f t="shared" si="0"/>
-        <v>3951.370725827815</v>
+        <v>4878.3</v>
       </c>
       <c r="P10" s="15">
         <f t="shared" si="0"/>
-        <v>1951.370725827815</v>
+        <v>2878.3</v>
       </c>
       <c r="Q10" s="9"/>
     </row>
@@ -8586,32 +8958,33 @@
       <c r="L11" s="11"/>
       <c r="P11" s="15">
         <f>P10+K10</f>
-        <v>3951.370725827815</v>
+        <v>4878.3</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="13" thickBot="1"/>
     <row r="13" spans="1:17" ht="16" thickBot="1">
-      <c r="B13" s="51" t="s">
+      <c r="B13" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="51"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="51"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="47"/>
       <c r="J13" s="12">
         <v>0.22</v>
       </c>
       <c r="K13" s="12"/>
       <c r="L13" s="26">
-        <v>1320</v>
+        <f>J9*0.22</f>
+        <v>1333.2</v>
       </c>
       <c r="M13" s="24"/>
       <c r="N13" s="35">
         <f>M10+L10+L13</f>
-        <v>2277.1680821192053</v>
+        <v>2514.9</v>
       </c>
       <c r="P13" s="16"/>
     </row>
@@ -8619,16 +8992,16 @@
       <c r="P14" s="16"/>
     </row>
     <row r="15" spans="1:17" ht="16" thickBot="1">
-      <c r="B15" s="51" t="s">
+      <c r="B15" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="51"/>
-      <c r="I15" s="51"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="47"/>
       <c r="J15" s="12">
         <v>0.22</v>
       </c>
@@ -8639,33 +9012,33 @@
       <c r="M15" s="24"/>
     </row>
     <row r="16" spans="1:17" ht="16" thickBot="1">
-      <c r="B16" s="51"/>
-      <c r="C16" s="51"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="51"/>
-      <c r="I16" s="51"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="47"/>
       <c r="J16" s="12"/>
       <c r="K16" s="12"/>
       <c r="L16" s="25"/>
     </row>
     <row r="17" spans="2:13" ht="13" thickBot="1"/>
     <row r="18" spans="2:13" ht="16" thickBot="1">
-      <c r="B18" s="51" t="s">
+      <c r="B18" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="51"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="51"/>
-      <c r="G18" s="51"/>
-      <c r="H18" s="51"/>
-      <c r="I18" s="51"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="47"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="47"/>
       <c r="L18" s="27">
         <f>M10+L10+L13+L15</f>
-        <v>3597.1680821192053</v>
+        <v>3834.9</v>
       </c>
       <c r="M18" s="28"/>
     </row>
@@ -8676,22 +9049,22 @@
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="D7:D8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="I7:I8"/>
     <mergeCell ref="G7:G8"/>
     <mergeCell ref="P7:P8"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="I7:I8"/>
     <mergeCell ref="B18:I18"/>
     <mergeCell ref="J7:J8"/>
     <mergeCell ref="K7:K8"/>
     <mergeCell ref="L7:L8"/>
     <mergeCell ref="M7:M8"/>
-    <mergeCell ref="B13:I13"/>
     <mergeCell ref="B16:I16"/>
     <mergeCell ref="B15:I15"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="B13:I13"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
@@ -8717,7 +9090,7 @@
     <col min="6" max="6" width="8.54296875" customWidth="1"/>
     <col min="7" max="7" width="11.90625" customWidth="1"/>
     <col min="8" max="8" width="5.6328125" customWidth="1"/>
-    <col min="9" max="9" width="6.90625" customWidth="1"/>
+    <col min="9" max="9" width="10.453125" customWidth="1"/>
     <col min="10" max="10" width="10" customWidth="1"/>
     <col min="11" max="11" width="8.08984375" customWidth="1"/>
     <col min="12" max="12" width="11.08984375" customWidth="1"/>
@@ -8732,24 +9105,24 @@
       <c r="B2" s="7"/>
     </row>
     <row r="3" spans="1:17" ht="20">
-      <c r="A3" s="47" t="s">
-        <v>74</v>
-      </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="47"/>
-      <c r="N3" s="47"/>
-      <c r="O3" s="47"/>
-      <c r="P3" s="47"/>
+      <c r="A3" s="49" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="49"/>
+      <c r="P3" s="49"/>
     </row>
     <row r="4" spans="1:17" ht="20">
       <c r="B4" s="8"/>
@@ -8758,7 +9131,10 @@
     <row r="5" spans="1:17" ht="15.75" customHeight="1"/>
     <row r="6" spans="1:17" ht="15.75" customHeight="1">
       <c r="F6">
-        <v>174</v>
+        <v>151</v>
+      </c>
+      <c r="L6">
+        <v>3180</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="15.75" customHeight="1">
@@ -8774,7 +9150,7 @@
       <c r="D7" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="49" t="s">
+      <c r="E7" s="50" t="s">
         <v>54</v>
       </c>
       <c r="F7" s="48" t="s">
@@ -8816,7 +9192,7 @@
       <c r="B8" s="48"/>
       <c r="C8" s="48"/>
       <c r="D8" s="48"/>
-      <c r="E8" s="50"/>
+      <c r="E8" s="51"/>
       <c r="F8" s="48"/>
       <c r="G8" s="48"/>
       <c r="H8" s="48"/>
@@ -8840,46 +9216,48 @@
         <v>2522813188</v>
       </c>
       <c r="D9" s="5">
-        <v>5050</v>
+        <v>6060</v>
       </c>
       <c r="E9" s="5">
         <v>1</v>
       </c>
       <c r="F9" s="5">
-        <v>174</v>
+        <v>24</v>
       </c>
       <c r="G9" s="10">
-        <f>D9/F6*F9</f>
-        <v>5050</v>
+        <f>D9/F6*F9+I9</f>
+        <v>4908.5388079470204</v>
       </c>
       <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
+      <c r="I9" s="5">
+        <v>3945.36</v>
+      </c>
       <c r="J9" s="46">
         <f>G9</f>
-        <v>5050</v>
+        <v>4908.5388079470204</v>
       </c>
       <c r="K9" s="10">
         <v>2000</v>
       </c>
       <c r="L9" s="5">
         <f>ROUND((G9)*18/100,2)</f>
-        <v>909</v>
+        <v>883.54</v>
       </c>
       <c r="M9" s="5">
         <f>G9*0.015</f>
-        <v>75.75</v>
+        <v>73.628082119205303</v>
       </c>
       <c r="N9" s="5">
         <f>SUM(L9:M9)</f>
-        <v>984.75</v>
+        <v>957.16808211920522</v>
       </c>
       <c r="O9" s="5">
         <f>G9-N9</f>
-        <v>4065.25</v>
+        <v>3951.370725827815</v>
       </c>
       <c r="P9" s="5">
         <f>O9-K9</f>
-        <v>2065.25</v>
+        <v>1951.370725827815</v>
       </c>
       <c r="Q9" s="9"/>
     </row>
@@ -8891,18 +9269,18 @@
       <c r="C10" s="14"/>
       <c r="D10" s="15">
         <f>SUM(D9:D9)</f>
-        <v>5050</v>
+        <v>6060</v>
       </c>
       <c r="E10" s="15"/>
       <c r="F10" s="15"/>
       <c r="G10" s="15">
         <f>SUM(G9:G9)</f>
-        <v>5050</v>
+        <v>4908.5388079470204</v>
       </c>
       <c r="H10" s="15"/>
       <c r="I10" s="15">
         <f t="shared" ref="I10:P10" si="0">SUM(I9:I9)</f>
-        <v>0</v>
+        <v>3945.36</v>
       </c>
       <c r="J10" s="45"/>
       <c r="K10" s="15">
@@ -8911,23 +9289,23 @@
       </c>
       <c r="L10" s="15">
         <f t="shared" si="0"/>
-        <v>909</v>
+        <v>883.54</v>
       </c>
       <c r="M10" s="15">
         <f t="shared" si="0"/>
-        <v>75.75</v>
+        <v>73.628082119205303</v>
       </c>
       <c r="N10" s="15">
         <f t="shared" si="0"/>
-        <v>984.75</v>
+        <v>957.16808211920522</v>
       </c>
       <c r="O10" s="15">
         <f t="shared" si="0"/>
-        <v>4065.25</v>
+        <v>3951.370725827815</v>
       </c>
       <c r="P10" s="15">
         <f t="shared" si="0"/>
-        <v>2065.25</v>
+        <v>1951.370725827815</v>
       </c>
       <c r="Q10" s="9"/>
     </row>
@@ -8935,33 +9313,32 @@
       <c r="L11" s="11"/>
       <c r="P11" s="15">
         <f>P10+K10</f>
-        <v>4065.25</v>
+        <v>3951.370725827815</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="13" thickBot="1"/>
     <row r="13" spans="1:17" ht="16" thickBot="1">
-      <c r="B13" s="51" t="s">
+      <c r="B13" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="51"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="51"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="47"/>
       <c r="J13" s="12">
         <v>0.22</v>
       </c>
       <c r="K13" s="12"/>
       <c r="L13" s="26">
-        <f>J9*0.22</f>
-        <v>1111</v>
+        <v>1320</v>
       </c>
       <c r="M13" s="24"/>
       <c r="N13" s="35">
         <f>M10+L10+L13</f>
-        <v>2095.75</v>
+        <v>2277.1680821192053</v>
       </c>
       <c r="P13" s="16"/>
     </row>
@@ -8969,79 +9346,79 @@
       <c r="P14" s="16"/>
     </row>
     <row r="15" spans="1:17" ht="16" thickBot="1">
-      <c r="B15" s="51" t="s">
+      <c r="B15" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="51"/>
-      <c r="I15" s="51"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="47"/>
       <c r="J15" s="12">
         <v>0.22</v>
       </c>
       <c r="K15" s="12"/>
       <c r="L15" s="26">
-        <v>1100</v>
+        <v>1320</v>
       </c>
       <c r="M15" s="24"/>
     </row>
     <row r="16" spans="1:17" ht="16" thickBot="1">
-      <c r="B16" s="51"/>
-      <c r="C16" s="51"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="51"/>
-      <c r="I16" s="51"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="47"/>
       <c r="J16" s="12"/>
       <c r="K16" s="12"/>
       <c r="L16" s="25"/>
     </row>
     <row r="17" spans="2:13" ht="13" thickBot="1"/>
     <row r="18" spans="2:13" ht="16" thickBot="1">
-      <c r="B18" s="51" t="s">
+      <c r="B18" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="51"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="51"/>
-      <c r="G18" s="51"/>
-      <c r="H18" s="51"/>
-      <c r="I18" s="51"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="47"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="47"/>
       <c r="L18" s="27">
         <f>M10+L10+L13+L15</f>
-        <v>3195.75</v>
+        <v>3597.1680821192053</v>
       </c>
       <c r="M18" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="B13:I13"/>
+    <mergeCell ref="B16:I16"/>
+    <mergeCell ref="B15:I15"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
     <mergeCell ref="A3:P3"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="D7:D8"/>
+    <mergeCell ref="G7:G8"/>
     <mergeCell ref="P7:P8"/>
+    <mergeCell ref="N7:N8"/>
     <mergeCell ref="H7:H8"/>
     <mergeCell ref="O7:O8"/>
     <mergeCell ref="I7:I8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="B18:I18"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="B16:I16"/>
-    <mergeCell ref="B13:I13"/>
-    <mergeCell ref="B15:I15"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>

--- a/Фопи/Зарплата ФОП 2021/Петришак В.П. 2021.xlsx
+++ b/Фопи/Зарплата ФОП 2021/Петришак В.П. 2021.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nastia\GitHub\Фопи\Зарплата ФОП 2021\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="60" windowWidth="11340" windowHeight="6040" tabRatio="784"/>
+    <workbookView xWindow="360" yWindow="60" windowWidth="11340" windowHeight="6036" tabRatio="784" activeTab="22"/>
   </bookViews>
   <sheets>
     <sheet name="09-21 " sheetId="139" r:id="rId1"/>
@@ -37,7 +32,7 @@
     <sheet name="Звірка21" sheetId="128" r:id="rId23"/>
     <sheet name="звірка" sheetId="88" r:id="rId24"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -290,7 +285,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yy;@"/>
   </numFmts>
@@ -756,11 +751,11 @@
     <xf numFmtId="4" fontId="26" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -771,16 +766,13 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -788,6 +780,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -797,7 +792,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Звичайний" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный_Лист1" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -816,7 +811,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Офіс">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -854,9 +849,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Офіс">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -891,7 +886,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -926,7 +921,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Офіс">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1102,35 +1097,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Q18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A3" sqref="A3:P3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="3.453125" customWidth="1"/>
-    <col min="2" max="2" width="17.90625" customWidth="1"/>
-    <col min="3" max="3" width="13.54296875" customWidth="1"/>
-    <col min="4" max="4" width="10.6328125" customWidth="1"/>
+    <col min="1" max="1" width="3.44140625" customWidth="1"/>
+    <col min="2" max="2" width="17.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" customWidth="1"/>
     <col min="5" max="5" width="6" customWidth="1"/>
-    <col min="6" max="6" width="8.54296875" customWidth="1"/>
-    <col min="7" max="7" width="9.90625" customWidth="1"/>
-    <col min="8" max="8" width="8.08984375" customWidth="1"/>
-    <col min="9" max="9" width="10.453125" customWidth="1"/>
+    <col min="6" max="6" width="8.5546875" customWidth="1"/>
+    <col min="7" max="7" width="9.88671875" customWidth="1"/>
+    <col min="8" max="8" width="8.109375" customWidth="1"/>
+    <col min="9" max="9" width="10.44140625" customWidth="1"/>
     <col min="10" max="10" width="10" customWidth="1"/>
-    <col min="11" max="11" width="8.08984375" customWidth="1"/>
-    <col min="12" max="12" width="11.08984375" customWidth="1"/>
-    <col min="13" max="13" width="11.36328125" customWidth="1"/>
-    <col min="14" max="14" width="8.453125" customWidth="1"/>
-    <col min="15" max="15" width="9.36328125" customWidth="1"/>
-    <col min="16" max="16" width="11.6328125" customWidth="1"/>
-    <col min="19" max="19" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.109375" customWidth="1"/>
+    <col min="12" max="12" width="11.109375" customWidth="1"/>
+    <col min="13" max="13" width="11.33203125" customWidth="1"/>
+    <col min="14" max="14" width="8.44140625" customWidth="1"/>
+    <col min="15" max="15" width="9.33203125" customWidth="1"/>
+    <col min="16" max="16" width="11.6640625" customWidth="1"/>
+    <col min="19" max="19" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:17" ht="27" customHeight="1">
       <c r="B2" s="7"/>
     </row>
-    <row r="3" spans="1:17" ht="20">
+    <row r="3" spans="1:17" ht="20.399999999999999">
       <c r="A3" s="49" t="s">
         <v>80</v>
       </c>
@@ -1150,7 +1145,7 @@
       <c r="O3" s="49"/>
       <c r="P3" s="49"/>
     </row>
-    <row r="4" spans="1:17" ht="20">
+    <row r="4" spans="1:17" ht="20.399999999999999">
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
     </row>
@@ -1164,72 +1159,72 @@
       </c>
     </row>
     <row r="7" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="48" t="s">
+      <c r="B7" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="48" t="s">
+      <c r="C7" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="48" t="s">
+      <c r="D7" s="47" t="s">
         <v>2</v>
       </c>
       <c r="E7" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="F7" s="48" t="s">
+      <c r="F7" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="G7" s="48" t="s">
+      <c r="G7" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="48" t="s">
+      <c r="H7" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="I7" s="48" t="s">
+      <c r="I7" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="J7" s="48" t="s">
+      <c r="J7" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="K7" s="48" t="s">
+      <c r="K7" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="L7" s="48" t="s">
+      <c r="L7" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="M7" s="48" t="s">
+      <c r="M7" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="N7" s="48" t="s">
+      <c r="N7" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="O7" s="48" t="s">
+      <c r="O7" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="P7" s="48" t="s">
+      <c r="P7" s="47" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="48.75" customHeight="1">
-      <c r="A8" s="48"/>
-      <c r="B8" s="48"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
+      <c r="A8" s="47"/>
+      <c r="B8" s="47"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
       <c r="E8" s="51"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="48"/>
-      <c r="J8" s="48"/>
-      <c r="K8" s="48"/>
-      <c r="L8" s="48"/>
-      <c r="M8" s="48"/>
-      <c r="N8" s="48"/>
-      <c r="O8" s="48"/>
-      <c r="P8" s="48"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="47"/>
+      <c r="L8" s="47"/>
+      <c r="M8" s="47"/>
+      <c r="N8" s="47"/>
+      <c r="O8" s="47"/>
+      <c r="P8" s="47"/>
     </row>
     <row r="9" spans="1:17" ht="31.5" customHeight="1">
       <c r="A9" s="3">
@@ -1343,25 +1338,25 @@
       </c>
       <c r="Q10" s="9"/>
     </row>
-    <row r="11" spans="1:17" ht="15">
+    <row r="11" spans="1:17" ht="15.6">
       <c r="L11" s="11"/>
       <c r="P11" s="15">
         <f>P10+K10</f>
         <v>4943.4166500000001</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="13" thickBot="1"/>
-    <row r="13" spans="1:17" ht="16" thickBot="1">
-      <c r="B13" s="47" t="s">
+    <row r="12" spans="1:17" ht="13.8" thickBot="1"/>
+    <row r="13" spans="1:17" ht="16.2" thickBot="1">
+      <c r="B13" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="47"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="47"/>
-      <c r="H13" s="47"/>
-      <c r="I13" s="47"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="48"/>
+      <c r="I13" s="48"/>
       <c r="J13" s="12">
         <v>0.22</v>
       </c>
@@ -1377,20 +1372,20 @@
       </c>
       <c r="P13" s="16"/>
     </row>
-    <row r="14" spans="1:17" ht="13.5" thickBot="1">
+    <row r="14" spans="1:17" ht="13.8" thickBot="1">
       <c r="P14" s="16"/>
     </row>
-    <row r="15" spans="1:17" ht="16" thickBot="1">
-      <c r="B15" s="47" t="s">
+    <row r="15" spans="1:17" ht="16.2" thickBot="1">
+      <c r="B15" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="47"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="47"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="47"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="48"/>
+      <c r="I15" s="48"/>
       <c r="J15" s="12">
         <v>0.22</v>
       </c>
@@ -1400,31 +1395,31 @@
       </c>
       <c r="M15" s="24"/>
     </row>
-    <row r="16" spans="1:17" ht="16" thickBot="1">
-      <c r="B16" s="47"/>
-      <c r="C16" s="47"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="47"/>
-      <c r="H16" s="47"/>
-      <c r="I16" s="47"/>
+    <row r="16" spans="1:17" ht="16.2" thickBot="1">
+      <c r="B16" s="48"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="48"/>
+      <c r="I16" s="48"/>
       <c r="J16" s="12"/>
       <c r="K16" s="12"/>
       <c r="L16" s="25"/>
     </row>
-    <row r="17" spans="2:13" ht="13" thickBot="1"/>
-    <row r="18" spans="2:13" ht="16" thickBot="1">
-      <c r="B18" s="47" t="s">
+    <row r="17" spans="2:13" ht="13.8" thickBot="1"/>
+    <row r="18" spans="2:13" ht="16.2" thickBot="1">
+      <c r="B18" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="47"/>
-      <c r="D18" s="47"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="47"/>
-      <c r="H18" s="47"/>
-      <c r="I18" s="47"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="48"/>
+      <c r="H18" s="48"/>
+      <c r="I18" s="48"/>
       <c r="L18" s="27">
         <f>M10+L10+L13+L15</f>
         <v>3868.4691499999999</v>
@@ -1433,6 +1428,16 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A3:P3"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
     <mergeCell ref="P7:P8"/>
     <mergeCell ref="B13:I13"/>
     <mergeCell ref="B15:I15"/>
@@ -1444,16 +1449,6 @@
     <mergeCell ref="M7:M8"/>
     <mergeCell ref="N7:N8"/>
     <mergeCell ref="O7:O8"/>
-    <mergeCell ref="A3:P3"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
@@ -1469,31 +1464,31 @@
       <selection activeCell="A3" sqref="A3:P3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="3.453125" customWidth="1"/>
-    <col min="2" max="2" width="17.90625" customWidth="1"/>
-    <col min="3" max="3" width="13.54296875" customWidth="1"/>
-    <col min="4" max="4" width="10.6328125" customWidth="1"/>
+    <col min="1" max="1" width="3.44140625" customWidth="1"/>
+    <col min="2" max="2" width="17.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" customWidth="1"/>
     <col min="5" max="5" width="6" customWidth="1"/>
-    <col min="6" max="6" width="8.54296875" customWidth="1"/>
-    <col min="7" max="7" width="11.90625" customWidth="1"/>
-    <col min="8" max="8" width="5.6328125" customWidth="1"/>
-    <col min="9" max="9" width="6.90625" customWidth="1"/>
+    <col min="6" max="6" width="8.5546875" customWidth="1"/>
+    <col min="7" max="7" width="11.88671875" customWidth="1"/>
+    <col min="8" max="8" width="5.6640625" customWidth="1"/>
+    <col min="9" max="9" width="6.88671875" customWidth="1"/>
     <col min="10" max="10" width="10" customWidth="1"/>
-    <col min="11" max="11" width="8.08984375" customWidth="1"/>
-    <col min="12" max="12" width="11.08984375" customWidth="1"/>
-    <col min="13" max="13" width="11.36328125" customWidth="1"/>
-    <col min="14" max="14" width="8.453125" customWidth="1"/>
-    <col min="15" max="15" width="9.36328125" customWidth="1"/>
-    <col min="16" max="16" width="11.6328125" customWidth="1"/>
-    <col min="19" max="19" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.109375" customWidth="1"/>
+    <col min="12" max="12" width="11.109375" customWidth="1"/>
+    <col min="13" max="13" width="11.33203125" customWidth="1"/>
+    <col min="14" max="14" width="8.44140625" customWidth="1"/>
+    <col min="15" max="15" width="9.33203125" customWidth="1"/>
+    <col min="16" max="16" width="11.6640625" customWidth="1"/>
+    <col min="19" max="19" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:17" ht="27" customHeight="1">
       <c r="B2" s="7"/>
     </row>
-    <row r="3" spans="1:17" ht="20">
+    <row r="3" spans="1:17" ht="20.399999999999999">
       <c r="A3" s="49" t="s">
         <v>74</v>
       </c>
@@ -1513,7 +1508,7 @@
       <c r="O3" s="49"/>
       <c r="P3" s="49"/>
     </row>
-    <row r="4" spans="1:17" ht="20">
+    <row r="4" spans="1:17" ht="20.399999999999999">
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
     </row>
@@ -1524,72 +1519,72 @@
       </c>
     </row>
     <row r="7" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="48" t="s">
+      <c r="B7" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="48" t="s">
+      <c r="C7" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="48" t="s">
+      <c r="D7" s="47" t="s">
         <v>2</v>
       </c>
       <c r="E7" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="F7" s="48" t="s">
+      <c r="F7" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="G7" s="48" t="s">
+      <c r="G7" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="48" t="s">
+      <c r="H7" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="I7" s="48" t="s">
+      <c r="I7" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="J7" s="48" t="s">
+      <c r="J7" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="K7" s="48" t="s">
+      <c r="K7" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="L7" s="48" t="s">
+      <c r="L7" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="M7" s="48" t="s">
+      <c r="M7" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="N7" s="48" t="s">
+      <c r="N7" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="O7" s="48" t="s">
+      <c r="O7" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="P7" s="48" t="s">
+      <c r="P7" s="47" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="48.75" customHeight="1">
-      <c r="A8" s="48"/>
-      <c r="B8" s="48"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
+      <c r="A8" s="47"/>
+      <c r="B8" s="47"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
       <c r="E8" s="51"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="48"/>
-      <c r="J8" s="48"/>
-      <c r="K8" s="48"/>
-      <c r="L8" s="48"/>
-      <c r="M8" s="48"/>
-      <c r="N8" s="48"/>
-      <c r="O8" s="48"/>
-      <c r="P8" s="48"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="47"/>
+      <c r="L8" s="47"/>
+      <c r="M8" s="47"/>
+      <c r="N8" s="47"/>
+      <c r="O8" s="47"/>
+      <c r="P8" s="47"/>
     </row>
     <row r="9" spans="1:17" ht="31.5" customHeight="1">
       <c r="A9" s="3">
@@ -1693,25 +1688,25 @@
       </c>
       <c r="Q10" s="9"/>
     </row>
-    <row r="11" spans="1:17" ht="15">
+    <row r="11" spans="1:17" ht="15.6">
       <c r="L11" s="11"/>
       <c r="P11" s="15">
         <f>P10+K10</f>
         <v>4065.25</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="13" thickBot="1"/>
-    <row r="13" spans="1:17" ht="16" thickBot="1">
-      <c r="B13" s="47" t="s">
+    <row r="12" spans="1:17" ht="13.8" thickBot="1"/>
+    <row r="13" spans="1:17" ht="16.2" thickBot="1">
+      <c r="B13" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="47"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="47"/>
-      <c r="H13" s="47"/>
-      <c r="I13" s="47"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="48"/>
+      <c r="I13" s="48"/>
       <c r="J13" s="12">
         <v>0.22</v>
       </c>
@@ -1727,20 +1722,20 @@
       </c>
       <c r="P13" s="16"/>
     </row>
-    <row r="14" spans="1:17" ht="13.5" thickBot="1">
+    <row r="14" spans="1:17" ht="13.8" thickBot="1">
       <c r="P14" s="16"/>
     </row>
-    <row r="15" spans="1:17" ht="16" thickBot="1">
-      <c r="B15" s="47" t="s">
+    <row r="15" spans="1:17" ht="16.2" thickBot="1">
+      <c r="B15" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="47"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="47"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="47"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="48"/>
+      <c r="I15" s="48"/>
       <c r="J15" s="12">
         <v>0.22</v>
       </c>
@@ -1750,31 +1745,31 @@
       </c>
       <c r="M15" s="24"/>
     </row>
-    <row r="16" spans="1:17" ht="16" thickBot="1">
-      <c r="B16" s="47"/>
-      <c r="C16" s="47"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="47"/>
-      <c r="H16" s="47"/>
-      <c r="I16" s="47"/>
+    <row r="16" spans="1:17" ht="16.2" thickBot="1">
+      <c r="B16" s="48"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="48"/>
+      <c r="I16" s="48"/>
       <c r="J16" s="12"/>
       <c r="K16" s="12"/>
       <c r="L16" s="25"/>
     </row>
-    <row r="17" spans="2:13" ht="13" thickBot="1"/>
-    <row r="18" spans="2:13" ht="16" thickBot="1">
-      <c r="B18" s="47" t="s">
+    <row r="17" spans="2:13" ht="13.8" thickBot="1"/>
+    <row r="18" spans="2:13" ht="16.2" thickBot="1">
+      <c r="B18" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="47"/>
-      <c r="D18" s="47"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="47"/>
-      <c r="H18" s="47"/>
-      <c r="I18" s="47"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="48"/>
+      <c r="H18" s="48"/>
+      <c r="I18" s="48"/>
       <c r="L18" s="27">
         <f>M10+L10+L13+L15</f>
         <v>3195.75</v>
@@ -1783,14 +1778,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B18:I18"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="B16:I16"/>
-    <mergeCell ref="B13:I13"/>
-    <mergeCell ref="B15:I15"/>
     <mergeCell ref="A3:P3"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
@@ -1804,6 +1791,14 @@
     <mergeCell ref="N7:N8"/>
     <mergeCell ref="E7:E8"/>
     <mergeCell ref="F7:F8"/>
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="B16:I16"/>
+    <mergeCell ref="B13:I13"/>
+    <mergeCell ref="B15:I15"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
@@ -1819,31 +1814,31 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="3.453125" customWidth="1"/>
-    <col min="2" max="2" width="17.90625" customWidth="1"/>
-    <col min="3" max="3" width="13.54296875" customWidth="1"/>
-    <col min="4" max="4" width="10.6328125" customWidth="1"/>
+    <col min="1" max="1" width="3.44140625" customWidth="1"/>
+    <col min="2" max="2" width="17.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" customWidth="1"/>
     <col min="5" max="5" width="6" customWidth="1"/>
-    <col min="6" max="6" width="8.54296875" customWidth="1"/>
-    <col min="7" max="7" width="11.90625" customWidth="1"/>
-    <col min="8" max="8" width="5.6328125" customWidth="1"/>
-    <col min="9" max="9" width="6.90625" customWidth="1"/>
+    <col min="6" max="6" width="8.5546875" customWidth="1"/>
+    <col min="7" max="7" width="11.88671875" customWidth="1"/>
+    <col min="8" max="8" width="5.6640625" customWidth="1"/>
+    <col min="9" max="9" width="6.88671875" customWidth="1"/>
     <col min="10" max="10" width="10" customWidth="1"/>
-    <col min="11" max="11" width="8.08984375" customWidth="1"/>
-    <col min="12" max="12" width="11.08984375" customWidth="1"/>
-    <col min="13" max="13" width="11.36328125" customWidth="1"/>
-    <col min="14" max="14" width="8.453125" customWidth="1"/>
-    <col min="15" max="15" width="9.36328125" customWidth="1"/>
-    <col min="16" max="16" width="11.6328125" customWidth="1"/>
-    <col min="19" max="19" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.109375" customWidth="1"/>
+    <col min="12" max="12" width="11.109375" customWidth="1"/>
+    <col min="13" max="13" width="11.33203125" customWidth="1"/>
+    <col min="14" max="14" width="8.44140625" customWidth="1"/>
+    <col min="15" max="15" width="9.33203125" customWidth="1"/>
+    <col min="16" max="16" width="11.6640625" customWidth="1"/>
+    <col min="19" max="19" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:17" ht="27" customHeight="1">
       <c r="B2" s="7"/>
     </row>
-    <row r="3" spans="1:17" ht="20">
+    <row r="3" spans="1:17" ht="20.399999999999999">
       <c r="A3" s="49" t="s">
         <v>63</v>
       </c>
@@ -1863,7 +1858,7 @@
       <c r="O3" s="49"/>
       <c r="P3" s="49"/>
     </row>
-    <row r="4" spans="1:17" ht="20">
+    <row r="4" spans="1:17" ht="20.399999999999999">
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
     </row>
@@ -1874,72 +1869,72 @@
       </c>
     </row>
     <row r="7" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="48" t="s">
+      <c r="B7" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="48" t="s">
+      <c r="C7" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="48" t="s">
+      <c r="D7" s="47" t="s">
         <v>2</v>
       </c>
       <c r="E7" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="F7" s="48" t="s">
+      <c r="F7" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="G7" s="48" t="s">
+      <c r="G7" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="48" t="s">
+      <c r="H7" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="I7" s="48" t="s">
+      <c r="I7" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="J7" s="48" t="s">
+      <c r="J7" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="K7" s="48" t="s">
+      <c r="K7" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="L7" s="48" t="s">
+      <c r="L7" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="M7" s="48" t="s">
+      <c r="M7" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="N7" s="48" t="s">
+      <c r="N7" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="O7" s="48" t="s">
+      <c r="O7" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="P7" s="48" t="s">
+      <c r="P7" s="47" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="48.75" customHeight="1">
-      <c r="A8" s="48"/>
-      <c r="B8" s="48"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
+      <c r="A8" s="47"/>
+      <c r="B8" s="47"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
       <c r="E8" s="51"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="48"/>
-      <c r="J8" s="48"/>
-      <c r="K8" s="48"/>
-      <c r="L8" s="48"/>
-      <c r="M8" s="48"/>
-      <c r="N8" s="48"/>
-      <c r="O8" s="48"/>
-      <c r="P8" s="48"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="47"/>
+      <c r="L8" s="47"/>
+      <c r="M8" s="47"/>
+      <c r="N8" s="47"/>
+      <c r="O8" s="47"/>
+      <c r="P8" s="47"/>
     </row>
     <row r="9" spans="1:17" ht="31.5" customHeight="1">
       <c r="A9" s="3">
@@ -2043,25 +2038,25 @@
       </c>
       <c r="Q10" s="9"/>
     </row>
-    <row r="11" spans="1:17" ht="15">
+    <row r="11" spans="1:17" ht="15.6">
       <c r="L11" s="11"/>
       <c r="P11" s="15">
         <f>P10+K10</f>
         <v>4065.25</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="13" thickBot="1"/>
-    <row r="13" spans="1:17" ht="16" thickBot="1">
-      <c r="B13" s="47" t="s">
+    <row r="12" spans="1:17" ht="13.8" thickBot="1"/>
+    <row r="13" spans="1:17" ht="16.2" thickBot="1">
+      <c r="B13" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="47"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="47"/>
-      <c r="H13" s="47"/>
-      <c r="I13" s="47"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="48"/>
+      <c r="I13" s="48"/>
       <c r="J13" s="12">
         <v>0.22</v>
       </c>
@@ -2077,20 +2072,20 @@
       </c>
       <c r="P13" s="16"/>
     </row>
-    <row r="14" spans="1:17" ht="13.5" thickBot="1">
+    <row r="14" spans="1:17" ht="13.8" thickBot="1">
       <c r="P14" s="16"/>
     </row>
-    <row r="15" spans="1:17" ht="16" thickBot="1">
-      <c r="B15" s="47" t="s">
+    <row r="15" spans="1:17" ht="16.2" thickBot="1">
+      <c r="B15" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="47"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="47"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="47"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="48"/>
+      <c r="I15" s="48"/>
       <c r="J15" s="12">
         <v>0.22</v>
       </c>
@@ -2100,31 +2095,31 @@
       </c>
       <c r="M15" s="24"/>
     </row>
-    <row r="16" spans="1:17" ht="16" thickBot="1">
-      <c r="B16" s="47"/>
-      <c r="C16" s="47"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="47"/>
-      <c r="H16" s="47"/>
-      <c r="I16" s="47"/>
+    <row r="16" spans="1:17" ht="16.2" thickBot="1">
+      <c r="B16" s="48"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="48"/>
+      <c r="I16" s="48"/>
       <c r="J16" s="12"/>
       <c r="K16" s="12"/>
       <c r="L16" s="25"/>
     </row>
-    <row r="17" spans="2:13" ht="13" thickBot="1"/>
-    <row r="18" spans="2:13" ht="16" thickBot="1">
-      <c r="B18" s="47" t="s">
+    <row r="17" spans="2:13" ht="13.8" thickBot="1"/>
+    <row r="18" spans="2:13" ht="16.2" thickBot="1">
+      <c r="B18" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="47"/>
-      <c r="D18" s="47"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="47"/>
-      <c r="H18" s="47"/>
-      <c r="I18" s="47"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="48"/>
+      <c r="H18" s="48"/>
+      <c r="I18" s="48"/>
       <c r="L18" s="27">
         <f>M10+L10+L13+L15</f>
         <v>3195.75</v>
@@ -2133,6 +2128,14 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A3:P3"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="O7:O8"/>
     <mergeCell ref="B13:I13"/>
     <mergeCell ref="N7:N8"/>
     <mergeCell ref="B15:I15"/>
@@ -2146,14 +2149,6 @@
     <mergeCell ref="H7:H8"/>
     <mergeCell ref="I7:I8"/>
     <mergeCell ref="G7:G8"/>
-    <mergeCell ref="A3:P3"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="P7:P8"/>
-    <mergeCell ref="O7:O8"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
@@ -2169,31 +2164,31 @@
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="3.453125" customWidth="1"/>
-    <col min="2" max="2" width="17.90625" customWidth="1"/>
-    <col min="3" max="3" width="13.54296875" customWidth="1"/>
-    <col min="4" max="4" width="10.6328125" customWidth="1"/>
+    <col min="1" max="1" width="3.44140625" customWidth="1"/>
+    <col min="2" max="2" width="17.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" customWidth="1"/>
     <col min="5" max="5" width="6" customWidth="1"/>
-    <col min="6" max="6" width="8.54296875" customWidth="1"/>
-    <col min="7" max="7" width="11.90625" customWidth="1"/>
-    <col min="8" max="8" width="5.6328125" customWidth="1"/>
-    <col min="9" max="9" width="6.90625" customWidth="1"/>
+    <col min="6" max="6" width="8.5546875" customWidth="1"/>
+    <col min="7" max="7" width="11.88671875" customWidth="1"/>
+    <col min="8" max="8" width="5.6640625" customWidth="1"/>
+    <col min="9" max="9" width="6.88671875" customWidth="1"/>
     <col min="10" max="10" width="10" customWidth="1"/>
-    <col min="11" max="11" width="8.08984375" customWidth="1"/>
-    <col min="12" max="12" width="11.08984375" customWidth="1"/>
-    <col min="13" max="13" width="11.36328125" customWidth="1"/>
-    <col min="14" max="14" width="8.453125" customWidth="1"/>
-    <col min="15" max="15" width="9.36328125" customWidth="1"/>
-    <col min="16" max="16" width="11.6328125" customWidth="1"/>
-    <col min="19" max="19" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.109375" customWidth="1"/>
+    <col min="12" max="12" width="11.109375" customWidth="1"/>
+    <col min="13" max="13" width="11.33203125" customWidth="1"/>
+    <col min="14" max="14" width="8.44140625" customWidth="1"/>
+    <col min="15" max="15" width="9.33203125" customWidth="1"/>
+    <col min="16" max="16" width="11.6640625" customWidth="1"/>
+    <col min="19" max="19" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:17" ht="27" customHeight="1">
       <c r="B2" s="7"/>
     </row>
-    <row r="3" spans="1:17" ht="20">
+    <row r="3" spans="1:17" ht="20.399999999999999">
       <c r="A3" s="49" t="s">
         <v>62</v>
       </c>
@@ -2213,7 +2208,7 @@
       <c r="O3" s="49"/>
       <c r="P3" s="49"/>
     </row>
-    <row r="4" spans="1:17" ht="20">
+    <row r="4" spans="1:17" ht="20.399999999999999">
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
     </row>
@@ -2224,72 +2219,72 @@
       </c>
     </row>
     <row r="7" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="48" t="s">
+      <c r="B7" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="48" t="s">
+      <c r="C7" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="48" t="s">
+      <c r="D7" s="47" t="s">
         <v>2</v>
       </c>
       <c r="E7" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="F7" s="48" t="s">
+      <c r="F7" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="G7" s="48" t="s">
+      <c r="G7" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="48" t="s">
+      <c r="H7" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="I7" s="48" t="s">
+      <c r="I7" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="J7" s="48" t="s">
+      <c r="J7" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="K7" s="48" t="s">
+      <c r="K7" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="L7" s="48" t="s">
+      <c r="L7" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="M7" s="48" t="s">
+      <c r="M7" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="N7" s="48" t="s">
+      <c r="N7" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="O7" s="48" t="s">
+      <c r="O7" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="P7" s="48" t="s">
+      <c r="P7" s="47" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="48.75" customHeight="1">
-      <c r="A8" s="48"/>
-      <c r="B8" s="48"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
+      <c r="A8" s="47"/>
+      <c r="B8" s="47"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
       <c r="E8" s="51"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="48"/>
-      <c r="J8" s="48"/>
-      <c r="K8" s="48"/>
-      <c r="L8" s="48"/>
-      <c r="M8" s="48"/>
-      <c r="N8" s="48"/>
-      <c r="O8" s="48"/>
-      <c r="P8" s="48"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="47"/>
+      <c r="L8" s="47"/>
+      <c r="M8" s="47"/>
+      <c r="N8" s="47"/>
+      <c r="O8" s="47"/>
+      <c r="P8" s="47"/>
     </row>
     <row r="9" spans="1:17" ht="31.5" customHeight="1">
       <c r="A9" s="3">
@@ -2393,25 +2388,25 @@
       </c>
       <c r="Q10" s="9"/>
     </row>
-    <row r="11" spans="1:17" ht="15">
+    <row r="11" spans="1:17" ht="15.6">
       <c r="L11" s="11"/>
       <c r="P11" s="15">
         <f>P10+K10</f>
         <v>4065.25</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="13" thickBot="1"/>
-    <row r="13" spans="1:17" ht="16" thickBot="1">
-      <c r="B13" s="47" t="s">
+    <row r="12" spans="1:17" ht="13.8" thickBot="1"/>
+    <row r="13" spans="1:17" ht="16.2" thickBot="1">
+      <c r="B13" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="47"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="47"/>
-      <c r="H13" s="47"/>
-      <c r="I13" s="47"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="48"/>
+      <c r="I13" s="48"/>
       <c r="J13" s="12">
         <v>0.22</v>
       </c>
@@ -2427,20 +2422,20 @@
       </c>
       <c r="P13" s="16"/>
     </row>
-    <row r="14" spans="1:17" ht="13.5" thickBot="1">
+    <row r="14" spans="1:17" ht="13.8" thickBot="1">
       <c r="P14" s="16"/>
     </row>
-    <row r="15" spans="1:17" ht="16" thickBot="1">
-      <c r="B15" s="47" t="s">
+    <row r="15" spans="1:17" ht="16.2" thickBot="1">
+      <c r="B15" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="47"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="47"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="47"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="48"/>
+      <c r="I15" s="48"/>
       <c r="J15" s="12">
         <v>0.22</v>
       </c>
@@ -2450,31 +2445,31 @@
       </c>
       <c r="M15" s="24"/>
     </row>
-    <row r="16" spans="1:17" ht="16" thickBot="1">
-      <c r="B16" s="47"/>
-      <c r="C16" s="47"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="47"/>
-      <c r="H16" s="47"/>
-      <c r="I16" s="47"/>
+    <row r="16" spans="1:17" ht="16.2" thickBot="1">
+      <c r="B16" s="48"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="48"/>
+      <c r="I16" s="48"/>
       <c r="J16" s="12"/>
       <c r="K16" s="12"/>
       <c r="L16" s="25"/>
     </row>
-    <row r="17" spans="2:13" ht="13" thickBot="1"/>
-    <row r="18" spans="2:13" ht="16" thickBot="1">
-      <c r="B18" s="47" t="s">
+    <row r="17" spans="2:13" ht="13.8" thickBot="1"/>
+    <row r="18" spans="2:13" ht="16.2" thickBot="1">
+      <c r="B18" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="47"/>
-      <c r="D18" s="47"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="47"/>
-      <c r="H18" s="47"/>
-      <c r="I18" s="47"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="48"/>
+      <c r="H18" s="48"/>
+      <c r="I18" s="48"/>
       <c r="L18" s="27">
         <f>M10+L10+L13+L15</f>
         <v>3195.75</v>
@@ -2483,14 +2478,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B18:I18"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="B16:I16"/>
-    <mergeCell ref="B13:I13"/>
-    <mergeCell ref="B15:I15"/>
     <mergeCell ref="A3:P3"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
@@ -2504,6 +2491,14 @@
     <mergeCell ref="H7:H8"/>
     <mergeCell ref="I7:I8"/>
     <mergeCell ref="G7:G8"/>
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="B16:I16"/>
+    <mergeCell ref="B13:I13"/>
+    <mergeCell ref="B15:I15"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
@@ -2519,31 +2514,31 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="3.453125" customWidth="1"/>
-    <col min="2" max="2" width="17.90625" customWidth="1"/>
-    <col min="3" max="3" width="13.54296875" customWidth="1"/>
-    <col min="4" max="4" width="10.6328125" customWidth="1"/>
+    <col min="1" max="1" width="3.44140625" customWidth="1"/>
+    <col min="2" max="2" width="17.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" customWidth="1"/>
     <col min="5" max="5" width="6" customWidth="1"/>
-    <col min="6" max="6" width="8.54296875" customWidth="1"/>
-    <col min="7" max="7" width="11.90625" customWidth="1"/>
-    <col min="8" max="8" width="5.6328125" customWidth="1"/>
-    <col min="9" max="9" width="6.90625" customWidth="1"/>
+    <col min="6" max="6" width="8.5546875" customWidth="1"/>
+    <col min="7" max="7" width="11.88671875" customWidth="1"/>
+    <col min="8" max="8" width="5.6640625" customWidth="1"/>
+    <col min="9" max="9" width="6.88671875" customWidth="1"/>
     <col min="10" max="10" width="10" customWidth="1"/>
-    <col min="11" max="11" width="8.08984375" customWidth="1"/>
-    <col min="12" max="12" width="11.08984375" customWidth="1"/>
-    <col min="13" max="13" width="11.36328125" customWidth="1"/>
-    <col min="14" max="14" width="8.453125" customWidth="1"/>
-    <col min="15" max="15" width="9.36328125" customWidth="1"/>
-    <col min="16" max="16" width="11.6328125" customWidth="1"/>
-    <col min="19" max="19" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.109375" customWidth="1"/>
+    <col min="12" max="12" width="11.109375" customWidth="1"/>
+    <col min="13" max="13" width="11.33203125" customWidth="1"/>
+    <col min="14" max="14" width="8.44140625" customWidth="1"/>
+    <col min="15" max="15" width="9.33203125" customWidth="1"/>
+    <col min="16" max="16" width="11.6640625" customWidth="1"/>
+    <col min="19" max="19" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:17" ht="27" customHeight="1">
       <c r="B2" s="7"/>
     </row>
-    <row r="3" spans="1:17" ht="20">
+    <row r="3" spans="1:17" ht="20.399999999999999">
       <c r="A3" s="49" t="s">
         <v>61</v>
       </c>
@@ -2563,7 +2558,7 @@
       <c r="O3" s="49"/>
       <c r="P3" s="49"/>
     </row>
-    <row r="4" spans="1:17" ht="20">
+    <row r="4" spans="1:17" ht="20.399999999999999">
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
     </row>
@@ -2574,72 +2569,72 @@
       </c>
     </row>
     <row r="7" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="48" t="s">
+      <c r="B7" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="48" t="s">
+      <c r="C7" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="48" t="s">
+      <c r="D7" s="47" t="s">
         <v>2</v>
       </c>
       <c r="E7" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="F7" s="48" t="s">
+      <c r="F7" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="G7" s="48" t="s">
+      <c r="G7" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="48" t="s">
+      <c r="H7" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="I7" s="48" t="s">
+      <c r="I7" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="J7" s="48" t="s">
+      <c r="J7" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="K7" s="48" t="s">
+      <c r="K7" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="L7" s="48" t="s">
+      <c r="L7" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="M7" s="48" t="s">
+      <c r="M7" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="N7" s="48" t="s">
+      <c r="N7" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="O7" s="48" t="s">
+      <c r="O7" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="P7" s="48" t="s">
+      <c r="P7" s="47" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="48.75" customHeight="1">
-      <c r="A8" s="48"/>
-      <c r="B8" s="48"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
+      <c r="A8" s="47"/>
+      <c r="B8" s="47"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
       <c r="E8" s="51"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="48"/>
-      <c r="J8" s="48"/>
-      <c r="K8" s="48"/>
-      <c r="L8" s="48"/>
-      <c r="M8" s="48"/>
-      <c r="N8" s="48"/>
-      <c r="O8" s="48"/>
-      <c r="P8" s="48"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="47"/>
+      <c r="L8" s="47"/>
+      <c r="M8" s="47"/>
+      <c r="N8" s="47"/>
+      <c r="O8" s="47"/>
+      <c r="P8" s="47"/>
     </row>
     <row r="9" spans="1:17" ht="31.5" customHeight="1">
       <c r="A9" s="3">
@@ -2743,25 +2738,25 @@
       </c>
       <c r="Q10" s="9"/>
     </row>
-    <row r="11" spans="1:17" ht="15">
+    <row r="11" spans="1:17" ht="15.6">
       <c r="L11" s="11"/>
       <c r="P11" s="15">
         <f>P10+K10</f>
         <v>4065.25</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="13" thickBot="1"/>
-    <row r="13" spans="1:17" ht="16" thickBot="1">
-      <c r="B13" s="47" t="s">
+    <row r="12" spans="1:17" ht="13.8" thickBot="1"/>
+    <row r="13" spans="1:17" ht="16.2" thickBot="1">
+      <c r="B13" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="47"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="47"/>
-      <c r="H13" s="47"/>
-      <c r="I13" s="47"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="48"/>
+      <c r="I13" s="48"/>
       <c r="J13" s="12">
         <v>0.22</v>
       </c>
@@ -2777,20 +2772,20 @@
       </c>
       <c r="P13" s="16"/>
     </row>
-    <row r="14" spans="1:17" ht="13.5" thickBot="1">
+    <row r="14" spans="1:17" ht="13.8" thickBot="1">
       <c r="P14" s="16"/>
     </row>
-    <row r="15" spans="1:17" ht="16" thickBot="1">
-      <c r="B15" s="47" t="s">
+    <row r="15" spans="1:17" ht="16.2" thickBot="1">
+      <c r="B15" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="47"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="47"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="47"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="48"/>
+      <c r="I15" s="48"/>
       <c r="J15" s="12">
         <v>0.22</v>
       </c>
@@ -2800,31 +2795,31 @@
       </c>
       <c r="M15" s="24"/>
     </row>
-    <row r="16" spans="1:17" ht="16" thickBot="1">
-      <c r="B16" s="47"/>
-      <c r="C16" s="47"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="47"/>
-      <c r="H16" s="47"/>
-      <c r="I16" s="47"/>
+    <row r="16" spans="1:17" ht="16.2" thickBot="1">
+      <c r="B16" s="48"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="48"/>
+      <c r="I16" s="48"/>
       <c r="J16" s="12"/>
       <c r="K16" s="12"/>
       <c r="L16" s="25"/>
     </row>
-    <row r="17" spans="2:13" ht="13" thickBot="1"/>
-    <row r="18" spans="2:13" ht="16" thickBot="1">
-      <c r="B18" s="47" t="s">
+    <row r="17" spans="2:13" ht="13.8" thickBot="1"/>
+    <row r="18" spans="2:13" ht="16.2" thickBot="1">
+      <c r="B18" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="47"/>
-      <c r="D18" s="47"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="47"/>
-      <c r="H18" s="47"/>
-      <c r="I18" s="47"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="48"/>
+      <c r="H18" s="48"/>
+      <c r="I18" s="48"/>
       <c r="L18" s="27">
         <f>M10+L10+L13+L15</f>
         <v>3195.75</v>
@@ -2833,6 +2828,15 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="B16:I16"/>
+    <mergeCell ref="B13:I13"/>
+    <mergeCell ref="B15:I15"/>
     <mergeCell ref="O7:O8"/>
     <mergeCell ref="E7:E8"/>
     <mergeCell ref="A3:P3"/>
@@ -2845,15 +2849,6 @@
     <mergeCell ref="N7:N8"/>
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="H7:H8"/>
-    <mergeCell ref="B18:I18"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="B16:I16"/>
-    <mergeCell ref="B13:I13"/>
-    <mergeCell ref="B15:I15"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
@@ -2869,31 +2864,31 @@
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="3.453125" customWidth="1"/>
-    <col min="2" max="2" width="17.90625" customWidth="1"/>
-    <col min="3" max="3" width="13.54296875" customWidth="1"/>
-    <col min="4" max="4" width="10.6328125" customWidth="1"/>
+    <col min="1" max="1" width="3.44140625" customWidth="1"/>
+    <col min="2" max="2" width="17.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" customWidth="1"/>
     <col min="5" max="5" width="6" customWidth="1"/>
-    <col min="6" max="6" width="8.54296875" customWidth="1"/>
-    <col min="7" max="7" width="11.90625" customWidth="1"/>
-    <col min="8" max="8" width="5.6328125" customWidth="1"/>
-    <col min="9" max="9" width="6.90625" customWidth="1"/>
+    <col min="6" max="6" width="8.5546875" customWidth="1"/>
+    <col min="7" max="7" width="11.88671875" customWidth="1"/>
+    <col min="8" max="8" width="5.6640625" customWidth="1"/>
+    <col min="9" max="9" width="6.88671875" customWidth="1"/>
     <col min="10" max="10" width="10" customWidth="1"/>
-    <col min="11" max="11" width="8.08984375" customWidth="1"/>
-    <col min="12" max="12" width="11.08984375" customWidth="1"/>
-    <col min="13" max="13" width="11.36328125" customWidth="1"/>
-    <col min="14" max="14" width="8.453125" customWidth="1"/>
-    <col min="15" max="15" width="9.36328125" customWidth="1"/>
-    <col min="16" max="16" width="11.6328125" customWidth="1"/>
-    <col min="19" max="19" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.109375" customWidth="1"/>
+    <col min="12" max="12" width="11.109375" customWidth="1"/>
+    <col min="13" max="13" width="11.33203125" customWidth="1"/>
+    <col min="14" max="14" width="8.44140625" customWidth="1"/>
+    <col min="15" max="15" width="9.33203125" customWidth="1"/>
+    <col min="16" max="16" width="11.6640625" customWidth="1"/>
+    <col min="19" max="19" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:17" ht="27" customHeight="1">
       <c r="B2" s="7"/>
     </row>
-    <row r="3" spans="1:17" ht="20">
+    <row r="3" spans="1:17" ht="20.399999999999999">
       <c r="A3" s="49" t="s">
         <v>60</v>
       </c>
@@ -2913,7 +2908,7 @@
       <c r="O3" s="49"/>
       <c r="P3" s="49"/>
     </row>
-    <row r="4" spans="1:17" ht="20">
+    <row r="4" spans="1:17" ht="20.399999999999999">
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
     </row>
@@ -2924,72 +2919,72 @@
       </c>
     </row>
     <row r="7" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="48" t="s">
+      <c r="B7" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="48" t="s">
+      <c r="C7" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="48" t="s">
+      <c r="D7" s="47" t="s">
         <v>2</v>
       </c>
       <c r="E7" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="F7" s="48" t="s">
+      <c r="F7" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="G7" s="48" t="s">
+      <c r="G7" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="48" t="s">
+      <c r="H7" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="I7" s="48" t="s">
+      <c r="I7" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="J7" s="48" t="s">
+      <c r="J7" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="K7" s="48" t="s">
+      <c r="K7" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="L7" s="48" t="s">
+      <c r="L7" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="M7" s="48" t="s">
+      <c r="M7" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="N7" s="48" t="s">
+      <c r="N7" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="O7" s="48" t="s">
+      <c r="O7" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="P7" s="48" t="s">
+      <c r="P7" s="47" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="48.75" customHeight="1">
-      <c r="A8" s="48"/>
-      <c r="B8" s="48"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
+      <c r="A8" s="47"/>
+      <c r="B8" s="47"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
       <c r="E8" s="51"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="48"/>
-      <c r="J8" s="48"/>
-      <c r="K8" s="48"/>
-      <c r="L8" s="48"/>
-      <c r="M8" s="48"/>
-      <c r="N8" s="48"/>
-      <c r="O8" s="48"/>
-      <c r="P8" s="48"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="47"/>
+      <c r="L8" s="47"/>
+      <c r="M8" s="47"/>
+      <c r="N8" s="47"/>
+      <c r="O8" s="47"/>
+      <c r="P8" s="47"/>
     </row>
     <row r="9" spans="1:17" ht="31.5" customHeight="1">
       <c r="A9" s="3">
@@ -3093,25 +3088,25 @@
       </c>
       <c r="Q10" s="9"/>
     </row>
-    <row r="11" spans="1:17" ht="15">
+    <row r="11" spans="1:17" ht="15.6">
       <c r="L11" s="11"/>
       <c r="P11" s="15">
         <f>P10+K10</f>
         <v>3839.85</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="13" thickBot="1"/>
-    <row r="13" spans="1:17" ht="16" thickBot="1">
-      <c r="B13" s="47" t="s">
+    <row r="12" spans="1:17" ht="13.8" thickBot="1"/>
+    <row r="13" spans="1:17" ht="16.2" thickBot="1">
+      <c r="B13" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="47"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="47"/>
-      <c r="H13" s="47"/>
-      <c r="I13" s="47"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="48"/>
+      <c r="I13" s="48"/>
       <c r="J13" s="12">
         <v>0.22</v>
       </c>
@@ -3127,20 +3122,20 @@
       </c>
       <c r="P13" s="16"/>
     </row>
-    <row r="14" spans="1:17" ht="13.5" thickBot="1">
+    <row r="14" spans="1:17" ht="13.8" thickBot="1">
       <c r="P14" s="16"/>
     </row>
-    <row r="15" spans="1:17" ht="16" thickBot="1">
-      <c r="B15" s="47" t="s">
+    <row r="15" spans="1:17" ht="16.2" thickBot="1">
+      <c r="B15" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="47"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="47"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="47"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="48"/>
+      <c r="I15" s="48"/>
       <c r="J15" s="12">
         <v>0.22</v>
       </c>
@@ -3150,31 +3145,31 @@
       </c>
       <c r="M15" s="24"/>
     </row>
-    <row r="16" spans="1:17" ht="16" thickBot="1">
-      <c r="B16" s="47"/>
-      <c r="C16" s="47"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="47"/>
-      <c r="H16" s="47"/>
-      <c r="I16" s="47"/>
+    <row r="16" spans="1:17" ht="16.2" thickBot="1">
+      <c r="B16" s="48"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="48"/>
+      <c r="I16" s="48"/>
       <c r="J16" s="12"/>
       <c r="K16" s="12"/>
       <c r="L16" s="25"/>
     </row>
-    <row r="17" spans="2:13" ht="13" thickBot="1"/>
-    <row r="18" spans="2:13" ht="16" thickBot="1">
-      <c r="B18" s="47" t="s">
+    <row r="17" spans="2:13" ht="13.8" thickBot="1"/>
+    <row r="18" spans="2:13" ht="16.2" thickBot="1">
+      <c r="B18" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="47"/>
-      <c r="D18" s="47"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="47"/>
-      <c r="H18" s="47"/>
-      <c r="I18" s="47"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="48"/>
+      <c r="H18" s="48"/>
+      <c r="I18" s="48"/>
       <c r="L18" s="27">
         <f>M10+L10+L13+L15</f>
         <v>3018.61</v>
@@ -3183,14 +3178,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A3:P3"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="P7:P8"/>
-    <mergeCell ref="N7:N8"/>
     <mergeCell ref="B18:I18"/>
     <mergeCell ref="J7:J8"/>
     <mergeCell ref="K7:K8"/>
@@ -3204,6 +3191,14 @@
     <mergeCell ref="B15:I15"/>
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="H7:H8"/>
+    <mergeCell ref="A3:P3"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="N7:N8"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
@@ -3219,31 +3214,31 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="3.453125" customWidth="1"/>
-    <col min="2" max="2" width="17.90625" customWidth="1"/>
-    <col min="3" max="3" width="13.54296875" customWidth="1"/>
-    <col min="4" max="4" width="10.6328125" customWidth="1"/>
+    <col min="1" max="1" width="3.44140625" customWidth="1"/>
+    <col min="2" max="2" width="17.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" customWidth="1"/>
     <col min="5" max="5" width="6" customWidth="1"/>
-    <col min="6" max="6" width="8.54296875" customWidth="1"/>
-    <col min="7" max="7" width="11.90625" customWidth="1"/>
-    <col min="8" max="8" width="5.6328125" customWidth="1"/>
-    <col min="9" max="9" width="6.90625" customWidth="1"/>
+    <col min="6" max="6" width="8.5546875" customWidth="1"/>
+    <col min="7" max="7" width="11.88671875" customWidth="1"/>
+    <col min="8" max="8" width="5.6640625" customWidth="1"/>
+    <col min="9" max="9" width="6.88671875" customWidth="1"/>
     <col min="10" max="10" width="10" customWidth="1"/>
-    <col min="11" max="11" width="8.08984375" customWidth="1"/>
-    <col min="12" max="12" width="11.08984375" customWidth="1"/>
-    <col min="13" max="13" width="11.36328125" customWidth="1"/>
-    <col min="14" max="14" width="8.453125" customWidth="1"/>
-    <col min="15" max="15" width="9.36328125" customWidth="1"/>
-    <col min="16" max="16" width="11.6328125" customWidth="1"/>
-    <col min="19" max="19" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.109375" customWidth="1"/>
+    <col min="12" max="12" width="11.109375" customWidth="1"/>
+    <col min="13" max="13" width="11.33203125" customWidth="1"/>
+    <col min="14" max="14" width="8.44140625" customWidth="1"/>
+    <col min="15" max="15" width="9.33203125" customWidth="1"/>
+    <col min="16" max="16" width="11.6640625" customWidth="1"/>
+    <col min="19" max="19" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:17" ht="27" customHeight="1">
       <c r="B2" s="7"/>
     </row>
-    <row r="3" spans="1:17" ht="20">
+    <row r="3" spans="1:17" ht="20.399999999999999">
       <c r="A3" s="49" t="s">
         <v>59</v>
       </c>
@@ -3263,7 +3258,7 @@
       <c r="O3" s="49"/>
       <c r="P3" s="49"/>
     </row>
-    <row r="4" spans="1:17" ht="20">
+    <row r="4" spans="1:17" ht="20.399999999999999">
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
     </row>
@@ -3274,72 +3269,72 @@
       </c>
     </row>
     <row r="7" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="48" t="s">
+      <c r="B7" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="48" t="s">
+      <c r="C7" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="48" t="s">
+      <c r="D7" s="47" t="s">
         <v>2</v>
       </c>
       <c r="E7" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="F7" s="48" t="s">
+      <c r="F7" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="G7" s="48" t="s">
+      <c r="G7" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="48" t="s">
+      <c r="H7" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="I7" s="48" t="s">
+      <c r="I7" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="J7" s="48" t="s">
+      <c r="J7" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="K7" s="48" t="s">
+      <c r="K7" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="L7" s="48" t="s">
+      <c r="L7" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="M7" s="48" t="s">
+      <c r="M7" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="N7" s="48" t="s">
+      <c r="N7" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="O7" s="48" t="s">
+      <c r="O7" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="P7" s="48" t="s">
+      <c r="P7" s="47" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="48.75" customHeight="1">
-      <c r="A8" s="48"/>
-      <c r="B8" s="48"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
+      <c r="A8" s="47"/>
+      <c r="B8" s="47"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
       <c r="E8" s="51"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="48"/>
-      <c r="J8" s="48"/>
-      <c r="K8" s="48"/>
-      <c r="L8" s="48"/>
-      <c r="M8" s="48"/>
-      <c r="N8" s="48"/>
-      <c r="O8" s="48"/>
-      <c r="P8" s="48"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="47"/>
+      <c r="L8" s="47"/>
+      <c r="M8" s="47"/>
+      <c r="N8" s="47"/>
+      <c r="O8" s="47"/>
+      <c r="P8" s="47"/>
     </row>
     <row r="9" spans="1:17" ht="31.5" customHeight="1">
       <c r="A9" s="3">
@@ -3443,25 +3438,25 @@
       </c>
       <c r="Q10" s="9"/>
     </row>
-    <row r="11" spans="1:17" ht="15">
+    <row r="11" spans="1:17" ht="15.6">
       <c r="L11" s="11"/>
       <c r="P11" s="15">
         <f>P10+K10</f>
         <v>3839.85</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="13" thickBot="1"/>
-    <row r="13" spans="1:17" ht="16" thickBot="1">
-      <c r="B13" s="47" t="s">
+    <row r="12" spans="1:17" ht="13.8" thickBot="1"/>
+    <row r="13" spans="1:17" ht="16.2" thickBot="1">
+      <c r="B13" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="47"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="47"/>
-      <c r="H13" s="47"/>
-      <c r="I13" s="47"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="48"/>
+      <c r="I13" s="48"/>
       <c r="J13" s="12">
         <v>0.22</v>
       </c>
@@ -3477,20 +3472,20 @@
       </c>
       <c r="P13" s="16"/>
     </row>
-    <row r="14" spans="1:17" ht="13.5" thickBot="1">
+    <row r="14" spans="1:17" ht="13.8" thickBot="1">
       <c r="P14" s="16"/>
     </row>
-    <row r="15" spans="1:17" ht="16" thickBot="1">
-      <c r="B15" s="47" t="s">
+    <row r="15" spans="1:17" ht="16.2" thickBot="1">
+      <c r="B15" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="47"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="47"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="47"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="48"/>
+      <c r="I15" s="48"/>
       <c r="J15" s="12">
         <v>0.22</v>
       </c>
@@ -3500,31 +3495,31 @@
       </c>
       <c r="M15" s="24"/>
     </row>
-    <row r="16" spans="1:17" ht="16" thickBot="1">
-      <c r="B16" s="47"/>
-      <c r="C16" s="47"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="47"/>
-      <c r="H16" s="47"/>
-      <c r="I16" s="47"/>
+    <row r="16" spans="1:17" ht="16.2" thickBot="1">
+      <c r="B16" s="48"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="48"/>
+      <c r="I16" s="48"/>
       <c r="J16" s="12"/>
       <c r="K16" s="12"/>
       <c r="L16" s="25"/>
     </row>
-    <row r="17" spans="2:13" ht="13" thickBot="1"/>
-    <row r="18" spans="2:13" ht="16" thickBot="1">
-      <c r="B18" s="47" t="s">
+    <row r="17" spans="2:13" ht="13.8" thickBot="1"/>
+    <row r="18" spans="2:13" ht="16.2" thickBot="1">
+      <c r="B18" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="47"/>
-      <c r="D18" s="47"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="47"/>
-      <c r="H18" s="47"/>
-      <c r="I18" s="47"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="48"/>
+      <c r="H18" s="48"/>
+      <c r="I18" s="48"/>
       <c r="L18" s="27">
         <f>M10+L10+L13+L15</f>
         <v>3018.61</v>
@@ -3533,6 +3528,16 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="B16:I16"/>
+    <mergeCell ref="B13:I13"/>
+    <mergeCell ref="B15:I15"/>
+    <mergeCell ref="F7:F8"/>
     <mergeCell ref="O7:O8"/>
     <mergeCell ref="H7:H8"/>
     <mergeCell ref="A3:P3"/>
@@ -3544,16 +3549,6 @@
     <mergeCell ref="P7:P8"/>
     <mergeCell ref="N7:N8"/>
     <mergeCell ref="L7:L8"/>
-    <mergeCell ref="B18:I18"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="B16:I16"/>
-    <mergeCell ref="B13:I13"/>
-    <mergeCell ref="B15:I15"/>
-    <mergeCell ref="F7:F8"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
@@ -3569,31 +3564,31 @@
       <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="3.453125" customWidth="1"/>
-    <col min="2" max="2" width="17.90625" customWidth="1"/>
-    <col min="3" max="3" width="13.54296875" customWidth="1"/>
-    <col min="4" max="4" width="10.6328125" customWidth="1"/>
+    <col min="1" max="1" width="3.44140625" customWidth="1"/>
+    <col min="2" max="2" width="17.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" customWidth="1"/>
     <col min="5" max="5" width="6" customWidth="1"/>
-    <col min="6" max="6" width="8.54296875" customWidth="1"/>
-    <col min="7" max="7" width="11.90625" customWidth="1"/>
-    <col min="8" max="8" width="5.6328125" customWidth="1"/>
-    <col min="9" max="9" width="6.90625" customWidth="1"/>
+    <col min="6" max="6" width="8.5546875" customWidth="1"/>
+    <col min="7" max="7" width="11.88671875" customWidth="1"/>
+    <col min="8" max="8" width="5.6640625" customWidth="1"/>
+    <col min="9" max="9" width="6.88671875" customWidth="1"/>
     <col min="10" max="10" width="10" customWidth="1"/>
-    <col min="11" max="11" width="8.08984375" customWidth="1"/>
-    <col min="12" max="12" width="11.08984375" customWidth="1"/>
-    <col min="13" max="13" width="11.36328125" customWidth="1"/>
-    <col min="14" max="14" width="8.453125" customWidth="1"/>
-    <col min="15" max="15" width="9.36328125" customWidth="1"/>
-    <col min="16" max="16" width="11.6328125" customWidth="1"/>
-    <col min="19" max="19" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.109375" customWidth="1"/>
+    <col min="12" max="12" width="11.109375" customWidth="1"/>
+    <col min="13" max="13" width="11.33203125" customWidth="1"/>
+    <col min="14" max="14" width="8.44140625" customWidth="1"/>
+    <col min="15" max="15" width="9.33203125" customWidth="1"/>
+    <col min="16" max="16" width="11.6640625" customWidth="1"/>
+    <col min="19" max="19" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:17" ht="27" customHeight="1">
       <c r="B2" s="7"/>
     </row>
-    <row r="3" spans="1:17" ht="20">
+    <row r="3" spans="1:17" ht="20.399999999999999">
       <c r="A3" s="49" t="s">
         <v>58</v>
       </c>
@@ -3613,7 +3608,7 @@
       <c r="O3" s="49"/>
       <c r="P3" s="49"/>
     </row>
-    <row r="4" spans="1:17" ht="20">
+    <row r="4" spans="1:17" ht="20.399999999999999">
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
     </row>
@@ -3624,72 +3619,72 @@
       </c>
     </row>
     <row r="7" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="48" t="s">
+      <c r="B7" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="48" t="s">
+      <c r="C7" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="48" t="s">
+      <c r="D7" s="47" t="s">
         <v>2</v>
       </c>
       <c r="E7" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="F7" s="48" t="s">
+      <c r="F7" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="G7" s="48" t="s">
+      <c r="G7" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="48" t="s">
+      <c r="H7" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="I7" s="48" t="s">
+      <c r="I7" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="J7" s="48" t="s">
+      <c r="J7" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="K7" s="48" t="s">
+      <c r="K7" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="L7" s="48" t="s">
+      <c r="L7" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="M7" s="48" t="s">
+      <c r="M7" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="N7" s="48" t="s">
+      <c r="N7" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="O7" s="48" t="s">
+      <c r="O7" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="P7" s="48" t="s">
+      <c r="P7" s="47" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="48.75" customHeight="1">
-      <c r="A8" s="48"/>
-      <c r="B8" s="48"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
+      <c r="A8" s="47"/>
+      <c r="B8" s="47"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
       <c r="E8" s="51"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="48"/>
-      <c r="J8" s="48"/>
-      <c r="K8" s="48"/>
-      <c r="L8" s="48"/>
-      <c r="M8" s="48"/>
-      <c r="N8" s="48"/>
-      <c r="O8" s="48"/>
-      <c r="P8" s="48"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="47"/>
+      <c r="L8" s="47"/>
+      <c r="M8" s="47"/>
+      <c r="N8" s="47"/>
+      <c r="O8" s="47"/>
+      <c r="P8" s="47"/>
     </row>
     <row r="9" spans="1:17" ht="31.5" customHeight="1">
       <c r="A9" s="3">
@@ -3793,25 +3788,25 @@
       </c>
       <c r="Q10" s="9"/>
     </row>
-    <row r="11" spans="1:17" ht="15">
+    <row r="11" spans="1:17" ht="15.6">
       <c r="L11" s="11"/>
       <c r="P11" s="15">
         <f>P10+K10</f>
         <v>3839.85</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="13" thickBot="1"/>
-    <row r="13" spans="1:17" ht="16" thickBot="1">
-      <c r="B13" s="47" t="s">
+    <row r="12" spans="1:17" ht="13.8" thickBot="1"/>
+    <row r="13" spans="1:17" ht="16.2" thickBot="1">
+      <c r="B13" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="47"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="47"/>
-      <c r="H13" s="47"/>
-      <c r="I13" s="47"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="48"/>
+      <c r="I13" s="48"/>
       <c r="J13" s="12">
         <v>0.22</v>
       </c>
@@ -3827,20 +3822,20 @@
       </c>
       <c r="P13" s="16"/>
     </row>
-    <row r="14" spans="1:17" ht="13.5" thickBot="1">
+    <row r="14" spans="1:17" ht="13.8" thickBot="1">
       <c r="P14" s="16"/>
     </row>
-    <row r="15" spans="1:17" ht="16" thickBot="1">
-      <c r="B15" s="47" t="s">
+    <row r="15" spans="1:17" ht="16.2" thickBot="1">
+      <c r="B15" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="47"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="47"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="47"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="48"/>
+      <c r="I15" s="48"/>
       <c r="J15" s="12">
         <v>0.22</v>
       </c>
@@ -3850,31 +3845,31 @@
       </c>
       <c r="M15" s="24"/>
     </row>
-    <row r="16" spans="1:17" ht="16" thickBot="1">
-      <c r="B16" s="47"/>
-      <c r="C16" s="47"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="47"/>
-      <c r="H16" s="47"/>
-      <c r="I16" s="47"/>
+    <row r="16" spans="1:17" ht="16.2" thickBot="1">
+      <c r="B16" s="48"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="48"/>
+      <c r="I16" s="48"/>
       <c r="J16" s="12"/>
       <c r="K16" s="12"/>
       <c r="L16" s="25"/>
     </row>
-    <row r="17" spans="2:13" ht="13" thickBot="1"/>
-    <row r="18" spans="2:13" ht="16" thickBot="1">
-      <c r="B18" s="47" t="s">
+    <row r="17" spans="2:13" ht="13.8" thickBot="1"/>
+    <row r="18" spans="2:13" ht="16.2" thickBot="1">
+      <c r="B18" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="47"/>
-      <c r="D18" s="47"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="47"/>
-      <c r="H18" s="47"/>
-      <c r="I18" s="47"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="48"/>
+      <c r="H18" s="48"/>
+      <c r="I18" s="48"/>
       <c r="L18" s="27">
         <f>M10+L10+L13+L15</f>
         <v>3018.61</v>
@@ -3883,14 +3878,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B18:I18"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="B16:I16"/>
-    <mergeCell ref="B13:I13"/>
-    <mergeCell ref="B15:I15"/>
-    <mergeCell ref="F7:F8"/>
     <mergeCell ref="L7:L8"/>
     <mergeCell ref="A3:P3"/>
     <mergeCell ref="A7:A8"/>
@@ -3904,6 +3891,14 @@
     <mergeCell ref="G7:G8"/>
     <mergeCell ref="O7:O8"/>
     <mergeCell ref="H7:H8"/>
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="B16:I16"/>
+    <mergeCell ref="B13:I13"/>
+    <mergeCell ref="B15:I15"/>
+    <mergeCell ref="F7:F8"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
@@ -3919,31 +3914,31 @@
       <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="3.453125" customWidth="1"/>
-    <col min="2" max="2" width="17.90625" customWidth="1"/>
-    <col min="3" max="3" width="13.54296875" customWidth="1"/>
-    <col min="4" max="4" width="10.6328125" customWidth="1"/>
+    <col min="1" max="1" width="3.44140625" customWidth="1"/>
+    <col min="2" max="2" width="17.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" customWidth="1"/>
     <col min="5" max="5" width="6" customWidth="1"/>
-    <col min="6" max="6" width="8.54296875" customWidth="1"/>
-    <col min="7" max="7" width="11.90625" customWidth="1"/>
-    <col min="8" max="8" width="5.6328125" customWidth="1"/>
-    <col min="9" max="9" width="6.90625" customWidth="1"/>
+    <col min="6" max="6" width="8.5546875" customWidth="1"/>
+    <col min="7" max="7" width="11.88671875" customWidth="1"/>
+    <col min="8" max="8" width="5.6640625" customWidth="1"/>
+    <col min="9" max="9" width="6.88671875" customWidth="1"/>
     <col min="10" max="10" width="10" customWidth="1"/>
-    <col min="11" max="11" width="8.08984375" customWidth="1"/>
-    <col min="12" max="12" width="11.08984375" customWidth="1"/>
-    <col min="13" max="13" width="11.36328125" customWidth="1"/>
-    <col min="14" max="14" width="8.453125" customWidth="1"/>
-    <col min="15" max="15" width="9.36328125" customWidth="1"/>
-    <col min="16" max="16" width="11.6328125" customWidth="1"/>
-    <col min="19" max="19" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.109375" customWidth="1"/>
+    <col min="12" max="12" width="11.109375" customWidth="1"/>
+    <col min="13" max="13" width="11.33203125" customWidth="1"/>
+    <col min="14" max="14" width="8.44140625" customWidth="1"/>
+    <col min="15" max="15" width="9.33203125" customWidth="1"/>
+    <col min="16" max="16" width="11.6640625" customWidth="1"/>
+    <col min="19" max="19" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:17" ht="27" customHeight="1">
       <c r="B2" s="7"/>
     </row>
-    <row r="3" spans="1:17" ht="20">
+    <row r="3" spans="1:17" ht="20.399999999999999">
       <c r="A3" s="49" t="s">
         <v>57</v>
       </c>
@@ -3963,7 +3958,7 @@
       <c r="O3" s="49"/>
       <c r="P3" s="49"/>
     </row>
-    <row r="4" spans="1:17" ht="20">
+    <row r="4" spans="1:17" ht="20.399999999999999">
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
     </row>
@@ -3974,72 +3969,72 @@
       </c>
     </row>
     <row r="7" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="48" t="s">
+      <c r="B7" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="48" t="s">
+      <c r="C7" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="48" t="s">
+      <c r="D7" s="47" t="s">
         <v>2</v>
       </c>
       <c r="E7" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="F7" s="48" t="s">
+      <c r="F7" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="G7" s="48" t="s">
+      <c r="G7" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="48" t="s">
+      <c r="H7" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="I7" s="48" t="s">
+      <c r="I7" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="J7" s="48" t="s">
+      <c r="J7" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="K7" s="48" t="s">
+      <c r="K7" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="L7" s="48" t="s">
+      <c r="L7" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="M7" s="48" t="s">
+      <c r="M7" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="N7" s="48" t="s">
+      <c r="N7" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="O7" s="48" t="s">
+      <c r="O7" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="P7" s="48" t="s">
+      <c r="P7" s="47" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="48.75" customHeight="1">
-      <c r="A8" s="48"/>
-      <c r="B8" s="48"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
+      <c r="A8" s="47"/>
+      <c r="B8" s="47"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
       <c r="E8" s="51"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="48"/>
-      <c r="J8" s="48"/>
-      <c r="K8" s="48"/>
-      <c r="L8" s="48"/>
-      <c r="M8" s="48"/>
-      <c r="N8" s="48"/>
-      <c r="O8" s="48"/>
-      <c r="P8" s="48"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="47"/>
+      <c r="L8" s="47"/>
+      <c r="M8" s="47"/>
+      <c r="N8" s="47"/>
+      <c r="O8" s="47"/>
+      <c r="P8" s="47"/>
     </row>
     <row r="9" spans="1:17" ht="31.5" customHeight="1">
       <c r="A9" s="3">
@@ -4143,25 +4138,25 @@
       </c>
       <c r="Q10" s="9"/>
     </row>
-    <row r="11" spans="1:17" ht="15">
+    <row r="11" spans="1:17" ht="15.6">
       <c r="L11" s="11"/>
       <c r="P11" s="15">
         <f>P10+K10</f>
         <v>3839.85</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="13" thickBot="1"/>
-    <row r="13" spans="1:17" ht="16" thickBot="1">
-      <c r="B13" s="47" t="s">
+    <row r="12" spans="1:17" ht="13.8" thickBot="1"/>
+    <row r="13" spans="1:17" ht="16.2" thickBot="1">
+      <c r="B13" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="47"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="47"/>
-      <c r="H13" s="47"/>
-      <c r="I13" s="47"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="48"/>
+      <c r="I13" s="48"/>
       <c r="J13" s="12">
         <v>0.22</v>
       </c>
@@ -4177,20 +4172,20 @@
       </c>
       <c r="P13" s="16"/>
     </row>
-    <row r="14" spans="1:17" ht="13.5" thickBot="1">
+    <row r="14" spans="1:17" ht="13.8" thickBot="1">
       <c r="P14" s="16"/>
     </row>
-    <row r="15" spans="1:17" ht="16" thickBot="1">
-      <c r="B15" s="47" t="s">
+    <row r="15" spans="1:17" ht="16.2" thickBot="1">
+      <c r="B15" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="47"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="47"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="47"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="48"/>
+      <c r="I15" s="48"/>
       <c r="J15" s="12">
         <v>0.22</v>
       </c>
@@ -4200,31 +4195,31 @@
       </c>
       <c r="M15" s="24"/>
     </row>
-    <row r="16" spans="1:17" ht="16" thickBot="1">
-      <c r="B16" s="47"/>
-      <c r="C16" s="47"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="47"/>
-      <c r="H16" s="47"/>
-      <c r="I16" s="47"/>
+    <row r="16" spans="1:17" ht="16.2" thickBot="1">
+      <c r="B16" s="48"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="48"/>
+      <c r="I16" s="48"/>
       <c r="J16" s="12"/>
       <c r="K16" s="12"/>
       <c r="L16" s="25"/>
     </row>
-    <row r="17" spans="2:13" ht="13" thickBot="1"/>
-    <row r="18" spans="2:13" ht="16" thickBot="1">
-      <c r="B18" s="47" t="s">
+    <row r="17" spans="2:13" ht="13.8" thickBot="1"/>
+    <row r="18" spans="2:13" ht="16.2" thickBot="1">
+      <c r="B18" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="47"/>
-      <c r="D18" s="47"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="47"/>
-      <c r="H18" s="47"/>
-      <c r="I18" s="47"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="48"/>
+      <c r="H18" s="48"/>
+      <c r="I18" s="48"/>
       <c r="L18" s="27">
         <f>M10+L10+L13+L15</f>
         <v>1979.5500000000002</v>
@@ -4233,14 +4228,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B18:I18"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="B16:I16"/>
-    <mergeCell ref="B13:I13"/>
-    <mergeCell ref="B15:I15"/>
-    <mergeCell ref="F7:F8"/>
     <mergeCell ref="O7:O8"/>
     <mergeCell ref="H7:H8"/>
     <mergeCell ref="L7:L8"/>
@@ -4254,6 +4241,14 @@
     <mergeCell ref="G7:G8"/>
     <mergeCell ref="N7:N8"/>
     <mergeCell ref="M7:M8"/>
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="B16:I16"/>
+    <mergeCell ref="B13:I13"/>
+    <mergeCell ref="B15:I15"/>
+    <mergeCell ref="F7:F8"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
@@ -4269,31 +4264,31 @@
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="3.453125" customWidth="1"/>
-    <col min="2" max="2" width="17.90625" customWidth="1"/>
-    <col min="3" max="3" width="13.54296875" customWidth="1"/>
-    <col min="4" max="4" width="10.6328125" customWidth="1"/>
+    <col min="1" max="1" width="3.44140625" customWidth="1"/>
+    <col min="2" max="2" width="17.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" customWidth="1"/>
     <col min="5" max="5" width="6" customWidth="1"/>
-    <col min="6" max="6" width="8.54296875" customWidth="1"/>
-    <col min="7" max="7" width="11.90625" customWidth="1"/>
-    <col min="8" max="8" width="5.6328125" customWidth="1"/>
-    <col min="9" max="9" width="6.90625" customWidth="1"/>
+    <col min="6" max="6" width="8.5546875" customWidth="1"/>
+    <col min="7" max="7" width="11.88671875" customWidth="1"/>
+    <col min="8" max="8" width="5.6640625" customWidth="1"/>
+    <col min="9" max="9" width="6.88671875" customWidth="1"/>
     <col min="10" max="10" width="10" customWidth="1"/>
-    <col min="11" max="11" width="8.08984375" customWidth="1"/>
-    <col min="12" max="12" width="11.08984375" customWidth="1"/>
-    <col min="13" max="13" width="11.36328125" customWidth="1"/>
-    <col min="14" max="14" width="8.453125" customWidth="1"/>
-    <col min="15" max="15" width="9.36328125" customWidth="1"/>
-    <col min="16" max="16" width="11.6328125" customWidth="1"/>
-    <col min="19" max="19" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.109375" customWidth="1"/>
+    <col min="12" max="12" width="11.109375" customWidth="1"/>
+    <col min="13" max="13" width="11.33203125" customWidth="1"/>
+    <col min="14" max="14" width="8.44140625" customWidth="1"/>
+    <col min="15" max="15" width="9.33203125" customWidth="1"/>
+    <col min="16" max="16" width="11.6640625" customWidth="1"/>
+    <col min="19" max="19" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:17" ht="27" customHeight="1">
       <c r="B2" s="7"/>
     </row>
-    <row r="3" spans="1:17" ht="20">
+    <row r="3" spans="1:17" ht="20.399999999999999">
       <c r="A3" s="49" t="s">
         <v>56</v>
       </c>
@@ -4313,7 +4308,7 @@
       <c r="O3" s="49"/>
       <c r="P3" s="49"/>
     </row>
-    <row r="4" spans="1:17" ht="20">
+    <row r="4" spans="1:17" ht="20.399999999999999">
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
     </row>
@@ -4324,72 +4319,72 @@
       </c>
     </row>
     <row r="7" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="48" t="s">
+      <c r="B7" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="48" t="s">
+      <c r="C7" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="48" t="s">
+      <c r="D7" s="47" t="s">
         <v>2</v>
       </c>
       <c r="E7" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="F7" s="48" t="s">
+      <c r="F7" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="G7" s="48" t="s">
+      <c r="G7" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="48" t="s">
+      <c r="H7" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="I7" s="48" t="s">
+      <c r="I7" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="J7" s="48" t="s">
+      <c r="J7" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="K7" s="48" t="s">
+      <c r="K7" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="L7" s="48" t="s">
+      <c r="L7" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="M7" s="48" t="s">
+      <c r="M7" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="N7" s="48" t="s">
+      <c r="N7" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="O7" s="48" t="s">
+      <c r="O7" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="P7" s="48" t="s">
+      <c r="P7" s="47" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="48.75" customHeight="1">
-      <c r="A8" s="48"/>
-      <c r="B8" s="48"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
+      <c r="A8" s="47"/>
+      <c r="B8" s="47"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
       <c r="E8" s="51"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="48"/>
-      <c r="J8" s="48"/>
-      <c r="K8" s="48"/>
-      <c r="L8" s="48"/>
-      <c r="M8" s="48"/>
-      <c r="N8" s="48"/>
-      <c r="O8" s="48"/>
-      <c r="P8" s="48"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="47"/>
+      <c r="L8" s="47"/>
+      <c r="M8" s="47"/>
+      <c r="N8" s="47"/>
+      <c r="O8" s="47"/>
+      <c r="P8" s="47"/>
     </row>
     <row r="9" spans="1:17" ht="31.5" customHeight="1">
       <c r="A9" s="3">
@@ -4493,25 +4488,25 @@
       </c>
       <c r="Q10" s="9"/>
     </row>
-    <row r="11" spans="1:17" ht="15">
+    <row r="11" spans="1:17" ht="15.6">
       <c r="L11" s="11"/>
       <c r="P11" s="15">
         <f>P10+K10</f>
         <v>3839.85</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="13" thickBot="1"/>
-    <row r="13" spans="1:17" ht="16" thickBot="1">
-      <c r="B13" s="47" t="s">
+    <row r="12" spans="1:17" ht="13.8" thickBot="1"/>
+    <row r="13" spans="1:17" ht="16.2" thickBot="1">
+      <c r="B13" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="47"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="47"/>
-      <c r="H13" s="47"/>
-      <c r="I13" s="47"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="48"/>
+      <c r="I13" s="48"/>
       <c r="J13" s="12">
         <v>0.22</v>
       </c>
@@ -4527,20 +4522,20 @@
       </c>
       <c r="P13" s="16"/>
     </row>
-    <row r="14" spans="1:17" ht="13.5" thickBot="1">
+    <row r="14" spans="1:17" ht="13.8" thickBot="1">
       <c r="P14" s="16"/>
     </row>
-    <row r="15" spans="1:17" ht="16" thickBot="1">
-      <c r="B15" s="47" t="s">
+    <row r="15" spans="1:17" ht="16.2" thickBot="1">
+      <c r="B15" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="47"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="47"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="47"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="48"/>
+      <c r="I15" s="48"/>
       <c r="J15" s="12">
         <v>0.22</v>
       </c>
@@ -4550,31 +4545,31 @@
       </c>
       <c r="M15" s="24"/>
     </row>
-    <row r="16" spans="1:17" ht="16" thickBot="1">
-      <c r="B16" s="47"/>
-      <c r="C16" s="47"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="47"/>
-      <c r="H16" s="47"/>
-      <c r="I16" s="47"/>
+    <row r="16" spans="1:17" ht="16.2" thickBot="1">
+      <c r="B16" s="48"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="48"/>
+      <c r="I16" s="48"/>
       <c r="J16" s="12"/>
       <c r="K16" s="12"/>
       <c r="L16" s="25"/>
     </row>
-    <row r="17" spans="2:13" ht="13" thickBot="1"/>
-    <row r="18" spans="2:13" ht="16" thickBot="1">
-      <c r="B18" s="47" t="s">
+    <row r="17" spans="2:13" ht="13.8" thickBot="1"/>
+    <row r="18" spans="2:13" ht="16.2" thickBot="1">
+      <c r="B18" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="47"/>
-      <c r="D18" s="47"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="47"/>
-      <c r="H18" s="47"/>
-      <c r="I18" s="47"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="48"/>
+      <c r="H18" s="48"/>
+      <c r="I18" s="48"/>
       <c r="L18" s="27">
         <f>M10+L10+L13+L15</f>
         <v>1979.5500000000002</v>
@@ -4583,6 +4578,16 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="B16:I16"/>
+    <mergeCell ref="B15:I15"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="B13:I13"/>
+    <mergeCell ref="H7:H8"/>
     <mergeCell ref="N7:N8"/>
     <mergeCell ref="M7:M8"/>
     <mergeCell ref="A3:P3"/>
@@ -4594,16 +4599,6 @@
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="O7:O8"/>
     <mergeCell ref="L7:L8"/>
-    <mergeCell ref="B18:I18"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="B16:I16"/>
-    <mergeCell ref="B15:I15"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="B13:I13"/>
-    <mergeCell ref="H7:H8"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
@@ -4619,7 +4614,7 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <sheetData>
     <row r="3" spans="1:16">
       <c r="A3" t="s">
@@ -4808,31 +4803,31 @@
       <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="3.453125" customWidth="1"/>
-    <col min="2" max="2" width="17.90625" customWidth="1"/>
-    <col min="3" max="3" width="13.54296875" customWidth="1"/>
-    <col min="4" max="4" width="10.6328125" customWidth="1"/>
+    <col min="1" max="1" width="3.44140625" customWidth="1"/>
+    <col min="2" max="2" width="17.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" customWidth="1"/>
     <col min="5" max="5" width="6" customWidth="1"/>
-    <col min="6" max="6" width="8.54296875" customWidth="1"/>
-    <col min="7" max="7" width="9.90625" customWidth="1"/>
-    <col min="8" max="8" width="8.08984375" customWidth="1"/>
-    <col min="9" max="9" width="10.453125" customWidth="1"/>
+    <col min="6" max="6" width="8.5546875" customWidth="1"/>
+    <col min="7" max="7" width="9.88671875" customWidth="1"/>
+    <col min="8" max="8" width="8.109375" customWidth="1"/>
+    <col min="9" max="9" width="10.44140625" customWidth="1"/>
     <col min="10" max="10" width="10" customWidth="1"/>
-    <col min="11" max="11" width="8.08984375" customWidth="1"/>
-    <col min="12" max="12" width="11.08984375" customWidth="1"/>
-    <col min="13" max="13" width="11.36328125" customWidth="1"/>
-    <col min="14" max="14" width="8.453125" customWidth="1"/>
-    <col min="15" max="15" width="9.36328125" customWidth="1"/>
-    <col min="16" max="16" width="11.6328125" customWidth="1"/>
-    <col min="19" max="19" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.109375" customWidth="1"/>
+    <col min="12" max="12" width="11.109375" customWidth="1"/>
+    <col min="13" max="13" width="11.33203125" customWidth="1"/>
+    <col min="14" max="14" width="8.44140625" customWidth="1"/>
+    <col min="15" max="15" width="9.33203125" customWidth="1"/>
+    <col min="16" max="16" width="11.6640625" customWidth="1"/>
+    <col min="19" max="19" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:17" ht="27" customHeight="1">
       <c r="B2" s="7"/>
     </row>
-    <row r="3" spans="1:17" ht="20">
+    <row r="3" spans="1:17" ht="20.399999999999999">
       <c r="A3" s="49" t="s">
         <v>75</v>
       </c>
@@ -4852,7 +4847,7 @@
       <c r="O3" s="49"/>
       <c r="P3" s="49"/>
     </row>
-    <row r="4" spans="1:17" ht="20">
+    <row r="4" spans="1:17" ht="20.399999999999999">
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
     </row>
@@ -4866,72 +4861,72 @@
       </c>
     </row>
     <row r="7" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="48" t="s">
+      <c r="B7" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="48" t="s">
+      <c r="C7" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="48" t="s">
+      <c r="D7" s="47" t="s">
         <v>2</v>
       </c>
       <c r="E7" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="F7" s="48" t="s">
+      <c r="F7" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="G7" s="48" t="s">
+      <c r="G7" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="48" t="s">
+      <c r="H7" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="I7" s="48" t="s">
+      <c r="I7" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="J7" s="48" t="s">
+      <c r="J7" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="K7" s="48" t="s">
+      <c r="K7" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="L7" s="48" t="s">
+      <c r="L7" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="M7" s="48" t="s">
+      <c r="M7" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="N7" s="48" t="s">
+      <c r="N7" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="O7" s="48" t="s">
+      <c r="O7" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="P7" s="48" t="s">
+      <c r="P7" s="47" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="48.75" customHeight="1">
-      <c r="A8" s="48"/>
-      <c r="B8" s="48"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
+      <c r="A8" s="47"/>
+      <c r="B8" s="47"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
       <c r="E8" s="51"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="48"/>
-      <c r="J8" s="48"/>
-      <c r="K8" s="48"/>
-      <c r="L8" s="48"/>
-      <c r="M8" s="48"/>
-      <c r="N8" s="48"/>
-      <c r="O8" s="48"/>
-      <c r="P8" s="48"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="47"/>
+      <c r="L8" s="47"/>
+      <c r="M8" s="47"/>
+      <c r="N8" s="47"/>
+      <c r="O8" s="47"/>
+      <c r="P8" s="47"/>
     </row>
     <row r="9" spans="1:17" ht="31.5" customHeight="1">
       <c r="A9" s="3">
@@ -5045,25 +5040,25 @@
       </c>
       <c r="Q10" s="9"/>
     </row>
-    <row r="11" spans="1:17" ht="15">
+    <row r="11" spans="1:17" ht="15.6">
       <c r="L11" s="11"/>
       <c r="P11" s="15">
         <f>P10+K10</f>
         <v>4943.4166500000001</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="13" thickBot="1"/>
-    <row r="13" spans="1:17" ht="16" thickBot="1">
-      <c r="B13" s="47" t="s">
+    <row r="12" spans="1:17" ht="13.8" thickBot="1"/>
+    <row r="13" spans="1:17" ht="16.2" thickBot="1">
+      <c r="B13" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="47"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="47"/>
-      <c r="H13" s="47"/>
-      <c r="I13" s="47"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="48"/>
+      <c r="I13" s="48"/>
       <c r="J13" s="12">
         <v>0.22</v>
       </c>
@@ -5079,20 +5074,20 @@
       </c>
       <c r="P13" s="16"/>
     </row>
-    <row r="14" spans="1:17" ht="13.5" thickBot="1">
+    <row r="14" spans="1:17" ht="13.8" thickBot="1">
       <c r="P14" s="16"/>
     </row>
-    <row r="15" spans="1:17" ht="16" thickBot="1">
-      <c r="B15" s="47" t="s">
+    <row r="15" spans="1:17" ht="16.2" thickBot="1">
+      <c r="B15" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="47"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="47"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="47"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="48"/>
+      <c r="I15" s="48"/>
       <c r="J15" s="12">
         <v>0.22</v>
       </c>
@@ -5102,31 +5097,31 @@
       </c>
       <c r="M15" s="24"/>
     </row>
-    <row r="16" spans="1:17" ht="16" thickBot="1">
-      <c r="B16" s="47"/>
-      <c r="C16" s="47"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="47"/>
-      <c r="H16" s="47"/>
-      <c r="I16" s="47"/>
+    <row r="16" spans="1:17" ht="16.2" thickBot="1">
+      <c r="B16" s="48"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="48"/>
+      <c r="I16" s="48"/>
       <c r="J16" s="12"/>
       <c r="K16" s="12"/>
       <c r="L16" s="25"/>
     </row>
-    <row r="17" spans="2:13" ht="13" thickBot="1"/>
-    <row r="18" spans="2:13" ht="16" thickBot="1">
-      <c r="B18" s="47" t="s">
+    <row r="17" spans="2:13" ht="13.8" thickBot="1"/>
+    <row r="18" spans="2:13" ht="16.2" thickBot="1">
+      <c r="B18" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="47"/>
-      <c r="D18" s="47"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="47"/>
-      <c r="H18" s="47"/>
-      <c r="I18" s="47"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="48"/>
+      <c r="H18" s="48"/>
+      <c r="I18" s="48"/>
       <c r="L18" s="27">
         <f>M10+L10+L13+L15</f>
         <v>3868.4691499999999</v>
@@ -5135,6 +5130,14 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="B13:I13"/>
+    <mergeCell ref="B15:I15"/>
+    <mergeCell ref="B16:I16"/>
     <mergeCell ref="A3:P3"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
@@ -5148,14 +5151,6 @@
     <mergeCell ref="P7:P8"/>
     <mergeCell ref="M7:M8"/>
     <mergeCell ref="N7:N8"/>
-    <mergeCell ref="B18:I18"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="B13:I13"/>
-    <mergeCell ref="B15:I15"/>
-    <mergeCell ref="B16:I16"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
@@ -5171,29 +5166,29 @@
       <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="3.453125" customWidth="1"/>
-    <col min="2" max="2" width="19.6328125" customWidth="1"/>
-    <col min="3" max="3" width="13.54296875" customWidth="1"/>
-    <col min="4" max="4" width="10.6328125" customWidth="1"/>
-    <col min="5" max="5" width="5.453125" customWidth="1"/>
-    <col min="6" max="6" width="9.08984375" customWidth="1"/>
-    <col min="7" max="7" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.44140625" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" customWidth="1"/>
+    <col min="5" max="5" width="5.44140625" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" customWidth="1"/>
+    <col min="7" max="7" width="9.88671875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" customWidth="1"/>
-    <col min="9" max="9" width="8.08984375" customWidth="1"/>
-    <col min="10" max="10" width="11.08984375" customWidth="1"/>
-    <col min="11" max="11" width="11.36328125" customWidth="1"/>
-    <col min="12" max="12" width="8.453125" customWidth="1"/>
-    <col min="13" max="13" width="9.36328125" customWidth="1"/>
-    <col min="14" max="14" width="11.6328125" customWidth="1"/>
-    <col min="17" max="17" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.109375" customWidth="1"/>
+    <col min="10" max="10" width="11.109375" customWidth="1"/>
+    <col min="11" max="11" width="11.33203125" customWidth="1"/>
+    <col min="12" max="12" width="8.44140625" customWidth="1"/>
+    <col min="13" max="13" width="9.33203125" customWidth="1"/>
+    <col min="14" max="14" width="11.6640625" customWidth="1"/>
+    <col min="17" max="17" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:15" ht="27" customHeight="1">
       <c r="B2" s="7"/>
     </row>
-    <row r="3" spans="1:15" ht="20">
+    <row r="3" spans="1:15" ht="20.399999999999999">
       <c r="A3" s="49" t="s">
         <v>49</v>
       </c>
@@ -5211,71 +5206,71 @@
       <c r="M3" s="49"/>
       <c r="N3" s="49"/>
     </row>
-    <row r="4" spans="1:15" ht="20">
+    <row r="4" spans="1:15" ht="20.399999999999999">
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" customHeight="1"/>
     <row r="6" spans="1:15" ht="15.75" customHeight="1"/>
     <row r="7" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="48" t="s">
+      <c r="B7" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="48" t="s">
+      <c r="C7" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="48" t="s">
+      <c r="D7" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="48" t="s">
+      <c r="E7" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="48" t="s">
+      <c r="F7" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="G7" s="48" t="s">
+      <c r="G7" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="H7" s="48" t="s">
+      <c r="H7" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="48" t="s">
+      <c r="I7" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="J7" s="48" t="s">
+      <c r="J7" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="K7" s="48" t="s">
+      <c r="K7" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="L7" s="48" t="s">
+      <c r="L7" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="M7" s="48" t="s">
+      <c r="M7" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="N7" s="48" t="s">
+      <c r="N7" s="47" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="48.75" customHeight="1">
-      <c r="A8" s="48"/>
-      <c r="B8" s="48"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="48"/>
-      <c r="J8" s="48"/>
-      <c r="K8" s="48"/>
-      <c r="L8" s="48"/>
-      <c r="M8" s="48"/>
-      <c r="N8" s="48"/>
+      <c r="A8" s="47"/>
+      <c r="B8" s="47"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="47"/>
+      <c r="L8" s="47"/>
+      <c r="M8" s="47"/>
+      <c r="N8" s="47"/>
     </row>
     <row r="9" spans="1:15" ht="31.5" customHeight="1">
       <c r="A9" s="3">
@@ -5370,23 +5365,23 @@
       </c>
       <c r="O10" s="9"/>
     </row>
-    <row r="11" spans="1:15" ht="15">
+    <row r="11" spans="1:15" ht="15.6">
       <c r="J11" s="11"/>
       <c r="N11" s="15">
         <f>N10+I10</f>
         <v>3839.85</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="13" thickBot="1"/>
-    <row r="13" spans="1:15" ht="16" thickBot="1">
-      <c r="B13" s="47" t="s">
+    <row r="12" spans="1:15" ht="13.8" thickBot="1"/>
+    <row r="13" spans="1:15" ht="16.2" thickBot="1">
+      <c r="B13" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="47"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="47"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="48"/>
       <c r="H13" s="12">
         <v>0.22</v>
       </c>
@@ -5402,18 +5397,18 @@
       </c>
       <c r="N13" s="16"/>
     </row>
-    <row r="14" spans="1:15" ht="13.5" thickBot="1">
+    <row r="14" spans="1:15" ht="13.8" thickBot="1">
       <c r="N14" s="16"/>
     </row>
-    <row r="15" spans="1:15" ht="16" thickBot="1">
-      <c r="B15" s="47" t="s">
+    <row r="15" spans="1:15" ht="16.2" thickBot="1">
+      <c r="B15" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="47"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="47"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="48"/>
       <c r="H15" s="12">
         <v>0.22</v>
       </c>
@@ -5423,27 +5418,27 @@
       </c>
       <c r="K15" s="24"/>
     </row>
-    <row r="16" spans="1:15" ht="16" thickBot="1">
-      <c r="B16" s="47"/>
-      <c r="C16" s="47"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="47"/>
+    <row r="16" spans="1:15" ht="16.2" thickBot="1">
+      <c r="B16" s="48"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="48"/>
       <c r="H16" s="12"/>
       <c r="I16" s="12"/>
       <c r="J16" s="25"/>
     </row>
-    <row r="17" spans="2:11" ht="13" thickBot="1"/>
-    <row r="18" spans="2:11" ht="16" thickBot="1">
-      <c r="B18" s="47" t="s">
+    <row r="17" spans="2:11" ht="13.8" thickBot="1"/>
+    <row r="18" spans="2:11" ht="16.2" thickBot="1">
+      <c r="B18" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="47"/>
-      <c r="D18" s="47"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="47"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="48"/>
       <c r="J18" s="27">
         <f>K10+J10+J13+J15</f>
         <v>3018.61</v>
@@ -5452,11 +5447,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="B18:G18"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
     <mergeCell ref="N7:N8"/>
     <mergeCell ref="B13:G13"/>
     <mergeCell ref="A3:N3"/>
@@ -5471,6 +5461,11 @@
     <mergeCell ref="H7:H8"/>
     <mergeCell ref="I7:I8"/>
     <mergeCell ref="M7:M8"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" scale="95" orientation="landscape" r:id="rId1"/>
@@ -5486,29 +5481,29 @@
       <selection activeCell="A3" sqref="A3:N3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="3.453125" customWidth="1"/>
-    <col min="2" max="2" width="19.6328125" customWidth="1"/>
-    <col min="3" max="3" width="13.54296875" customWidth="1"/>
-    <col min="4" max="4" width="10.6328125" customWidth="1"/>
-    <col min="5" max="5" width="5.453125" customWidth="1"/>
-    <col min="6" max="6" width="9.08984375" customWidth="1"/>
-    <col min="7" max="7" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.44140625" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" customWidth="1"/>
+    <col min="5" max="5" width="5.44140625" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" customWidth="1"/>
+    <col min="7" max="7" width="9.88671875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" customWidth="1"/>
-    <col min="9" max="9" width="8.08984375" customWidth="1"/>
-    <col min="10" max="10" width="11.08984375" customWidth="1"/>
-    <col min="11" max="11" width="11.36328125" customWidth="1"/>
-    <col min="12" max="12" width="8.453125" customWidth="1"/>
-    <col min="13" max="13" width="9.36328125" customWidth="1"/>
-    <col min="14" max="14" width="11.6328125" customWidth="1"/>
-    <col min="17" max="17" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.109375" customWidth="1"/>
+    <col min="10" max="10" width="11.109375" customWidth="1"/>
+    <col min="11" max="11" width="11.33203125" customWidth="1"/>
+    <col min="12" max="12" width="8.44140625" customWidth="1"/>
+    <col min="13" max="13" width="9.33203125" customWidth="1"/>
+    <col min="14" max="14" width="11.6640625" customWidth="1"/>
+    <col min="17" max="17" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:15" ht="27" customHeight="1">
       <c r="B2" s="7"/>
     </row>
-    <row r="3" spans="1:15" ht="20">
+    <row r="3" spans="1:15" ht="20.399999999999999">
       <c r="A3" s="49" t="s">
         <v>47</v>
       </c>
@@ -5526,71 +5521,71 @@
       <c r="M3" s="49"/>
       <c r="N3" s="49"/>
     </row>
-    <row r="4" spans="1:15" ht="20">
+    <row r="4" spans="1:15" ht="20.399999999999999">
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" customHeight="1"/>
     <row r="6" spans="1:15" ht="15.75" customHeight="1"/>
     <row r="7" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="48" t="s">
+      <c r="B7" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="48" t="s">
+      <c r="C7" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="48" t="s">
+      <c r="D7" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="48" t="s">
+      <c r="E7" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="48" t="s">
+      <c r="F7" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="G7" s="48" t="s">
+      <c r="G7" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="H7" s="48" t="s">
+      <c r="H7" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="48" t="s">
+      <c r="I7" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="J7" s="48" t="s">
+      <c r="J7" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="K7" s="48" t="s">
+      <c r="K7" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="L7" s="48" t="s">
+      <c r="L7" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="M7" s="48" t="s">
+      <c r="M7" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="N7" s="48" t="s">
+      <c r="N7" s="47" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="48.75" customHeight="1">
-      <c r="A8" s="48"/>
-      <c r="B8" s="48"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="48"/>
-      <c r="J8" s="48"/>
-      <c r="K8" s="48"/>
-      <c r="L8" s="48"/>
-      <c r="M8" s="48"/>
-      <c r="N8" s="48"/>
+      <c r="A8" s="47"/>
+      <c r="B8" s="47"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="47"/>
+      <c r="L8" s="47"/>
+      <c r="M8" s="47"/>
+      <c r="N8" s="47"/>
     </row>
     <row r="9" spans="1:15" ht="31.5" customHeight="1">
       <c r="A9" s="3">
@@ -5685,23 +5680,23 @@
       </c>
       <c r="O10" s="9"/>
     </row>
-    <row r="11" spans="1:15" ht="15">
+    <row r="11" spans="1:15" ht="15.6">
       <c r="J11" s="11"/>
       <c r="N11" s="15">
         <f>N10+I10</f>
         <v>3839.85</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="13" thickBot="1"/>
-    <row r="13" spans="1:15" ht="16" thickBot="1">
-      <c r="B13" s="47" t="s">
+    <row r="12" spans="1:15" ht="13.8" thickBot="1"/>
+    <row r="13" spans="1:15" ht="16.2" thickBot="1">
+      <c r="B13" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="47"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="47"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="48"/>
       <c r="H13" s="12">
         <v>0.22</v>
       </c>
@@ -5717,18 +5712,18 @@
       </c>
       <c r="N13" s="16"/>
     </row>
-    <row r="14" spans="1:15" ht="13.5" thickBot="1">
+    <row r="14" spans="1:15" ht="13.8" thickBot="1">
       <c r="N14" s="16"/>
     </row>
-    <row r="15" spans="1:15" ht="16" thickBot="1">
-      <c r="B15" s="47" t="s">
+    <row r="15" spans="1:15" ht="16.2" thickBot="1">
+      <c r="B15" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="47"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="47"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="48"/>
       <c r="H15" s="12">
         <v>0.22</v>
       </c>
@@ -5738,27 +5733,27 @@
       </c>
       <c r="K15" s="24"/>
     </row>
-    <row r="16" spans="1:15" ht="16" thickBot="1">
-      <c r="B16" s="47"/>
-      <c r="C16" s="47"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="47"/>
+    <row r="16" spans="1:15" ht="16.2" thickBot="1">
+      <c r="B16" s="48"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="48"/>
       <c r="H16" s="12"/>
       <c r="I16" s="12"/>
       <c r="J16" s="25"/>
     </row>
-    <row r="17" spans="2:11" ht="13" thickBot="1"/>
-    <row r="18" spans="2:11" ht="16" thickBot="1">
-      <c r="B18" s="47" t="s">
+    <row r="17" spans="2:11" ht="13.8" thickBot="1"/>
+    <row r="18" spans="2:11" ht="16.2" thickBot="1">
+      <c r="B18" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="47"/>
-      <c r="D18" s="47"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="47"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="48"/>
       <c r="J18" s="27">
         <f>K10+J10+J13+J15</f>
         <v>3018.61</v>
@@ -5767,11 +5762,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="B18:G18"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
     <mergeCell ref="N7:N8"/>
     <mergeCell ref="B13:G13"/>
     <mergeCell ref="A3:N3"/>
@@ -5786,6 +5776,11 @@
     <mergeCell ref="H7:H8"/>
     <mergeCell ref="I7:I8"/>
     <mergeCell ref="M7:M8"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" scale="95" orientation="landscape" r:id="rId1"/>
@@ -5802,20 +5797,20 @@
       <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="2" width="9.08984375" style="9"/>
-    <col min="3" max="3" width="5.36328125" style="9" customWidth="1"/>
-    <col min="4" max="4" width="21.453125" style="9" customWidth="1"/>
-    <col min="5" max="5" width="10.36328125" style="9" customWidth="1"/>
+    <col min="1" max="2" width="9.109375" style="9"/>
+    <col min="3" max="3" width="5.33203125" style="9" customWidth="1"/>
+    <col min="4" max="4" width="21.44140625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" style="9" customWidth="1"/>
     <col min="6" max="6" width="18" style="9" customWidth="1"/>
-    <col min="7" max="16384" width="9.08984375" style="9"/>
+    <col min="7" max="16384" width="9.109375" style="9"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" ht="17.5">
+    <row r="2" spans="1:10" ht="17.399999999999999">
       <c r="C2" s="17"/>
     </row>
-    <row r="3" spans="1:10" ht="20.5">
+    <row r="3" spans="1:10" ht="21">
       <c r="A3" s="54" t="s">
         <v>20</v>
       </c>
@@ -5827,47 +5822,47 @@
       <c r="G3" s="18"/>
       <c r="H3" s="18"/>
     </row>
-    <row r="4" spans="1:10" ht="15.5">
+    <row r="4" spans="1:10" ht="15.6">
       <c r="C4" s="19"/>
     </row>
-    <row r="5" spans="1:10" ht="22.5">
-      <c r="A5" s="56" t="s">
+    <row r="5" spans="1:10" ht="22.8">
+      <c r="A5" s="55" t="s">
         <v>77</v>
       </c>
-      <c r="B5" s="56"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
       <c r="H5" s="20"/>
       <c r="I5" s="20"/>
       <c r="J5" s="20"/>
     </row>
-    <row r="6" spans="1:10" ht="17.5">
-      <c r="A6" s="57" t="s">
+    <row r="6" spans="1:10" ht="17.399999999999999">
+      <c r="A6" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="57"/>
-      <c r="C6" s="57"/>
-      <c r="D6" s="57"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="57"/>
+      <c r="B6" s="56"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="56"/>
       <c r="H6" s="21"/>
       <c r="I6" s="21"/>
       <c r="J6" s="21"/>
     </row>
-    <row r="7" spans="1:10" ht="17.5">
-      <c r="A7" s="57" t="s">
+    <row r="7" spans="1:10" ht="17.399999999999999">
+      <c r="A7" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="B7" s="57"/>
-      <c r="C7" s="57"/>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57"/>
+      <c r="B7" s="56"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56"/>
       <c r="H7" s="21"/>
       <c r="I7" s="21"/>
       <c r="J7" s="21"/>
@@ -5879,23 +5874,23 @@
       <c r="C9" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="D9" s="52" t="s">
+      <c r="D9" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="52" t="s">
+      <c r="E9" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="F9" s="52" t="s">
+      <c r="F9" s="57" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="17.5" hidden="1">
+    <row r="10" spans="1:10" ht="17.399999999999999" hidden="1">
       <c r="C10" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="52"/>
-      <c r="E10" s="52"/>
-      <c r="F10" s="52"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
     </row>
     <row r="11" spans="1:10" ht="31.5" customHeight="1">
       <c r="C11" s="1">
@@ -5909,7 +5904,7 @@
       </c>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:10" ht="30">
+    <row r="12" spans="1:10" ht="31.2">
       <c r="C12" s="3"/>
       <c r="D12" s="14" t="s">
         <v>8</v>
@@ -5920,44 +5915,44 @@
       </c>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:10" ht="17.5">
+    <row r="13" spans="1:10" ht="17.399999999999999">
       <c r="C13" s="21"/>
     </row>
     <row r="14" spans="1:10" ht="36.75" customHeight="1">
-      <c r="A14" s="53"/>
-      <c r="B14" s="53"/>
-      <c r="C14" s="53"/>
-      <c r="D14" s="53"/>
-      <c r="E14" s="53"/>
-      <c r="F14" s="53"/>
-      <c r="G14" s="53"/>
+      <c r="A14" s="52"/>
+      <c r="B14" s="52"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="52"/>
       <c r="H14" s="17"/>
     </row>
     <row r="15" spans="1:10" ht="14.25" customHeight="1">
       <c r="C15" s="19"/>
     </row>
     <row r="16" spans="1:10" ht="18">
-      <c r="A16" s="55" t="s">
+      <c r="A16" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="55"/>
-      <c r="C16" s="55"/>
-      <c r="D16" s="55"/>
+      <c r="B16" s="53"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="53"/>
     </row>
     <row r="17" spans="1:10" ht="18">
-      <c r="A17" s="55"/>
-      <c r="B17" s="55"/>
-      <c r="D17" s="55"/>
-      <c r="E17" s="55"/>
-      <c r="F17" s="55"/>
-      <c r="G17" s="55"/>
-      <c r="H17" s="55"/>
+      <c r="A17" s="53"/>
+      <c r="B17" s="53"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="53"/>
+      <c r="H17" s="53"/>
     </row>
     <row r="18" spans="1:10" ht="44.25" customHeight="1"/>
-    <row r="19" spans="1:10" ht="17.5">
+    <row r="19" spans="1:10" ht="17.399999999999999">
       <c r="C19" s="17"/>
     </row>
-    <row r="20" spans="1:10" ht="20.5">
+    <row r="20" spans="1:10" ht="21">
       <c r="A20" s="54" t="s">
         <v>20</v>
       </c>
@@ -5969,48 +5964,48 @@
       <c r="G20" s="18"/>
       <c r="H20" s="18"/>
     </row>
-    <row r="21" spans="1:10" ht="15.5">
+    <row r="21" spans="1:10" ht="15.6">
       <c r="C21" s="19"/>
     </row>
-    <row r="22" spans="1:10" ht="22.5">
-      <c r="A22" s="56" t="str">
+    <row r="22" spans="1:10" ht="22.8">
+      <c r="A22" s="55" t="str">
         <f>A5</f>
         <v xml:space="preserve">  СЕРПЕНЬ 2021</v>
       </c>
-      <c r="B22" s="56"/>
-      <c r="C22" s="56"/>
-      <c r="D22" s="56"/>
-      <c r="E22" s="56"/>
-      <c r="F22" s="56"/>
-      <c r="G22" s="56"/>
+      <c r="B22" s="55"/>
+      <c r="C22" s="55"/>
+      <c r="D22" s="55"/>
+      <c r="E22" s="55"/>
+      <c r="F22" s="55"/>
+      <c r="G22" s="55"/>
       <c r="H22" s="20"/>
       <c r="I22" s="20"/>
       <c r="J22" s="20"/>
     </row>
-    <row r="23" spans="1:10" ht="17.5">
-      <c r="A23" s="57" t="s">
+    <row r="23" spans="1:10" ht="17.399999999999999">
+      <c r="A23" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="B23" s="57"/>
-      <c r="C23" s="57"/>
-      <c r="D23" s="57"/>
-      <c r="E23" s="57"/>
-      <c r="F23" s="57"/>
-      <c r="G23" s="57"/>
+      <c r="B23" s="56"/>
+      <c r="C23" s="56"/>
+      <c r="D23" s="56"/>
+      <c r="E23" s="56"/>
+      <c r="F23" s="56"/>
+      <c r="G23" s="56"/>
       <c r="H23" s="21"/>
       <c r="I23" s="21"/>
       <c r="J23" s="21"/>
     </row>
-    <row r="24" spans="1:10" ht="17.5">
-      <c r="A24" s="57" t="s">
+    <row r="24" spans="1:10" ht="17.399999999999999">
+      <c r="A24" s="56" t="s">
         <v>79</v>
       </c>
-      <c r="B24" s="57"/>
-      <c r="C24" s="57"/>
-      <c r="D24" s="57"/>
-      <c r="E24" s="57"/>
-      <c r="F24" s="57"/>
-      <c r="G24" s="57"/>
+      <c r="B24" s="56"/>
+      <c r="C24" s="56"/>
+      <c r="D24" s="56"/>
+      <c r="E24" s="56"/>
+      <c r="F24" s="56"/>
+      <c r="G24" s="56"/>
       <c r="H24" s="21"/>
       <c r="I24" s="21"/>
       <c r="J24" s="21"/>
@@ -6022,23 +6017,23 @@
       <c r="C26" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="D26" s="52" t="s">
+      <c r="D26" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="E26" s="52" t="s">
+      <c r="E26" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="F26" s="52" t="s">
+      <c r="F26" s="57" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="17.5" hidden="1">
+    <row r="27" spans="1:10" ht="17.399999999999999" hidden="1">
       <c r="C27" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="D27" s="52"/>
-      <c r="E27" s="52"/>
-      <c r="F27" s="52"/>
+      <c r="D27" s="57"/>
+      <c r="E27" s="57"/>
+      <c r="F27" s="57"/>
     </row>
     <row r="28" spans="1:10" ht="31.5" customHeight="1">
       <c r="C28" s="1">
@@ -6053,7 +6048,7 @@
       </c>
       <c r="F28" s="3"/>
     </row>
-    <row r="29" spans="1:10" ht="30">
+    <row r="29" spans="1:10" ht="31.2">
       <c r="C29" s="3"/>
       <c r="D29" s="14" t="s">
         <v>8</v>
@@ -6064,32 +6059,42 @@
       </c>
       <c r="F29" s="3"/>
     </row>
-    <row r="30" spans="1:10" ht="17.5">
+    <row r="30" spans="1:10" ht="17.399999999999999">
       <c r="C30" s="21"/>
     </row>
     <row r="31" spans="1:10" ht="36.75" customHeight="1">
-      <c r="A31" s="53"/>
-      <c r="B31" s="53"/>
-      <c r="C31" s="53"/>
-      <c r="D31" s="53"/>
-      <c r="E31" s="53"/>
-      <c r="F31" s="53"/>
-      <c r="G31" s="53"/>
+      <c r="A31" s="52"/>
+      <c r="B31" s="52"/>
+      <c r="C31" s="52"/>
+      <c r="D31" s="52"/>
+      <c r="E31" s="52"/>
+      <c r="F31" s="52"/>
+      <c r="G31" s="52"/>
       <c r="H31" s="17"/>
     </row>
     <row r="32" spans="1:10" ht="14.25" customHeight="1">
       <c r="C32" s="19"/>
     </row>
     <row r="33" spans="1:4" ht="18">
-      <c r="A33" s="55" t="s">
+      <c r="A33" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="B33" s="55"/>
-      <c r="C33" s="55"/>
-      <c r="D33" s="55"/>
+      <c r="B33" s="53"/>
+      <c r="C33" s="53"/>
+      <c r="D33" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="A14:G14"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="D17:H17"/>
+    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="A7:G7"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="D9:D10"/>
     <mergeCell ref="A31:G31"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A16:D16"/>
@@ -6100,16 +6105,6 @@
     <mergeCell ref="D26:D27"/>
     <mergeCell ref="E26:E27"/>
     <mergeCell ref="F26:F27"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="A14:G14"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="D17:H17"/>
-    <mergeCell ref="A5:G5"/>
-    <mergeCell ref="A6:G6"/>
-    <mergeCell ref="A7:G7"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="D9:D10"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.78740157480314965" right="0" top="0" bottom="0" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -6122,20 +6117,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12" style="29" customWidth="1"/>
-    <col min="2" max="2" width="15.54296875" style="29" customWidth="1"/>
+    <col min="2" max="2" width="15.5546875" style="29" customWidth="1"/>
     <col min="3" max="3" width="15" style="29" customWidth="1"/>
-    <col min="4" max="4" width="12.36328125" style="29" customWidth="1"/>
-    <col min="5" max="5" width="9.08984375" style="29" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" style="29" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" style="29" customWidth="1"/>
     <col min="6" max="6" width="12" style="29" customWidth="1"/>
-    <col min="7" max="7" width="10.08984375" style="29" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.08984375" style="29"/>
+    <col min="7" max="7" width="10.109375" style="29" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.109375" style="29"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21.75" customHeight="1">
@@ -6447,19 +6442,19 @@
         <v>40</v>
       </c>
       <c r="B18" s="44">
-        <v>9343.99</v>
+        <v>10694.99</v>
       </c>
       <c r="C18" s="44">
-        <v>9240</v>
+        <v>10560</v>
       </c>
       <c r="D18" s="44">
-        <v>7456.79</v>
+        <v>8562.15</v>
       </c>
       <c r="E18" s="44">
-        <v>621.4</v>
+        <v>713.51</v>
       </c>
       <c r="F18" s="44">
-        <v>6141.2</v>
+        <v>7041.2</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="17.25" customHeight="1">
@@ -6468,30 +6463,30 @@
       </c>
       <c r="B19" s="41">
         <f>B18-B17+B4</f>
-        <v>-2701.9812000000002</v>
+        <v>-1350.9811999999999</v>
       </c>
       <c r="C19" s="41">
         <f>C18-C17</f>
-        <v>-2640</v>
+        <v>-1320</v>
       </c>
       <c r="D19" s="41">
         <f>D18-D17</f>
-        <v>-2210.7200000000003</v>
+        <v>-1105.3600000000006</v>
       </c>
       <c r="E19" s="41">
         <f>E18-E17</f>
-        <v>-184.2277499999999</v>
+        <v>-92.117749999999887</v>
       </c>
       <c r="F19" s="41">
         <f>F18-F17+F4</f>
-        <v>-1800.0000000000002</v>
+        <v>-900.00000000000023</v>
       </c>
       <c r="G19" s="33"/>
     </row>
-    <row r="20" spans="1:7" ht="16" thickBot="1">
+    <row r="20" spans="1:7" ht="15.6" thickBot="1">
       <c r="F20" s="33"/>
     </row>
-    <row r="21" spans="1:7" ht="16" thickBot="1">
+    <row r="21" spans="1:7" ht="15.6" thickBot="1">
       <c r="A21" s="36"/>
       <c r="B21" s="37"/>
       <c r="C21" s="37"/>
@@ -6518,16 +6513,16 @@
       <selection pane="bottomRight" activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12" style="29" customWidth="1"/>
-    <col min="2" max="2" width="15.54296875" style="29" customWidth="1"/>
+    <col min="2" max="2" width="15.5546875" style="29" customWidth="1"/>
     <col min="3" max="3" width="15" style="29" customWidth="1"/>
-    <col min="4" max="4" width="12.36328125" style="29" customWidth="1"/>
-    <col min="5" max="5" width="9.08984375" style="29" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" style="29" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" style="29" customWidth="1"/>
     <col min="6" max="6" width="12" style="29" customWidth="1"/>
-    <col min="7" max="7" width="10.08984375" style="29" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.08984375" style="29"/>
+    <col min="7" max="7" width="10.109375" style="29" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.109375" style="29"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21.75" customHeight="1">
@@ -6904,8 +6899,8 @@
       </c>
       <c r="G19" s="33"/>
     </row>
-    <row r="20" spans="1:7" ht="16" thickBot="1"/>
-    <row r="21" spans="1:7" ht="16" thickBot="1">
+    <row r="20" spans="1:7" ht="15.6" thickBot="1"/>
+    <row r="21" spans="1:7" ht="15.6" thickBot="1">
       <c r="A21" s="36"/>
       <c r="B21" s="37"/>
       <c r="C21" s="37"/>
@@ -6929,32 +6924,32 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="3.453125" customWidth="1"/>
-    <col min="2" max="2" width="17.90625" customWidth="1"/>
-    <col min="3" max="3" width="13.54296875" customWidth="1"/>
-    <col min="4" max="4" width="10.6328125" customWidth="1"/>
+    <col min="1" max="1" width="3.44140625" customWidth="1"/>
+    <col min="2" max="2" width="17.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" customWidth="1"/>
     <col min="5" max="5" width="6" customWidth="1"/>
-    <col min="6" max="6" width="8.54296875" customWidth="1"/>
-    <col min="7" max="7" width="9.90625" customWidth="1"/>
+    <col min="6" max="6" width="8.5546875" customWidth="1"/>
+    <col min="7" max="7" width="9.88671875" customWidth="1"/>
     <col min="8" max="8" width="8" customWidth="1"/>
-    <col min="9" max="9" width="7.6328125" customWidth="1"/>
-    <col min="10" max="10" width="10.453125" customWidth="1"/>
+    <col min="9" max="9" width="7.6640625" customWidth="1"/>
+    <col min="10" max="10" width="10.44140625" customWidth="1"/>
     <col min="11" max="11" width="10" customWidth="1"/>
-    <col min="12" max="12" width="8.08984375" customWidth="1"/>
-    <col min="13" max="13" width="11.08984375" customWidth="1"/>
-    <col min="14" max="14" width="11.36328125" customWidth="1"/>
-    <col min="15" max="15" width="8.453125" customWidth="1"/>
-    <col min="16" max="16" width="9.36328125" customWidth="1"/>
-    <col min="17" max="17" width="11.6328125" customWidth="1"/>
-    <col min="20" max="20" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.109375" customWidth="1"/>
+    <col min="13" max="13" width="11.109375" customWidth="1"/>
+    <col min="14" max="14" width="11.33203125" customWidth="1"/>
+    <col min="15" max="15" width="8.44140625" customWidth="1"/>
+    <col min="16" max="16" width="9.33203125" customWidth="1"/>
+    <col min="17" max="17" width="11.6640625" customWidth="1"/>
+    <col min="20" max="20" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:18" ht="27" customHeight="1">
       <c r="B2" s="7"/>
     </row>
-    <row r="3" spans="1:18" ht="20">
+    <row r="3" spans="1:18" ht="20.399999999999999">
       <c r="A3" s="49" t="s">
         <v>68</v>
       </c>
@@ -6975,7 +6970,7 @@
       <c r="P3" s="49"/>
       <c r="Q3" s="49"/>
     </row>
-    <row r="4" spans="1:18" ht="20">
+    <row r="4" spans="1:18" ht="20.399999999999999">
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
     </row>
@@ -6989,76 +6984,76 @@
       </c>
     </row>
     <row r="7" spans="1:18" ht="15.75" customHeight="1">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="48" t="s">
+      <c r="B7" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="48" t="s">
+      <c r="C7" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="48" t="s">
+      <c r="D7" s="47" t="s">
         <v>2</v>
       </c>
       <c r="E7" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="F7" s="48" t="s">
+      <c r="F7" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="G7" s="48" t="s">
+      <c r="G7" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="48" t="s">
+      <c r="H7" s="47" t="s">
         <v>65</v>
       </c>
-      <c r="I7" s="48" t="s">
+      <c r="I7" s="47" t="s">
         <v>66</v>
       </c>
-      <c r="J7" s="48" t="s">
+      <c r="J7" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="K7" s="48" t="s">
+      <c r="K7" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="L7" s="48" t="s">
+      <c r="L7" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="M7" s="48" t="s">
+      <c r="M7" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="N7" s="48" t="s">
+      <c r="N7" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="O7" s="48" t="s">
+      <c r="O7" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="P7" s="48" t="s">
+      <c r="P7" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="Q7" s="48" t="s">
+      <c r="Q7" s="47" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="48.75" customHeight="1">
-      <c r="A8" s="48"/>
-      <c r="B8" s="48"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
+      <c r="A8" s="47"/>
+      <c r="B8" s="47"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
       <c r="E8" s="51"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="48"/>
-      <c r="J8" s="48"/>
-      <c r="K8" s="48"/>
-      <c r="L8" s="48"/>
-      <c r="M8" s="48"/>
-      <c r="N8" s="48"/>
-      <c r="O8" s="48"/>
-      <c r="P8" s="48"/>
-      <c r="Q8" s="48"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="47"/>
+      <c r="L8" s="47"/>
+      <c r="M8" s="47"/>
+      <c r="N8" s="47"/>
+      <c r="O8" s="47"/>
+      <c r="P8" s="47"/>
+      <c r="Q8" s="47"/>
     </row>
     <row r="9" spans="1:18" ht="31.5" customHeight="1">
       <c r="A9" s="3">
@@ -7179,26 +7174,26 @@
       </c>
       <c r="R10" s="9"/>
     </row>
-    <row r="11" spans="1:18" ht="15">
+    <row r="11" spans="1:18" ht="15.6">
       <c r="M11" s="11"/>
       <c r="Q11" s="15">
         <f>Q10+L10</f>
         <v>5005.5489500000003</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="13" thickBot="1"/>
-    <row r="13" spans="1:18" ht="16" thickBot="1">
-      <c r="B13" s="47" t="s">
+    <row r="12" spans="1:18" ht="13.8" thickBot="1"/>
+    <row r="13" spans="1:18" ht="16.2" thickBot="1">
+      <c r="B13" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="47"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="47"/>
-      <c r="H13" s="47"/>
-      <c r="I13" s="47"/>
-      <c r="J13" s="47"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="48"/>
+      <c r="I13" s="48"/>
+      <c r="J13" s="48"/>
       <c r="K13" s="12">
         <v>0.22</v>
       </c>
@@ -7214,21 +7209,21 @@
       </c>
       <c r="Q13" s="16"/>
     </row>
-    <row r="14" spans="1:18" ht="13.5" thickBot="1">
+    <row r="14" spans="1:18" ht="13.8" thickBot="1">
       <c r="Q14" s="16"/>
     </row>
-    <row r="15" spans="1:18" ht="16" thickBot="1">
-      <c r="B15" s="47" t="s">
+    <row r="15" spans="1:18" ht="16.2" thickBot="1">
+      <c r="B15" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="47"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="47"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="47"/>
-      <c r="J15" s="47"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="48"/>
+      <c r="I15" s="48"/>
+      <c r="J15" s="48"/>
       <c r="K15" s="12">
         <v>0.22</v>
       </c>
@@ -7238,33 +7233,33 @@
       </c>
       <c r="N15" s="24"/>
     </row>
-    <row r="16" spans="1:18" ht="16" thickBot="1">
-      <c r="B16" s="47"/>
-      <c r="C16" s="47"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="47"/>
-      <c r="H16" s="47"/>
-      <c r="I16" s="47"/>
-      <c r="J16" s="47"/>
+    <row r="16" spans="1:18" ht="16.2" thickBot="1">
+      <c r="B16" s="48"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="48"/>
+      <c r="I16" s="48"/>
+      <c r="J16" s="48"/>
       <c r="K16" s="12"/>
       <c r="L16" s="12"/>
       <c r="M16" s="25"/>
     </row>
-    <row r="17" spans="2:14" ht="13" thickBot="1"/>
-    <row r="18" spans="2:14" ht="16" thickBot="1">
-      <c r="B18" s="47" t="s">
+    <row r="17" spans="2:14" ht="13.8" thickBot="1"/>
+    <row r="18" spans="2:14" ht="16.2" thickBot="1">
+      <c r="B18" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="47"/>
-      <c r="D18" s="47"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="47"/>
-      <c r="H18" s="47"/>
-      <c r="I18" s="47"/>
-      <c r="J18" s="47"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="48"/>
+      <c r="H18" s="48"/>
+      <c r="I18" s="48"/>
+      <c r="J18" s="48"/>
       <c r="M18" s="27">
         <f>N10+M10+M13+M15</f>
         <v>3900.4964500000001</v>
@@ -7273,6 +7268,13 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="B13:J13"/>
+    <mergeCell ref="B15:J15"/>
+    <mergeCell ref="B16:J16"/>
+    <mergeCell ref="B18:J18"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:J8"/>
     <mergeCell ref="O7:O8"/>
     <mergeCell ref="P7:P8"/>
     <mergeCell ref="A3:Q3"/>
@@ -7288,13 +7290,6 @@
     <mergeCell ref="L7:L8"/>
     <mergeCell ref="M7:M8"/>
     <mergeCell ref="N7:N8"/>
-    <mergeCell ref="B13:J13"/>
-    <mergeCell ref="B15:J15"/>
-    <mergeCell ref="B16:J16"/>
-    <mergeCell ref="B18:J18"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J7:J8"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
@@ -7310,31 +7305,31 @@
       <selection activeCell="A3" sqref="A3:P3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="3.453125" customWidth="1"/>
-    <col min="2" max="2" width="17.90625" customWidth="1"/>
-    <col min="3" max="3" width="13.54296875" customWidth="1"/>
-    <col min="4" max="4" width="10.6328125" customWidth="1"/>
+    <col min="1" max="1" width="3.44140625" customWidth="1"/>
+    <col min="2" max="2" width="17.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" customWidth="1"/>
     <col min="5" max="5" width="6" customWidth="1"/>
-    <col min="6" max="6" width="8.54296875" customWidth="1"/>
-    <col min="7" max="7" width="11.90625" customWidth="1"/>
-    <col min="8" max="8" width="5.6328125" customWidth="1"/>
-    <col min="9" max="9" width="10.453125" customWidth="1"/>
+    <col min="6" max="6" width="8.5546875" customWidth="1"/>
+    <col min="7" max="7" width="11.88671875" customWidth="1"/>
+    <col min="8" max="8" width="5.6640625" customWidth="1"/>
+    <col min="9" max="9" width="10.44140625" customWidth="1"/>
     <col min="10" max="10" width="10" customWidth="1"/>
-    <col min="11" max="11" width="8.08984375" customWidth="1"/>
-    <col min="12" max="12" width="11.08984375" customWidth="1"/>
-    <col min="13" max="13" width="11.36328125" customWidth="1"/>
-    <col min="14" max="14" width="8.453125" customWidth="1"/>
-    <col min="15" max="15" width="9.36328125" customWidth="1"/>
-    <col min="16" max="16" width="11.6328125" customWidth="1"/>
-    <col min="19" max="19" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.109375" customWidth="1"/>
+    <col min="12" max="12" width="11.109375" customWidth="1"/>
+    <col min="13" max="13" width="11.33203125" customWidth="1"/>
+    <col min="14" max="14" width="8.44140625" customWidth="1"/>
+    <col min="15" max="15" width="9.33203125" customWidth="1"/>
+    <col min="16" max="16" width="11.6640625" customWidth="1"/>
+    <col min="19" max="19" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:17" ht="27" customHeight="1">
       <c r="B2" s="7"/>
     </row>
-    <row r="3" spans="1:17" ht="20">
+    <row r="3" spans="1:17" ht="20.399999999999999">
       <c r="A3" s="49" t="s">
         <v>67</v>
       </c>
@@ -7354,7 +7349,7 @@
       <c r="O3" s="49"/>
       <c r="P3" s="49"/>
     </row>
-    <row r="4" spans="1:17" ht="20">
+    <row r="4" spans="1:17" ht="20.399999999999999">
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
     </row>
@@ -7368,72 +7363,72 @@
       </c>
     </row>
     <row r="7" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="48" t="s">
+      <c r="B7" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="48" t="s">
+      <c r="C7" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="48" t="s">
+      <c r="D7" s="47" t="s">
         <v>2</v>
       </c>
       <c r="E7" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="F7" s="48" t="s">
+      <c r="F7" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="G7" s="48" t="s">
+      <c r="G7" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="48" t="s">
+      <c r="H7" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="I7" s="48" t="s">
+      <c r="I7" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="J7" s="48" t="s">
+      <c r="J7" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="K7" s="48" t="s">
+      <c r="K7" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="L7" s="48" t="s">
+      <c r="L7" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="M7" s="48" t="s">
+      <c r="M7" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="N7" s="48" t="s">
+      <c r="N7" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="O7" s="48" t="s">
+      <c r="O7" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="P7" s="48" t="s">
+      <c r="P7" s="47" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="48.75" customHeight="1">
-      <c r="A8" s="48"/>
-      <c r="B8" s="48"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
+      <c r="A8" s="47"/>
+      <c r="B8" s="47"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
       <c r="E8" s="51"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="48"/>
-      <c r="J8" s="48"/>
-      <c r="K8" s="48"/>
-      <c r="L8" s="48"/>
-      <c r="M8" s="48"/>
-      <c r="N8" s="48"/>
-      <c r="O8" s="48"/>
-      <c r="P8" s="48"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="47"/>
+      <c r="L8" s="47"/>
+      <c r="M8" s="47"/>
+      <c r="N8" s="47"/>
+      <c r="O8" s="47"/>
+      <c r="P8" s="47"/>
     </row>
     <row r="9" spans="1:17" ht="31.5" customHeight="1">
       <c r="A9" s="3">
@@ -7538,25 +7533,25 @@
       </c>
       <c r="Q10" s="9"/>
     </row>
-    <row r="11" spans="1:17" ht="15">
+    <row r="11" spans="1:17" ht="15.6">
       <c r="L11" s="11"/>
       <c r="P11" s="15">
         <f>P10+K10</f>
         <v>4878.3</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="13" thickBot="1"/>
-    <row r="13" spans="1:17" ht="16" thickBot="1">
-      <c r="B13" s="47" t="s">
+    <row r="12" spans="1:17" ht="13.8" thickBot="1"/>
+    <row r="13" spans="1:17" ht="16.2" thickBot="1">
+      <c r="B13" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="47"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="47"/>
-      <c r="H13" s="47"/>
-      <c r="I13" s="47"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="48"/>
+      <c r="I13" s="48"/>
       <c r="J13" s="12">
         <v>0.22</v>
       </c>
@@ -7572,20 +7567,20 @@
       </c>
       <c r="P13" s="16"/>
     </row>
-    <row r="14" spans="1:17" ht="13.5" thickBot="1">
+    <row r="14" spans="1:17" ht="13.8" thickBot="1">
       <c r="P14" s="16"/>
     </row>
-    <row r="15" spans="1:17" ht="16" thickBot="1">
-      <c r="B15" s="47" t="s">
+    <row r="15" spans="1:17" ht="16.2" thickBot="1">
+      <c r="B15" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="47"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="47"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="47"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="48"/>
+      <c r="I15" s="48"/>
       <c r="J15" s="12">
         <v>0.22</v>
       </c>
@@ -7595,31 +7590,31 @@
       </c>
       <c r="M15" s="24"/>
     </row>
-    <row r="16" spans="1:17" ht="16" thickBot="1">
-      <c r="B16" s="47"/>
-      <c r="C16" s="47"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="47"/>
-      <c r="H16" s="47"/>
-      <c r="I16" s="47"/>
+    <row r="16" spans="1:17" ht="16.2" thickBot="1">
+      <c r="B16" s="48"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="48"/>
+      <c r="I16" s="48"/>
       <c r="J16" s="12"/>
       <c r="K16" s="12"/>
       <c r="L16" s="25"/>
     </row>
-    <row r="17" spans="2:13" ht="13" thickBot="1"/>
-    <row r="18" spans="2:13" ht="16" thickBot="1">
-      <c r="B18" s="47" t="s">
+    <row r="17" spans="2:13" ht="13.8" thickBot="1"/>
+    <row r="18" spans="2:13" ht="16.2" thickBot="1">
+      <c r="B18" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="47"/>
-      <c r="D18" s="47"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="47"/>
-      <c r="H18" s="47"/>
-      <c r="I18" s="47"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="48"/>
+      <c r="H18" s="48"/>
+      <c r="I18" s="48"/>
       <c r="L18" s="27">
         <f>M10+L10+L13+L15</f>
         <v>3834.9</v>
@@ -7628,15 +7623,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B16:I16"/>
-    <mergeCell ref="B18:I18"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="B13:I13"/>
-    <mergeCell ref="B15:I15"/>
     <mergeCell ref="A3:P3"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
@@ -7649,6 +7635,15 @@
     <mergeCell ref="P7:P8"/>
     <mergeCell ref="M7:M8"/>
     <mergeCell ref="O7:O8"/>
+    <mergeCell ref="B16:I16"/>
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="B13:I13"/>
+    <mergeCell ref="B15:I15"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
@@ -7664,31 +7659,31 @@
       <selection activeCell="A3" sqref="A3:P3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="3.453125" customWidth="1"/>
-    <col min="2" max="2" width="17.90625" customWidth="1"/>
-    <col min="3" max="3" width="13.54296875" customWidth="1"/>
-    <col min="4" max="4" width="10.6328125" customWidth="1"/>
+    <col min="1" max="1" width="3.44140625" customWidth="1"/>
+    <col min="2" max="2" width="17.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" customWidth="1"/>
     <col min="5" max="5" width="6" customWidth="1"/>
-    <col min="6" max="6" width="8.54296875" customWidth="1"/>
-    <col min="7" max="7" width="11.90625" customWidth="1"/>
-    <col min="8" max="8" width="5.6328125" customWidth="1"/>
-    <col min="9" max="9" width="10.453125" customWidth="1"/>
+    <col min="6" max="6" width="8.5546875" customWidth="1"/>
+    <col min="7" max="7" width="11.88671875" customWidth="1"/>
+    <col min="8" max="8" width="5.6640625" customWidth="1"/>
+    <col min="9" max="9" width="10.44140625" customWidth="1"/>
     <col min="10" max="10" width="10" customWidth="1"/>
-    <col min="11" max="11" width="8.08984375" customWidth="1"/>
-    <col min="12" max="12" width="11.08984375" customWidth="1"/>
-    <col min="13" max="13" width="11.36328125" customWidth="1"/>
-    <col min="14" max="14" width="8.453125" customWidth="1"/>
-    <col min="15" max="15" width="9.36328125" customWidth="1"/>
-    <col min="16" max="16" width="11.6328125" customWidth="1"/>
-    <col min="19" max="19" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.109375" customWidth="1"/>
+    <col min="12" max="12" width="11.109375" customWidth="1"/>
+    <col min="13" max="13" width="11.33203125" customWidth="1"/>
+    <col min="14" max="14" width="8.44140625" customWidth="1"/>
+    <col min="15" max="15" width="9.33203125" customWidth="1"/>
+    <col min="16" max="16" width="11.6640625" customWidth="1"/>
+    <col min="19" max="19" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:17" ht="27" customHeight="1">
       <c r="B2" s="7"/>
     </row>
-    <row r="3" spans="1:17" ht="20">
+    <row r="3" spans="1:17" ht="20.399999999999999">
       <c r="A3" s="49" t="s">
         <v>69</v>
       </c>
@@ -7708,7 +7703,7 @@
       <c r="O3" s="49"/>
       <c r="P3" s="49"/>
     </row>
-    <row r="4" spans="1:17" ht="20">
+    <row r="4" spans="1:17" ht="20.399999999999999">
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
     </row>
@@ -7722,72 +7717,72 @@
       </c>
     </row>
     <row r="7" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="48" t="s">
+      <c r="B7" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="48" t="s">
+      <c r="C7" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="48" t="s">
+      <c r="D7" s="47" t="s">
         <v>2</v>
       </c>
       <c r="E7" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="F7" s="48" t="s">
+      <c r="F7" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="G7" s="48" t="s">
+      <c r="G7" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="48" t="s">
+      <c r="H7" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="I7" s="48" t="s">
+      <c r="I7" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="J7" s="48" t="s">
+      <c r="J7" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="K7" s="48" t="s">
+      <c r="K7" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="L7" s="48" t="s">
+      <c r="L7" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="M7" s="48" t="s">
+      <c r="M7" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="N7" s="48" t="s">
+      <c r="N7" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="O7" s="48" t="s">
+      <c r="O7" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="P7" s="48" t="s">
+      <c r="P7" s="47" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="48.75" customHeight="1">
-      <c r="A8" s="48"/>
-      <c r="B8" s="48"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
+      <c r="A8" s="47"/>
+      <c r="B8" s="47"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
       <c r="E8" s="51"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="48"/>
-      <c r="J8" s="48"/>
-      <c r="K8" s="48"/>
-      <c r="L8" s="48"/>
-      <c r="M8" s="48"/>
-      <c r="N8" s="48"/>
-      <c r="O8" s="48"/>
-      <c r="P8" s="48"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="47"/>
+      <c r="L8" s="47"/>
+      <c r="M8" s="47"/>
+      <c r="N8" s="47"/>
+      <c r="O8" s="47"/>
+      <c r="P8" s="47"/>
     </row>
     <row r="9" spans="1:17" ht="31.5" customHeight="1">
       <c r="A9" s="3">
@@ -7892,25 +7887,25 @@
       </c>
       <c r="Q10" s="9"/>
     </row>
-    <row r="11" spans="1:17" ht="15">
+    <row r="11" spans="1:17" ht="15.6">
       <c r="L11" s="11"/>
       <c r="P11" s="15">
         <f>P10+K10</f>
         <v>4878.3</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="13" thickBot="1"/>
-    <row r="13" spans="1:17" ht="16" thickBot="1">
-      <c r="B13" s="47" t="s">
+    <row r="12" spans="1:17" ht="13.8" thickBot="1"/>
+    <row r="13" spans="1:17" ht="16.2" thickBot="1">
+      <c r="B13" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="47"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="47"/>
-      <c r="H13" s="47"/>
-      <c r="I13" s="47"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="48"/>
+      <c r="I13" s="48"/>
       <c r="J13" s="12">
         <v>0.22</v>
       </c>
@@ -7926,20 +7921,20 @@
       </c>
       <c r="P13" s="16"/>
     </row>
-    <row r="14" spans="1:17" ht="13.5" thickBot="1">
+    <row r="14" spans="1:17" ht="13.8" thickBot="1">
       <c r="P14" s="16"/>
     </row>
-    <row r="15" spans="1:17" ht="16" thickBot="1">
-      <c r="B15" s="47" t="s">
+    <row r="15" spans="1:17" ht="16.2" thickBot="1">
+      <c r="B15" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="47"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="47"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="47"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="48"/>
+      <c r="I15" s="48"/>
       <c r="J15" s="12">
         <v>0.22</v>
       </c>
@@ -7949,31 +7944,31 @@
       </c>
       <c r="M15" s="24"/>
     </row>
-    <row r="16" spans="1:17" ht="16" thickBot="1">
-      <c r="B16" s="47"/>
-      <c r="C16" s="47"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="47"/>
-      <c r="H16" s="47"/>
-      <c r="I16" s="47"/>
+    <row r="16" spans="1:17" ht="16.2" thickBot="1">
+      <c r="B16" s="48"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="48"/>
+      <c r="I16" s="48"/>
       <c r="J16" s="12"/>
       <c r="K16" s="12"/>
       <c r="L16" s="25"/>
     </row>
-    <row r="17" spans="2:13" ht="13" thickBot="1"/>
-    <row r="18" spans="2:13" ht="16" thickBot="1">
-      <c r="B18" s="47" t="s">
+    <row r="17" spans="2:13" ht="13.8" thickBot="1"/>
+    <row r="18" spans="2:13" ht="16.2" thickBot="1">
+      <c r="B18" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="47"/>
-      <c r="D18" s="47"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="47"/>
-      <c r="H18" s="47"/>
-      <c r="I18" s="47"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="48"/>
+      <c r="H18" s="48"/>
+      <c r="I18" s="48"/>
       <c r="L18" s="27">
         <f>M10+L10+L13+L15</f>
         <v>3834.9</v>
@@ -7982,16 +7977,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B18:I18"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="B13:I13"/>
-    <mergeCell ref="B15:I15"/>
-    <mergeCell ref="B16:I16"/>
     <mergeCell ref="A3:P3"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
@@ -8003,6 +7988,16 @@
     <mergeCell ref="N7:N8"/>
     <mergeCell ref="P7:P8"/>
     <mergeCell ref="O7:O8"/>
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="B13:I13"/>
+    <mergeCell ref="B15:I15"/>
+    <mergeCell ref="B16:I16"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
@@ -8018,31 +8013,31 @@
       <selection activeCell="A3" sqref="A3:P3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="3.453125" customWidth="1"/>
-    <col min="2" max="2" width="17.90625" customWidth="1"/>
-    <col min="3" max="3" width="13.54296875" customWidth="1"/>
-    <col min="4" max="4" width="10.6328125" customWidth="1"/>
+    <col min="1" max="1" width="3.44140625" customWidth="1"/>
+    <col min="2" max="2" width="17.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" customWidth="1"/>
     <col min="5" max="5" width="6" customWidth="1"/>
-    <col min="6" max="6" width="8.54296875" customWidth="1"/>
-    <col min="7" max="7" width="11.90625" customWidth="1"/>
-    <col min="8" max="8" width="5.6328125" customWidth="1"/>
-    <col min="9" max="9" width="10.453125" customWidth="1"/>
+    <col min="6" max="6" width="8.5546875" customWidth="1"/>
+    <col min="7" max="7" width="11.88671875" customWidth="1"/>
+    <col min="8" max="8" width="5.6640625" customWidth="1"/>
+    <col min="9" max="9" width="10.44140625" customWidth="1"/>
     <col min="10" max="10" width="10" customWidth="1"/>
-    <col min="11" max="11" width="8.08984375" customWidth="1"/>
-    <col min="12" max="12" width="11.08984375" customWidth="1"/>
-    <col min="13" max="13" width="11.36328125" customWidth="1"/>
-    <col min="14" max="14" width="8.453125" customWidth="1"/>
-    <col min="15" max="15" width="9.36328125" customWidth="1"/>
-    <col min="16" max="16" width="11.6328125" customWidth="1"/>
-    <col min="19" max="19" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.109375" customWidth="1"/>
+    <col min="12" max="12" width="11.109375" customWidth="1"/>
+    <col min="13" max="13" width="11.33203125" customWidth="1"/>
+    <col min="14" max="14" width="8.44140625" customWidth="1"/>
+    <col min="15" max="15" width="9.33203125" customWidth="1"/>
+    <col min="16" max="16" width="11.6640625" customWidth="1"/>
+    <col min="19" max="19" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:17" ht="27" customHeight="1">
       <c r="B2" s="7"/>
     </row>
-    <row r="3" spans="1:17" ht="20">
+    <row r="3" spans="1:17" ht="20.399999999999999">
       <c r="A3" s="49" t="s">
         <v>70</v>
       </c>
@@ -8062,7 +8057,7 @@
       <c r="O3" s="49"/>
       <c r="P3" s="49"/>
     </row>
-    <row r="4" spans="1:17" ht="20">
+    <row r="4" spans="1:17" ht="20.399999999999999">
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
     </row>
@@ -8076,72 +8071,72 @@
       </c>
     </row>
     <row r="7" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="48" t="s">
+      <c r="B7" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="48" t="s">
+      <c r="C7" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="48" t="s">
+      <c r="D7" s="47" t="s">
         <v>2</v>
       </c>
       <c r="E7" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="F7" s="48" t="s">
+      <c r="F7" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="G7" s="48" t="s">
+      <c r="G7" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="48" t="s">
+      <c r="H7" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="I7" s="48" t="s">
+      <c r="I7" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="J7" s="48" t="s">
+      <c r="J7" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="K7" s="48" t="s">
+      <c r="K7" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="L7" s="48" t="s">
+      <c r="L7" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="M7" s="48" t="s">
+      <c r="M7" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="N7" s="48" t="s">
+      <c r="N7" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="O7" s="48" t="s">
+      <c r="O7" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="P7" s="48" t="s">
+      <c r="P7" s="47" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="48.75" customHeight="1">
-      <c r="A8" s="48"/>
-      <c r="B8" s="48"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
+      <c r="A8" s="47"/>
+      <c r="B8" s="47"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
       <c r="E8" s="51"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="48"/>
-      <c r="J8" s="48"/>
-      <c r="K8" s="48"/>
-      <c r="L8" s="48"/>
-      <c r="M8" s="48"/>
-      <c r="N8" s="48"/>
-      <c r="O8" s="48"/>
-      <c r="P8" s="48"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="47"/>
+      <c r="L8" s="47"/>
+      <c r="M8" s="47"/>
+      <c r="N8" s="47"/>
+      <c r="O8" s="47"/>
+      <c r="P8" s="47"/>
     </row>
     <row r="9" spans="1:17" ht="31.5" customHeight="1">
       <c r="A9" s="3">
@@ -8246,25 +8241,25 @@
       </c>
       <c r="Q10" s="9"/>
     </row>
-    <row r="11" spans="1:17" ht="15">
+    <row r="11" spans="1:17" ht="15.6">
       <c r="L11" s="11"/>
       <c r="P11" s="15">
         <f>P10+K10</f>
         <v>4878.3</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="13" thickBot="1"/>
-    <row r="13" spans="1:17" ht="16" thickBot="1">
-      <c r="B13" s="47" t="s">
+    <row r="12" spans="1:17" ht="13.8" thickBot="1"/>
+    <row r="13" spans="1:17" ht="16.2" thickBot="1">
+      <c r="B13" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="47"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="47"/>
-      <c r="H13" s="47"/>
-      <c r="I13" s="47"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="48"/>
+      <c r="I13" s="48"/>
       <c r="J13" s="12">
         <v>0.22</v>
       </c>
@@ -8280,20 +8275,20 @@
       </c>
       <c r="P13" s="16"/>
     </row>
-    <row r="14" spans="1:17" ht="13.5" thickBot="1">
+    <row r="14" spans="1:17" ht="13.8" thickBot="1">
       <c r="P14" s="16"/>
     </row>
-    <row r="15" spans="1:17" ht="16" thickBot="1">
-      <c r="B15" s="47" t="s">
+    <row r="15" spans="1:17" ht="16.2" thickBot="1">
+      <c r="B15" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="47"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="47"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="47"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="48"/>
+      <c r="I15" s="48"/>
       <c r="J15" s="12">
         <v>0.22</v>
       </c>
@@ -8303,31 +8298,31 @@
       </c>
       <c r="M15" s="24"/>
     </row>
-    <row r="16" spans="1:17" ht="16" thickBot="1">
-      <c r="B16" s="47"/>
-      <c r="C16" s="47"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="47"/>
-      <c r="H16" s="47"/>
-      <c r="I16" s="47"/>
+    <row r="16" spans="1:17" ht="16.2" thickBot="1">
+      <c r="B16" s="48"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="48"/>
+      <c r="I16" s="48"/>
       <c r="J16" s="12"/>
       <c r="K16" s="12"/>
       <c r="L16" s="25"/>
     </row>
-    <row r="17" spans="2:13" ht="13" thickBot="1"/>
-    <row r="18" spans="2:13" ht="16" thickBot="1">
-      <c r="B18" s="47" t="s">
+    <row r="17" spans="2:13" ht="13.8" thickBot="1"/>
+    <row r="18" spans="2:13" ht="16.2" thickBot="1">
+      <c r="B18" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="47"/>
-      <c r="D18" s="47"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="47"/>
-      <c r="H18" s="47"/>
-      <c r="I18" s="47"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="48"/>
+      <c r="H18" s="48"/>
+      <c r="I18" s="48"/>
       <c r="L18" s="27">
         <f>M10+L10+L13+L15</f>
         <v>3834.9</v>
@@ -8336,16 +8331,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B18:I18"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="B13:I13"/>
-    <mergeCell ref="B15:I15"/>
-    <mergeCell ref="B16:I16"/>
     <mergeCell ref="A3:P3"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
@@ -8357,6 +8342,16 @@
     <mergeCell ref="N7:N8"/>
     <mergeCell ref="P7:P8"/>
     <mergeCell ref="O7:O8"/>
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="B13:I13"/>
+    <mergeCell ref="B15:I15"/>
+    <mergeCell ref="B16:I16"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
@@ -8372,31 +8367,31 @@
       <selection activeCell="A3" sqref="A3:P3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="3.453125" customWidth="1"/>
-    <col min="2" max="2" width="17.90625" customWidth="1"/>
-    <col min="3" max="3" width="13.54296875" customWidth="1"/>
-    <col min="4" max="4" width="10.6328125" customWidth="1"/>
+    <col min="1" max="1" width="3.44140625" customWidth="1"/>
+    <col min="2" max="2" width="17.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" customWidth="1"/>
     <col min="5" max="5" width="6" customWidth="1"/>
-    <col min="6" max="6" width="8.54296875" customWidth="1"/>
-    <col min="7" max="7" width="11.90625" customWidth="1"/>
-    <col min="8" max="8" width="5.6328125" customWidth="1"/>
-    <col min="9" max="9" width="10.453125" customWidth="1"/>
+    <col min="6" max="6" width="8.5546875" customWidth="1"/>
+    <col min="7" max="7" width="11.88671875" customWidth="1"/>
+    <col min="8" max="8" width="5.6640625" customWidth="1"/>
+    <col min="9" max="9" width="10.44140625" customWidth="1"/>
     <col min="10" max="10" width="10" customWidth="1"/>
-    <col min="11" max="11" width="8.08984375" customWidth="1"/>
-    <col min="12" max="12" width="11.08984375" customWidth="1"/>
-    <col min="13" max="13" width="11.36328125" customWidth="1"/>
-    <col min="14" max="14" width="8.453125" customWidth="1"/>
-    <col min="15" max="15" width="9.36328125" customWidth="1"/>
-    <col min="16" max="16" width="11.6328125" customWidth="1"/>
-    <col min="19" max="19" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.109375" customWidth="1"/>
+    <col min="12" max="12" width="11.109375" customWidth="1"/>
+    <col min="13" max="13" width="11.33203125" customWidth="1"/>
+    <col min="14" max="14" width="8.44140625" customWidth="1"/>
+    <col min="15" max="15" width="9.33203125" customWidth="1"/>
+    <col min="16" max="16" width="11.6640625" customWidth="1"/>
+    <col min="19" max="19" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:17" ht="27" customHeight="1">
       <c r="B2" s="7"/>
     </row>
-    <row r="3" spans="1:17" ht="20">
+    <row r="3" spans="1:17" ht="20.399999999999999">
       <c r="A3" s="49" t="s">
         <v>71</v>
       </c>
@@ -8416,7 +8411,7 @@
       <c r="O3" s="49"/>
       <c r="P3" s="49"/>
     </row>
-    <row r="4" spans="1:17" ht="20">
+    <row r="4" spans="1:17" ht="20.399999999999999">
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
     </row>
@@ -8430,72 +8425,72 @@
       </c>
     </row>
     <row r="7" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="48" t="s">
+      <c r="B7" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="48" t="s">
+      <c r="C7" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="48" t="s">
+      <c r="D7" s="47" t="s">
         <v>2</v>
       </c>
       <c r="E7" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="F7" s="48" t="s">
+      <c r="F7" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="G7" s="48" t="s">
+      <c r="G7" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="48" t="s">
+      <c r="H7" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="I7" s="48" t="s">
+      <c r="I7" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="J7" s="48" t="s">
+      <c r="J7" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="K7" s="48" t="s">
+      <c r="K7" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="L7" s="48" t="s">
+      <c r="L7" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="M7" s="48" t="s">
+      <c r="M7" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="N7" s="48" t="s">
+      <c r="N7" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="O7" s="48" t="s">
+      <c r="O7" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="P7" s="48" t="s">
+      <c r="P7" s="47" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="48.75" customHeight="1">
-      <c r="A8" s="48"/>
-      <c r="B8" s="48"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
+      <c r="A8" s="47"/>
+      <c r="B8" s="47"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
       <c r="E8" s="51"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="48"/>
-      <c r="J8" s="48"/>
-      <c r="K8" s="48"/>
-      <c r="L8" s="48"/>
-      <c r="M8" s="48"/>
-      <c r="N8" s="48"/>
-      <c r="O8" s="48"/>
-      <c r="P8" s="48"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="47"/>
+      <c r="L8" s="47"/>
+      <c r="M8" s="47"/>
+      <c r="N8" s="47"/>
+      <c r="O8" s="47"/>
+      <c r="P8" s="47"/>
     </row>
     <row r="9" spans="1:17" ht="31.5" customHeight="1">
       <c r="A9" s="3">
@@ -8600,25 +8595,25 @@
       </c>
       <c r="Q10" s="9"/>
     </row>
-    <row r="11" spans="1:17" ht="15">
+    <row r="11" spans="1:17" ht="15.6">
       <c r="L11" s="11"/>
       <c r="P11" s="15">
         <f>P10+K10</f>
         <v>4878.3</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="13" thickBot="1"/>
-    <row r="13" spans="1:17" ht="16" thickBot="1">
-      <c r="B13" s="47" t="s">
+    <row r="12" spans="1:17" ht="13.8" thickBot="1"/>
+    <row r="13" spans="1:17" ht="16.2" thickBot="1">
+      <c r="B13" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="47"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="47"/>
-      <c r="H13" s="47"/>
-      <c r="I13" s="47"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="48"/>
+      <c r="I13" s="48"/>
       <c r="J13" s="12">
         <v>0.22</v>
       </c>
@@ -8634,20 +8629,20 @@
       </c>
       <c r="P13" s="16"/>
     </row>
-    <row r="14" spans="1:17" ht="13.5" thickBot="1">
+    <row r="14" spans="1:17" ht="13.8" thickBot="1">
       <c r="P14" s="16"/>
     </row>
-    <row r="15" spans="1:17" ht="16" thickBot="1">
-      <c r="B15" s="47" t="s">
+    <row r="15" spans="1:17" ht="16.2" thickBot="1">
+      <c r="B15" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="47"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="47"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="47"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="48"/>
+      <c r="I15" s="48"/>
       <c r="J15" s="12">
         <v>0.22</v>
       </c>
@@ -8657,31 +8652,31 @@
       </c>
       <c r="M15" s="24"/>
     </row>
-    <row r="16" spans="1:17" ht="16" thickBot="1">
-      <c r="B16" s="47"/>
-      <c r="C16" s="47"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="47"/>
-      <c r="H16" s="47"/>
-      <c r="I16" s="47"/>
+    <row r="16" spans="1:17" ht="16.2" thickBot="1">
+      <c r="B16" s="48"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="48"/>
+      <c r="I16" s="48"/>
       <c r="J16" s="12"/>
       <c r="K16" s="12"/>
       <c r="L16" s="25"/>
     </row>
-    <row r="17" spans="2:13" ht="13" thickBot="1"/>
-    <row r="18" spans="2:13" ht="16" thickBot="1">
-      <c r="B18" s="47" t="s">
+    <row r="17" spans="2:13" ht="13.8" thickBot="1"/>
+    <row r="18" spans="2:13" ht="16.2" thickBot="1">
+      <c r="B18" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="47"/>
-      <c r="D18" s="47"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="47"/>
-      <c r="H18" s="47"/>
-      <c r="I18" s="47"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="48"/>
+      <c r="H18" s="48"/>
+      <c r="I18" s="48"/>
       <c r="L18" s="27">
         <f>M10+L10+L13+L15</f>
         <v>3834.9</v>
@@ -8690,6 +8685,15 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="B13:I13"/>
     <mergeCell ref="P7:P8"/>
     <mergeCell ref="B16:I16"/>
     <mergeCell ref="A3:P3"/>
@@ -8702,15 +8706,6 @@
     <mergeCell ref="B15:I15"/>
     <mergeCell ref="N7:N8"/>
     <mergeCell ref="O7:O8"/>
-    <mergeCell ref="B18:I18"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="B13:I13"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
@@ -8726,31 +8721,31 @@
       <selection activeCell="A3" sqref="A3:P3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="3.453125" customWidth="1"/>
-    <col min="2" max="2" width="17.90625" customWidth="1"/>
-    <col min="3" max="3" width="13.54296875" customWidth="1"/>
-    <col min="4" max="4" width="10.6328125" customWidth="1"/>
+    <col min="1" max="1" width="3.44140625" customWidth="1"/>
+    <col min="2" max="2" width="17.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" customWidth="1"/>
     <col min="5" max="5" width="6" customWidth="1"/>
-    <col min="6" max="6" width="8.54296875" customWidth="1"/>
-    <col min="7" max="7" width="11.90625" customWidth="1"/>
-    <col min="8" max="8" width="5.6328125" customWidth="1"/>
-    <col min="9" max="9" width="10.453125" customWidth="1"/>
+    <col min="6" max="6" width="8.5546875" customWidth="1"/>
+    <col min="7" max="7" width="11.88671875" customWidth="1"/>
+    <col min="8" max="8" width="5.6640625" customWidth="1"/>
+    <col min="9" max="9" width="10.44140625" customWidth="1"/>
     <col min="10" max="10" width="10" customWidth="1"/>
-    <col min="11" max="11" width="8.08984375" customWidth="1"/>
-    <col min="12" max="12" width="11.08984375" customWidth="1"/>
-    <col min="13" max="13" width="11.36328125" customWidth="1"/>
-    <col min="14" max="14" width="8.453125" customWidth="1"/>
-    <col min="15" max="15" width="9.36328125" customWidth="1"/>
-    <col min="16" max="16" width="11.6328125" customWidth="1"/>
-    <col min="19" max="19" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.109375" customWidth="1"/>
+    <col min="12" max="12" width="11.109375" customWidth="1"/>
+    <col min="13" max="13" width="11.33203125" customWidth="1"/>
+    <col min="14" max="14" width="8.44140625" customWidth="1"/>
+    <col min="15" max="15" width="9.33203125" customWidth="1"/>
+    <col min="16" max="16" width="11.6640625" customWidth="1"/>
+    <col min="19" max="19" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:17" ht="27" customHeight="1">
       <c r="B2" s="7"/>
     </row>
-    <row r="3" spans="1:17" ht="20">
+    <row r="3" spans="1:17" ht="20.399999999999999">
       <c r="A3" s="49" t="s">
         <v>72</v>
       </c>
@@ -8770,7 +8765,7 @@
       <c r="O3" s="49"/>
       <c r="P3" s="49"/>
     </row>
-    <row r="4" spans="1:17" ht="20">
+    <row r="4" spans="1:17" ht="20.399999999999999">
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
     </row>
@@ -8784,72 +8779,72 @@
       </c>
     </row>
     <row r="7" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="48" t="s">
+      <c r="B7" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="48" t="s">
+      <c r="C7" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="48" t="s">
+      <c r="D7" s="47" t="s">
         <v>2</v>
       </c>
       <c r="E7" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="F7" s="48" t="s">
+      <c r="F7" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="G7" s="48" t="s">
+      <c r="G7" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="48" t="s">
+      <c r="H7" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="I7" s="48" t="s">
+      <c r="I7" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="J7" s="48" t="s">
+      <c r="J7" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="K7" s="48" t="s">
+      <c r="K7" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="L7" s="48" t="s">
+      <c r="L7" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="M7" s="48" t="s">
+      <c r="M7" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="N7" s="48" t="s">
+      <c r="N7" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="O7" s="48" t="s">
+      <c r="O7" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="P7" s="48" t="s">
+      <c r="P7" s="47" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="48.75" customHeight="1">
-      <c r="A8" s="48"/>
-      <c r="B8" s="48"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
+      <c r="A8" s="47"/>
+      <c r="B8" s="47"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
       <c r="E8" s="51"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="48"/>
-      <c r="J8" s="48"/>
-      <c r="K8" s="48"/>
-      <c r="L8" s="48"/>
-      <c r="M8" s="48"/>
-      <c r="N8" s="48"/>
-      <c r="O8" s="48"/>
-      <c r="P8" s="48"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="47"/>
+      <c r="L8" s="47"/>
+      <c r="M8" s="47"/>
+      <c r="N8" s="47"/>
+      <c r="O8" s="47"/>
+      <c r="P8" s="47"/>
     </row>
     <row r="9" spans="1:17" ht="31.5" customHeight="1">
       <c r="A9" s="3">
@@ -8954,25 +8949,25 @@
       </c>
       <c r="Q10" s="9"/>
     </row>
-    <row r="11" spans="1:17" ht="15">
+    <row r="11" spans="1:17" ht="15.6">
       <c r="L11" s="11"/>
       <c r="P11" s="15">
         <f>P10+K10</f>
         <v>4878.3</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="13" thickBot="1"/>
-    <row r="13" spans="1:17" ht="16" thickBot="1">
-      <c r="B13" s="47" t="s">
+    <row r="12" spans="1:17" ht="13.8" thickBot="1"/>
+    <row r="13" spans="1:17" ht="16.2" thickBot="1">
+      <c r="B13" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="47"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="47"/>
-      <c r="H13" s="47"/>
-      <c r="I13" s="47"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="48"/>
+      <c r="I13" s="48"/>
       <c r="J13" s="12">
         <v>0.22</v>
       </c>
@@ -8988,20 +8983,20 @@
       </c>
       <c r="P13" s="16"/>
     </row>
-    <row r="14" spans="1:17" ht="13.5" thickBot="1">
+    <row r="14" spans="1:17" ht="13.8" thickBot="1">
       <c r="P14" s="16"/>
     </row>
-    <row r="15" spans="1:17" ht="16" thickBot="1">
-      <c r="B15" s="47" t="s">
+    <row r="15" spans="1:17" ht="16.2" thickBot="1">
+      <c r="B15" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="47"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="47"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="47"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="48"/>
+      <c r="I15" s="48"/>
       <c r="J15" s="12">
         <v>0.22</v>
       </c>
@@ -9011,31 +9006,31 @@
       </c>
       <c r="M15" s="24"/>
     </row>
-    <row r="16" spans="1:17" ht="16" thickBot="1">
-      <c r="B16" s="47"/>
-      <c r="C16" s="47"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="47"/>
-      <c r="H16" s="47"/>
-      <c r="I16" s="47"/>
+    <row r="16" spans="1:17" ht="16.2" thickBot="1">
+      <c r="B16" s="48"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="48"/>
+      <c r="I16" s="48"/>
       <c r="J16" s="12"/>
       <c r="K16" s="12"/>
       <c r="L16" s="25"/>
     </row>
-    <row r="17" spans="2:13" ht="13" thickBot="1"/>
-    <row r="18" spans="2:13" ht="16" thickBot="1">
-      <c r="B18" s="47" t="s">
+    <row r="17" spans="2:13" ht="13.8" thickBot="1"/>
+    <row r="18" spans="2:13" ht="16.2" thickBot="1">
+      <c r="B18" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="47"/>
-      <c r="D18" s="47"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="47"/>
-      <c r="H18" s="47"/>
-      <c r="I18" s="47"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="48"/>
+      <c r="H18" s="48"/>
+      <c r="I18" s="48"/>
       <c r="L18" s="27">
         <f>M10+L10+L13+L15</f>
         <v>3834.9</v>
@@ -9044,6 +9039,14 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="B16:I16"/>
+    <mergeCell ref="B15:I15"/>
+    <mergeCell ref="B13:I13"/>
     <mergeCell ref="A3:P3"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
@@ -9057,14 +9060,6 @@
     <mergeCell ref="I7:I8"/>
     <mergeCell ref="G7:G8"/>
     <mergeCell ref="P7:P8"/>
-    <mergeCell ref="B18:I18"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="B16:I16"/>
-    <mergeCell ref="B15:I15"/>
-    <mergeCell ref="B13:I13"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
@@ -9080,31 +9075,31 @@
       <selection activeCell="A3" sqref="A3:P3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="3.453125" customWidth="1"/>
-    <col min="2" max="2" width="17.90625" customWidth="1"/>
-    <col min="3" max="3" width="13.54296875" customWidth="1"/>
-    <col min="4" max="4" width="10.6328125" customWidth="1"/>
+    <col min="1" max="1" width="3.44140625" customWidth="1"/>
+    <col min="2" max="2" width="17.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" customWidth="1"/>
     <col min="5" max="5" width="6" customWidth="1"/>
-    <col min="6" max="6" width="8.54296875" customWidth="1"/>
-    <col min="7" max="7" width="11.90625" customWidth="1"/>
-    <col min="8" max="8" width="5.6328125" customWidth="1"/>
-    <col min="9" max="9" width="10.453125" customWidth="1"/>
+    <col min="6" max="6" width="8.5546875" customWidth="1"/>
+    <col min="7" max="7" width="11.88671875" customWidth="1"/>
+    <col min="8" max="8" width="5.6640625" customWidth="1"/>
+    <col min="9" max="9" width="10.44140625" customWidth="1"/>
     <col min="10" max="10" width="10" customWidth="1"/>
-    <col min="11" max="11" width="8.08984375" customWidth="1"/>
-    <col min="12" max="12" width="11.08984375" customWidth="1"/>
-    <col min="13" max="13" width="11.36328125" customWidth="1"/>
-    <col min="14" max="14" width="8.453125" customWidth="1"/>
-    <col min="15" max="15" width="9.36328125" customWidth="1"/>
-    <col min="16" max="16" width="11.6328125" customWidth="1"/>
-    <col min="19" max="19" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.109375" customWidth="1"/>
+    <col min="12" max="12" width="11.109375" customWidth="1"/>
+    <col min="13" max="13" width="11.33203125" customWidth="1"/>
+    <col min="14" max="14" width="8.44140625" customWidth="1"/>
+    <col min="15" max="15" width="9.33203125" customWidth="1"/>
+    <col min="16" max="16" width="11.6640625" customWidth="1"/>
+    <col min="19" max="19" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:17" ht="27" customHeight="1">
       <c r="B2" s="7"/>
     </row>
-    <row r="3" spans="1:17" ht="20">
+    <row r="3" spans="1:17" ht="20.399999999999999">
       <c r="A3" s="49" t="s">
         <v>73</v>
       </c>
@@ -9124,7 +9119,7 @@
       <c r="O3" s="49"/>
       <c r="P3" s="49"/>
     </row>
-    <row r="4" spans="1:17" ht="20">
+    <row r="4" spans="1:17" ht="20.399999999999999">
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
     </row>
@@ -9138,72 +9133,72 @@
       </c>
     </row>
     <row r="7" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="48" t="s">
+      <c r="B7" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="48" t="s">
+      <c r="C7" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="48" t="s">
+      <c r="D7" s="47" t="s">
         <v>2</v>
       </c>
       <c r="E7" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="F7" s="48" t="s">
+      <c r="F7" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="G7" s="48" t="s">
+      <c r="G7" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="48" t="s">
+      <c r="H7" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="I7" s="48" t="s">
+      <c r="I7" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="J7" s="48" t="s">
+      <c r="J7" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="K7" s="48" t="s">
+      <c r="K7" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="L7" s="48" t="s">
+      <c r="L7" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="M7" s="48" t="s">
+      <c r="M7" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="N7" s="48" t="s">
+      <c r="N7" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="O7" s="48" t="s">
+      <c r="O7" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="P7" s="48" t="s">
+      <c r="P7" s="47" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="48.75" customHeight="1">
-      <c r="A8" s="48"/>
-      <c r="B8" s="48"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
+      <c r="A8" s="47"/>
+      <c r="B8" s="47"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
       <c r="E8" s="51"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="48"/>
-      <c r="J8" s="48"/>
-      <c r="K8" s="48"/>
-      <c r="L8" s="48"/>
-      <c r="M8" s="48"/>
-      <c r="N8" s="48"/>
-      <c r="O8" s="48"/>
-      <c r="P8" s="48"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="47"/>
+      <c r="L8" s="47"/>
+      <c r="M8" s="47"/>
+      <c r="N8" s="47"/>
+      <c r="O8" s="47"/>
+      <c r="P8" s="47"/>
     </row>
     <row r="9" spans="1:17" ht="31.5" customHeight="1">
       <c r="A9" s="3">
@@ -9309,25 +9304,25 @@
       </c>
       <c r="Q10" s="9"/>
     </row>
-    <row r="11" spans="1:17" ht="15">
+    <row r="11" spans="1:17" ht="15.6">
       <c r="L11" s="11"/>
       <c r="P11" s="15">
         <f>P10+K10</f>
         <v>3951.370725827815</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="13" thickBot="1"/>
-    <row r="13" spans="1:17" ht="16" thickBot="1">
-      <c r="B13" s="47" t="s">
+    <row r="12" spans="1:17" ht="13.8" thickBot="1"/>
+    <row r="13" spans="1:17" ht="16.2" thickBot="1">
+      <c r="B13" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="47"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="47"/>
-      <c r="H13" s="47"/>
-      <c r="I13" s="47"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="48"/>
+      <c r="I13" s="48"/>
       <c r="J13" s="12">
         <v>0.22</v>
       </c>
@@ -9342,20 +9337,20 @@
       </c>
       <c r="P13" s="16"/>
     </row>
-    <row r="14" spans="1:17" ht="13.5" thickBot="1">
+    <row r="14" spans="1:17" ht="13.8" thickBot="1">
       <c r="P14" s="16"/>
     </row>
-    <row r="15" spans="1:17" ht="16" thickBot="1">
-      <c r="B15" s="47" t="s">
+    <row r="15" spans="1:17" ht="16.2" thickBot="1">
+      <c r="B15" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="47"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="47"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="47"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="48"/>
+      <c r="I15" s="48"/>
       <c r="J15" s="12">
         <v>0.22</v>
       </c>
@@ -9365,31 +9360,31 @@
       </c>
       <c r="M15" s="24"/>
     </row>
-    <row r="16" spans="1:17" ht="16" thickBot="1">
-      <c r="B16" s="47"/>
-      <c r="C16" s="47"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="47"/>
-      <c r="H16" s="47"/>
-      <c r="I16" s="47"/>
+    <row r="16" spans="1:17" ht="16.2" thickBot="1">
+      <c r="B16" s="48"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="48"/>
+      <c r="I16" s="48"/>
       <c r="J16" s="12"/>
       <c r="K16" s="12"/>
       <c r="L16" s="25"/>
     </row>
-    <row r="17" spans="2:13" ht="13" thickBot="1"/>
-    <row r="18" spans="2:13" ht="16" thickBot="1">
-      <c r="B18" s="47" t="s">
+    <row r="17" spans="2:13" ht="13.8" thickBot="1"/>
+    <row r="18" spans="2:13" ht="16.2" thickBot="1">
+      <c r="B18" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="47"/>
-      <c r="D18" s="47"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="47"/>
-      <c r="H18" s="47"/>
-      <c r="I18" s="47"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="48"/>
+      <c r="H18" s="48"/>
+      <c r="I18" s="48"/>
       <c r="L18" s="27">
         <f>M10+L10+L13+L15</f>
         <v>3597.1680821192053</v>
@@ -9398,16 +9393,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B18:I18"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="B13:I13"/>
-    <mergeCell ref="B16:I16"/>
-    <mergeCell ref="B15:I15"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
     <mergeCell ref="A3:P3"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
@@ -9419,6 +9404,16 @@
     <mergeCell ref="H7:H8"/>
     <mergeCell ref="O7:O8"/>
     <mergeCell ref="I7:I8"/>
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="B13:I13"/>
+    <mergeCell ref="B16:I16"/>
+    <mergeCell ref="B15:I15"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>

--- a/Фопи/Зарплата ФОП 2021/Петришак В.П. 2021.xlsx
+++ b/Фопи/Зарплата ФОП 2021/Петришак В.П. 2021.xlsx
@@ -1,43 +1,49 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nastia\GitHub\Фопи\Зарплата ФОП 2021\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="60" windowWidth="11340" windowHeight="6036" tabRatio="784" activeTab="22"/>
+    <workbookView xWindow="360" yWindow="60" windowWidth="11340" windowHeight="6040" tabRatio="784" firstSheet="4" activeTab="23"/>
   </bookViews>
   <sheets>
-    <sheet name="09-21 " sheetId="139" r:id="rId1"/>
-    <sheet name="08-21 " sheetId="138" r:id="rId2"/>
-    <sheet name="07-21 " sheetId="134" r:id="rId3"/>
-    <sheet name="06-21" sheetId="133" r:id="rId4"/>
-    <sheet name="05-21" sheetId="132" r:id="rId5"/>
-    <sheet name="04-21 " sheetId="131" r:id="rId6"/>
-    <sheet name="03-21 " sheetId="130" r:id="rId7"/>
-    <sheet name="02-21 " sheetId="129" r:id="rId8"/>
-    <sheet name="01-21" sheetId="127" r:id="rId9"/>
-    <sheet name="12" sheetId="126" r:id="rId10"/>
-    <sheet name="11" sheetId="125" r:id="rId11"/>
-    <sheet name="10" sheetId="124" r:id="rId12"/>
-    <sheet name="09" sheetId="123" r:id="rId13"/>
-    <sheet name="08" sheetId="122" r:id="rId14"/>
-    <sheet name="07" sheetId="121" r:id="rId15"/>
-    <sheet name="06" sheetId="120" r:id="rId16"/>
-    <sheet name="05" sheetId="119" r:id="rId17"/>
-    <sheet name="04" sheetId="118" r:id="rId18"/>
-    <sheet name="003" sheetId="137" r:id="rId19"/>
-    <sheet name="02" sheetId="116" r:id="rId20"/>
-    <sheet name="01" sheetId="115" r:id="rId21"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId22"/>
-    <sheet name="Звірка21" sheetId="128" r:id="rId23"/>
-    <sheet name="звірка" sheetId="88" r:id="rId24"/>
+    <sheet name="10-21 " sheetId="140" r:id="rId1"/>
+    <sheet name="09-21 " sheetId="139" r:id="rId2"/>
+    <sheet name="08-21 " sheetId="138" r:id="rId3"/>
+    <sheet name="07-21 " sheetId="134" r:id="rId4"/>
+    <sheet name="06-21" sheetId="133" r:id="rId5"/>
+    <sheet name="05-21" sheetId="132" r:id="rId6"/>
+    <sheet name="04-21 " sheetId="131" r:id="rId7"/>
+    <sheet name="03-21 " sheetId="130" r:id="rId8"/>
+    <sheet name="02-21 " sheetId="129" r:id="rId9"/>
+    <sheet name="01-21" sheetId="127" r:id="rId10"/>
+    <sheet name="12" sheetId="126" r:id="rId11"/>
+    <sheet name="11" sheetId="125" r:id="rId12"/>
+    <sheet name="10" sheetId="124" r:id="rId13"/>
+    <sheet name="09" sheetId="123" r:id="rId14"/>
+    <sheet name="08" sheetId="122" r:id="rId15"/>
+    <sheet name="07" sheetId="121" r:id="rId16"/>
+    <sheet name="06" sheetId="120" r:id="rId17"/>
+    <sheet name="05" sheetId="119" r:id="rId18"/>
+    <sheet name="04" sheetId="118" r:id="rId19"/>
+    <sheet name="003" sheetId="137" r:id="rId20"/>
+    <sheet name="02" sheetId="116" r:id="rId21"/>
+    <sheet name="01" sheetId="115" r:id="rId22"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId23"/>
+    <sheet name="Звірка21" sheetId="128" r:id="rId24"/>
+    <sheet name="звірка" sheetId="88" r:id="rId25"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="82">
   <si>
     <t>№</t>
   </si>
@@ -281,11 +287,14 @@
   <si>
     <t xml:space="preserve">Розрахунково – платіжна відомість за ВЕРЕСЕНЬ 2021 р. </t>
   </si>
+  <si>
+    <t xml:space="preserve">Розрахунково – платіжна відомість за ЖОВТЕНЬ 2021 р. </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yy;@"/>
   </numFmts>
@@ -751,14 +760,11 @@
     <xf numFmtId="4" fontId="26" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -766,13 +772,19 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -780,9 +792,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -792,7 +801,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Звичайний" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный_Лист1" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -811,7 +820,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Офіс">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -849,9 +858,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Офіс">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -886,7 +895,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -921,7 +930,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Офіс">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1098,54 +1107,54 @@
   <dimension ref="A2:Q18"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:P3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="3.44140625" customWidth="1"/>
-    <col min="2" max="2" width="17.88671875" customWidth="1"/>
-    <col min="3" max="3" width="13.5546875" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" customWidth="1"/>
+    <col min="1" max="1" width="3.453125" customWidth="1"/>
+    <col min="2" max="2" width="17.90625" customWidth="1"/>
+    <col min="3" max="3" width="13.54296875" customWidth="1"/>
+    <col min="4" max="4" width="10.6328125" customWidth="1"/>
     <col min="5" max="5" width="6" customWidth="1"/>
-    <col min="6" max="6" width="8.5546875" customWidth="1"/>
-    <col min="7" max="7" width="9.88671875" customWidth="1"/>
-    <col min="8" max="8" width="8.109375" customWidth="1"/>
-    <col min="9" max="9" width="10.44140625" customWidth="1"/>
+    <col min="6" max="6" width="8.54296875" customWidth="1"/>
+    <col min="7" max="7" width="9.90625" customWidth="1"/>
+    <col min="8" max="8" width="8.08984375" customWidth="1"/>
+    <col min="9" max="9" width="10.453125" customWidth="1"/>
     <col min="10" max="10" width="10" customWidth="1"/>
-    <col min="11" max="11" width="8.109375" customWidth="1"/>
-    <col min="12" max="12" width="11.109375" customWidth="1"/>
-    <col min="13" max="13" width="11.33203125" customWidth="1"/>
-    <col min="14" max="14" width="8.44140625" customWidth="1"/>
-    <col min="15" max="15" width="9.33203125" customWidth="1"/>
-    <col min="16" max="16" width="11.6640625" customWidth="1"/>
-    <col min="19" max="19" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.08984375" customWidth="1"/>
+    <col min="12" max="12" width="11.08984375" customWidth="1"/>
+    <col min="13" max="13" width="11.36328125" customWidth="1"/>
+    <col min="14" max="14" width="8.453125" customWidth="1"/>
+    <col min="15" max="15" width="9.36328125" customWidth="1"/>
+    <col min="16" max="16" width="11.6328125" customWidth="1"/>
+    <col min="19" max="19" width="12.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:17" ht="27" customHeight="1">
       <c r="B2" s="7"/>
     </row>
-    <row r="3" spans="1:17" ht="20.399999999999999">
-      <c r="A3" s="49" t="s">
-        <v>80</v>
-      </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="49"/>
-      <c r="M3" s="49"/>
-      <c r="N3" s="49"/>
-      <c r="O3" s="49"/>
-      <c r="P3" s="49"/>
-    </row>
-    <row r="4" spans="1:17" ht="20.399999999999999">
+    <row r="3" spans="1:17" ht="20">
+      <c r="A3" s="47" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="47"/>
+      <c r="N3" s="47"/>
+      <c r="O3" s="47"/>
+      <c r="P3" s="47"/>
+    </row>
+    <row r="4" spans="1:17" ht="20">
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
     </row>
@@ -1159,72 +1168,72 @@
       </c>
     </row>
     <row r="7" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A7" s="47" t="s">
+      <c r="A7" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="47" t="s">
+      <c r="B7" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="47" t="s">
+      <c r="C7" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="47" t="s">
+      <c r="D7" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="50" t="s">
+      <c r="E7" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="F7" s="47" t="s">
+      <c r="F7" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="G7" s="47" t="s">
+      <c r="G7" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="47" t="s">
+      <c r="H7" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="I7" s="47" t="s">
+      <c r="I7" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="J7" s="47" t="s">
+      <c r="J7" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="K7" s="47" t="s">
+      <c r="K7" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="L7" s="47" t="s">
+      <c r="L7" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="M7" s="47" t="s">
+      <c r="M7" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="N7" s="47" t="s">
+      <c r="N7" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="O7" s="47" t="s">
+      <c r="O7" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="P7" s="47" t="s">
+      <c r="P7" s="48" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="48.75" customHeight="1">
-      <c r="A8" s="47"/>
-      <c r="B8" s="47"/>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="47"/>
-      <c r="K8" s="47"/>
-      <c r="L8" s="47"/>
-      <c r="M8" s="47"/>
-      <c r="N8" s="47"/>
-      <c r="O8" s="47"/>
-      <c r="P8" s="47"/>
+      <c r="A8" s="48"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="48"/>
+      <c r="I8" s="48"/>
+      <c r="J8" s="48"/>
+      <c r="K8" s="48"/>
+      <c r="L8" s="48"/>
+      <c r="M8" s="48"/>
+      <c r="N8" s="48"/>
+      <c r="O8" s="48"/>
+      <c r="P8" s="48"/>
     </row>
     <row r="9" spans="1:17" ht="31.5" customHeight="1">
       <c r="A9" s="3">
@@ -1338,25 +1347,25 @@
       </c>
       <c r="Q10" s="9"/>
     </row>
-    <row r="11" spans="1:17" ht="15.6">
+    <row r="11" spans="1:17" ht="15">
       <c r="L11" s="11"/>
       <c r="P11" s="15">
         <f>P10+K10</f>
         <v>4943.4166500000001</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="13.8" thickBot="1"/>
-    <row r="13" spans="1:17" ht="16.2" thickBot="1">
-      <c r="B13" s="48" t="s">
+    <row r="12" spans="1:17" ht="13" thickBot="1"/>
+    <row r="13" spans="1:17" ht="16" thickBot="1">
+      <c r="B13" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="48"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="48"/>
-      <c r="I13" s="48"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="51"/>
       <c r="J13" s="12">
         <v>0.22</v>
       </c>
@@ -1372,20 +1381,20 @@
       </c>
       <c r="P13" s="16"/>
     </row>
-    <row r="14" spans="1:17" ht="13.8" thickBot="1">
+    <row r="14" spans="1:17" ht="13.5" thickBot="1">
       <c r="P14" s="16"/>
     </row>
-    <row r="15" spans="1:17" ht="16.2" thickBot="1">
-      <c r="B15" s="48" t="s">
+    <row r="15" spans="1:17" ht="16" thickBot="1">
+      <c r="B15" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="48"/>
-      <c r="D15" s="48"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="48"/>
-      <c r="H15" s="48"/>
-      <c r="I15" s="48"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="51"/>
       <c r="J15" s="12">
         <v>0.22</v>
       </c>
@@ -1395,31 +1404,31 @@
       </c>
       <c r="M15" s="24"/>
     </row>
-    <row r="16" spans="1:17" ht="16.2" thickBot="1">
-      <c r="B16" s="48"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="48"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="48"/>
+    <row r="16" spans="1:17" ht="16" thickBot="1">
+      <c r="B16" s="51"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="51"/>
+      <c r="I16" s="51"/>
       <c r="J16" s="12"/>
       <c r="K16" s="12"/>
       <c r="L16" s="25"/>
     </row>
-    <row r="17" spans="2:13" ht="13.8" thickBot="1"/>
-    <row r="18" spans="2:13" ht="16.2" thickBot="1">
-      <c r="B18" s="48" t="s">
+    <row r="17" spans="2:13" ht="13" thickBot="1"/>
+    <row r="18" spans="2:13" ht="16" thickBot="1">
+      <c r="B18" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="48"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="48"/>
-      <c r="G18" s="48"/>
-      <c r="H18" s="48"/>
-      <c r="I18" s="48"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="51"/>
       <c r="L18" s="27">
         <f>M10+L10+L13+L15</f>
         <v>3868.4691499999999</v>
@@ -1428,16 +1437,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A3:P3"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
     <mergeCell ref="P7:P8"/>
     <mergeCell ref="B13:I13"/>
     <mergeCell ref="B15:I15"/>
@@ -1449,6 +1448,16 @@
     <mergeCell ref="M7:M8"/>
     <mergeCell ref="N7:N8"/>
     <mergeCell ref="O7:O8"/>
+    <mergeCell ref="A3:P3"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
@@ -1464,51 +1473,405 @@
       <selection activeCell="A3" sqref="A3:P3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="3.44140625" customWidth="1"/>
-    <col min="2" max="2" width="17.88671875" customWidth="1"/>
-    <col min="3" max="3" width="13.5546875" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" customWidth="1"/>
+    <col min="1" max="1" width="3.453125" customWidth="1"/>
+    <col min="2" max="2" width="17.90625" customWidth="1"/>
+    <col min="3" max="3" width="13.54296875" customWidth="1"/>
+    <col min="4" max="4" width="10.6328125" customWidth="1"/>
     <col min="5" max="5" width="6" customWidth="1"/>
-    <col min="6" max="6" width="8.5546875" customWidth="1"/>
-    <col min="7" max="7" width="11.88671875" customWidth="1"/>
-    <col min="8" max="8" width="5.6640625" customWidth="1"/>
-    <col min="9" max="9" width="6.88671875" customWidth="1"/>
+    <col min="6" max="6" width="8.54296875" customWidth="1"/>
+    <col min="7" max="7" width="11.90625" customWidth="1"/>
+    <col min="8" max="8" width="5.6328125" customWidth="1"/>
+    <col min="9" max="9" width="10.453125" customWidth="1"/>
     <col min="10" max="10" width="10" customWidth="1"/>
-    <col min="11" max="11" width="8.109375" customWidth="1"/>
-    <col min="12" max="12" width="11.109375" customWidth="1"/>
-    <col min="13" max="13" width="11.33203125" customWidth="1"/>
-    <col min="14" max="14" width="8.44140625" customWidth="1"/>
-    <col min="15" max="15" width="9.33203125" customWidth="1"/>
-    <col min="16" max="16" width="11.6640625" customWidth="1"/>
-    <col min="19" max="19" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.08984375" customWidth="1"/>
+    <col min="12" max="12" width="11.08984375" customWidth="1"/>
+    <col min="13" max="13" width="11.36328125" customWidth="1"/>
+    <col min="14" max="14" width="8.453125" customWidth="1"/>
+    <col min="15" max="15" width="9.36328125" customWidth="1"/>
+    <col min="16" max="16" width="11.6328125" customWidth="1"/>
+    <col min="19" max="19" width="12.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:17" ht="27" customHeight="1">
       <c r="B2" s="7"/>
     </row>
-    <row r="3" spans="1:17" ht="20.399999999999999">
-      <c r="A3" s="49" t="s">
+    <row r="3" spans="1:17" ht="20">
+      <c r="A3" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="47"/>
+      <c r="N3" s="47"/>
+      <c r="O3" s="47"/>
+      <c r="P3" s="47"/>
+    </row>
+    <row r="4" spans="1:17" ht="20">
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+    </row>
+    <row r="5" spans="1:17" ht="15.75" customHeight="1"/>
+    <row r="6" spans="1:17" ht="15.75" customHeight="1">
+      <c r="F6">
+        <v>151</v>
+      </c>
+      <c r="L6">
+        <v>3180</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A7" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="48" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="49" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7" s="48" t="s">
+        <v>53</v>
+      </c>
+      <c r="G7" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="I7" s="48" t="s">
+        <v>42</v>
+      </c>
+      <c r="J7" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="K7" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="L7" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="M7" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="N7" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="O7" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="P7" s="48" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="48.75" customHeight="1">
+      <c r="A8" s="48"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="48"/>
+      <c r="I8" s="48"/>
+      <c r="J8" s="48"/>
+      <c r="K8" s="48"/>
+      <c r="L8" s="48"/>
+      <c r="M8" s="48"/>
+      <c r="N8" s="48"/>
+      <c r="O8" s="48"/>
+      <c r="P8" s="48"/>
+    </row>
+    <row r="9" spans="1:17" ht="31.5" customHeight="1">
+      <c r="A9" s="3">
+        <v>1</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="6">
+        <v>2522813188</v>
+      </c>
+      <c r="D9" s="5">
+        <v>6060</v>
+      </c>
+      <c r="E9" s="5">
+        <v>1</v>
+      </c>
+      <c r="F9" s="5">
+        <v>24</v>
+      </c>
+      <c r="G9" s="10">
+        <f>D9/F6*F9+I9</f>
+        <v>4908.5388079470204</v>
+      </c>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5">
+        <v>3945.36</v>
+      </c>
+      <c r="J9" s="46">
+        <f>G9</f>
+        <v>4908.5388079470204</v>
+      </c>
+      <c r="K9" s="10">
+        <v>2000</v>
+      </c>
+      <c r="L9" s="5">
+        <f>ROUND((G9)*18/100,2)</f>
+        <v>883.54</v>
+      </c>
+      <c r="M9" s="5">
+        <f>G9*0.015</f>
+        <v>73.628082119205303</v>
+      </c>
+      <c r="N9" s="5">
+        <f>SUM(L9:M9)</f>
+        <v>957.16808211920522</v>
+      </c>
+      <c r="O9" s="5">
+        <f>G9-N9</f>
+        <v>3951.370725827815</v>
+      </c>
+      <c r="P9" s="5">
+        <f>O9-K9</f>
+        <v>1951.370725827815</v>
+      </c>
+      <c r="Q9" s="9"/>
+    </row>
+    <row r="10" spans="1:17" ht="27.75" customHeight="1">
+      <c r="A10" s="3"/>
+      <c r="B10" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="14"/>
+      <c r="D10" s="15">
+        <f>SUM(D9:D9)</f>
+        <v>6060</v>
+      </c>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15">
+        <f>SUM(G9:G9)</f>
+        <v>4908.5388079470204</v>
+      </c>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15">
+        <f t="shared" ref="I10:P10" si="0">SUM(I9:I9)</f>
+        <v>3945.36</v>
+      </c>
+      <c r="J10" s="45"/>
+      <c r="K10" s="15">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+      <c r="L10" s="15">
+        <f t="shared" si="0"/>
+        <v>883.54</v>
+      </c>
+      <c r="M10" s="15">
+        <f t="shared" si="0"/>
+        <v>73.628082119205303</v>
+      </c>
+      <c r="N10" s="15">
+        <f t="shared" si="0"/>
+        <v>957.16808211920522</v>
+      </c>
+      <c r="O10" s="15">
+        <f t="shared" si="0"/>
+        <v>3951.370725827815</v>
+      </c>
+      <c r="P10" s="15">
+        <f t="shared" si="0"/>
+        <v>1951.370725827815</v>
+      </c>
+      <c r="Q10" s="9"/>
+    </row>
+    <row r="11" spans="1:17" ht="15">
+      <c r="L11" s="11"/>
+      <c r="P11" s="15">
+        <f>P10+K10</f>
+        <v>3951.370725827815</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="13" thickBot="1"/>
+    <row r="13" spans="1:17" ht="16" thickBot="1">
+      <c r="B13" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="51"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="12">
+        <v>0.22</v>
+      </c>
+      <c r="K13" s="12"/>
+      <c r="L13" s="26">
+        <v>1320</v>
+      </c>
+      <c r="M13" s="24"/>
+      <c r="N13" s="35">
+        <f>M10+L10+L13</f>
+        <v>2277.1680821192053</v>
+      </c>
+      <c r="P13" s="16"/>
+    </row>
+    <row r="14" spans="1:17" ht="13.5" thickBot="1">
+      <c r="P14" s="16"/>
+    </row>
+    <row r="15" spans="1:17" ht="16" thickBot="1">
+      <c r="B15" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="51"/>
+      <c r="J15" s="12">
+        <v>0.22</v>
+      </c>
+      <c r="K15" s="12"/>
+      <c r="L15" s="26">
+        <v>1320</v>
+      </c>
+      <c r="M15" s="24"/>
+    </row>
+    <row r="16" spans="1:17" ht="16" thickBot="1">
+      <c r="B16" s="51"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="51"/>
+      <c r="I16" s="51"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="25"/>
+    </row>
+    <row r="17" spans="2:13" ht="13" thickBot="1"/>
+    <row r="18" spans="2:13" ht="16" thickBot="1">
+      <c r="B18" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="51"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="51"/>
+      <c r="L18" s="27">
+        <f>M10+L10+L13+L15</f>
+        <v>3597.1680821192053</v>
+      </c>
+      <c r="M18" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="21">
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="B13:I13"/>
+    <mergeCell ref="B16:I16"/>
+    <mergeCell ref="B15:I15"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="A3:P3"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="I7:I8"/>
+  </mergeCells>
+  <pageMargins left="0" right="0" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
+  <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:Q18"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:P3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5"/>
+  <cols>
+    <col min="1" max="1" width="3.453125" customWidth="1"/>
+    <col min="2" max="2" width="17.90625" customWidth="1"/>
+    <col min="3" max="3" width="13.54296875" customWidth="1"/>
+    <col min="4" max="4" width="10.6328125" customWidth="1"/>
+    <col min="5" max="5" width="6" customWidth="1"/>
+    <col min="6" max="6" width="8.54296875" customWidth="1"/>
+    <col min="7" max="7" width="11.90625" customWidth="1"/>
+    <col min="8" max="8" width="5.6328125" customWidth="1"/>
+    <col min="9" max="9" width="6.90625" customWidth="1"/>
+    <col min="10" max="10" width="10" customWidth="1"/>
+    <col min="11" max="11" width="8.08984375" customWidth="1"/>
+    <col min="12" max="12" width="11.08984375" customWidth="1"/>
+    <col min="13" max="13" width="11.36328125" customWidth="1"/>
+    <col min="14" max="14" width="8.453125" customWidth="1"/>
+    <col min="15" max="15" width="9.36328125" customWidth="1"/>
+    <col min="16" max="16" width="11.6328125" customWidth="1"/>
+    <col min="19" max="19" width="12.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:17" ht="27" customHeight="1">
+      <c r="B2" s="7"/>
+    </row>
+    <row r="3" spans="1:17" ht="20">
+      <c r="A3" s="47" t="s">
         <v>74</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="49"/>
-      <c r="M3" s="49"/>
-      <c r="N3" s="49"/>
-      <c r="O3" s="49"/>
-      <c r="P3" s="49"/>
-    </row>
-    <row r="4" spans="1:17" ht="20.399999999999999">
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="47"/>
+      <c r="N3" s="47"/>
+      <c r="O3" s="47"/>
+      <c r="P3" s="47"/>
+    </row>
+    <row r="4" spans="1:17" ht="20">
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
     </row>
@@ -1519,72 +1882,72 @@
       </c>
     </row>
     <row r="7" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A7" s="47" t="s">
+      <c r="A7" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="47" t="s">
+      <c r="B7" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="47" t="s">
+      <c r="C7" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="47" t="s">
+      <c r="D7" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="50" t="s">
+      <c r="E7" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="F7" s="47" t="s">
+      <c r="F7" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="G7" s="47" t="s">
+      <c r="G7" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="47" t="s">
+      <c r="H7" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="I7" s="47" t="s">
+      <c r="I7" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="J7" s="47" t="s">
+      <c r="J7" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="K7" s="47" t="s">
+      <c r="K7" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="L7" s="47" t="s">
+      <c r="L7" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="M7" s="47" t="s">
+      <c r="M7" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="N7" s="47" t="s">
+      <c r="N7" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="O7" s="47" t="s">
+      <c r="O7" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="P7" s="47" t="s">
+      <c r="P7" s="48" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="48.75" customHeight="1">
-      <c r="A8" s="47"/>
-      <c r="B8" s="47"/>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="47"/>
-      <c r="K8" s="47"/>
-      <c r="L8" s="47"/>
-      <c r="M8" s="47"/>
-      <c r="N8" s="47"/>
-      <c r="O8" s="47"/>
-      <c r="P8" s="47"/>
+      <c r="A8" s="48"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="48"/>
+      <c r="I8" s="48"/>
+      <c r="J8" s="48"/>
+      <c r="K8" s="48"/>
+      <c r="L8" s="48"/>
+      <c r="M8" s="48"/>
+      <c r="N8" s="48"/>
+      <c r="O8" s="48"/>
+      <c r="P8" s="48"/>
     </row>
     <row r="9" spans="1:17" ht="31.5" customHeight="1">
       <c r="A9" s="3">
@@ -1688,25 +2051,25 @@
       </c>
       <c r="Q10" s="9"/>
     </row>
-    <row r="11" spans="1:17" ht="15.6">
+    <row r="11" spans="1:17" ht="15">
       <c r="L11" s="11"/>
       <c r="P11" s="15">
         <f>P10+K10</f>
         <v>4065.25</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="13.8" thickBot="1"/>
-    <row r="13" spans="1:17" ht="16.2" thickBot="1">
-      <c r="B13" s="48" t="s">
+    <row r="12" spans="1:17" ht="13" thickBot="1"/>
+    <row r="13" spans="1:17" ht="16" thickBot="1">
+      <c r="B13" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="48"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="48"/>
-      <c r="I13" s="48"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="51"/>
       <c r="J13" s="12">
         <v>0.22</v>
       </c>
@@ -1722,20 +2085,20 @@
       </c>
       <c r="P13" s="16"/>
     </row>
-    <row r="14" spans="1:17" ht="13.8" thickBot="1">
+    <row r="14" spans="1:17" ht="13.5" thickBot="1">
       <c r="P14" s="16"/>
     </row>
-    <row r="15" spans="1:17" ht="16.2" thickBot="1">
-      <c r="B15" s="48" t="s">
+    <row r="15" spans="1:17" ht="16" thickBot="1">
+      <c r="B15" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="48"/>
-      <c r="D15" s="48"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="48"/>
-      <c r="H15" s="48"/>
-      <c r="I15" s="48"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="51"/>
       <c r="J15" s="12">
         <v>0.22</v>
       </c>
@@ -1745,31 +2108,31 @@
       </c>
       <c r="M15" s="24"/>
     </row>
-    <row r="16" spans="1:17" ht="16.2" thickBot="1">
-      <c r="B16" s="48"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="48"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="48"/>
+    <row r="16" spans="1:17" ht="16" thickBot="1">
+      <c r="B16" s="51"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="51"/>
+      <c r="I16" s="51"/>
       <c r="J16" s="12"/>
       <c r="K16" s="12"/>
       <c r="L16" s="25"/>
     </row>
-    <row r="17" spans="2:13" ht="13.8" thickBot="1"/>
-    <row r="18" spans="2:13" ht="16.2" thickBot="1">
-      <c r="B18" s="48" t="s">
+    <row r="17" spans="2:13" ht="13" thickBot="1"/>
+    <row r="18" spans="2:13" ht="16" thickBot="1">
+      <c r="B18" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="48"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="48"/>
-      <c r="G18" s="48"/>
-      <c r="H18" s="48"/>
-      <c r="I18" s="48"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="51"/>
       <c r="L18" s="27">
         <f>M10+L10+L13+L15</f>
         <v>3195.75</v>
@@ -1778,6 +2141,14 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="B16:I16"/>
+    <mergeCell ref="B13:I13"/>
+    <mergeCell ref="B15:I15"/>
     <mergeCell ref="A3:P3"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
@@ -1791,14 +2162,6 @@
     <mergeCell ref="N7:N8"/>
     <mergeCell ref="E7:E8"/>
     <mergeCell ref="F7:F8"/>
-    <mergeCell ref="B18:I18"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="B16:I16"/>
-    <mergeCell ref="B13:I13"/>
-    <mergeCell ref="B15:I15"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
@@ -1806,7 +2169,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Q18"/>
   <sheetViews>
@@ -1814,51 +2177,51 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="3.44140625" customWidth="1"/>
-    <col min="2" max="2" width="17.88671875" customWidth="1"/>
-    <col min="3" max="3" width="13.5546875" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" customWidth="1"/>
+    <col min="1" max="1" width="3.453125" customWidth="1"/>
+    <col min="2" max="2" width="17.90625" customWidth="1"/>
+    <col min="3" max="3" width="13.54296875" customWidth="1"/>
+    <col min="4" max="4" width="10.6328125" customWidth="1"/>
     <col min="5" max="5" width="6" customWidth="1"/>
-    <col min="6" max="6" width="8.5546875" customWidth="1"/>
-    <col min="7" max="7" width="11.88671875" customWidth="1"/>
-    <col min="8" max="8" width="5.6640625" customWidth="1"/>
-    <col min="9" max="9" width="6.88671875" customWidth="1"/>
+    <col min="6" max="6" width="8.54296875" customWidth="1"/>
+    <col min="7" max="7" width="11.90625" customWidth="1"/>
+    <col min="8" max="8" width="5.6328125" customWidth="1"/>
+    <col min="9" max="9" width="6.90625" customWidth="1"/>
     <col min="10" max="10" width="10" customWidth="1"/>
-    <col min="11" max="11" width="8.109375" customWidth="1"/>
-    <col min="12" max="12" width="11.109375" customWidth="1"/>
-    <col min="13" max="13" width="11.33203125" customWidth="1"/>
-    <col min="14" max="14" width="8.44140625" customWidth="1"/>
-    <col min="15" max="15" width="9.33203125" customWidth="1"/>
-    <col min="16" max="16" width="11.6640625" customWidth="1"/>
-    <col min="19" max="19" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.08984375" customWidth="1"/>
+    <col min="12" max="12" width="11.08984375" customWidth="1"/>
+    <col min="13" max="13" width="11.36328125" customWidth="1"/>
+    <col min="14" max="14" width="8.453125" customWidth="1"/>
+    <col min="15" max="15" width="9.36328125" customWidth="1"/>
+    <col min="16" max="16" width="11.6328125" customWidth="1"/>
+    <col min="19" max="19" width="12.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:17" ht="27" customHeight="1">
       <c r="B2" s="7"/>
     </row>
-    <row r="3" spans="1:17" ht="20.399999999999999">
-      <c r="A3" s="49" t="s">
+    <row r="3" spans="1:17" ht="20">
+      <c r="A3" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="49"/>
-      <c r="M3" s="49"/>
-      <c r="N3" s="49"/>
-      <c r="O3" s="49"/>
-      <c r="P3" s="49"/>
-    </row>
-    <row r="4" spans="1:17" ht="20.399999999999999">
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="47"/>
+      <c r="N3" s="47"/>
+      <c r="O3" s="47"/>
+      <c r="P3" s="47"/>
+    </row>
+    <row r="4" spans="1:17" ht="20">
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
     </row>
@@ -1869,72 +2232,72 @@
       </c>
     </row>
     <row r="7" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A7" s="47" t="s">
+      <c r="A7" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="47" t="s">
+      <c r="B7" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="47" t="s">
+      <c r="C7" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="47" t="s">
+      <c r="D7" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="50" t="s">
+      <c r="E7" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="F7" s="47" t="s">
+      <c r="F7" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="G7" s="47" t="s">
+      <c r="G7" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="47" t="s">
+      <c r="H7" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="I7" s="47" t="s">
+      <c r="I7" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="J7" s="47" t="s">
+      <c r="J7" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="K7" s="47" t="s">
+      <c r="K7" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="L7" s="47" t="s">
+      <c r="L7" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="M7" s="47" t="s">
+      <c r="M7" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="N7" s="47" t="s">
+      <c r="N7" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="O7" s="47" t="s">
+      <c r="O7" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="P7" s="47" t="s">
+      <c r="P7" s="48" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="48.75" customHeight="1">
-      <c r="A8" s="47"/>
-      <c r="B8" s="47"/>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="47"/>
-      <c r="K8" s="47"/>
-      <c r="L8" s="47"/>
-      <c r="M8" s="47"/>
-      <c r="N8" s="47"/>
-      <c r="O8" s="47"/>
-      <c r="P8" s="47"/>
+      <c r="A8" s="48"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="48"/>
+      <c r="I8" s="48"/>
+      <c r="J8" s="48"/>
+      <c r="K8" s="48"/>
+      <c r="L8" s="48"/>
+      <c r="M8" s="48"/>
+      <c r="N8" s="48"/>
+      <c r="O8" s="48"/>
+      <c r="P8" s="48"/>
     </row>
     <row r="9" spans="1:17" ht="31.5" customHeight="1">
       <c r="A9" s="3">
@@ -2038,25 +2401,25 @@
       </c>
       <c r="Q10" s="9"/>
     </row>
-    <row r="11" spans="1:17" ht="15.6">
+    <row r="11" spans="1:17" ht="15">
       <c r="L11" s="11"/>
       <c r="P11" s="15">
         <f>P10+K10</f>
         <v>4065.25</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="13.8" thickBot="1"/>
-    <row r="13" spans="1:17" ht="16.2" thickBot="1">
-      <c r="B13" s="48" t="s">
+    <row r="12" spans="1:17" ht="13" thickBot="1"/>
+    <row r="13" spans="1:17" ht="16" thickBot="1">
+      <c r="B13" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="48"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="48"/>
-      <c r="I13" s="48"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="51"/>
       <c r="J13" s="12">
         <v>0.22</v>
       </c>
@@ -2072,20 +2435,20 @@
       </c>
       <c r="P13" s="16"/>
     </row>
-    <row r="14" spans="1:17" ht="13.8" thickBot="1">
+    <row r="14" spans="1:17" ht="13.5" thickBot="1">
       <c r="P14" s="16"/>
     </row>
-    <row r="15" spans="1:17" ht="16.2" thickBot="1">
-      <c r="B15" s="48" t="s">
+    <row r="15" spans="1:17" ht="16" thickBot="1">
+      <c r="B15" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="48"/>
-      <c r="D15" s="48"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="48"/>
-      <c r="H15" s="48"/>
-      <c r="I15" s="48"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="51"/>
       <c r="J15" s="12">
         <v>0.22</v>
       </c>
@@ -2095,31 +2458,31 @@
       </c>
       <c r="M15" s="24"/>
     </row>
-    <row r="16" spans="1:17" ht="16.2" thickBot="1">
-      <c r="B16" s="48"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="48"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="48"/>
+    <row r="16" spans="1:17" ht="16" thickBot="1">
+      <c r="B16" s="51"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="51"/>
+      <c r="I16" s="51"/>
       <c r="J16" s="12"/>
       <c r="K16" s="12"/>
       <c r="L16" s="25"/>
     </row>
-    <row r="17" spans="2:13" ht="13.8" thickBot="1"/>
-    <row r="18" spans="2:13" ht="16.2" thickBot="1">
-      <c r="B18" s="48" t="s">
+    <row r="17" spans="2:13" ht="13" thickBot="1"/>
+    <row r="18" spans="2:13" ht="16" thickBot="1">
+      <c r="B18" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="48"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="48"/>
-      <c r="G18" s="48"/>
-      <c r="H18" s="48"/>
-      <c r="I18" s="48"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="51"/>
       <c r="L18" s="27">
         <f>M10+L10+L13+L15</f>
         <v>3195.75</v>
@@ -2128,14 +2491,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A3:P3"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="P7:P8"/>
-    <mergeCell ref="O7:O8"/>
     <mergeCell ref="B13:I13"/>
     <mergeCell ref="N7:N8"/>
     <mergeCell ref="B15:I15"/>
@@ -2149,6 +2504,14 @@
     <mergeCell ref="H7:H8"/>
     <mergeCell ref="I7:I8"/>
     <mergeCell ref="G7:G8"/>
+    <mergeCell ref="A3:P3"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="O7:O8"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
@@ -2156,7 +2519,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Q18"/>
   <sheetViews>
@@ -2164,51 +2527,51 @@
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="3.44140625" customWidth="1"/>
-    <col min="2" max="2" width="17.88671875" customWidth="1"/>
-    <col min="3" max="3" width="13.5546875" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" customWidth="1"/>
+    <col min="1" max="1" width="3.453125" customWidth="1"/>
+    <col min="2" max="2" width="17.90625" customWidth="1"/>
+    <col min="3" max="3" width="13.54296875" customWidth="1"/>
+    <col min="4" max="4" width="10.6328125" customWidth="1"/>
     <col min="5" max="5" width="6" customWidth="1"/>
-    <col min="6" max="6" width="8.5546875" customWidth="1"/>
-    <col min="7" max="7" width="11.88671875" customWidth="1"/>
-    <col min="8" max="8" width="5.6640625" customWidth="1"/>
-    <col min="9" max="9" width="6.88671875" customWidth="1"/>
+    <col min="6" max="6" width="8.54296875" customWidth="1"/>
+    <col min="7" max="7" width="11.90625" customWidth="1"/>
+    <col min="8" max="8" width="5.6328125" customWidth="1"/>
+    <col min="9" max="9" width="6.90625" customWidth="1"/>
     <col min="10" max="10" width="10" customWidth="1"/>
-    <col min="11" max="11" width="8.109375" customWidth="1"/>
-    <col min="12" max="12" width="11.109375" customWidth="1"/>
-    <col min="13" max="13" width="11.33203125" customWidth="1"/>
-    <col min="14" max="14" width="8.44140625" customWidth="1"/>
-    <col min="15" max="15" width="9.33203125" customWidth="1"/>
-    <col min="16" max="16" width="11.6640625" customWidth="1"/>
-    <col min="19" max="19" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.08984375" customWidth="1"/>
+    <col min="12" max="12" width="11.08984375" customWidth="1"/>
+    <col min="13" max="13" width="11.36328125" customWidth="1"/>
+    <col min="14" max="14" width="8.453125" customWidth="1"/>
+    <col min="15" max="15" width="9.36328125" customWidth="1"/>
+    <col min="16" max="16" width="11.6328125" customWidth="1"/>
+    <col min="19" max="19" width="12.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:17" ht="27" customHeight="1">
       <c r="B2" s="7"/>
     </row>
-    <row r="3" spans="1:17" ht="20.399999999999999">
-      <c r="A3" s="49" t="s">
+    <row r="3" spans="1:17" ht="20">
+      <c r="A3" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="49"/>
-      <c r="M3" s="49"/>
-      <c r="N3" s="49"/>
-      <c r="O3" s="49"/>
-      <c r="P3" s="49"/>
-    </row>
-    <row r="4" spans="1:17" ht="20.399999999999999">
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="47"/>
+      <c r="N3" s="47"/>
+      <c r="O3" s="47"/>
+      <c r="P3" s="47"/>
+    </row>
+    <row r="4" spans="1:17" ht="20">
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
     </row>
@@ -2219,72 +2582,72 @@
       </c>
     </row>
     <row r="7" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A7" s="47" t="s">
+      <c r="A7" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="47" t="s">
+      <c r="B7" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="47" t="s">
+      <c r="C7" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="47" t="s">
+      <c r="D7" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="50" t="s">
+      <c r="E7" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="F7" s="47" t="s">
+      <c r="F7" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="G7" s="47" t="s">
+      <c r="G7" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="47" t="s">
+      <c r="H7" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="I7" s="47" t="s">
+      <c r="I7" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="J7" s="47" t="s">
+      <c r="J7" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="K7" s="47" t="s">
+      <c r="K7" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="L7" s="47" t="s">
+      <c r="L7" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="M7" s="47" t="s">
+      <c r="M7" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="N7" s="47" t="s">
+      <c r="N7" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="O7" s="47" t="s">
+      <c r="O7" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="P7" s="47" t="s">
+      <c r="P7" s="48" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="48.75" customHeight="1">
-      <c r="A8" s="47"/>
-      <c r="B8" s="47"/>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="47"/>
-      <c r="K8" s="47"/>
-      <c r="L8" s="47"/>
-      <c r="M8" s="47"/>
-      <c r="N8" s="47"/>
-      <c r="O8" s="47"/>
-      <c r="P8" s="47"/>
+      <c r="A8" s="48"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="48"/>
+      <c r="I8" s="48"/>
+      <c r="J8" s="48"/>
+      <c r="K8" s="48"/>
+      <c r="L8" s="48"/>
+      <c r="M8" s="48"/>
+      <c r="N8" s="48"/>
+      <c r="O8" s="48"/>
+      <c r="P8" s="48"/>
     </row>
     <row r="9" spans="1:17" ht="31.5" customHeight="1">
       <c r="A9" s="3">
@@ -2388,25 +2751,25 @@
       </c>
       <c r="Q10" s="9"/>
     </row>
-    <row r="11" spans="1:17" ht="15.6">
+    <row r="11" spans="1:17" ht="15">
       <c r="L11" s="11"/>
       <c r="P11" s="15">
         <f>P10+K10</f>
         <v>4065.25</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="13.8" thickBot="1"/>
-    <row r="13" spans="1:17" ht="16.2" thickBot="1">
-      <c r="B13" s="48" t="s">
+    <row r="12" spans="1:17" ht="13" thickBot="1"/>
+    <row r="13" spans="1:17" ht="16" thickBot="1">
+      <c r="B13" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="48"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="48"/>
-      <c r="I13" s="48"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="51"/>
       <c r="J13" s="12">
         <v>0.22</v>
       </c>
@@ -2422,20 +2785,20 @@
       </c>
       <c r="P13" s="16"/>
     </row>
-    <row r="14" spans="1:17" ht="13.8" thickBot="1">
+    <row r="14" spans="1:17" ht="13.5" thickBot="1">
       <c r="P14" s="16"/>
     </row>
-    <row r="15" spans="1:17" ht="16.2" thickBot="1">
-      <c r="B15" s="48" t="s">
+    <row r="15" spans="1:17" ht="16" thickBot="1">
+      <c r="B15" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="48"/>
-      <c r="D15" s="48"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="48"/>
-      <c r="H15" s="48"/>
-      <c r="I15" s="48"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="51"/>
       <c r="J15" s="12">
         <v>0.22</v>
       </c>
@@ -2445,31 +2808,31 @@
       </c>
       <c r="M15" s="24"/>
     </row>
-    <row r="16" spans="1:17" ht="16.2" thickBot="1">
-      <c r="B16" s="48"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="48"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="48"/>
+    <row r="16" spans="1:17" ht="16" thickBot="1">
+      <c r="B16" s="51"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="51"/>
+      <c r="I16" s="51"/>
       <c r="J16" s="12"/>
       <c r="K16" s="12"/>
       <c r="L16" s="25"/>
     </row>
-    <row r="17" spans="2:13" ht="13.8" thickBot="1"/>
-    <row r="18" spans="2:13" ht="16.2" thickBot="1">
-      <c r="B18" s="48" t="s">
+    <row r="17" spans="2:13" ht="13" thickBot="1"/>
+    <row r="18" spans="2:13" ht="16" thickBot="1">
+      <c r="B18" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="48"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="48"/>
-      <c r="G18" s="48"/>
-      <c r="H18" s="48"/>
-      <c r="I18" s="48"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="51"/>
       <c r="L18" s="27">
         <f>M10+L10+L13+L15</f>
         <v>3195.75</v>
@@ -2478,6 +2841,14 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="B16:I16"/>
+    <mergeCell ref="B13:I13"/>
+    <mergeCell ref="B15:I15"/>
     <mergeCell ref="A3:P3"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
@@ -2491,14 +2862,6 @@
     <mergeCell ref="H7:H8"/>
     <mergeCell ref="I7:I8"/>
     <mergeCell ref="G7:G8"/>
-    <mergeCell ref="B18:I18"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="B16:I16"/>
-    <mergeCell ref="B13:I13"/>
-    <mergeCell ref="B15:I15"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
@@ -2506,7 +2869,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Q18"/>
   <sheetViews>
@@ -2514,51 +2877,51 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="3.44140625" customWidth="1"/>
-    <col min="2" max="2" width="17.88671875" customWidth="1"/>
-    <col min="3" max="3" width="13.5546875" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" customWidth="1"/>
+    <col min="1" max="1" width="3.453125" customWidth="1"/>
+    <col min="2" max="2" width="17.90625" customWidth="1"/>
+    <col min="3" max="3" width="13.54296875" customWidth="1"/>
+    <col min="4" max="4" width="10.6328125" customWidth="1"/>
     <col min="5" max="5" width="6" customWidth="1"/>
-    <col min="6" max="6" width="8.5546875" customWidth="1"/>
-    <col min="7" max="7" width="11.88671875" customWidth="1"/>
-    <col min="8" max="8" width="5.6640625" customWidth="1"/>
-    <col min="9" max="9" width="6.88671875" customWidth="1"/>
+    <col min="6" max="6" width="8.54296875" customWidth="1"/>
+    <col min="7" max="7" width="11.90625" customWidth="1"/>
+    <col min="8" max="8" width="5.6328125" customWidth="1"/>
+    <col min="9" max="9" width="6.90625" customWidth="1"/>
     <col min="10" max="10" width="10" customWidth="1"/>
-    <col min="11" max="11" width="8.109375" customWidth="1"/>
-    <col min="12" max="12" width="11.109375" customWidth="1"/>
-    <col min="13" max="13" width="11.33203125" customWidth="1"/>
-    <col min="14" max="14" width="8.44140625" customWidth="1"/>
-    <col min="15" max="15" width="9.33203125" customWidth="1"/>
-    <col min="16" max="16" width="11.6640625" customWidth="1"/>
-    <col min="19" max="19" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.08984375" customWidth="1"/>
+    <col min="12" max="12" width="11.08984375" customWidth="1"/>
+    <col min="13" max="13" width="11.36328125" customWidth="1"/>
+    <col min="14" max="14" width="8.453125" customWidth="1"/>
+    <col min="15" max="15" width="9.36328125" customWidth="1"/>
+    <col min="16" max="16" width="11.6328125" customWidth="1"/>
+    <col min="19" max="19" width="12.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:17" ht="27" customHeight="1">
       <c r="B2" s="7"/>
     </row>
-    <row r="3" spans="1:17" ht="20.399999999999999">
-      <c r="A3" s="49" t="s">
+    <row r="3" spans="1:17" ht="20">
+      <c r="A3" s="47" t="s">
         <v>61</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="49"/>
-      <c r="M3" s="49"/>
-      <c r="N3" s="49"/>
-      <c r="O3" s="49"/>
-      <c r="P3" s="49"/>
-    </row>
-    <row r="4" spans="1:17" ht="20.399999999999999">
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="47"/>
+      <c r="N3" s="47"/>
+      <c r="O3" s="47"/>
+      <c r="P3" s="47"/>
+    </row>
+    <row r="4" spans="1:17" ht="20">
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
     </row>
@@ -2569,72 +2932,72 @@
       </c>
     </row>
     <row r="7" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A7" s="47" t="s">
+      <c r="A7" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="47" t="s">
+      <c r="B7" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="47" t="s">
+      <c r="C7" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="47" t="s">
+      <c r="D7" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="50" t="s">
+      <c r="E7" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="F7" s="47" t="s">
+      <c r="F7" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="G7" s="47" t="s">
+      <c r="G7" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="47" t="s">
+      <c r="H7" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="I7" s="47" t="s">
+      <c r="I7" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="J7" s="47" t="s">
+      <c r="J7" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="K7" s="47" t="s">
+      <c r="K7" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="L7" s="47" t="s">
+      <c r="L7" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="M7" s="47" t="s">
+      <c r="M7" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="N7" s="47" t="s">
+      <c r="N7" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="O7" s="47" t="s">
+      <c r="O7" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="P7" s="47" t="s">
+      <c r="P7" s="48" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="48.75" customHeight="1">
-      <c r="A8" s="47"/>
-      <c r="B8" s="47"/>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="47"/>
-      <c r="K8" s="47"/>
-      <c r="L8" s="47"/>
-      <c r="M8" s="47"/>
-      <c r="N8" s="47"/>
-      <c r="O8" s="47"/>
-      <c r="P8" s="47"/>
+      <c r="A8" s="48"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="48"/>
+      <c r="I8" s="48"/>
+      <c r="J8" s="48"/>
+      <c r="K8" s="48"/>
+      <c r="L8" s="48"/>
+      <c r="M8" s="48"/>
+      <c r="N8" s="48"/>
+      <c r="O8" s="48"/>
+      <c r="P8" s="48"/>
     </row>
     <row r="9" spans="1:17" ht="31.5" customHeight="1">
       <c r="A9" s="3">
@@ -2738,25 +3101,25 @@
       </c>
       <c r="Q10" s="9"/>
     </row>
-    <row r="11" spans="1:17" ht="15.6">
+    <row r="11" spans="1:17" ht="15">
       <c r="L11" s="11"/>
       <c r="P11" s="15">
         <f>P10+K10</f>
         <v>4065.25</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="13.8" thickBot="1"/>
-    <row r="13" spans="1:17" ht="16.2" thickBot="1">
-      <c r="B13" s="48" t="s">
+    <row r="12" spans="1:17" ht="13" thickBot="1"/>
+    <row r="13" spans="1:17" ht="16" thickBot="1">
+      <c r="B13" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="48"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="48"/>
-      <c r="I13" s="48"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="51"/>
       <c r="J13" s="12">
         <v>0.22</v>
       </c>
@@ -2772,20 +3135,20 @@
       </c>
       <c r="P13" s="16"/>
     </row>
-    <row r="14" spans="1:17" ht="13.8" thickBot="1">
+    <row r="14" spans="1:17" ht="13.5" thickBot="1">
       <c r="P14" s="16"/>
     </row>
-    <row r="15" spans="1:17" ht="16.2" thickBot="1">
-      <c r="B15" s="48" t="s">
+    <row r="15" spans="1:17" ht="16" thickBot="1">
+      <c r="B15" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="48"/>
-      <c r="D15" s="48"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="48"/>
-      <c r="H15" s="48"/>
-      <c r="I15" s="48"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="51"/>
       <c r="J15" s="12">
         <v>0.22</v>
       </c>
@@ -2795,31 +3158,31 @@
       </c>
       <c r="M15" s="24"/>
     </row>
-    <row r="16" spans="1:17" ht="16.2" thickBot="1">
-      <c r="B16" s="48"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="48"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="48"/>
+    <row r="16" spans="1:17" ht="16" thickBot="1">
+      <c r="B16" s="51"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="51"/>
+      <c r="I16" s="51"/>
       <c r="J16" s="12"/>
       <c r="K16" s="12"/>
       <c r="L16" s="25"/>
     </row>
-    <row r="17" spans="2:13" ht="13.8" thickBot="1"/>
-    <row r="18" spans="2:13" ht="16.2" thickBot="1">
-      <c r="B18" s="48" t="s">
+    <row r="17" spans="2:13" ht="13" thickBot="1"/>
+    <row r="18" spans="2:13" ht="16" thickBot="1">
+      <c r="B18" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="48"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="48"/>
-      <c r="G18" s="48"/>
-      <c r="H18" s="48"/>
-      <c r="I18" s="48"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="51"/>
       <c r="L18" s="27">
         <f>M10+L10+L13+L15</f>
         <v>3195.75</v>
@@ -2828,15 +3191,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B18:I18"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="B16:I16"/>
-    <mergeCell ref="B13:I13"/>
-    <mergeCell ref="B15:I15"/>
     <mergeCell ref="O7:O8"/>
     <mergeCell ref="E7:E8"/>
     <mergeCell ref="A3:P3"/>
@@ -2849,6 +3203,15 @@
     <mergeCell ref="N7:N8"/>
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="H7:H8"/>
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="B16:I16"/>
+    <mergeCell ref="B13:I13"/>
+    <mergeCell ref="B15:I15"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
@@ -2856,7 +3219,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Q18"/>
   <sheetViews>
@@ -2864,51 +3227,51 @@
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="3.44140625" customWidth="1"/>
-    <col min="2" max="2" width="17.88671875" customWidth="1"/>
-    <col min="3" max="3" width="13.5546875" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" customWidth="1"/>
+    <col min="1" max="1" width="3.453125" customWidth="1"/>
+    <col min="2" max="2" width="17.90625" customWidth="1"/>
+    <col min="3" max="3" width="13.54296875" customWidth="1"/>
+    <col min="4" max="4" width="10.6328125" customWidth="1"/>
     <col min="5" max="5" width="6" customWidth="1"/>
-    <col min="6" max="6" width="8.5546875" customWidth="1"/>
-    <col min="7" max="7" width="11.88671875" customWidth="1"/>
-    <col min="8" max="8" width="5.6640625" customWidth="1"/>
-    <col min="9" max="9" width="6.88671875" customWidth="1"/>
+    <col min="6" max="6" width="8.54296875" customWidth="1"/>
+    <col min="7" max="7" width="11.90625" customWidth="1"/>
+    <col min="8" max="8" width="5.6328125" customWidth="1"/>
+    <col min="9" max="9" width="6.90625" customWidth="1"/>
     <col min="10" max="10" width="10" customWidth="1"/>
-    <col min="11" max="11" width="8.109375" customWidth="1"/>
-    <col min="12" max="12" width="11.109375" customWidth="1"/>
-    <col min="13" max="13" width="11.33203125" customWidth="1"/>
-    <col min="14" max="14" width="8.44140625" customWidth="1"/>
-    <col min="15" max="15" width="9.33203125" customWidth="1"/>
-    <col min="16" max="16" width="11.6640625" customWidth="1"/>
-    <col min="19" max="19" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.08984375" customWidth="1"/>
+    <col min="12" max="12" width="11.08984375" customWidth="1"/>
+    <col min="13" max="13" width="11.36328125" customWidth="1"/>
+    <col min="14" max="14" width="8.453125" customWidth="1"/>
+    <col min="15" max="15" width="9.36328125" customWidth="1"/>
+    <col min="16" max="16" width="11.6328125" customWidth="1"/>
+    <col min="19" max="19" width="12.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:17" ht="27" customHeight="1">
       <c r="B2" s="7"/>
     </row>
-    <row r="3" spans="1:17" ht="20.399999999999999">
-      <c r="A3" s="49" t="s">
+    <row r="3" spans="1:17" ht="20">
+      <c r="A3" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="49"/>
-      <c r="M3" s="49"/>
-      <c r="N3" s="49"/>
-      <c r="O3" s="49"/>
-      <c r="P3" s="49"/>
-    </row>
-    <row r="4" spans="1:17" ht="20.399999999999999">
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="47"/>
+      <c r="N3" s="47"/>
+      <c r="O3" s="47"/>
+      <c r="P3" s="47"/>
+    </row>
+    <row r="4" spans="1:17" ht="20">
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
     </row>
@@ -2919,72 +3282,72 @@
       </c>
     </row>
     <row r="7" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A7" s="47" t="s">
+      <c r="A7" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="47" t="s">
+      <c r="B7" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="47" t="s">
+      <c r="C7" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="47" t="s">
+      <c r="D7" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="50" t="s">
+      <c r="E7" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="F7" s="47" t="s">
+      <c r="F7" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="G7" s="47" t="s">
+      <c r="G7" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="47" t="s">
+      <c r="H7" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="I7" s="47" t="s">
+      <c r="I7" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="J7" s="47" t="s">
+      <c r="J7" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="K7" s="47" t="s">
+      <c r="K7" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="L7" s="47" t="s">
+      <c r="L7" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="M7" s="47" t="s">
+      <c r="M7" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="N7" s="47" t="s">
+      <c r="N7" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="O7" s="47" t="s">
+      <c r="O7" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="P7" s="47" t="s">
+      <c r="P7" s="48" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="48.75" customHeight="1">
-      <c r="A8" s="47"/>
-      <c r="B8" s="47"/>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="47"/>
-      <c r="K8" s="47"/>
-      <c r="L8" s="47"/>
-      <c r="M8" s="47"/>
-      <c r="N8" s="47"/>
-      <c r="O8" s="47"/>
-      <c r="P8" s="47"/>
+      <c r="A8" s="48"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="48"/>
+      <c r="I8" s="48"/>
+      <c r="J8" s="48"/>
+      <c r="K8" s="48"/>
+      <c r="L8" s="48"/>
+      <c r="M8" s="48"/>
+      <c r="N8" s="48"/>
+      <c r="O8" s="48"/>
+      <c r="P8" s="48"/>
     </row>
     <row r="9" spans="1:17" ht="31.5" customHeight="1">
       <c r="A9" s="3">
@@ -3088,25 +3451,25 @@
       </c>
       <c r="Q10" s="9"/>
     </row>
-    <row r="11" spans="1:17" ht="15.6">
+    <row r="11" spans="1:17" ht="15">
       <c r="L11" s="11"/>
       <c r="P11" s="15">
         <f>P10+K10</f>
         <v>3839.85</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="13.8" thickBot="1"/>
-    <row r="13" spans="1:17" ht="16.2" thickBot="1">
-      <c r="B13" s="48" t="s">
+    <row r="12" spans="1:17" ht="13" thickBot="1"/>
+    <row r="13" spans="1:17" ht="16" thickBot="1">
+      <c r="B13" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="48"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="48"/>
-      <c r="I13" s="48"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="51"/>
       <c r="J13" s="12">
         <v>0.22</v>
       </c>
@@ -3122,20 +3485,20 @@
       </c>
       <c r="P13" s="16"/>
     </row>
-    <row r="14" spans="1:17" ht="13.8" thickBot="1">
+    <row r="14" spans="1:17" ht="13.5" thickBot="1">
       <c r="P14" s="16"/>
     </row>
-    <row r="15" spans="1:17" ht="16.2" thickBot="1">
-      <c r="B15" s="48" t="s">
+    <row r="15" spans="1:17" ht="16" thickBot="1">
+      <c r="B15" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="48"/>
-      <c r="D15" s="48"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="48"/>
-      <c r="H15" s="48"/>
-      <c r="I15" s="48"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="51"/>
       <c r="J15" s="12">
         <v>0.22</v>
       </c>
@@ -3145,31 +3508,31 @@
       </c>
       <c r="M15" s="24"/>
     </row>
-    <row r="16" spans="1:17" ht="16.2" thickBot="1">
-      <c r="B16" s="48"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="48"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="48"/>
+    <row r="16" spans="1:17" ht="16" thickBot="1">
+      <c r="B16" s="51"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="51"/>
+      <c r="I16" s="51"/>
       <c r="J16" s="12"/>
       <c r="K16" s="12"/>
       <c r="L16" s="25"/>
     </row>
-    <row r="17" spans="2:13" ht="13.8" thickBot="1"/>
-    <row r="18" spans="2:13" ht="16.2" thickBot="1">
-      <c r="B18" s="48" t="s">
+    <row r="17" spans="2:13" ht="13" thickBot="1"/>
+    <row r="18" spans="2:13" ht="16" thickBot="1">
+      <c r="B18" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="48"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="48"/>
-      <c r="G18" s="48"/>
-      <c r="H18" s="48"/>
-      <c r="I18" s="48"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="51"/>
       <c r="L18" s="27">
         <f>M10+L10+L13+L15</f>
         <v>3018.61</v>
@@ -3178,6 +3541,14 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A3:P3"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="N7:N8"/>
     <mergeCell ref="B18:I18"/>
     <mergeCell ref="J7:J8"/>
     <mergeCell ref="K7:K8"/>
@@ -3191,364 +3562,6 @@
     <mergeCell ref="B15:I15"/>
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="H7:H8"/>
-    <mergeCell ref="A3:P3"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="P7:P8"/>
-    <mergeCell ref="N7:N8"/>
-  </mergeCells>
-  <pageMargins left="0" right="0" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:Q18"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
-  <cols>
-    <col min="1" max="1" width="3.44140625" customWidth="1"/>
-    <col min="2" max="2" width="17.88671875" customWidth="1"/>
-    <col min="3" max="3" width="13.5546875" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" customWidth="1"/>
-    <col min="5" max="5" width="6" customWidth="1"/>
-    <col min="6" max="6" width="8.5546875" customWidth="1"/>
-    <col min="7" max="7" width="11.88671875" customWidth="1"/>
-    <col min="8" max="8" width="5.6640625" customWidth="1"/>
-    <col min="9" max="9" width="6.88671875" customWidth="1"/>
-    <col min="10" max="10" width="10" customWidth="1"/>
-    <col min="11" max="11" width="8.109375" customWidth="1"/>
-    <col min="12" max="12" width="11.109375" customWidth="1"/>
-    <col min="13" max="13" width="11.33203125" customWidth="1"/>
-    <col min="14" max="14" width="8.44140625" customWidth="1"/>
-    <col min="15" max="15" width="9.33203125" customWidth="1"/>
-    <col min="16" max="16" width="11.6640625" customWidth="1"/>
-    <col min="19" max="19" width="12.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:17" ht="27" customHeight="1">
-      <c r="B2" s="7"/>
-    </row>
-    <row r="3" spans="1:17" ht="20.399999999999999">
-      <c r="A3" s="49" t="s">
-        <v>59</v>
-      </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="49"/>
-      <c r="M3" s="49"/>
-      <c r="N3" s="49"/>
-      <c r="O3" s="49"/>
-      <c r="P3" s="49"/>
-    </row>
-    <row r="4" spans="1:17" ht="20.399999999999999">
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-    </row>
-    <row r="5" spans="1:17" ht="15.75" customHeight="1"/>
-    <row r="6" spans="1:17" ht="15.75" customHeight="1">
-      <c r="F6">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A7" s="47" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="47" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" s="50" t="s">
-        <v>54</v>
-      </c>
-      <c r="F7" s="47" t="s">
-        <v>53</v>
-      </c>
-      <c r="G7" s="47" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" s="47" t="s">
-        <v>50</v>
-      </c>
-      <c r="I7" s="47" t="s">
-        <v>42</v>
-      </c>
-      <c r="J7" s="47" t="s">
-        <v>55</v>
-      </c>
-      <c r="K7" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="L7" s="47" t="s">
-        <v>14</v>
-      </c>
-      <c r="M7" s="47" t="s">
-        <v>24</v>
-      </c>
-      <c r="N7" s="47" t="s">
-        <v>12</v>
-      </c>
-      <c r="O7" s="47" t="s">
-        <v>13</v>
-      </c>
-      <c r="P7" s="47" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="48.75" customHeight="1">
-      <c r="A8" s="47"/>
-      <c r="B8" s="47"/>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="47"/>
-      <c r="K8" s="47"/>
-      <c r="L8" s="47"/>
-      <c r="M8" s="47"/>
-      <c r="N8" s="47"/>
-      <c r="O8" s="47"/>
-      <c r="P8" s="47"/>
-    </row>
-    <row r="9" spans="1:17" ht="31.5" customHeight="1">
-      <c r="A9" s="3">
-        <v>1</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="6">
-        <v>2522813188</v>
-      </c>
-      <c r="D9" s="5">
-        <v>4770</v>
-      </c>
-      <c r="E9" s="5">
-        <v>1</v>
-      </c>
-      <c r="F9" s="5">
-        <v>184</v>
-      </c>
-      <c r="G9" s="10">
-        <f>D9/F6*F9</f>
-        <v>4770</v>
-      </c>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="46">
-        <f>G9</f>
-        <v>4770</v>
-      </c>
-      <c r="K9" s="10">
-        <v>2000</v>
-      </c>
-      <c r="L9" s="5">
-        <f>ROUND((G9)*18/100,2)</f>
-        <v>858.6</v>
-      </c>
-      <c r="M9" s="5">
-        <f>G9*0.015</f>
-        <v>71.55</v>
-      </c>
-      <c r="N9" s="5">
-        <f>SUM(L9:M9)</f>
-        <v>930.15</v>
-      </c>
-      <c r="O9" s="5">
-        <f>G9-N9</f>
-        <v>3839.85</v>
-      </c>
-      <c r="P9" s="5">
-        <f>O9-K9</f>
-        <v>1839.85</v>
-      </c>
-      <c r="Q9" s="9"/>
-    </row>
-    <row r="10" spans="1:17" ht="27.75" customHeight="1">
-      <c r="A10" s="3"/>
-      <c r="B10" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="15">
-        <f>SUM(D9:D9)</f>
-        <v>4770</v>
-      </c>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15">
-        <f>SUM(G9:G9)</f>
-        <v>4770</v>
-      </c>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15">
-        <f t="shared" ref="I10:P10" si="0">SUM(I9:I9)</f>
-        <v>0</v>
-      </c>
-      <c r="J10" s="45"/>
-      <c r="K10" s="15">
-        <f t="shared" si="0"/>
-        <v>2000</v>
-      </c>
-      <c r="L10" s="15">
-        <f t="shared" si="0"/>
-        <v>858.6</v>
-      </c>
-      <c r="M10" s="15">
-        <f t="shared" si="0"/>
-        <v>71.55</v>
-      </c>
-      <c r="N10" s="15">
-        <f t="shared" si="0"/>
-        <v>930.15</v>
-      </c>
-      <c r="O10" s="15">
-        <f t="shared" si="0"/>
-        <v>3839.85</v>
-      </c>
-      <c r="P10" s="15">
-        <f t="shared" si="0"/>
-        <v>1839.85</v>
-      </c>
-      <c r="Q10" s="9"/>
-    </row>
-    <row r="11" spans="1:17" ht="15.6">
-      <c r="L11" s="11"/>
-      <c r="P11" s="15">
-        <f>P10+K10</f>
-        <v>3839.85</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" ht="13.8" thickBot="1"/>
-    <row r="13" spans="1:17" ht="16.2" thickBot="1">
-      <c r="B13" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="48"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="48"/>
-      <c r="I13" s="48"/>
-      <c r="J13" s="12">
-        <v>0.22</v>
-      </c>
-      <c r="K13" s="12"/>
-      <c r="L13" s="26">
-        <f>J9*0.22</f>
-        <v>1049.4000000000001</v>
-      </c>
-      <c r="M13" s="24"/>
-      <c r="N13" s="35">
-        <f>M10+L10+L13</f>
-        <v>1979.5500000000002</v>
-      </c>
-      <c r="P13" s="16"/>
-    </row>
-    <row r="14" spans="1:17" ht="13.8" thickBot="1">
-      <c r="P14" s="16"/>
-    </row>
-    <row r="15" spans="1:17" ht="16.2" thickBot="1">
-      <c r="B15" s="48" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="48"/>
-      <c r="D15" s="48"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="48"/>
-      <c r="H15" s="48"/>
-      <c r="I15" s="48"/>
-      <c r="J15" s="12">
-        <v>0.22</v>
-      </c>
-      <c r="K15" s="12"/>
-      <c r="L15" s="26">
-        <v>1039.06</v>
-      </c>
-      <c r="M15" s="24"/>
-    </row>
-    <row r="16" spans="1:17" ht="16.2" thickBot="1">
-      <c r="B16" s="48"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="48"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="48"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="25"/>
-    </row>
-    <row r="17" spans="2:13" ht="13.8" thickBot="1"/>
-    <row r="18" spans="2:13" ht="16.2" thickBot="1">
-      <c r="B18" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="48"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="48"/>
-      <c r="G18" s="48"/>
-      <c r="H18" s="48"/>
-      <c r="I18" s="48"/>
-      <c r="L18" s="27">
-        <f>M10+L10+L13+L15</f>
-        <v>3018.61</v>
-      </c>
-      <c r="M18" s="28"/>
-    </row>
-  </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="B18:I18"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="B16:I16"/>
-    <mergeCell ref="B13:I13"/>
-    <mergeCell ref="B15:I15"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="A3:P3"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="P7:P8"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="L7:L8"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
@@ -3561,130 +3574,130 @@
   <dimension ref="A2:Q18"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="3.44140625" customWidth="1"/>
-    <col min="2" max="2" width="17.88671875" customWidth="1"/>
-    <col min="3" max="3" width="13.5546875" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" customWidth="1"/>
+    <col min="1" max="1" width="3.453125" customWidth="1"/>
+    <col min="2" max="2" width="17.90625" customWidth="1"/>
+    <col min="3" max="3" width="13.54296875" customWidth="1"/>
+    <col min="4" max="4" width="10.6328125" customWidth="1"/>
     <col min="5" max="5" width="6" customWidth="1"/>
-    <col min="6" max="6" width="8.5546875" customWidth="1"/>
-    <col min="7" max="7" width="11.88671875" customWidth="1"/>
-    <col min="8" max="8" width="5.6640625" customWidth="1"/>
-    <col min="9" max="9" width="6.88671875" customWidth="1"/>
+    <col min="6" max="6" width="8.54296875" customWidth="1"/>
+    <col min="7" max="7" width="11.90625" customWidth="1"/>
+    <col min="8" max="8" width="5.6328125" customWidth="1"/>
+    <col min="9" max="9" width="6.90625" customWidth="1"/>
     <col min="10" max="10" width="10" customWidth="1"/>
-    <col min="11" max="11" width="8.109375" customWidth="1"/>
-    <col min="12" max="12" width="11.109375" customWidth="1"/>
-    <col min="13" max="13" width="11.33203125" customWidth="1"/>
-    <col min="14" max="14" width="8.44140625" customWidth="1"/>
-    <col min="15" max="15" width="9.33203125" customWidth="1"/>
-    <col min="16" max="16" width="11.6640625" customWidth="1"/>
-    <col min="19" max="19" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.08984375" customWidth="1"/>
+    <col min="12" max="12" width="11.08984375" customWidth="1"/>
+    <col min="13" max="13" width="11.36328125" customWidth="1"/>
+    <col min="14" max="14" width="8.453125" customWidth="1"/>
+    <col min="15" max="15" width="9.36328125" customWidth="1"/>
+    <col min="16" max="16" width="11.6328125" customWidth="1"/>
+    <col min="19" max="19" width="12.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:17" ht="27" customHeight="1">
       <c r="B2" s="7"/>
     </row>
-    <row r="3" spans="1:17" ht="20.399999999999999">
-      <c r="A3" s="49" t="s">
-        <v>58</v>
-      </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="49"/>
-      <c r="M3" s="49"/>
-      <c r="N3" s="49"/>
-      <c r="O3" s="49"/>
-      <c r="P3" s="49"/>
-    </row>
-    <row r="4" spans="1:17" ht="20.399999999999999">
+    <row r="3" spans="1:17" ht="20">
+      <c r="A3" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="47"/>
+      <c r="N3" s="47"/>
+      <c r="O3" s="47"/>
+      <c r="P3" s="47"/>
+    </row>
+    <row r="4" spans="1:17" ht="20">
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
     </row>
     <row r="5" spans="1:17" ht="15.75" customHeight="1"/>
     <row r="6" spans="1:17" ht="15.75" customHeight="1">
       <c r="F6">
-        <v>160</v>
+        <v>184</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A7" s="47" t="s">
+      <c r="A7" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="47" t="s">
+      <c r="B7" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="47" t="s">
+      <c r="C7" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="47" t="s">
+      <c r="D7" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="50" t="s">
+      <c r="E7" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="F7" s="47" t="s">
+      <c r="F7" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="G7" s="47" t="s">
+      <c r="G7" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="47" t="s">
+      <c r="H7" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="I7" s="47" t="s">
+      <c r="I7" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="J7" s="47" t="s">
+      <c r="J7" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="K7" s="47" t="s">
+      <c r="K7" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="L7" s="47" t="s">
+      <c r="L7" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="M7" s="47" t="s">
+      <c r="M7" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="N7" s="47" t="s">
+      <c r="N7" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="O7" s="47" t="s">
+      <c r="O7" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="P7" s="47" t="s">
+      <c r="P7" s="48" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="48.75" customHeight="1">
-      <c r="A8" s="47"/>
-      <c r="B8" s="47"/>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="47"/>
-      <c r="K8" s="47"/>
-      <c r="L8" s="47"/>
-      <c r="M8" s="47"/>
-      <c r="N8" s="47"/>
-      <c r="O8" s="47"/>
-      <c r="P8" s="47"/>
+      <c r="A8" s="48"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="48"/>
+      <c r="I8" s="48"/>
+      <c r="J8" s="48"/>
+      <c r="K8" s="48"/>
+      <c r="L8" s="48"/>
+      <c r="M8" s="48"/>
+      <c r="N8" s="48"/>
+      <c r="O8" s="48"/>
+      <c r="P8" s="48"/>
     </row>
     <row r="9" spans="1:17" ht="31.5" customHeight="1">
       <c r="A9" s="3">
@@ -3703,7 +3716,7 @@
         <v>1</v>
       </c>
       <c r="F9" s="5">
-        <v>160</v>
+        <v>184</v>
       </c>
       <c r="G9" s="10">
         <f>D9/F6*F9</f>
@@ -3788,25 +3801,25 @@
       </c>
       <c r="Q10" s="9"/>
     </row>
-    <row r="11" spans="1:17" ht="15.6">
+    <row r="11" spans="1:17" ht="15">
       <c r="L11" s="11"/>
       <c r="P11" s="15">
         <f>P10+K10</f>
         <v>3839.85</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="13.8" thickBot="1"/>
-    <row r="13" spans="1:17" ht="16.2" thickBot="1">
-      <c r="B13" s="48" t="s">
+    <row r="12" spans="1:17" ht="13" thickBot="1"/>
+    <row r="13" spans="1:17" ht="16" thickBot="1">
+      <c r="B13" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="48"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="48"/>
-      <c r="I13" s="48"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="51"/>
       <c r="J13" s="12">
         <v>0.22</v>
       </c>
@@ -3822,20 +3835,20 @@
       </c>
       <c r="P13" s="16"/>
     </row>
-    <row r="14" spans="1:17" ht="13.8" thickBot="1">
+    <row r="14" spans="1:17" ht="13.5" thickBot="1">
       <c r="P14" s="16"/>
     </row>
-    <row r="15" spans="1:17" ht="16.2" thickBot="1">
-      <c r="B15" s="48" t="s">
+    <row r="15" spans="1:17" ht="16" thickBot="1">
+      <c r="B15" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="48"/>
-      <c r="D15" s="48"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="48"/>
-      <c r="H15" s="48"/>
-      <c r="I15" s="48"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="51"/>
       <c r="J15" s="12">
         <v>0.22</v>
       </c>
@@ -3845,31 +3858,31 @@
       </c>
       <c r="M15" s="24"/>
     </row>
-    <row r="16" spans="1:17" ht="16.2" thickBot="1">
-      <c r="B16" s="48"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="48"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="48"/>
+    <row r="16" spans="1:17" ht="16" thickBot="1">
+      <c r="B16" s="51"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="51"/>
+      <c r="I16" s="51"/>
       <c r="J16" s="12"/>
       <c r="K16" s="12"/>
       <c r="L16" s="25"/>
     </row>
-    <row r="17" spans="2:13" ht="13.8" thickBot="1"/>
-    <row r="18" spans="2:13" ht="16.2" thickBot="1">
-      <c r="B18" s="48" t="s">
+    <row r="17" spans="2:13" ht="13" thickBot="1"/>
+    <row r="18" spans="2:13" ht="16" thickBot="1">
+      <c r="B18" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="48"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="48"/>
-      <c r="G18" s="48"/>
-      <c r="H18" s="48"/>
-      <c r="I18" s="48"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="51"/>
       <c r="L18" s="27">
         <f>M10+L10+L13+L15</f>
         <v>3018.61</v>
@@ -3878,7 +3891,8 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="H7:H8"/>
     <mergeCell ref="A3:P3"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
@@ -3887,14 +3901,13 @@
     <mergeCell ref="I7:I8"/>
     <mergeCell ref="P7:P8"/>
     <mergeCell ref="N7:N8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="L7:L8"/>
     <mergeCell ref="B18:I18"/>
     <mergeCell ref="J7:J8"/>
     <mergeCell ref="K7:K8"/>
     <mergeCell ref="E7:E8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="G7:G8"/>
     <mergeCell ref="B16:I16"/>
     <mergeCell ref="B13:I13"/>
     <mergeCell ref="B15:I15"/>
@@ -3911,130 +3924,130 @@
   <dimension ref="A2:Q18"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="3.44140625" customWidth="1"/>
-    <col min="2" max="2" width="17.88671875" customWidth="1"/>
-    <col min="3" max="3" width="13.5546875" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" customWidth="1"/>
+    <col min="1" max="1" width="3.453125" customWidth="1"/>
+    <col min="2" max="2" width="17.90625" customWidth="1"/>
+    <col min="3" max="3" width="13.54296875" customWidth="1"/>
+    <col min="4" max="4" width="10.6328125" customWidth="1"/>
     <col min="5" max="5" width="6" customWidth="1"/>
-    <col min="6" max="6" width="8.5546875" customWidth="1"/>
-    <col min="7" max="7" width="11.88671875" customWidth="1"/>
-    <col min="8" max="8" width="5.6640625" customWidth="1"/>
-    <col min="9" max="9" width="6.88671875" customWidth="1"/>
+    <col min="6" max="6" width="8.54296875" customWidth="1"/>
+    <col min="7" max="7" width="11.90625" customWidth="1"/>
+    <col min="8" max="8" width="5.6328125" customWidth="1"/>
+    <col min="9" max="9" width="6.90625" customWidth="1"/>
     <col min="10" max="10" width="10" customWidth="1"/>
-    <col min="11" max="11" width="8.109375" customWidth="1"/>
-    <col min="12" max="12" width="11.109375" customWidth="1"/>
-    <col min="13" max="13" width="11.33203125" customWidth="1"/>
-    <col min="14" max="14" width="8.44140625" customWidth="1"/>
-    <col min="15" max="15" width="9.33203125" customWidth="1"/>
-    <col min="16" max="16" width="11.6640625" customWidth="1"/>
-    <col min="19" max="19" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.08984375" customWidth="1"/>
+    <col min="12" max="12" width="11.08984375" customWidth="1"/>
+    <col min="13" max="13" width="11.36328125" customWidth="1"/>
+    <col min="14" max="14" width="8.453125" customWidth="1"/>
+    <col min="15" max="15" width="9.36328125" customWidth="1"/>
+    <col min="16" max="16" width="11.6328125" customWidth="1"/>
+    <col min="19" max="19" width="12.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:17" ht="27" customHeight="1">
       <c r="B2" s="7"/>
     </row>
-    <row r="3" spans="1:17" ht="20.399999999999999">
-      <c r="A3" s="49" t="s">
-        <v>57</v>
-      </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="49"/>
-      <c r="M3" s="49"/>
-      <c r="N3" s="49"/>
-      <c r="O3" s="49"/>
-      <c r="P3" s="49"/>
-    </row>
-    <row r="4" spans="1:17" ht="20.399999999999999">
+    <row r="3" spans="1:17" ht="20">
+      <c r="A3" s="47" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="47"/>
+      <c r="N3" s="47"/>
+      <c r="O3" s="47"/>
+      <c r="P3" s="47"/>
+    </row>
+    <row r="4" spans="1:17" ht="20">
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
     </row>
     <row r="5" spans="1:17" ht="15.75" customHeight="1"/>
     <row r="6" spans="1:17" ht="15.75" customHeight="1">
       <c r="F6">
-        <v>151</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A7" s="47" t="s">
+      <c r="A7" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="47" t="s">
+      <c r="B7" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="47" t="s">
+      <c r="C7" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="47" t="s">
+      <c r="D7" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="50" t="s">
+      <c r="E7" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="F7" s="47" t="s">
+      <c r="F7" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="G7" s="47" t="s">
+      <c r="G7" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="47" t="s">
+      <c r="H7" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="I7" s="47" t="s">
+      <c r="I7" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="J7" s="47" t="s">
+      <c r="J7" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="K7" s="47" t="s">
+      <c r="K7" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="L7" s="47" t="s">
+      <c r="L7" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="M7" s="47" t="s">
+      <c r="M7" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="N7" s="47" t="s">
+      <c r="N7" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="O7" s="47" t="s">
+      <c r="O7" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="P7" s="47" t="s">
+      <c r="P7" s="48" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="48.75" customHeight="1">
-      <c r="A8" s="47"/>
-      <c r="B8" s="47"/>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="47"/>
-      <c r="K8" s="47"/>
-      <c r="L8" s="47"/>
-      <c r="M8" s="47"/>
-      <c r="N8" s="47"/>
-      <c r="O8" s="47"/>
-      <c r="P8" s="47"/>
+      <c r="A8" s="48"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="48"/>
+      <c r="I8" s="48"/>
+      <c r="J8" s="48"/>
+      <c r="K8" s="48"/>
+      <c r="L8" s="48"/>
+      <c r="M8" s="48"/>
+      <c r="N8" s="48"/>
+      <c r="O8" s="48"/>
+      <c r="P8" s="48"/>
     </row>
     <row r="9" spans="1:17" ht="31.5" customHeight="1">
       <c r="A9" s="3">
@@ -4053,7 +4066,7 @@
         <v>1</v>
       </c>
       <c r="F9" s="5">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="G9" s="10">
         <f>D9/F6*F9</f>
@@ -4138,25 +4151,25 @@
       </c>
       <c r="Q10" s="9"/>
     </row>
-    <row r="11" spans="1:17" ht="15.6">
+    <row r="11" spans="1:17" ht="15">
       <c r="L11" s="11"/>
       <c r="P11" s="15">
         <f>P10+K10</f>
         <v>3839.85</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="13.8" thickBot="1"/>
-    <row r="13" spans="1:17" ht="16.2" thickBot="1">
-      <c r="B13" s="48" t="s">
+    <row r="12" spans="1:17" ht="13" thickBot="1"/>
+    <row r="13" spans="1:17" ht="16" thickBot="1">
+      <c r="B13" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="48"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="48"/>
-      <c r="I13" s="48"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="51"/>
       <c r="J13" s="12">
         <v>0.22</v>
       </c>
@@ -4172,20 +4185,370 @@
       </c>
       <c r="P13" s="16"/>
     </row>
-    <row r="14" spans="1:17" ht="13.8" thickBot="1">
+    <row r="14" spans="1:17" ht="13.5" thickBot="1">
       <c r="P14" s="16"/>
     </row>
-    <row r="15" spans="1:17" ht="16.2" thickBot="1">
-      <c r="B15" s="48" t="s">
+    <row r="15" spans="1:17" ht="16" thickBot="1">
+      <c r="B15" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="48"/>
-      <c r="D15" s="48"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="48"/>
-      <c r="H15" s="48"/>
-      <c r="I15" s="48"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="51"/>
+      <c r="J15" s="12">
+        <v>0.22</v>
+      </c>
+      <c r="K15" s="12"/>
+      <c r="L15" s="26">
+        <v>1039.06</v>
+      </c>
+      <c r="M15" s="24"/>
+    </row>
+    <row r="16" spans="1:17" ht="16" thickBot="1">
+      <c r="B16" s="51"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="51"/>
+      <c r="I16" s="51"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="25"/>
+    </row>
+    <row r="17" spans="2:13" ht="13" thickBot="1"/>
+    <row r="18" spans="2:13" ht="16" thickBot="1">
+      <c r="B18" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="51"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="51"/>
+      <c r="L18" s="27">
+        <f>M10+L10+L13+L15</f>
+        <v>3018.61</v>
+      </c>
+      <c r="M18" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="21">
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="B16:I16"/>
+    <mergeCell ref="B13:I13"/>
+    <mergeCell ref="B15:I15"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="A3:P3"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="H7:H8"/>
+  </mergeCells>
+  <pageMargins left="0" right="0" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
+  <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:Q18"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5"/>
+  <cols>
+    <col min="1" max="1" width="3.453125" customWidth="1"/>
+    <col min="2" max="2" width="17.90625" customWidth="1"/>
+    <col min="3" max="3" width="13.54296875" customWidth="1"/>
+    <col min="4" max="4" width="10.6328125" customWidth="1"/>
+    <col min="5" max="5" width="6" customWidth="1"/>
+    <col min="6" max="6" width="8.54296875" customWidth="1"/>
+    <col min="7" max="7" width="11.90625" customWidth="1"/>
+    <col min="8" max="8" width="5.6328125" customWidth="1"/>
+    <col min="9" max="9" width="6.90625" customWidth="1"/>
+    <col min="10" max="10" width="10" customWidth="1"/>
+    <col min="11" max="11" width="8.08984375" customWidth="1"/>
+    <col min="12" max="12" width="11.08984375" customWidth="1"/>
+    <col min="13" max="13" width="11.36328125" customWidth="1"/>
+    <col min="14" max="14" width="8.453125" customWidth="1"/>
+    <col min="15" max="15" width="9.36328125" customWidth="1"/>
+    <col min="16" max="16" width="11.6328125" customWidth="1"/>
+    <col min="19" max="19" width="12.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:17" ht="27" customHeight="1">
+      <c r="B2" s="7"/>
+    </row>
+    <row r="3" spans="1:17" ht="20">
+      <c r="A3" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="47"/>
+      <c r="N3" s="47"/>
+      <c r="O3" s="47"/>
+      <c r="P3" s="47"/>
+    </row>
+    <row r="4" spans="1:17" ht="20">
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+    </row>
+    <row r="5" spans="1:17" ht="15.75" customHeight="1"/>
+    <row r="6" spans="1:17" ht="15.75" customHeight="1">
+      <c r="F6">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A7" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="48" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="49" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7" s="48" t="s">
+        <v>53</v>
+      </c>
+      <c r="G7" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="I7" s="48" t="s">
+        <v>42</v>
+      </c>
+      <c r="J7" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="K7" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="L7" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="M7" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="N7" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="O7" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="P7" s="48" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="48.75" customHeight="1">
+      <c r="A8" s="48"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="48"/>
+      <c r="I8" s="48"/>
+      <c r="J8" s="48"/>
+      <c r="K8" s="48"/>
+      <c r="L8" s="48"/>
+      <c r="M8" s="48"/>
+      <c r="N8" s="48"/>
+      <c r="O8" s="48"/>
+      <c r="P8" s="48"/>
+    </row>
+    <row r="9" spans="1:17" ht="31.5" customHeight="1">
+      <c r="A9" s="3">
+        <v>1</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="6">
+        <v>2522813188</v>
+      </c>
+      <c r="D9" s="5">
+        <v>4770</v>
+      </c>
+      <c r="E9" s="5">
+        <v>1</v>
+      </c>
+      <c r="F9" s="5">
+        <v>151</v>
+      </c>
+      <c r="G9" s="10">
+        <f>D9/F6*F9</f>
+        <v>4770</v>
+      </c>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="46">
+        <f>G9</f>
+        <v>4770</v>
+      </c>
+      <c r="K9" s="10">
+        <v>2000</v>
+      </c>
+      <c r="L9" s="5">
+        <f>ROUND((G9)*18/100,2)</f>
+        <v>858.6</v>
+      </c>
+      <c r="M9" s="5">
+        <f>G9*0.015</f>
+        <v>71.55</v>
+      </c>
+      <c r="N9" s="5">
+        <f>SUM(L9:M9)</f>
+        <v>930.15</v>
+      </c>
+      <c r="O9" s="5">
+        <f>G9-N9</f>
+        <v>3839.85</v>
+      </c>
+      <c r="P9" s="5">
+        <f>O9-K9</f>
+        <v>1839.85</v>
+      </c>
+      <c r="Q9" s="9"/>
+    </row>
+    <row r="10" spans="1:17" ht="27.75" customHeight="1">
+      <c r="A10" s="3"/>
+      <c r="B10" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="14"/>
+      <c r="D10" s="15">
+        <f>SUM(D9:D9)</f>
+        <v>4770</v>
+      </c>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15">
+        <f>SUM(G9:G9)</f>
+        <v>4770</v>
+      </c>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15">
+        <f t="shared" ref="I10:P10" si="0">SUM(I9:I9)</f>
+        <v>0</v>
+      </c>
+      <c r="J10" s="45"/>
+      <c r="K10" s="15">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+      <c r="L10" s="15">
+        <f t="shared" si="0"/>
+        <v>858.6</v>
+      </c>
+      <c r="M10" s="15">
+        <f t="shared" si="0"/>
+        <v>71.55</v>
+      </c>
+      <c r="N10" s="15">
+        <f t="shared" si="0"/>
+        <v>930.15</v>
+      </c>
+      <c r="O10" s="15">
+        <f t="shared" si="0"/>
+        <v>3839.85</v>
+      </c>
+      <c r="P10" s="15">
+        <f t="shared" si="0"/>
+        <v>1839.85</v>
+      </c>
+      <c r="Q10" s="9"/>
+    </row>
+    <row r="11" spans="1:17" ht="15">
+      <c r="L11" s="11"/>
+      <c r="P11" s="15">
+        <f>P10+K10</f>
+        <v>3839.85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="13" thickBot="1"/>
+    <row r="13" spans="1:17" ht="16" thickBot="1">
+      <c r="B13" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="51"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="12">
+        <v>0.22</v>
+      </c>
+      <c r="K13" s="12"/>
+      <c r="L13" s="26">
+        <f>J9*0.22</f>
+        <v>1049.4000000000001</v>
+      </c>
+      <c r="M13" s="24"/>
+      <c r="N13" s="35">
+        <f>M10+L10+L13</f>
+        <v>1979.5500000000002</v>
+      </c>
+      <c r="P13" s="16"/>
+    </row>
+    <row r="14" spans="1:17" ht="13.5" thickBot="1">
+      <c r="P14" s="16"/>
+    </row>
+    <row r="15" spans="1:17" ht="16" thickBot="1">
+      <c r="B15" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="51"/>
       <c r="J15" s="12">
         <v>0.22</v>
       </c>
@@ -4195,31 +4558,31 @@
       </c>
       <c r="M15" s="24"/>
     </row>
-    <row r="16" spans="1:17" ht="16.2" thickBot="1">
-      <c r="B16" s="48"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="48"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="48"/>
+    <row r="16" spans="1:17" ht="16" thickBot="1">
+      <c r="B16" s="51"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="51"/>
+      <c r="I16" s="51"/>
       <c r="J16" s="12"/>
       <c r="K16" s="12"/>
       <c r="L16" s="25"/>
     </row>
-    <row r="17" spans="2:13" ht="13.8" thickBot="1"/>
-    <row r="18" spans="2:13" ht="16.2" thickBot="1">
-      <c r="B18" s="48" t="s">
+    <row r="17" spans="2:13" ht="13" thickBot="1"/>
+    <row r="18" spans="2:13" ht="16" thickBot="1">
+      <c r="B18" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="48"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="48"/>
-      <c r="G18" s="48"/>
-      <c r="H18" s="48"/>
-      <c r="I18" s="48"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="51"/>
       <c r="L18" s="27">
         <f>M10+L10+L13+L15</f>
         <v>1979.5500000000002</v>
@@ -4228,6 +4591,14 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="B16:I16"/>
+    <mergeCell ref="B13:I13"/>
+    <mergeCell ref="B15:I15"/>
+    <mergeCell ref="F7:F8"/>
     <mergeCell ref="O7:O8"/>
     <mergeCell ref="H7:H8"/>
     <mergeCell ref="L7:L8"/>
@@ -4241,14 +4612,6 @@
     <mergeCell ref="G7:G8"/>
     <mergeCell ref="N7:N8"/>
     <mergeCell ref="M7:M8"/>
-    <mergeCell ref="B18:I18"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="B16:I16"/>
-    <mergeCell ref="B13:I13"/>
-    <mergeCell ref="B15:I15"/>
-    <mergeCell ref="F7:F8"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
@@ -4256,59 +4619,59 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Q18"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="3.44140625" customWidth="1"/>
-    <col min="2" max="2" width="17.88671875" customWidth="1"/>
-    <col min="3" max="3" width="13.5546875" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" customWidth="1"/>
+    <col min="1" max="1" width="3.453125" customWidth="1"/>
+    <col min="2" max="2" width="17.90625" customWidth="1"/>
+    <col min="3" max="3" width="13.54296875" customWidth="1"/>
+    <col min="4" max="4" width="10.6328125" customWidth="1"/>
     <col min="5" max="5" width="6" customWidth="1"/>
-    <col min="6" max="6" width="8.5546875" customWidth="1"/>
-    <col min="7" max="7" width="11.88671875" customWidth="1"/>
-    <col min="8" max="8" width="5.6640625" customWidth="1"/>
-    <col min="9" max="9" width="6.88671875" customWidth="1"/>
+    <col min="6" max="6" width="8.54296875" customWidth="1"/>
+    <col min="7" max="7" width="11.90625" customWidth="1"/>
+    <col min="8" max="8" width="5.6328125" customWidth="1"/>
+    <col min="9" max="9" width="6.90625" customWidth="1"/>
     <col min="10" max="10" width="10" customWidth="1"/>
-    <col min="11" max="11" width="8.109375" customWidth="1"/>
-    <col min="12" max="12" width="11.109375" customWidth="1"/>
-    <col min="13" max="13" width="11.33203125" customWidth="1"/>
-    <col min="14" max="14" width="8.44140625" customWidth="1"/>
-    <col min="15" max="15" width="9.33203125" customWidth="1"/>
-    <col min="16" max="16" width="11.6640625" customWidth="1"/>
-    <col min="19" max="19" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.08984375" customWidth="1"/>
+    <col min="12" max="12" width="11.08984375" customWidth="1"/>
+    <col min="13" max="13" width="11.36328125" customWidth="1"/>
+    <col min="14" max="14" width="8.453125" customWidth="1"/>
+    <col min="15" max="15" width="9.36328125" customWidth="1"/>
+    <col min="16" max="16" width="11.6328125" customWidth="1"/>
+    <col min="19" max="19" width="12.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:17" ht="27" customHeight="1">
       <c r="B2" s="7"/>
     </row>
-    <row r="3" spans="1:17" ht="20.399999999999999">
-      <c r="A3" s="49" t="s">
+    <row r="3" spans="1:17" ht="20">
+      <c r="A3" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="49"/>
-      <c r="M3" s="49"/>
-      <c r="N3" s="49"/>
-      <c r="O3" s="49"/>
-      <c r="P3" s="49"/>
-    </row>
-    <row r="4" spans="1:17" ht="20.399999999999999">
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="47"/>
+      <c r="N3" s="47"/>
+      <c r="O3" s="47"/>
+      <c r="P3" s="47"/>
+    </row>
+    <row r="4" spans="1:17" ht="20">
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
     </row>
@@ -4319,72 +4682,72 @@
       </c>
     </row>
     <row r="7" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A7" s="47" t="s">
+      <c r="A7" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="47" t="s">
+      <c r="B7" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="47" t="s">
+      <c r="C7" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="47" t="s">
+      <c r="D7" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="50" t="s">
+      <c r="E7" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="F7" s="47" t="s">
+      <c r="F7" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="G7" s="47" t="s">
+      <c r="G7" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="47" t="s">
+      <c r="H7" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="I7" s="47" t="s">
+      <c r="I7" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="J7" s="47" t="s">
+      <c r="J7" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="K7" s="47" t="s">
+      <c r="K7" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="L7" s="47" t="s">
+      <c r="L7" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="M7" s="47" t="s">
+      <c r="M7" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="N7" s="47" t="s">
+      <c r="N7" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="O7" s="47" t="s">
+      <c r="O7" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="P7" s="47" t="s">
+      <c r="P7" s="48" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="48.75" customHeight="1">
-      <c r="A8" s="47"/>
-      <c r="B8" s="47"/>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="47"/>
-      <c r="K8" s="47"/>
-      <c r="L8" s="47"/>
-      <c r="M8" s="47"/>
-      <c r="N8" s="47"/>
-      <c r="O8" s="47"/>
-      <c r="P8" s="47"/>
+      <c r="A8" s="48"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="48"/>
+      <c r="I8" s="48"/>
+      <c r="J8" s="48"/>
+      <c r="K8" s="48"/>
+      <c r="L8" s="48"/>
+      <c r="M8" s="48"/>
+      <c r="N8" s="48"/>
+      <c r="O8" s="48"/>
+      <c r="P8" s="48"/>
     </row>
     <row r="9" spans="1:17" ht="31.5" customHeight="1">
       <c r="A9" s="3">
@@ -4488,25 +4851,25 @@
       </c>
       <c r="Q10" s="9"/>
     </row>
-    <row r="11" spans="1:17" ht="15.6">
+    <row r="11" spans="1:17" ht="15">
       <c r="L11" s="11"/>
       <c r="P11" s="15">
         <f>P10+K10</f>
         <v>3839.85</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="13.8" thickBot="1"/>
-    <row r="13" spans="1:17" ht="16.2" thickBot="1">
-      <c r="B13" s="48" t="s">
+    <row r="12" spans="1:17" ht="13" thickBot="1"/>
+    <row r="13" spans="1:17" ht="16" thickBot="1">
+      <c r="B13" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="48"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="48"/>
-      <c r="I13" s="48"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="51"/>
       <c r="J13" s="12">
         <v>0.22</v>
       </c>
@@ -4522,20 +4885,20 @@
       </c>
       <c r="P13" s="16"/>
     </row>
-    <row r="14" spans="1:17" ht="13.8" thickBot="1">
+    <row r="14" spans="1:17" ht="13.5" thickBot="1">
       <c r="P14" s="16"/>
     </row>
-    <row r="15" spans="1:17" ht="16.2" thickBot="1">
-      <c r="B15" s="48" t="s">
+    <row r="15" spans="1:17" ht="16" thickBot="1">
+      <c r="B15" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="48"/>
-      <c r="D15" s="48"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="48"/>
-      <c r="H15" s="48"/>
-      <c r="I15" s="48"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="51"/>
       <c r="J15" s="12">
         <v>0.22</v>
       </c>
@@ -4545,31 +4908,31 @@
       </c>
       <c r="M15" s="24"/>
     </row>
-    <row r="16" spans="1:17" ht="16.2" thickBot="1">
-      <c r="B16" s="48"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="48"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="48"/>
+    <row r="16" spans="1:17" ht="16" thickBot="1">
+      <c r="B16" s="51"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="51"/>
+      <c r="I16" s="51"/>
       <c r="J16" s="12"/>
       <c r="K16" s="12"/>
       <c r="L16" s="25"/>
     </row>
-    <row r="17" spans="2:13" ht="13.8" thickBot="1"/>
-    <row r="18" spans="2:13" ht="16.2" thickBot="1">
-      <c r="B18" s="48" t="s">
+    <row r="17" spans="2:13" ht="13" thickBot="1"/>
+    <row r="18" spans="2:13" ht="16" thickBot="1">
+      <c r="B18" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="48"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="48"/>
-      <c r="G18" s="48"/>
-      <c r="H18" s="48"/>
-      <c r="I18" s="48"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="51"/>
       <c r="L18" s="27">
         <f>M10+L10+L13+L15</f>
         <v>1979.5500000000002</v>
@@ -4578,16 +4941,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B18:I18"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="B16:I16"/>
-    <mergeCell ref="B15:I15"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="B13:I13"/>
-    <mergeCell ref="H7:H8"/>
     <mergeCell ref="N7:N8"/>
     <mergeCell ref="M7:M8"/>
     <mergeCell ref="A3:P3"/>
@@ -4599,6 +4952,16 @@
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="O7:O8"/>
     <mergeCell ref="L7:L8"/>
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="B16:I16"/>
+    <mergeCell ref="B15:I15"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="B13:I13"/>
+    <mergeCell ref="H7:H8"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
@@ -4606,248 +4969,59 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:P18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
-  <sheetData>
-    <row r="3" spans="1:16">
-      <c r="A3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16">
-      <c r="F6">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16">
-      <c r="A7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" t="s">
-        <v>54</v>
-      </c>
-      <c r="F7" t="s">
-        <v>53</v>
-      </c>
-      <c r="G7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" t="s">
-        <v>50</v>
-      </c>
-      <c r="I7" t="s">
-        <v>42</v>
-      </c>
-      <c r="J7" t="s">
-        <v>55</v>
-      </c>
-      <c r="K7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M7" t="s">
-        <v>24</v>
-      </c>
-      <c r="N7" t="s">
-        <v>12</v>
-      </c>
-      <c r="O7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16">
-      <c r="A9">
-        <v>1</v>
-      </c>
-      <c r="B9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9">
-        <v>2522813188</v>
-      </c>
-      <c r="D9">
-        <v>4770</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>168</v>
-      </c>
-      <c r="G9">
-        <v>4770</v>
-      </c>
-      <c r="J9">
-        <v>4770</v>
-      </c>
-      <c r="K9">
-        <v>2000</v>
-      </c>
-      <c r="L9">
-        <v>858.6</v>
-      </c>
-      <c r="M9">
-        <v>71.55</v>
-      </c>
-      <c r="N9">
-        <v>930.15</v>
-      </c>
-      <c r="O9">
-        <v>3839.85</v>
-      </c>
-      <c r="P9">
-        <v>1839.85</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16">
-      <c r="B10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10">
-        <v>4770</v>
-      </c>
-      <c r="G10">
-        <v>4770</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>2000</v>
-      </c>
-      <c r="L10">
-        <v>858.6</v>
-      </c>
-      <c r="M10">
-        <v>71.55</v>
-      </c>
-      <c r="N10">
-        <v>930.15</v>
-      </c>
-      <c r="O10">
-        <v>3839.85</v>
-      </c>
-      <c r="P10">
-        <v>1839.85</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16">
-      <c r="P11">
-        <v>3839.85</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16">
-      <c r="B13" t="s">
-        <v>15</v>
-      </c>
-      <c r="J13">
-        <v>0.22</v>
-      </c>
-      <c r="L13">
-        <v>1049.4000000000001</v>
-      </c>
-      <c r="N13">
-        <v>1979.5500000000002</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16">
-      <c r="B15" t="s">
-        <v>16</v>
-      </c>
-      <c r="J15">
-        <v>0.22</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:12">
-      <c r="B18" t="s">
-        <v>17</v>
-      </c>
-      <c r="L18">
-        <v>1979.5500000000002</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Q18"/>
   <sheetViews>
-    <sheetView topLeftCell="F7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:P3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="3.44140625" customWidth="1"/>
-    <col min="2" max="2" width="17.88671875" customWidth="1"/>
-    <col min="3" max="3" width="13.5546875" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" customWidth="1"/>
+    <col min="1" max="1" width="3.453125" customWidth="1"/>
+    <col min="2" max="2" width="17.90625" customWidth="1"/>
+    <col min="3" max="3" width="13.54296875" customWidth="1"/>
+    <col min="4" max="4" width="10.6328125" customWidth="1"/>
     <col min="5" max="5" width="6" customWidth="1"/>
-    <col min="6" max="6" width="8.5546875" customWidth="1"/>
-    <col min="7" max="7" width="9.88671875" customWidth="1"/>
-    <col min="8" max="8" width="8.109375" customWidth="1"/>
-    <col min="9" max="9" width="10.44140625" customWidth="1"/>
+    <col min="6" max="6" width="8.54296875" customWidth="1"/>
+    <col min="7" max="7" width="9.90625" customWidth="1"/>
+    <col min="8" max="8" width="8.08984375" customWidth="1"/>
+    <col min="9" max="9" width="10.453125" customWidth="1"/>
     <col min="10" max="10" width="10" customWidth="1"/>
-    <col min="11" max="11" width="8.109375" customWidth="1"/>
-    <col min="12" max="12" width="11.109375" customWidth="1"/>
-    <col min="13" max="13" width="11.33203125" customWidth="1"/>
-    <col min="14" max="14" width="8.44140625" customWidth="1"/>
-    <col min="15" max="15" width="9.33203125" customWidth="1"/>
-    <col min="16" max="16" width="11.6640625" customWidth="1"/>
-    <col min="19" max="19" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.08984375" customWidth="1"/>
+    <col min="12" max="12" width="11.08984375" customWidth="1"/>
+    <col min="13" max="13" width="11.36328125" customWidth="1"/>
+    <col min="14" max="14" width="8.453125" customWidth="1"/>
+    <col min="15" max="15" width="9.36328125" customWidth="1"/>
+    <col min="16" max="16" width="11.6328125" customWidth="1"/>
+    <col min="19" max="19" width="12.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:17" ht="27" customHeight="1">
       <c r="B2" s="7"/>
     </row>
-    <row r="3" spans="1:17" ht="20.399999999999999">
-      <c r="A3" s="49" t="s">
-        <v>75</v>
-      </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="49"/>
-      <c r="M3" s="49"/>
-      <c r="N3" s="49"/>
-      <c r="O3" s="49"/>
-      <c r="P3" s="49"/>
-    </row>
-    <row r="4" spans="1:17" ht="20.399999999999999">
+    <row r="3" spans="1:17" ht="20">
+      <c r="A3" s="47" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="47"/>
+      <c r="N3" s="47"/>
+      <c r="O3" s="47"/>
+      <c r="P3" s="47"/>
+    </row>
+    <row r="4" spans="1:17" ht="20">
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
     </row>
@@ -4861,72 +5035,72 @@
       </c>
     </row>
     <row r="7" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A7" s="47" t="s">
+      <c r="A7" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="47" t="s">
+      <c r="B7" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="47" t="s">
+      <c r="C7" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="47" t="s">
+      <c r="D7" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="50" t="s">
+      <c r="E7" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="F7" s="47" t="s">
+      <c r="F7" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="G7" s="47" t="s">
+      <c r="G7" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="47" t="s">
+      <c r="H7" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="I7" s="47" t="s">
+      <c r="I7" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="J7" s="47" t="s">
+      <c r="J7" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="K7" s="47" t="s">
+      <c r="K7" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="L7" s="47" t="s">
+      <c r="L7" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="M7" s="47" t="s">
+      <c r="M7" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="N7" s="47" t="s">
+      <c r="N7" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="O7" s="47" t="s">
+      <c r="O7" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="P7" s="47" t="s">
+      <c r="P7" s="48" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="48.75" customHeight="1">
-      <c r="A8" s="47"/>
-      <c r="B8" s="47"/>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="47"/>
-      <c r="K8" s="47"/>
-      <c r="L8" s="47"/>
-      <c r="M8" s="47"/>
-      <c r="N8" s="47"/>
-      <c r="O8" s="47"/>
-      <c r="P8" s="47"/>
+      <c r="A8" s="48"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="48"/>
+      <c r="I8" s="48"/>
+      <c r="J8" s="48"/>
+      <c r="K8" s="48"/>
+      <c r="L8" s="48"/>
+      <c r="M8" s="48"/>
+      <c r="N8" s="48"/>
+      <c r="O8" s="48"/>
+      <c r="P8" s="48"/>
     </row>
     <row r="9" spans="1:17" ht="31.5" customHeight="1">
       <c r="A9" s="3">
@@ -5040,25 +5214,25 @@
       </c>
       <c r="Q10" s="9"/>
     </row>
-    <row r="11" spans="1:17" ht="15.6">
+    <row r="11" spans="1:17" ht="15">
       <c r="L11" s="11"/>
       <c r="P11" s="15">
         <f>P10+K10</f>
         <v>4943.4166500000001</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="13.8" thickBot="1"/>
-    <row r="13" spans="1:17" ht="16.2" thickBot="1">
-      <c r="B13" s="48" t="s">
+    <row r="12" spans="1:17" ht="13" thickBot="1"/>
+    <row r="13" spans="1:17" ht="16" thickBot="1">
+      <c r="B13" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="48"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="48"/>
-      <c r="I13" s="48"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="51"/>
       <c r="J13" s="12">
         <v>0.22</v>
       </c>
@@ -5074,20 +5248,20 @@
       </c>
       <c r="P13" s="16"/>
     </row>
-    <row r="14" spans="1:17" ht="13.8" thickBot="1">
+    <row r="14" spans="1:17" ht="13.5" thickBot="1">
       <c r="P14" s="16"/>
     </row>
-    <row r="15" spans="1:17" ht="16.2" thickBot="1">
-      <c r="B15" s="48" t="s">
+    <row r="15" spans="1:17" ht="16" thickBot="1">
+      <c r="B15" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="48"/>
-      <c r="D15" s="48"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="48"/>
-      <c r="H15" s="48"/>
-      <c r="I15" s="48"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="51"/>
       <c r="J15" s="12">
         <v>0.22</v>
       </c>
@@ -5097,31 +5271,31 @@
       </c>
       <c r="M15" s="24"/>
     </row>
-    <row r="16" spans="1:17" ht="16.2" thickBot="1">
-      <c r="B16" s="48"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="48"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="48"/>
+    <row r="16" spans="1:17" ht="16" thickBot="1">
+      <c r="B16" s="51"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="51"/>
+      <c r="I16" s="51"/>
       <c r="J16" s="12"/>
       <c r="K16" s="12"/>
       <c r="L16" s="25"/>
     </row>
-    <row r="17" spans="2:13" ht="13.8" thickBot="1"/>
-    <row r="18" spans="2:13" ht="16.2" thickBot="1">
-      <c r="B18" s="48" t="s">
+    <row r="17" spans="2:13" ht="13" thickBot="1"/>
+    <row r="18" spans="2:13" ht="16" thickBot="1">
+      <c r="B18" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="48"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="48"/>
-      <c r="G18" s="48"/>
-      <c r="H18" s="48"/>
-      <c r="I18" s="48"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="51"/>
       <c r="L18" s="27">
         <f>M10+L10+L13+L15</f>
         <v>3868.4691499999999</v>
@@ -5130,14 +5304,11 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B18:I18"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="L7:L8"/>
     <mergeCell ref="B13:I13"/>
     <mergeCell ref="B15:I15"/>
     <mergeCell ref="B16:I16"/>
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="J7:J8"/>
     <mergeCell ref="A3:P3"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
@@ -5147,10 +5318,13 @@
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="G7:G8"/>
     <mergeCell ref="H7:H8"/>
-    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="I7:I8"/>
     <mergeCell ref="P7:P8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="L7:L8"/>
     <mergeCell ref="M7:M8"/>
     <mergeCell ref="N7:N8"/>
+    <mergeCell ref="O7:O8"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
@@ -5160,117 +5334,306 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:P18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5"/>
+  <sheetData>
+    <row r="3" spans="1:16">
+      <c r="A3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="F6">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" t="s">
+        <v>50</v>
+      </c>
+      <c r="I7" t="s">
+        <v>42</v>
+      </c>
+      <c r="J7" t="s">
+        <v>55</v>
+      </c>
+      <c r="K7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L7" t="s">
+        <v>14</v>
+      </c>
+      <c r="M7" t="s">
+        <v>24</v>
+      </c>
+      <c r="N7" t="s">
+        <v>12</v>
+      </c>
+      <c r="O7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9">
+        <v>2522813188</v>
+      </c>
+      <c r="D9">
+        <v>4770</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>168</v>
+      </c>
+      <c r="G9">
+        <v>4770</v>
+      </c>
+      <c r="J9">
+        <v>4770</v>
+      </c>
+      <c r="K9">
+        <v>2000</v>
+      </c>
+      <c r="L9">
+        <v>858.6</v>
+      </c>
+      <c r="M9">
+        <v>71.55</v>
+      </c>
+      <c r="N9">
+        <v>930.15</v>
+      </c>
+      <c r="O9">
+        <v>3839.85</v>
+      </c>
+      <c r="P9">
+        <v>1839.85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>4770</v>
+      </c>
+      <c r="G10">
+        <v>4770</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>2000</v>
+      </c>
+      <c r="L10">
+        <v>858.6</v>
+      </c>
+      <c r="M10">
+        <v>71.55</v>
+      </c>
+      <c r="N10">
+        <v>930.15</v>
+      </c>
+      <c r="O10">
+        <v>3839.85</v>
+      </c>
+      <c r="P10">
+        <v>1839.85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="P11">
+        <v>3839.85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="J13">
+        <v>0.22</v>
+      </c>
+      <c r="L13">
+        <v>1049.4000000000001</v>
+      </c>
+      <c r="N13">
+        <v>1979.5500000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="J15">
+        <v>0.22</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12">
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+      <c r="L18">
+        <v>1979.5500000000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:O18"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="3.44140625" customWidth="1"/>
-    <col min="2" max="2" width="19.6640625" customWidth="1"/>
-    <col min="3" max="3" width="13.5546875" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" customWidth="1"/>
-    <col min="5" max="5" width="5.44140625" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" customWidth="1"/>
-    <col min="7" max="7" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.453125" customWidth="1"/>
+    <col min="2" max="2" width="19.6328125" customWidth="1"/>
+    <col min="3" max="3" width="13.54296875" customWidth="1"/>
+    <col min="4" max="4" width="10.6328125" customWidth="1"/>
+    <col min="5" max="5" width="5.453125" customWidth="1"/>
+    <col min="6" max="6" width="9.08984375" customWidth="1"/>
+    <col min="7" max="7" width="9.90625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" customWidth="1"/>
-    <col min="9" max="9" width="8.109375" customWidth="1"/>
-    <col min="10" max="10" width="11.109375" customWidth="1"/>
-    <col min="11" max="11" width="11.33203125" customWidth="1"/>
-    <col min="12" max="12" width="8.44140625" customWidth="1"/>
-    <col min="13" max="13" width="9.33203125" customWidth="1"/>
-    <col min="14" max="14" width="11.6640625" customWidth="1"/>
-    <col min="17" max="17" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.08984375" customWidth="1"/>
+    <col min="10" max="10" width="11.08984375" customWidth="1"/>
+    <col min="11" max="11" width="11.36328125" customWidth="1"/>
+    <col min="12" max="12" width="8.453125" customWidth="1"/>
+    <col min="13" max="13" width="9.36328125" customWidth="1"/>
+    <col min="14" max="14" width="11.6328125" customWidth="1"/>
+    <col min="17" max="17" width="12.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:15" ht="27" customHeight="1">
       <c r="B2" s="7"/>
     </row>
-    <row r="3" spans="1:15" ht="20.399999999999999">
-      <c r="A3" s="49" t="s">
+    <row r="3" spans="1:15" ht="20">
+      <c r="A3" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="49"/>
-      <c r="M3" s="49"/>
-      <c r="N3" s="49"/>
-    </row>
-    <row r="4" spans="1:15" ht="20.399999999999999">
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="47"/>
+      <c r="N3" s="47"/>
+    </row>
+    <row r="4" spans="1:15" ht="20">
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" customHeight="1"/>
     <row r="6" spans="1:15" ht="15.75" customHeight="1"/>
     <row r="7" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A7" s="47" t="s">
+      <c r="A7" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="47" t="s">
+      <c r="B7" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="47" t="s">
+      <c r="C7" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="47" t="s">
+      <c r="D7" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="47" t="s">
+      <c r="E7" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="47" t="s">
+      <c r="F7" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="G7" s="47" t="s">
+      <c r="G7" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="H7" s="47" t="s">
+      <c r="H7" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="47" t="s">
+      <c r="I7" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="J7" s="47" t="s">
+      <c r="J7" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="K7" s="47" t="s">
+      <c r="K7" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="L7" s="47" t="s">
+      <c r="L7" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="M7" s="47" t="s">
+      <c r="M7" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="N7" s="47" t="s">
+      <c r="N7" s="48" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="48.75" customHeight="1">
-      <c r="A8" s="47"/>
-      <c r="B8" s="47"/>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="47"/>
-      <c r="K8" s="47"/>
-      <c r="L8" s="47"/>
-      <c r="M8" s="47"/>
-      <c r="N8" s="47"/>
+      <c r="A8" s="48"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="48"/>
+      <c r="I8" s="48"/>
+      <c r="J8" s="48"/>
+      <c r="K8" s="48"/>
+      <c r="L8" s="48"/>
+      <c r="M8" s="48"/>
+      <c r="N8" s="48"/>
     </row>
     <row r="9" spans="1:15" ht="31.5" customHeight="1">
       <c r="A9" s="3">
@@ -5365,23 +5728,23 @@
       </c>
       <c r="O10" s="9"/>
     </row>
-    <row r="11" spans="1:15" ht="15.6">
+    <row r="11" spans="1:15" ht="15">
       <c r="J11" s="11"/>
       <c r="N11" s="15">
         <f>N10+I10</f>
         <v>3839.85</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="13.8" thickBot="1"/>
-    <row r="13" spans="1:15" ht="16.2" thickBot="1">
-      <c r="B13" s="48" t="s">
+    <row r="12" spans="1:15" ht="13" thickBot="1"/>
+    <row r="13" spans="1:15" ht="16" thickBot="1">
+      <c r="B13" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="48"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="48"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
       <c r="H13" s="12">
         <v>0.22</v>
       </c>
@@ -5397,18 +5760,18 @@
       </c>
       <c r="N13" s="16"/>
     </row>
-    <row r="14" spans="1:15" ht="13.8" thickBot="1">
+    <row r="14" spans="1:15" ht="13.5" thickBot="1">
       <c r="N14" s="16"/>
     </row>
-    <row r="15" spans="1:15" ht="16.2" thickBot="1">
-      <c r="B15" s="48" t="s">
+    <row r="15" spans="1:15" ht="16" thickBot="1">
+      <c r="B15" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="48"/>
-      <c r="D15" s="48"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="48"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
       <c r="H15" s="12">
         <v>0.22</v>
       </c>
@@ -5418,27 +5781,27 @@
       </c>
       <c r="K15" s="24"/>
     </row>
-    <row r="16" spans="1:15" ht="16.2" thickBot="1">
-      <c r="B16" s="48"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="48"/>
+    <row r="16" spans="1:15" ht="16" thickBot="1">
+      <c r="B16" s="51"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="51"/>
       <c r="H16" s="12"/>
       <c r="I16" s="12"/>
       <c r="J16" s="25"/>
     </row>
-    <row r="17" spans="2:11" ht="13.8" thickBot="1"/>
-    <row r="18" spans="2:11" ht="16.2" thickBot="1">
-      <c r="B18" s="48" t="s">
+    <row r="17" spans="2:11" ht="13" thickBot="1"/>
+    <row r="18" spans="2:11" ht="16" thickBot="1">
+      <c r="B18" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="48"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="48"/>
-      <c r="G18" s="48"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="51"/>
       <c r="J18" s="27">
         <f>K10+J10+J13+J15</f>
         <v>3018.61</v>
@@ -5447,6 +5810,11 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
     <mergeCell ref="N7:N8"/>
     <mergeCell ref="B13:G13"/>
     <mergeCell ref="A3:N3"/>
@@ -5461,11 +5829,6 @@
     <mergeCell ref="H7:H8"/>
     <mergeCell ref="I7:I8"/>
     <mergeCell ref="M7:M8"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="B18:G18"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" scale="95" orientation="landscape" r:id="rId1"/>
@@ -5473,7 +5836,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:O18"/>
   <sheetViews>
@@ -5481,111 +5844,111 @@
       <selection activeCell="A3" sqref="A3:N3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="3.44140625" customWidth="1"/>
-    <col min="2" max="2" width="19.6640625" customWidth="1"/>
-    <col min="3" max="3" width="13.5546875" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" customWidth="1"/>
-    <col min="5" max="5" width="5.44140625" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" customWidth="1"/>
-    <col min="7" max="7" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.453125" customWidth="1"/>
+    <col min="2" max="2" width="19.6328125" customWidth="1"/>
+    <col min="3" max="3" width="13.54296875" customWidth="1"/>
+    <col min="4" max="4" width="10.6328125" customWidth="1"/>
+    <col min="5" max="5" width="5.453125" customWidth="1"/>
+    <col min="6" max="6" width="9.08984375" customWidth="1"/>
+    <col min="7" max="7" width="9.90625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" customWidth="1"/>
-    <col min="9" max="9" width="8.109375" customWidth="1"/>
-    <col min="10" max="10" width="11.109375" customWidth="1"/>
-    <col min="11" max="11" width="11.33203125" customWidth="1"/>
-    <col min="12" max="12" width="8.44140625" customWidth="1"/>
-    <col min="13" max="13" width="9.33203125" customWidth="1"/>
-    <col min="14" max="14" width="11.6640625" customWidth="1"/>
-    <col min="17" max="17" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.08984375" customWidth="1"/>
+    <col min="10" max="10" width="11.08984375" customWidth="1"/>
+    <col min="11" max="11" width="11.36328125" customWidth="1"/>
+    <col min="12" max="12" width="8.453125" customWidth="1"/>
+    <col min="13" max="13" width="9.36328125" customWidth="1"/>
+    <col min="14" max="14" width="11.6328125" customWidth="1"/>
+    <col min="17" max="17" width="12.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:15" ht="27" customHeight="1">
       <c r="B2" s="7"/>
     </row>
-    <row r="3" spans="1:15" ht="20.399999999999999">
-      <c r="A3" s="49" t="s">
+    <row r="3" spans="1:15" ht="20">
+      <c r="A3" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="49"/>
-      <c r="M3" s="49"/>
-      <c r="N3" s="49"/>
-    </row>
-    <row r="4" spans="1:15" ht="20.399999999999999">
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="47"/>
+      <c r="N3" s="47"/>
+    </row>
+    <row r="4" spans="1:15" ht="20">
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" customHeight="1"/>
     <row r="6" spans="1:15" ht="15.75" customHeight="1"/>
     <row r="7" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A7" s="47" t="s">
+      <c r="A7" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="47" t="s">
+      <c r="B7" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="47" t="s">
+      <c r="C7" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="47" t="s">
+      <c r="D7" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="47" t="s">
+      <c r="E7" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="47" t="s">
+      <c r="F7" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="G7" s="47" t="s">
+      <c r="G7" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="H7" s="47" t="s">
+      <c r="H7" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="47" t="s">
+      <c r="I7" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="J7" s="47" t="s">
+      <c r="J7" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="K7" s="47" t="s">
+      <c r="K7" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="L7" s="47" t="s">
+      <c r="L7" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="M7" s="47" t="s">
+      <c r="M7" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="N7" s="47" t="s">
+      <c r="N7" s="48" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="48.75" customHeight="1">
-      <c r="A8" s="47"/>
-      <c r="B8" s="47"/>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="47"/>
-      <c r="K8" s="47"/>
-      <c r="L8" s="47"/>
-      <c r="M8" s="47"/>
-      <c r="N8" s="47"/>
+      <c r="A8" s="48"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="48"/>
+      <c r="I8" s="48"/>
+      <c r="J8" s="48"/>
+      <c r="K8" s="48"/>
+      <c r="L8" s="48"/>
+      <c r="M8" s="48"/>
+      <c r="N8" s="48"/>
     </row>
     <row r="9" spans="1:15" ht="31.5" customHeight="1">
       <c r="A9" s="3">
@@ -5680,23 +6043,23 @@
       </c>
       <c r="O10" s="9"/>
     </row>
-    <row r="11" spans="1:15" ht="15.6">
+    <row r="11" spans="1:15" ht="15">
       <c r="J11" s="11"/>
       <c r="N11" s="15">
         <f>N10+I10</f>
         <v>3839.85</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="13.8" thickBot="1"/>
-    <row r="13" spans="1:15" ht="16.2" thickBot="1">
-      <c r="B13" s="48" t="s">
+    <row r="12" spans="1:15" ht="13" thickBot="1"/>
+    <row r="13" spans="1:15" ht="16" thickBot="1">
+      <c r="B13" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="48"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="48"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
       <c r="H13" s="12">
         <v>0.22</v>
       </c>
@@ -5712,18 +6075,18 @@
       </c>
       <c r="N13" s="16"/>
     </row>
-    <row r="14" spans="1:15" ht="13.8" thickBot="1">
+    <row r="14" spans="1:15" ht="13.5" thickBot="1">
       <c r="N14" s="16"/>
     </row>
-    <row r="15" spans="1:15" ht="16.2" thickBot="1">
-      <c r="B15" s="48" t="s">
+    <row r="15" spans="1:15" ht="16" thickBot="1">
+      <c r="B15" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="48"/>
-      <c r="D15" s="48"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="48"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
       <c r="H15" s="12">
         <v>0.22</v>
       </c>
@@ -5733,27 +6096,27 @@
       </c>
       <c r="K15" s="24"/>
     </row>
-    <row r="16" spans="1:15" ht="16.2" thickBot="1">
-      <c r="B16" s="48"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="48"/>
+    <row r="16" spans="1:15" ht="16" thickBot="1">
+      <c r="B16" s="51"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="51"/>
       <c r="H16" s="12"/>
       <c r="I16" s="12"/>
       <c r="J16" s="25"/>
     </row>
-    <row r="17" spans="2:11" ht="13.8" thickBot="1"/>
-    <row r="18" spans="2:11" ht="16.2" thickBot="1">
-      <c r="B18" s="48" t="s">
+    <row r="17" spans="2:11" ht="13" thickBot="1"/>
+    <row r="18" spans="2:11" ht="16" thickBot="1">
+      <c r="B18" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="48"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="48"/>
-      <c r="G18" s="48"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="51"/>
       <c r="J18" s="27">
         <f>K10+J10+J13+J15</f>
         <v>3018.61</v>
@@ -5762,6 +6125,11 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
     <mergeCell ref="N7:N8"/>
     <mergeCell ref="B13:G13"/>
     <mergeCell ref="A3:N3"/>
@@ -5776,11 +6144,6 @@
     <mergeCell ref="H7:H8"/>
     <mergeCell ref="I7:I8"/>
     <mergeCell ref="M7:M8"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="B18:G18"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" scale="95" orientation="landscape" r:id="rId1"/>
@@ -5788,7 +6151,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист4"/>
   <dimension ref="A2:J33"/>
@@ -5797,20 +6160,20 @@
       <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="2" width="9.109375" style="9"/>
-    <col min="3" max="3" width="5.33203125" style="9" customWidth="1"/>
-    <col min="4" max="4" width="21.44140625" style="9" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" style="9" customWidth="1"/>
+    <col min="1" max="2" width="9.08984375" style="9"/>
+    <col min="3" max="3" width="5.36328125" style="9" customWidth="1"/>
+    <col min="4" max="4" width="21.453125" style="9" customWidth="1"/>
+    <col min="5" max="5" width="10.36328125" style="9" customWidth="1"/>
     <col min="6" max="6" width="18" style="9" customWidth="1"/>
-    <col min="7" max="16384" width="9.109375" style="9"/>
+    <col min="7" max="16384" width="9.08984375" style="9"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" ht="17.399999999999999">
+    <row r="2" spans="1:10" ht="17.5">
       <c r="C2" s="17"/>
     </row>
-    <row r="3" spans="1:10" ht="21">
+    <row r="3" spans="1:10" ht="20.5">
       <c r="A3" s="54" t="s">
         <v>20</v>
       </c>
@@ -5822,47 +6185,47 @@
       <c r="G3" s="18"/>
       <c r="H3" s="18"/>
     </row>
-    <row r="4" spans="1:10" ht="15.6">
+    <row r="4" spans="1:10" ht="15.5">
       <c r="C4" s="19"/>
     </row>
-    <row r="5" spans="1:10" ht="22.8">
-      <c r="A5" s="55" t="s">
+    <row r="5" spans="1:10" ht="22.5">
+      <c r="A5" s="56" t="s">
         <v>77</v>
       </c>
-      <c r="B5" s="55"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
       <c r="H5" s="20"/>
       <c r="I5" s="20"/>
       <c r="J5" s="20"/>
     </row>
-    <row r="6" spans="1:10" ht="17.399999999999999">
-      <c r="A6" s="56" t="s">
+    <row r="6" spans="1:10" ht="17.5">
+      <c r="A6" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="56"/>
-      <c r="C6" s="56"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="56"/>
+      <c r="B6" s="57"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="57"/>
       <c r="H6" s="21"/>
       <c r="I6" s="21"/>
       <c r="J6" s="21"/>
     </row>
-    <row r="7" spans="1:10" ht="17.399999999999999">
-      <c r="A7" s="56" t="s">
+    <row r="7" spans="1:10" ht="17.5">
+      <c r="A7" s="57" t="s">
         <v>78</v>
       </c>
-      <c r="B7" s="56"/>
-      <c r="C7" s="56"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56"/>
+      <c r="B7" s="57"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57"/>
       <c r="H7" s="21"/>
       <c r="I7" s="21"/>
       <c r="J7" s="21"/>
@@ -5874,23 +6237,23 @@
       <c r="C9" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="D9" s="57" t="s">
+      <c r="D9" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="57" t="s">
+      <c r="E9" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="F9" s="57" t="s">
+      <c r="F9" s="52" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="17.399999999999999" hidden="1">
+    <row r="10" spans="1:10" ht="17.5" hidden="1">
       <c r="C10" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="57"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="57"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="52"/>
+      <c r="F10" s="52"/>
     </row>
     <row r="11" spans="1:10" ht="31.5" customHeight="1">
       <c r="C11" s="1">
@@ -5904,7 +6267,7 @@
       </c>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:10" ht="31.2">
+    <row r="12" spans="1:10" ht="30">
       <c r="C12" s="3"/>
       <c r="D12" s="14" t="s">
         <v>8</v>
@@ -5915,44 +6278,44 @@
       </c>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:10" ht="17.399999999999999">
+    <row r="13" spans="1:10" ht="17.5">
       <c r="C13" s="21"/>
     </row>
     <row r="14" spans="1:10" ht="36.75" customHeight="1">
-      <c r="A14" s="52"/>
-      <c r="B14" s="52"/>
-      <c r="C14" s="52"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="52"/>
+      <c r="A14" s="53"/>
+      <c r="B14" s="53"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="53"/>
       <c r="H14" s="17"/>
     </row>
     <row r="15" spans="1:10" ht="14.25" customHeight="1">
       <c r="C15" s="19"/>
     </row>
     <row r="16" spans="1:10" ht="18">
-      <c r="A16" s="53" t="s">
+      <c r="A16" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="53"/>
-      <c r="C16" s="53"/>
-      <c r="D16" s="53"/>
+      <c r="B16" s="55"/>
+      <c r="C16" s="55"/>
+      <c r="D16" s="55"/>
     </row>
     <row r="17" spans="1:10" ht="18">
-      <c r="A17" s="53"/>
-      <c r="B17" s="53"/>
-      <c r="D17" s="53"/>
-      <c r="E17" s="53"/>
-      <c r="F17" s="53"/>
-      <c r="G17" s="53"/>
-      <c r="H17" s="53"/>
+      <c r="A17" s="55"/>
+      <c r="B17" s="55"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="55"/>
+      <c r="G17" s="55"/>
+      <c r="H17" s="55"/>
     </row>
     <row r="18" spans="1:10" ht="44.25" customHeight="1"/>
-    <row r="19" spans="1:10" ht="17.399999999999999">
+    <row r="19" spans="1:10" ht="17.5">
       <c r="C19" s="17"/>
     </row>
-    <row r="20" spans="1:10" ht="21">
+    <row r="20" spans="1:10" ht="20.5">
       <c r="A20" s="54" t="s">
         <v>20</v>
       </c>
@@ -5964,48 +6327,48 @@
       <c r="G20" s="18"/>
       <c r="H20" s="18"/>
     </row>
-    <row r="21" spans="1:10" ht="15.6">
+    <row r="21" spans="1:10" ht="15.5">
       <c r="C21" s="19"/>
     </row>
-    <row r="22" spans="1:10" ht="22.8">
-      <c r="A22" s="55" t="str">
+    <row r="22" spans="1:10" ht="22.5">
+      <c r="A22" s="56" t="str">
         <f>A5</f>
         <v xml:space="preserve">  СЕРПЕНЬ 2021</v>
       </c>
-      <c r="B22" s="55"/>
-      <c r="C22" s="55"/>
-      <c r="D22" s="55"/>
-      <c r="E22" s="55"/>
-      <c r="F22" s="55"/>
-      <c r="G22" s="55"/>
+      <c r="B22" s="56"/>
+      <c r="C22" s="56"/>
+      <c r="D22" s="56"/>
+      <c r="E22" s="56"/>
+      <c r="F22" s="56"/>
+      <c r="G22" s="56"/>
       <c r="H22" s="20"/>
       <c r="I22" s="20"/>
       <c r="J22" s="20"/>
     </row>
-    <row r="23" spans="1:10" ht="17.399999999999999">
-      <c r="A23" s="56" t="s">
+    <row r="23" spans="1:10" ht="17.5">
+      <c r="A23" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="B23" s="56"/>
-      <c r="C23" s="56"/>
-      <c r="D23" s="56"/>
-      <c r="E23" s="56"/>
-      <c r="F23" s="56"/>
-      <c r="G23" s="56"/>
+      <c r="B23" s="57"/>
+      <c r="C23" s="57"/>
+      <c r="D23" s="57"/>
+      <c r="E23" s="57"/>
+      <c r="F23" s="57"/>
+      <c r="G23" s="57"/>
       <c r="H23" s="21"/>
       <c r="I23" s="21"/>
       <c r="J23" s="21"/>
     </row>
-    <row r="24" spans="1:10" ht="17.399999999999999">
-      <c r="A24" s="56" t="s">
+    <row r="24" spans="1:10" ht="17.5">
+      <c r="A24" s="57" t="s">
         <v>79</v>
       </c>
-      <c r="B24" s="56"/>
-      <c r="C24" s="56"/>
-      <c r="D24" s="56"/>
-      <c r="E24" s="56"/>
-      <c r="F24" s="56"/>
-      <c r="G24" s="56"/>
+      <c r="B24" s="57"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="57"/>
+      <c r="E24" s="57"/>
+      <c r="F24" s="57"/>
+      <c r="G24" s="57"/>
       <c r="H24" s="21"/>
       <c r="I24" s="21"/>
       <c r="J24" s="21"/>
@@ -6017,23 +6380,23 @@
       <c r="C26" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="D26" s="57" t="s">
+      <c r="D26" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="E26" s="57" t="s">
+      <c r="E26" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="F26" s="57" t="s">
+      <c r="F26" s="52" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="17.399999999999999" hidden="1">
+    <row r="27" spans="1:10" ht="17.5" hidden="1">
       <c r="C27" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="D27" s="57"/>
-      <c r="E27" s="57"/>
-      <c r="F27" s="57"/>
+      <c r="D27" s="52"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="52"/>
     </row>
     <row r="28" spans="1:10" ht="31.5" customHeight="1">
       <c r="C28" s="1">
@@ -6048,7 +6411,7 @@
       </c>
       <c r="F28" s="3"/>
     </row>
-    <row r="29" spans="1:10" ht="31.2">
+    <row r="29" spans="1:10" ht="30">
       <c r="C29" s="3"/>
       <c r="D29" s="14" t="s">
         <v>8</v>
@@ -6059,32 +6422,42 @@
       </c>
       <c r="F29" s="3"/>
     </row>
-    <row r="30" spans="1:10" ht="17.399999999999999">
+    <row r="30" spans="1:10" ht="17.5">
       <c r="C30" s="21"/>
     </row>
     <row r="31" spans="1:10" ht="36.75" customHeight="1">
-      <c r="A31" s="52"/>
-      <c r="B31" s="52"/>
-      <c r="C31" s="52"/>
-      <c r="D31" s="52"/>
-      <c r="E31" s="52"/>
-      <c r="F31" s="52"/>
-      <c r="G31" s="52"/>
+      <c r="A31" s="53"/>
+      <c r="B31" s="53"/>
+      <c r="C31" s="53"/>
+      <c r="D31" s="53"/>
+      <c r="E31" s="53"/>
+      <c r="F31" s="53"/>
+      <c r="G31" s="53"/>
       <c r="H31" s="17"/>
     </row>
     <row r="32" spans="1:10" ht="14.25" customHeight="1">
       <c r="C32" s="19"/>
     </row>
     <row r="33" spans="1:4" ht="18">
-      <c r="A33" s="53" t="s">
+      <c r="A33" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="B33" s="53"/>
-      <c r="C33" s="53"/>
-      <c r="D33" s="53"/>
+      <c r="B33" s="55"/>
+      <c r="C33" s="55"/>
+      <c r="D33" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A31:G31"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A22:G22"/>
+    <mergeCell ref="A23:G23"/>
+    <mergeCell ref="A24:G24"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
     <mergeCell ref="E9:E10"/>
     <mergeCell ref="F9:F10"/>
     <mergeCell ref="A14:G14"/>
@@ -6095,16 +6468,6 @@
     <mergeCell ref="A7:G7"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="D9:D10"/>
-    <mergeCell ref="A31:G31"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A22:G22"/>
-    <mergeCell ref="A23:G23"/>
-    <mergeCell ref="A24:G24"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.78740157480314965" right="0" top="0" bottom="0" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -6113,7 +6476,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I21"/>
   <sheetViews>
@@ -6121,16 +6484,16 @@
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="15.5"/>
   <cols>
     <col min="1" max="1" width="12" style="29" customWidth="1"/>
-    <col min="2" max="2" width="15.5546875" style="29" customWidth="1"/>
+    <col min="2" max="2" width="15.54296875" style="29" customWidth="1"/>
     <col min="3" max="3" width="15" style="29" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" style="29" customWidth="1"/>
-    <col min="5" max="5" width="9.109375" style="29" customWidth="1"/>
+    <col min="4" max="4" width="12.36328125" style="29" customWidth="1"/>
+    <col min="5" max="5" width="9.08984375" style="29" customWidth="1"/>
     <col min="6" max="6" width="12" style="29" customWidth="1"/>
-    <col min="7" max="7" width="10.109375" style="29" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.109375" style="29"/>
+    <col min="7" max="7" width="10.08984375" style="29" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.08984375" style="29"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21.75" customHeight="1">
@@ -6483,10 +6846,10 @@
       </c>
       <c r="G19" s="33"/>
     </row>
-    <row r="20" spans="1:7" ht="15.6" thickBot="1">
+    <row r="20" spans="1:7" ht="16" thickBot="1">
       <c r="F20" s="33"/>
     </row>
-    <row r="21" spans="1:7" ht="15.6" thickBot="1">
+    <row r="21" spans="1:7" ht="16" thickBot="1">
       <c r="A21" s="36"/>
       <c r="B21" s="37"/>
       <c r="C21" s="37"/>
@@ -6502,7 +6865,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I21"/>
   <sheetViews>
@@ -6513,16 +6876,16 @@
       <selection pane="bottomRight" activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="15.5"/>
   <cols>
     <col min="1" max="1" width="12" style="29" customWidth="1"/>
-    <col min="2" max="2" width="15.5546875" style="29" customWidth="1"/>
+    <col min="2" max="2" width="15.54296875" style="29" customWidth="1"/>
     <col min="3" max="3" width="15" style="29" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" style="29" customWidth="1"/>
-    <col min="5" max="5" width="9.109375" style="29" customWidth="1"/>
+    <col min="4" max="4" width="12.36328125" style="29" customWidth="1"/>
+    <col min="5" max="5" width="9.08984375" style="29" customWidth="1"/>
     <col min="6" max="6" width="12" style="29" customWidth="1"/>
-    <col min="7" max="7" width="10.109375" style="29" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.109375" style="29"/>
+    <col min="7" max="7" width="10.08984375" style="29" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.08984375" style="29"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21.75" customHeight="1">
@@ -6899,8 +7262,8 @@
       </c>
       <c r="G19" s="33"/>
     </row>
-    <row r="20" spans="1:7" ht="15.6" thickBot="1"/>
-    <row r="21" spans="1:7" ht="15.6" thickBot="1">
+    <row r="20" spans="1:7" ht="16" thickBot="1"/>
+    <row r="21" spans="1:7" ht="16" thickBot="1">
       <c r="A21" s="36"/>
       <c r="B21" s="37"/>
       <c r="C21" s="37"/>
@@ -6918,144 +7281,138 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:R18"/>
+  <dimension ref="A2:Q18"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView topLeftCell="F7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="3.44140625" customWidth="1"/>
-    <col min="2" max="2" width="17.88671875" customWidth="1"/>
-    <col min="3" max="3" width="13.5546875" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" customWidth="1"/>
+    <col min="1" max="1" width="3.453125" customWidth="1"/>
+    <col min="2" max="2" width="17.90625" customWidth="1"/>
+    <col min="3" max="3" width="13.54296875" customWidth="1"/>
+    <col min="4" max="4" width="10.6328125" customWidth="1"/>
     <col min="5" max="5" width="6" customWidth="1"/>
-    <col min="6" max="6" width="8.5546875" customWidth="1"/>
-    <col min="7" max="7" width="9.88671875" customWidth="1"/>
-    <col min="8" max="8" width="8" customWidth="1"/>
-    <col min="9" max="9" width="7.6640625" customWidth="1"/>
-    <col min="10" max="10" width="10.44140625" customWidth="1"/>
-    <col min="11" max="11" width="10" customWidth="1"/>
-    <col min="12" max="12" width="8.109375" customWidth="1"/>
-    <col min="13" max="13" width="11.109375" customWidth="1"/>
-    <col min="14" max="14" width="11.33203125" customWidth="1"/>
-    <col min="15" max="15" width="8.44140625" customWidth="1"/>
-    <col min="16" max="16" width="9.33203125" customWidth="1"/>
-    <col min="17" max="17" width="11.6640625" customWidth="1"/>
-    <col min="20" max="20" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.54296875" customWidth="1"/>
+    <col min="7" max="7" width="9.90625" customWidth="1"/>
+    <col min="8" max="8" width="8.08984375" customWidth="1"/>
+    <col min="9" max="9" width="10.453125" customWidth="1"/>
+    <col min="10" max="10" width="10" customWidth="1"/>
+    <col min="11" max="11" width="8.08984375" customWidth="1"/>
+    <col min="12" max="12" width="11.08984375" customWidth="1"/>
+    <col min="13" max="13" width="11.36328125" customWidth="1"/>
+    <col min="14" max="14" width="8.453125" customWidth="1"/>
+    <col min="15" max="15" width="9.36328125" customWidth="1"/>
+    <col min="16" max="16" width="11.6328125" customWidth="1"/>
+    <col min="19" max="19" width="12.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:18" ht="27" customHeight="1">
+    <row r="2" spans="1:17" ht="27" customHeight="1">
       <c r="B2" s="7"/>
     </row>
-    <row r="3" spans="1:18" ht="20.399999999999999">
-      <c r="A3" s="49" t="s">
-        <v>68</v>
-      </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="49"/>
-      <c r="M3" s="49"/>
-      <c r="N3" s="49"/>
-      <c r="O3" s="49"/>
-      <c r="P3" s="49"/>
-      <c r="Q3" s="49"/>
-    </row>
-    <row r="4" spans="1:18" ht="20.399999999999999">
+    <row r="3" spans="1:17" ht="20">
+      <c r="A3" s="47" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="47"/>
+      <c r="N3" s="47"/>
+      <c r="O3" s="47"/>
+      <c r="P3" s="47"/>
+    </row>
+    <row r="4" spans="1:17" ht="20">
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
     </row>
-    <row r="5" spans="1:18" ht="15.75" customHeight="1"/>
-    <row r="6" spans="1:18" ht="15.75" customHeight="1">
+    <row r="5" spans="1:17" ht="15.75" customHeight="1"/>
+    <row r="6" spans="1:17" ht="15.75" customHeight="1">
       <c r="F6">
         <v>176</v>
       </c>
-      <c r="M6">
+      <c r="L6">
         <v>3180</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="15.75" customHeight="1">
-      <c r="A7" s="47" t="s">
+    <row r="7" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A7" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="47" t="s">
+      <c r="B7" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="47" t="s">
+      <c r="C7" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="47" t="s">
+      <c r="D7" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="50" t="s">
+      <c r="E7" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="F7" s="47" t="s">
+      <c r="F7" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="G7" s="47" t="s">
+      <c r="G7" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="47" t="s">
-        <v>65</v>
-      </c>
-      <c r="I7" s="47" t="s">
-        <v>66</v>
-      </c>
-      <c r="J7" s="47" t="s">
+      <c r="H7" s="48" t="s">
+        <v>76</v>
+      </c>
+      <c r="I7" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="K7" s="47" t="s">
+      <c r="J7" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="L7" s="47" t="s">
+      <c r="K7" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="M7" s="47" t="s">
+      <c r="L7" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="N7" s="47" t="s">
+      <c r="M7" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="O7" s="47" t="s">
+      <c r="N7" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="P7" s="47" t="s">
+      <c r="O7" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="Q7" s="47" t="s">
+      <c r="P7" s="48" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="48.75" customHeight="1">
-      <c r="A8" s="47"/>
-      <c r="B8" s="47"/>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="47"/>
-      <c r="K8" s="47"/>
-      <c r="L8" s="47"/>
-      <c r="M8" s="47"/>
-      <c r="N8" s="47"/>
-      <c r="O8" s="47"/>
-      <c r="P8" s="47"/>
-      <c r="Q8" s="47"/>
-    </row>
-    <row r="9" spans="1:18" ht="31.5" customHeight="1">
+    <row r="8" spans="1:17" ht="48.75" customHeight="1">
+      <c r="A8" s="48"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="48"/>
+      <c r="I8" s="48"/>
+      <c r="J8" s="48"/>
+      <c r="K8" s="48"/>
+      <c r="L8" s="48"/>
+      <c r="M8" s="48"/>
+      <c r="N8" s="48"/>
+      <c r="O8" s="48"/>
+      <c r="P8" s="48"/>
+    </row>
+    <row r="9" spans="1:17" ht="31.5" customHeight="1">
       <c r="A9" s="3">
         <v>1</v>
       </c>
@@ -7075,48 +7432,45 @@
         <v>176</v>
       </c>
       <c r="G9" s="10">
-        <f>D9/F6*F9+J9</f>
+        <f>D9/F6*F9+I9</f>
         <v>6060</v>
       </c>
       <c r="H9" s="5">
-        <v>77.180000000000007</v>
+        <v>80.89</v>
       </c>
       <c r="I9" s="5">
-        <v>80.89</v>
-      </c>
-      <c r="J9" s="5">
         <v>0</v>
       </c>
-      <c r="K9" s="46">
-        <f>G9+H9+I9+J9</f>
-        <v>6218.0700000000006</v>
-      </c>
-      <c r="L9" s="10">
+      <c r="J9" s="46">
+        <f>G9++H9+I9</f>
+        <v>6140.89</v>
+      </c>
+      <c r="K9" s="10">
         <v>3000</v>
       </c>
+      <c r="L9" s="5">
+        <f>ROUND((J9)*18/100,2)</f>
+        <v>1105.3599999999999</v>
+      </c>
       <c r="M9" s="5">
-        <f>ROUND((K9)*18/100,2)</f>
-        <v>1119.25</v>
+        <f>J9*0.015</f>
+        <v>92.113349999999997</v>
       </c>
       <c r="N9" s="5">
-        <f>K9*0.015</f>
-        <v>93.271050000000002</v>
+        <f>SUM(L9:M9)</f>
+        <v>1197.47335</v>
       </c>
       <c r="O9" s="5">
-        <f>SUM(M9:N9)</f>
-        <v>1212.5210500000001</v>
+        <f>J9-N9</f>
+        <v>4943.4166500000001</v>
       </c>
       <c r="P9" s="5">
-        <f>K9-O9</f>
-        <v>5005.5489500000003</v>
-      </c>
-      <c r="Q9" s="5">
-        <f>P9-L9</f>
-        <v>2005.5489500000003</v>
-      </c>
-      <c r="R9" s="9"/>
-    </row>
-    <row r="10" spans="1:18" ht="27.75" customHeight="1">
+        <f>O9-K9</f>
+        <v>1943.4166500000001</v>
+      </c>
+      <c r="Q9" s="9"/>
+    </row>
+    <row r="10" spans="1:17" ht="27.75" customHeight="1">
       <c r="A10" s="3"/>
       <c r="B10" s="14" t="s">
         <v>3</v>
@@ -7134,6 +7488,378 @@
       </c>
       <c r="H10" s="15">
         <f>SUM(H9:H9)</f>
+        <v>80.89</v>
+      </c>
+      <c r="I10" s="15">
+        <f>SUM(I9:I9)</f>
+        <v>0</v>
+      </c>
+      <c r="J10" s="15">
+        <f>SUM(J9:J9)</f>
+        <v>6140.89</v>
+      </c>
+      <c r="K10" s="15">
+        <f t="shared" ref="K10:P10" si="0">SUM(K9:K9)</f>
+        <v>3000</v>
+      </c>
+      <c r="L10" s="15">
+        <f t="shared" si="0"/>
+        <v>1105.3599999999999</v>
+      </c>
+      <c r="M10" s="15">
+        <f t="shared" si="0"/>
+        <v>92.113349999999997</v>
+      </c>
+      <c r="N10" s="15">
+        <f t="shared" si="0"/>
+        <v>1197.47335</v>
+      </c>
+      <c r="O10" s="15">
+        <f t="shared" si="0"/>
+        <v>4943.4166500000001</v>
+      </c>
+      <c r="P10" s="15">
+        <f t="shared" si="0"/>
+        <v>1943.4166500000001</v>
+      </c>
+      <c r="Q10" s="9"/>
+    </row>
+    <row r="11" spans="1:17" ht="15">
+      <c r="L11" s="11"/>
+      <c r="P11" s="15">
+        <f>P10+K10</f>
+        <v>4943.4166500000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="13" thickBot="1"/>
+    <row r="13" spans="1:17" ht="16" thickBot="1">
+      <c r="B13" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="51"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="12">
+        <v>0.22</v>
+      </c>
+      <c r="K13" s="12"/>
+      <c r="L13" s="26">
+        <f>J9*0.22</f>
+        <v>1350.9958000000001</v>
+      </c>
+      <c r="M13" s="24"/>
+      <c r="N13" s="35">
+        <f>M10+L10+L13</f>
+        <v>2548.4691499999999</v>
+      </c>
+      <c r="P13" s="16"/>
+    </row>
+    <row r="14" spans="1:17" ht="13.5" thickBot="1">
+      <c r="P14" s="16"/>
+    </row>
+    <row r="15" spans="1:17" ht="16" thickBot="1">
+      <c r="B15" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="51"/>
+      <c r="J15" s="12">
+        <v>0.22</v>
+      </c>
+      <c r="K15" s="12"/>
+      <c r="L15" s="26">
+        <v>1320</v>
+      </c>
+      <c r="M15" s="24"/>
+    </row>
+    <row r="16" spans="1:17" ht="16" thickBot="1">
+      <c r="B16" s="51"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="51"/>
+      <c r="I16" s="51"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="25"/>
+    </row>
+    <row r="17" spans="2:13" ht="13" thickBot="1"/>
+    <row r="18" spans="2:13" ht="16" thickBot="1">
+      <c r="B18" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="51"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="51"/>
+      <c r="L18" s="27">
+        <f>M10+L10+L13+L15</f>
+        <v>3868.4691499999999</v>
+      </c>
+      <c r="M18" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="21">
+    <mergeCell ref="A3:P3"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="B13:I13"/>
+    <mergeCell ref="B15:I15"/>
+    <mergeCell ref="B16:I16"/>
+  </mergeCells>
+  <pageMargins left="0" right="0" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
+  <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:R18"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5"/>
+  <cols>
+    <col min="1" max="1" width="3.453125" customWidth="1"/>
+    <col min="2" max="2" width="17.90625" customWidth="1"/>
+    <col min="3" max="3" width="13.54296875" customWidth="1"/>
+    <col min="4" max="4" width="10.6328125" customWidth="1"/>
+    <col min="5" max="5" width="6" customWidth="1"/>
+    <col min="6" max="6" width="8.54296875" customWidth="1"/>
+    <col min="7" max="7" width="9.90625" customWidth="1"/>
+    <col min="8" max="8" width="8" customWidth="1"/>
+    <col min="9" max="9" width="7.6328125" customWidth="1"/>
+    <col min="10" max="10" width="10.453125" customWidth="1"/>
+    <col min="11" max="11" width="10" customWidth="1"/>
+    <col min="12" max="12" width="8.08984375" customWidth="1"/>
+    <col min="13" max="13" width="11.08984375" customWidth="1"/>
+    <col min="14" max="14" width="11.36328125" customWidth="1"/>
+    <col min="15" max="15" width="8.453125" customWidth="1"/>
+    <col min="16" max="16" width="9.36328125" customWidth="1"/>
+    <col min="17" max="17" width="11.6328125" customWidth="1"/>
+    <col min="20" max="20" width="12.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:18" ht="27" customHeight="1">
+      <c r="B2" s="7"/>
+    </row>
+    <row r="3" spans="1:18" ht="20">
+      <c r="A3" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="47"/>
+      <c r="N3" s="47"/>
+      <c r="O3" s="47"/>
+      <c r="P3" s="47"/>
+      <c r="Q3" s="47"/>
+    </row>
+    <row r="4" spans="1:18" ht="20">
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+    </row>
+    <row r="5" spans="1:18" ht="15.75" customHeight="1"/>
+    <row r="6" spans="1:18" ht="15.75" customHeight="1">
+      <c r="F6">
+        <v>176</v>
+      </c>
+      <c r="M6">
+        <v>3180</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="15.75" customHeight="1">
+      <c r="A7" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="48" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="49" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7" s="48" t="s">
+        <v>53</v>
+      </c>
+      <c r="G7" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="48" t="s">
+        <v>65</v>
+      </c>
+      <c r="I7" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="J7" s="48" t="s">
+        <v>42</v>
+      </c>
+      <c r="K7" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="L7" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="M7" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="N7" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="O7" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="P7" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q7" s="48" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="48.75" customHeight="1">
+      <c r="A8" s="48"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="48"/>
+      <c r="I8" s="48"/>
+      <c r="J8" s="48"/>
+      <c r="K8" s="48"/>
+      <c r="L8" s="48"/>
+      <c r="M8" s="48"/>
+      <c r="N8" s="48"/>
+      <c r="O8" s="48"/>
+      <c r="P8" s="48"/>
+      <c r="Q8" s="48"/>
+    </row>
+    <row r="9" spans="1:18" ht="31.5" customHeight="1">
+      <c r="A9" s="3">
+        <v>1</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="6">
+        <v>2522813188</v>
+      </c>
+      <c r="D9" s="5">
+        <v>6060</v>
+      </c>
+      <c r="E9" s="5">
+        <v>1</v>
+      </c>
+      <c r="F9" s="5">
+        <v>176</v>
+      </c>
+      <c r="G9" s="10">
+        <f>D9/F6*F9+J9</f>
+        <v>6060</v>
+      </c>
+      <c r="H9" s="5">
+        <v>77.180000000000007</v>
+      </c>
+      <c r="I9" s="5">
+        <v>80.89</v>
+      </c>
+      <c r="J9" s="5">
+        <v>0</v>
+      </c>
+      <c r="K9" s="46">
+        <f>G9+H9+I9+J9</f>
+        <v>6218.0700000000006</v>
+      </c>
+      <c r="L9" s="10">
+        <v>3000</v>
+      </c>
+      <c r="M9" s="5">
+        <f>ROUND((K9)*18/100,2)</f>
+        <v>1119.25</v>
+      </c>
+      <c r="N9" s="5">
+        <f>K9*0.015</f>
+        <v>93.271050000000002</v>
+      </c>
+      <c r="O9" s="5">
+        <f>SUM(M9:N9)</f>
+        <v>1212.5210500000001</v>
+      </c>
+      <c r="P9" s="5">
+        <f>K9-O9</f>
+        <v>5005.5489500000003</v>
+      </c>
+      <c r="Q9" s="5">
+        <f>P9-L9</f>
+        <v>2005.5489500000003</v>
+      </c>
+      <c r="R9" s="9"/>
+    </row>
+    <row r="10" spans="1:18" ht="27.75" customHeight="1">
+      <c r="A10" s="3"/>
+      <c r="B10" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="14"/>
+      <c r="D10" s="15">
+        <f>SUM(D9:D9)</f>
+        <v>6060</v>
+      </c>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15">
+        <f>SUM(G9:G9)</f>
+        <v>6060</v>
+      </c>
+      <c r="H10" s="15">
+        <f>SUM(H9:H9)</f>
         <v>77.180000000000007</v>
       </c>
       <c r="I10" s="15">
@@ -7174,26 +7900,26 @@
       </c>
       <c r="R10" s="9"/>
     </row>
-    <row r="11" spans="1:18" ht="15.6">
+    <row r="11" spans="1:18" ht="15">
       <c r="M11" s="11"/>
       <c r="Q11" s="15">
         <f>Q10+L10</f>
         <v>5005.5489500000003</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="13.8" thickBot="1"/>
-    <row r="13" spans="1:18" ht="16.2" thickBot="1">
-      <c r="B13" s="48" t="s">
+    <row r="12" spans="1:18" ht="13" thickBot="1"/>
+    <row r="13" spans="1:18" ht="16" thickBot="1">
+      <c r="B13" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="48"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="48"/>
-      <c r="I13" s="48"/>
-      <c r="J13" s="48"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="51"/>
       <c r="K13" s="12">
         <v>0.22</v>
       </c>
@@ -7209,21 +7935,21 @@
       </c>
       <c r="Q13" s="16"/>
     </row>
-    <row r="14" spans="1:18" ht="13.8" thickBot="1">
+    <row r="14" spans="1:18" ht="13.5" thickBot="1">
       <c r="Q14" s="16"/>
     </row>
-    <row r="15" spans="1:18" ht="16.2" thickBot="1">
-      <c r="B15" s="48" t="s">
+    <row r="15" spans="1:18" ht="16" thickBot="1">
+      <c r="B15" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="48"/>
-      <c r="D15" s="48"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="48"/>
-      <c r="H15" s="48"/>
-      <c r="I15" s="48"/>
-      <c r="J15" s="48"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="51"/>
+      <c r="J15" s="51"/>
       <c r="K15" s="12">
         <v>0.22</v>
       </c>
@@ -7233,33 +7959,33 @@
       </c>
       <c r="N15" s="24"/>
     </row>
-    <row r="16" spans="1:18" ht="16.2" thickBot="1">
-      <c r="B16" s="48"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="48"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="48"/>
-      <c r="J16" s="48"/>
+    <row r="16" spans="1:18" ht="16" thickBot="1">
+      <c r="B16" s="51"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="51"/>
+      <c r="I16" s="51"/>
+      <c r="J16" s="51"/>
       <c r="K16" s="12"/>
       <c r="L16" s="12"/>
       <c r="M16" s="25"/>
     </row>
-    <row r="17" spans="2:14" ht="13.8" thickBot="1"/>
-    <row r="18" spans="2:14" ht="16.2" thickBot="1">
-      <c r="B18" s="48" t="s">
+    <row r="17" spans="2:14" ht="13" thickBot="1"/>
+    <row r="18" spans="2:14" ht="16" thickBot="1">
+      <c r="B18" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="48"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="48"/>
-      <c r="G18" s="48"/>
-      <c r="H18" s="48"/>
-      <c r="I18" s="48"/>
-      <c r="J18" s="48"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="51"/>
+      <c r="J18" s="51"/>
       <c r="M18" s="27">
         <f>N10+M10+M13+M15</f>
         <v>3900.4964500000001</v>
@@ -7268,13 +7994,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="B13:J13"/>
-    <mergeCell ref="B15:J15"/>
-    <mergeCell ref="B16:J16"/>
-    <mergeCell ref="B18:J18"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J7:J8"/>
     <mergeCell ref="O7:O8"/>
     <mergeCell ref="P7:P8"/>
     <mergeCell ref="A3:Q3"/>
@@ -7290,360 +8009,13 @@
     <mergeCell ref="L7:L8"/>
     <mergeCell ref="M7:M8"/>
     <mergeCell ref="N7:N8"/>
-  </mergeCells>
-  <pageMargins left="0" right="0" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:Q18"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:P3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
-  <cols>
-    <col min="1" max="1" width="3.44140625" customWidth="1"/>
-    <col min="2" max="2" width="17.88671875" customWidth="1"/>
-    <col min="3" max="3" width="13.5546875" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" customWidth="1"/>
-    <col min="5" max="5" width="6" customWidth="1"/>
-    <col min="6" max="6" width="8.5546875" customWidth="1"/>
-    <col min="7" max="7" width="11.88671875" customWidth="1"/>
-    <col min="8" max="8" width="5.6640625" customWidth="1"/>
-    <col min="9" max="9" width="10.44140625" customWidth="1"/>
-    <col min="10" max="10" width="10" customWidth="1"/>
-    <col min="11" max="11" width="8.109375" customWidth="1"/>
-    <col min="12" max="12" width="11.109375" customWidth="1"/>
-    <col min="13" max="13" width="11.33203125" customWidth="1"/>
-    <col min="14" max="14" width="8.44140625" customWidth="1"/>
-    <col min="15" max="15" width="9.33203125" customWidth="1"/>
-    <col min="16" max="16" width="11.6640625" customWidth="1"/>
-    <col min="19" max="19" width="12.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:17" ht="27" customHeight="1">
-      <c r="B2" s="7"/>
-    </row>
-    <row r="3" spans="1:17" ht="20.399999999999999">
-      <c r="A3" s="49" t="s">
-        <v>67</v>
-      </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="49"/>
-      <c r="M3" s="49"/>
-      <c r="N3" s="49"/>
-      <c r="O3" s="49"/>
-      <c r="P3" s="49"/>
-    </row>
-    <row r="4" spans="1:17" ht="20.399999999999999">
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-    </row>
-    <row r="5" spans="1:17" ht="15.75" customHeight="1"/>
-    <row r="6" spans="1:17" ht="15.75" customHeight="1">
-      <c r="F6">
-        <v>160</v>
-      </c>
-      <c r="L6">
-        <v>3180</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A7" s="47" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="47" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" s="50" t="s">
-        <v>54</v>
-      </c>
-      <c r="F7" s="47" t="s">
-        <v>53</v>
-      </c>
-      <c r="G7" s="47" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" s="47" t="s">
-        <v>50</v>
-      </c>
-      <c r="I7" s="47" t="s">
-        <v>42</v>
-      </c>
-      <c r="J7" s="47" t="s">
-        <v>55</v>
-      </c>
-      <c r="K7" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="L7" s="47" t="s">
-        <v>14</v>
-      </c>
-      <c r="M7" s="47" t="s">
-        <v>24</v>
-      </c>
-      <c r="N7" s="47" t="s">
-        <v>12</v>
-      </c>
-      <c r="O7" s="47" t="s">
-        <v>13</v>
-      </c>
-      <c r="P7" s="47" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="48.75" customHeight="1">
-      <c r="A8" s="47"/>
-      <c r="B8" s="47"/>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="47"/>
-      <c r="K8" s="47"/>
-      <c r="L8" s="47"/>
-      <c r="M8" s="47"/>
-      <c r="N8" s="47"/>
-      <c r="O8" s="47"/>
-      <c r="P8" s="47"/>
-    </row>
-    <row r="9" spans="1:17" ht="31.5" customHeight="1">
-      <c r="A9" s="3">
-        <v>1</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="6">
-        <v>2522813188</v>
-      </c>
-      <c r="D9" s="5">
-        <v>6060</v>
-      </c>
-      <c r="E9" s="5">
-        <v>1</v>
-      </c>
-      <c r="F9" s="5">
-        <v>160</v>
-      </c>
-      <c r="G9" s="10">
-        <f>D9/F6*F9+I9</f>
-        <v>6060</v>
-      </c>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5">
-        <v>0</v>
-      </c>
-      <c r="J9" s="46">
-        <f>G9</f>
-        <v>6060</v>
-      </c>
-      <c r="K9" s="10">
-        <v>3000</v>
-      </c>
-      <c r="L9" s="5">
-        <f>ROUND((G9)*18/100,2)</f>
-        <v>1090.8</v>
-      </c>
-      <c r="M9" s="5">
-        <f>G9*0.015</f>
-        <v>90.899999999999991</v>
-      </c>
-      <c r="N9" s="5">
-        <f>SUM(L9:M9)</f>
-        <v>1181.7</v>
-      </c>
-      <c r="O9" s="5">
-        <f>G9-N9</f>
-        <v>4878.3</v>
-      </c>
-      <c r="P9" s="5">
-        <f>O9-K9</f>
-        <v>1878.3000000000002</v>
-      </c>
-      <c r="Q9" s="9"/>
-    </row>
-    <row r="10" spans="1:17" ht="27.75" customHeight="1">
-      <c r="A10" s="3"/>
-      <c r="B10" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="15">
-        <f>SUM(D9:D9)</f>
-        <v>6060</v>
-      </c>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15">
-        <f>SUM(G9:G9)</f>
-        <v>6060</v>
-      </c>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15">
-        <v>0</v>
-      </c>
-      <c r="J10" s="45"/>
-      <c r="K10" s="15">
-        <f t="shared" ref="K10:P10" si="0">SUM(K9:K9)</f>
-        <v>3000</v>
-      </c>
-      <c r="L10" s="15">
-        <f t="shared" si="0"/>
-        <v>1090.8</v>
-      </c>
-      <c r="M10" s="15">
-        <f t="shared" si="0"/>
-        <v>90.899999999999991</v>
-      </c>
-      <c r="N10" s="15">
-        <f t="shared" si="0"/>
-        <v>1181.7</v>
-      </c>
-      <c r="O10" s="15">
-        <f t="shared" si="0"/>
-        <v>4878.3</v>
-      </c>
-      <c r="P10" s="15">
-        <f t="shared" si="0"/>
-        <v>1878.3000000000002</v>
-      </c>
-      <c r="Q10" s="9"/>
-    </row>
-    <row r="11" spans="1:17" ht="15.6">
-      <c r="L11" s="11"/>
-      <c r="P11" s="15">
-        <f>P10+K10</f>
-        <v>4878.3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" ht="13.8" thickBot="1"/>
-    <row r="13" spans="1:17" ht="16.2" thickBot="1">
-      <c r="B13" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="48"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="48"/>
-      <c r="I13" s="48"/>
-      <c r="J13" s="12">
-        <v>0.22</v>
-      </c>
-      <c r="K13" s="12"/>
-      <c r="L13" s="26">
-        <f>J9*0.22</f>
-        <v>1333.2</v>
-      </c>
-      <c r="M13" s="24"/>
-      <c r="N13" s="35">
-        <f>M10+L10+L13</f>
-        <v>2514.9</v>
-      </c>
-      <c r="P13" s="16"/>
-    </row>
-    <row r="14" spans="1:17" ht="13.8" thickBot="1">
-      <c r="P14" s="16"/>
-    </row>
-    <row r="15" spans="1:17" ht="16.2" thickBot="1">
-      <c r="B15" s="48" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="48"/>
-      <c r="D15" s="48"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="48"/>
-      <c r="H15" s="48"/>
-      <c r="I15" s="48"/>
-      <c r="J15" s="12">
-        <v>0.22</v>
-      </c>
-      <c r="K15" s="12"/>
-      <c r="L15" s="26">
-        <v>1320</v>
-      </c>
-      <c r="M15" s="24"/>
-    </row>
-    <row r="16" spans="1:17" ht="16.2" thickBot="1">
-      <c r="B16" s="48"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="48"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="48"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="25"/>
-    </row>
-    <row r="17" spans="2:13" ht="13.8" thickBot="1"/>
-    <row r="18" spans="2:13" ht="16.2" thickBot="1">
-      <c r="B18" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="48"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="48"/>
-      <c r="G18" s="48"/>
-      <c r="H18" s="48"/>
-      <c r="I18" s="48"/>
-      <c r="L18" s="27">
-        <f>M10+L10+L13+L15</f>
-        <v>3834.9</v>
-      </c>
-      <c r="M18" s="28"/>
-    </row>
-  </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="A3:P3"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="P7:P8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="B16:I16"/>
-    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="B13:J13"/>
+    <mergeCell ref="B15:J15"/>
+    <mergeCell ref="B16:J16"/>
+    <mergeCell ref="B18:J18"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
     <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="B13:I13"/>
-    <mergeCell ref="B15:I15"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
@@ -7659,130 +8031,130 @@
       <selection activeCell="A3" sqref="A3:P3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="3.44140625" customWidth="1"/>
-    <col min="2" max="2" width="17.88671875" customWidth="1"/>
-    <col min="3" max="3" width="13.5546875" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" customWidth="1"/>
+    <col min="1" max="1" width="3.453125" customWidth="1"/>
+    <col min="2" max="2" width="17.90625" customWidth="1"/>
+    <col min="3" max="3" width="13.54296875" customWidth="1"/>
+    <col min="4" max="4" width="10.6328125" customWidth="1"/>
     <col min="5" max="5" width="6" customWidth="1"/>
-    <col min="6" max="6" width="8.5546875" customWidth="1"/>
-    <col min="7" max="7" width="11.88671875" customWidth="1"/>
-    <col min="8" max="8" width="5.6640625" customWidth="1"/>
-    <col min="9" max="9" width="10.44140625" customWidth="1"/>
+    <col min="6" max="6" width="8.54296875" customWidth="1"/>
+    <col min="7" max="7" width="11.90625" customWidth="1"/>
+    <col min="8" max="8" width="5.6328125" customWidth="1"/>
+    <col min="9" max="9" width="10.453125" customWidth="1"/>
     <col min="10" max="10" width="10" customWidth="1"/>
-    <col min="11" max="11" width="8.109375" customWidth="1"/>
-    <col min="12" max="12" width="11.109375" customWidth="1"/>
-    <col min="13" max="13" width="11.33203125" customWidth="1"/>
-    <col min="14" max="14" width="8.44140625" customWidth="1"/>
-    <col min="15" max="15" width="9.33203125" customWidth="1"/>
-    <col min="16" max="16" width="11.6640625" customWidth="1"/>
-    <col min="19" max="19" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.08984375" customWidth="1"/>
+    <col min="12" max="12" width="11.08984375" customWidth="1"/>
+    <col min="13" max="13" width="11.36328125" customWidth="1"/>
+    <col min="14" max="14" width="8.453125" customWidth="1"/>
+    <col min="15" max="15" width="9.36328125" customWidth="1"/>
+    <col min="16" max="16" width="11.6328125" customWidth="1"/>
+    <col min="19" max="19" width="12.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:17" ht="27" customHeight="1">
       <c r="B2" s="7"/>
     </row>
-    <row r="3" spans="1:17" ht="20.399999999999999">
-      <c r="A3" s="49" t="s">
-        <v>69</v>
-      </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="49"/>
-      <c r="M3" s="49"/>
-      <c r="N3" s="49"/>
-      <c r="O3" s="49"/>
-      <c r="P3" s="49"/>
-    </row>
-    <row r="4" spans="1:17" ht="20.399999999999999">
+    <row r="3" spans="1:17" ht="20">
+      <c r="A3" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="47"/>
+      <c r="N3" s="47"/>
+      <c r="O3" s="47"/>
+      <c r="P3" s="47"/>
+    </row>
+    <row r="4" spans="1:17" ht="20">
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
     </row>
     <row r="5" spans="1:17" ht="15.75" customHeight="1"/>
     <row r="6" spans="1:17" ht="15.75" customHeight="1">
       <c r="F6">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="L6">
         <v>3180</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A7" s="47" t="s">
+      <c r="A7" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="47" t="s">
+      <c r="B7" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="47" t="s">
+      <c r="C7" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="47" t="s">
+      <c r="D7" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="50" t="s">
+      <c r="E7" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="F7" s="47" t="s">
+      <c r="F7" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="G7" s="47" t="s">
+      <c r="G7" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="47" t="s">
+      <c r="H7" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="I7" s="47" t="s">
+      <c r="I7" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="J7" s="47" t="s">
+      <c r="J7" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="K7" s="47" t="s">
+      <c r="K7" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="L7" s="47" t="s">
+      <c r="L7" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="M7" s="47" t="s">
+      <c r="M7" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="N7" s="47" t="s">
+      <c r="N7" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="O7" s="47" t="s">
+      <c r="O7" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="P7" s="47" t="s">
+      <c r="P7" s="48" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="48.75" customHeight="1">
-      <c r="A8" s="47"/>
-      <c r="B8" s="47"/>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="47"/>
-      <c r="K8" s="47"/>
-      <c r="L8" s="47"/>
-      <c r="M8" s="47"/>
-      <c r="N8" s="47"/>
-      <c r="O8" s="47"/>
-      <c r="P8" s="47"/>
+      <c r="A8" s="48"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="48"/>
+      <c r="I8" s="48"/>
+      <c r="J8" s="48"/>
+      <c r="K8" s="48"/>
+      <c r="L8" s="48"/>
+      <c r="M8" s="48"/>
+      <c r="N8" s="48"/>
+      <c r="O8" s="48"/>
+      <c r="P8" s="48"/>
     </row>
     <row r="9" spans="1:17" ht="31.5" customHeight="1">
       <c r="A9" s="3">
@@ -7801,7 +8173,7 @@
         <v>1</v>
       </c>
       <c r="F9" s="5">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="G9" s="10">
         <f>D9/F6*F9+I9</f>
@@ -7887,25 +8259,25 @@
       </c>
       <c r="Q10" s="9"/>
     </row>
-    <row r="11" spans="1:17" ht="15.6">
+    <row r="11" spans="1:17" ht="15">
       <c r="L11" s="11"/>
       <c r="P11" s="15">
         <f>P10+K10</f>
         <v>4878.3</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="13.8" thickBot="1"/>
-    <row r="13" spans="1:17" ht="16.2" thickBot="1">
-      <c r="B13" s="48" t="s">
+    <row r="12" spans="1:17" ht="13" thickBot="1"/>
+    <row r="13" spans="1:17" ht="16" thickBot="1">
+      <c r="B13" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="48"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="48"/>
-      <c r="I13" s="48"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="51"/>
       <c r="J13" s="12">
         <v>0.22</v>
       </c>
@@ -7921,20 +8293,20 @@
       </c>
       <c r="P13" s="16"/>
     </row>
-    <row r="14" spans="1:17" ht="13.8" thickBot="1">
+    <row r="14" spans="1:17" ht="13.5" thickBot="1">
       <c r="P14" s="16"/>
     </row>
-    <row r="15" spans="1:17" ht="16.2" thickBot="1">
-      <c r="B15" s="48" t="s">
+    <row r="15" spans="1:17" ht="16" thickBot="1">
+      <c r="B15" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="48"/>
-      <c r="D15" s="48"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="48"/>
-      <c r="H15" s="48"/>
-      <c r="I15" s="48"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="51"/>
       <c r="J15" s="12">
         <v>0.22</v>
       </c>
@@ -7944,31 +8316,31 @@
       </c>
       <c r="M15" s="24"/>
     </row>
-    <row r="16" spans="1:17" ht="16.2" thickBot="1">
-      <c r="B16" s="48"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="48"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="48"/>
+    <row r="16" spans="1:17" ht="16" thickBot="1">
+      <c r="B16" s="51"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="51"/>
+      <c r="I16" s="51"/>
       <c r="J16" s="12"/>
       <c r="K16" s="12"/>
       <c r="L16" s="25"/>
     </row>
-    <row r="17" spans="2:13" ht="13.8" thickBot="1"/>
-    <row r="18" spans="2:13" ht="16.2" thickBot="1">
-      <c r="B18" s="48" t="s">
+    <row r="17" spans="2:13" ht="13" thickBot="1"/>
+    <row r="18" spans="2:13" ht="16" thickBot="1">
+      <c r="B18" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="48"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="48"/>
-      <c r="G18" s="48"/>
-      <c r="H18" s="48"/>
-      <c r="I18" s="48"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="51"/>
       <c r="L18" s="27">
         <f>M10+L10+L13+L15</f>
         <v>3834.9</v>
@@ -7977,6 +8349,15 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B16:I16"/>
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="B13:I13"/>
+    <mergeCell ref="B15:I15"/>
     <mergeCell ref="A3:P3"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
@@ -7987,17 +8368,8 @@
     <mergeCell ref="G7:G8"/>
     <mergeCell ref="N7:N8"/>
     <mergeCell ref="P7:P8"/>
+    <mergeCell ref="M7:M8"/>
     <mergeCell ref="O7:O8"/>
-    <mergeCell ref="B18:I18"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="B13:I13"/>
-    <mergeCell ref="B15:I15"/>
-    <mergeCell ref="B16:I16"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
@@ -8013,51 +8385,51 @@
       <selection activeCell="A3" sqref="A3:P3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="3.44140625" customWidth="1"/>
-    <col min="2" max="2" width="17.88671875" customWidth="1"/>
-    <col min="3" max="3" width="13.5546875" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" customWidth="1"/>
+    <col min="1" max="1" width="3.453125" customWidth="1"/>
+    <col min="2" max="2" width="17.90625" customWidth="1"/>
+    <col min="3" max="3" width="13.54296875" customWidth="1"/>
+    <col min="4" max="4" width="10.6328125" customWidth="1"/>
     <col min="5" max="5" width="6" customWidth="1"/>
-    <col min="6" max="6" width="8.5546875" customWidth="1"/>
-    <col min="7" max="7" width="11.88671875" customWidth="1"/>
-    <col min="8" max="8" width="5.6640625" customWidth="1"/>
-    <col min="9" max="9" width="10.44140625" customWidth="1"/>
+    <col min="6" max="6" width="8.54296875" customWidth="1"/>
+    <col min="7" max="7" width="11.90625" customWidth="1"/>
+    <col min="8" max="8" width="5.6328125" customWidth="1"/>
+    <col min="9" max="9" width="10.453125" customWidth="1"/>
     <col min="10" max="10" width="10" customWidth="1"/>
-    <col min="11" max="11" width="8.109375" customWidth="1"/>
-    <col min="12" max="12" width="11.109375" customWidth="1"/>
-    <col min="13" max="13" width="11.33203125" customWidth="1"/>
-    <col min="14" max="14" width="8.44140625" customWidth="1"/>
-    <col min="15" max="15" width="9.33203125" customWidth="1"/>
-    <col min="16" max="16" width="11.6640625" customWidth="1"/>
-    <col min="19" max="19" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.08984375" customWidth="1"/>
+    <col min="12" max="12" width="11.08984375" customWidth="1"/>
+    <col min="13" max="13" width="11.36328125" customWidth="1"/>
+    <col min="14" max="14" width="8.453125" customWidth="1"/>
+    <col min="15" max="15" width="9.36328125" customWidth="1"/>
+    <col min="16" max="16" width="11.6328125" customWidth="1"/>
+    <col min="19" max="19" width="12.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:17" ht="27" customHeight="1">
       <c r="B2" s="7"/>
     </row>
-    <row r="3" spans="1:17" ht="20.399999999999999">
-      <c r="A3" s="49" t="s">
-        <v>70</v>
-      </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="49"/>
-      <c r="M3" s="49"/>
-      <c r="N3" s="49"/>
-      <c r="O3" s="49"/>
-      <c r="P3" s="49"/>
-    </row>
-    <row r="4" spans="1:17" ht="20.399999999999999">
+    <row r="3" spans="1:17" ht="20">
+      <c r="A3" s="47" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="47"/>
+      <c r="N3" s="47"/>
+      <c r="O3" s="47"/>
+      <c r="P3" s="47"/>
+    </row>
+    <row r="4" spans="1:17" ht="20">
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
     </row>
@@ -8071,72 +8443,72 @@
       </c>
     </row>
     <row r="7" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A7" s="47" t="s">
+      <c r="A7" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="47" t="s">
+      <c r="B7" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="47" t="s">
+      <c r="C7" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="47" t="s">
+      <c r="D7" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="50" t="s">
+      <c r="E7" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="F7" s="47" t="s">
+      <c r="F7" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="G7" s="47" t="s">
+      <c r="G7" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="47" t="s">
+      <c r="H7" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="I7" s="47" t="s">
+      <c r="I7" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="J7" s="47" t="s">
+      <c r="J7" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="K7" s="47" t="s">
+      <c r="K7" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="L7" s="47" t="s">
+      <c r="L7" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="M7" s="47" t="s">
+      <c r="M7" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="N7" s="47" t="s">
+      <c r="N7" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="O7" s="47" t="s">
+      <c r="O7" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="P7" s="47" t="s">
+      <c r="P7" s="48" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="48.75" customHeight="1">
-      <c r="A8" s="47"/>
-      <c r="B8" s="47"/>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="47"/>
-      <c r="K8" s="47"/>
-      <c r="L8" s="47"/>
-      <c r="M8" s="47"/>
-      <c r="N8" s="47"/>
-      <c r="O8" s="47"/>
-      <c r="P8" s="47"/>
+      <c r="A8" s="48"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="48"/>
+      <c r="I8" s="48"/>
+      <c r="J8" s="48"/>
+      <c r="K8" s="48"/>
+      <c r="L8" s="48"/>
+      <c r="M8" s="48"/>
+      <c r="N8" s="48"/>
+      <c r="O8" s="48"/>
+      <c r="P8" s="48"/>
     </row>
     <row r="9" spans="1:17" ht="31.5" customHeight="1">
       <c r="A9" s="3">
@@ -8241,25 +8613,25 @@
       </c>
       <c r="Q10" s="9"/>
     </row>
-    <row r="11" spans="1:17" ht="15.6">
+    <row r="11" spans="1:17" ht="15">
       <c r="L11" s="11"/>
       <c r="P11" s="15">
         <f>P10+K10</f>
         <v>4878.3</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="13.8" thickBot="1"/>
-    <row r="13" spans="1:17" ht="16.2" thickBot="1">
-      <c r="B13" s="48" t="s">
+    <row r="12" spans="1:17" ht="13" thickBot="1"/>
+    <row r="13" spans="1:17" ht="16" thickBot="1">
+      <c r="B13" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="48"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="48"/>
-      <c r="I13" s="48"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="51"/>
       <c r="J13" s="12">
         <v>0.22</v>
       </c>
@@ -8275,20 +8647,20 @@
       </c>
       <c r="P13" s="16"/>
     </row>
-    <row r="14" spans="1:17" ht="13.8" thickBot="1">
+    <row r="14" spans="1:17" ht="13.5" thickBot="1">
       <c r="P14" s="16"/>
     </row>
-    <row r="15" spans="1:17" ht="16.2" thickBot="1">
-      <c r="B15" s="48" t="s">
+    <row r="15" spans="1:17" ht="16" thickBot="1">
+      <c r="B15" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="48"/>
-      <c r="D15" s="48"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="48"/>
-      <c r="H15" s="48"/>
-      <c r="I15" s="48"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="51"/>
       <c r="J15" s="12">
         <v>0.22</v>
       </c>
@@ -8298,31 +8670,31 @@
       </c>
       <c r="M15" s="24"/>
     </row>
-    <row r="16" spans="1:17" ht="16.2" thickBot="1">
-      <c r="B16" s="48"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="48"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="48"/>
+    <row r="16" spans="1:17" ht="16" thickBot="1">
+      <c r="B16" s="51"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="51"/>
+      <c r="I16" s="51"/>
       <c r="J16" s="12"/>
       <c r="K16" s="12"/>
       <c r="L16" s="25"/>
     </row>
-    <row r="17" spans="2:13" ht="13.8" thickBot="1"/>
-    <row r="18" spans="2:13" ht="16.2" thickBot="1">
-      <c r="B18" s="48" t="s">
+    <row r="17" spans="2:13" ht="13" thickBot="1"/>
+    <row r="18" spans="2:13" ht="16" thickBot="1">
+      <c r="B18" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="48"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="48"/>
-      <c r="G18" s="48"/>
-      <c r="H18" s="48"/>
-      <c r="I18" s="48"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="51"/>
       <c r="L18" s="27">
         <f>M10+L10+L13+L15</f>
         <v>3834.9</v>
@@ -8331,6 +8703,16 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="B13:I13"/>
+    <mergeCell ref="B15:I15"/>
+    <mergeCell ref="B16:I16"/>
     <mergeCell ref="A3:P3"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
@@ -8342,16 +8724,6 @@
     <mergeCell ref="N7:N8"/>
     <mergeCell ref="P7:P8"/>
     <mergeCell ref="O7:O8"/>
-    <mergeCell ref="B18:I18"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="B13:I13"/>
-    <mergeCell ref="B15:I15"/>
-    <mergeCell ref="B16:I16"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
@@ -8367,51 +8739,51 @@
       <selection activeCell="A3" sqref="A3:P3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="3.44140625" customWidth="1"/>
-    <col min="2" max="2" width="17.88671875" customWidth="1"/>
-    <col min="3" max="3" width="13.5546875" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" customWidth="1"/>
+    <col min="1" max="1" width="3.453125" customWidth="1"/>
+    <col min="2" max="2" width="17.90625" customWidth="1"/>
+    <col min="3" max="3" width="13.54296875" customWidth="1"/>
+    <col min="4" max="4" width="10.6328125" customWidth="1"/>
     <col min="5" max="5" width="6" customWidth="1"/>
-    <col min="6" max="6" width="8.5546875" customWidth="1"/>
-    <col min="7" max="7" width="11.88671875" customWidth="1"/>
-    <col min="8" max="8" width="5.6640625" customWidth="1"/>
-    <col min="9" max="9" width="10.44140625" customWidth="1"/>
+    <col min="6" max="6" width="8.54296875" customWidth="1"/>
+    <col min="7" max="7" width="11.90625" customWidth="1"/>
+    <col min="8" max="8" width="5.6328125" customWidth="1"/>
+    <col min="9" max="9" width="10.453125" customWidth="1"/>
     <col min="10" max="10" width="10" customWidth="1"/>
-    <col min="11" max="11" width="8.109375" customWidth="1"/>
-    <col min="12" max="12" width="11.109375" customWidth="1"/>
-    <col min="13" max="13" width="11.33203125" customWidth="1"/>
-    <col min="14" max="14" width="8.44140625" customWidth="1"/>
-    <col min="15" max="15" width="9.33203125" customWidth="1"/>
-    <col min="16" max="16" width="11.6640625" customWidth="1"/>
-    <col min="19" max="19" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.08984375" customWidth="1"/>
+    <col min="12" max="12" width="11.08984375" customWidth="1"/>
+    <col min="13" max="13" width="11.36328125" customWidth="1"/>
+    <col min="14" max="14" width="8.453125" customWidth="1"/>
+    <col min="15" max="15" width="9.36328125" customWidth="1"/>
+    <col min="16" max="16" width="11.6328125" customWidth="1"/>
+    <col min="19" max="19" width="12.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:17" ht="27" customHeight="1">
       <c r="B2" s="7"/>
     </row>
-    <row r="3" spans="1:17" ht="20.399999999999999">
-      <c r="A3" s="49" t="s">
-        <v>71</v>
-      </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="49"/>
-      <c r="M3" s="49"/>
-      <c r="N3" s="49"/>
-      <c r="O3" s="49"/>
-      <c r="P3" s="49"/>
-    </row>
-    <row r="4" spans="1:17" ht="20.399999999999999">
+    <row r="3" spans="1:17" ht="20">
+      <c r="A3" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="47"/>
+      <c r="N3" s="47"/>
+      <c r="O3" s="47"/>
+      <c r="P3" s="47"/>
+    </row>
+    <row r="4" spans="1:17" ht="20">
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
     </row>
@@ -8425,72 +8797,72 @@
       </c>
     </row>
     <row r="7" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A7" s="47" t="s">
+      <c r="A7" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="47" t="s">
+      <c r="B7" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="47" t="s">
+      <c r="C7" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="47" t="s">
+      <c r="D7" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="50" t="s">
+      <c r="E7" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="F7" s="47" t="s">
+      <c r="F7" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="G7" s="47" t="s">
+      <c r="G7" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="47" t="s">
+      <c r="H7" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="I7" s="47" t="s">
+      <c r="I7" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="J7" s="47" t="s">
+      <c r="J7" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="K7" s="47" t="s">
+      <c r="K7" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="L7" s="47" t="s">
+      <c r="L7" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="M7" s="47" t="s">
+      <c r="M7" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="N7" s="47" t="s">
+      <c r="N7" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="O7" s="47" t="s">
+      <c r="O7" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="P7" s="47" t="s">
+      <c r="P7" s="48" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="48.75" customHeight="1">
-      <c r="A8" s="47"/>
-      <c r="B8" s="47"/>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="47"/>
-      <c r="K8" s="47"/>
-      <c r="L8" s="47"/>
-      <c r="M8" s="47"/>
-      <c r="N8" s="47"/>
-      <c r="O8" s="47"/>
-      <c r="P8" s="47"/>
+      <c r="A8" s="48"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="48"/>
+      <c r="I8" s="48"/>
+      <c r="J8" s="48"/>
+      <c r="K8" s="48"/>
+      <c r="L8" s="48"/>
+      <c r="M8" s="48"/>
+      <c r="N8" s="48"/>
+      <c r="O8" s="48"/>
+      <c r="P8" s="48"/>
     </row>
     <row r="9" spans="1:17" ht="31.5" customHeight="1">
       <c r="A9" s="3">
@@ -8524,7 +8896,7 @@
         <v>6060</v>
       </c>
       <c r="K9" s="10">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="L9" s="5">
         <f>ROUND((G9)*18/100,2)</f>
@@ -8544,7 +8916,7 @@
       </c>
       <c r="P9" s="5">
         <f>O9-K9</f>
-        <v>2878.3</v>
+        <v>1878.3000000000002</v>
       </c>
       <c r="Q9" s="9"/>
     </row>
@@ -8571,7 +8943,7 @@
       <c r="J10" s="45"/>
       <c r="K10" s="15">
         <f t="shared" ref="K10:P10" si="0">SUM(K9:K9)</f>
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="L10" s="15">
         <f t="shared" si="0"/>
@@ -8591,29 +8963,29 @@
       </c>
       <c r="P10" s="15">
         <f t="shared" si="0"/>
-        <v>2878.3</v>
+        <v>1878.3000000000002</v>
       </c>
       <c r="Q10" s="9"/>
     </row>
-    <row r="11" spans="1:17" ht="15.6">
+    <row r="11" spans="1:17" ht="15">
       <c r="L11" s="11"/>
       <c r="P11" s="15">
         <f>P10+K10</f>
         <v>4878.3</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="13.8" thickBot="1"/>
-    <row r="13" spans="1:17" ht="16.2" thickBot="1">
-      <c r="B13" s="48" t="s">
+    <row r="12" spans="1:17" ht="13" thickBot="1"/>
+    <row r="13" spans="1:17" ht="16" thickBot="1">
+      <c r="B13" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="48"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="48"/>
-      <c r="I13" s="48"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="51"/>
       <c r="J13" s="12">
         <v>0.22</v>
       </c>
@@ -8629,20 +9001,20 @@
       </c>
       <c r="P13" s="16"/>
     </row>
-    <row r="14" spans="1:17" ht="13.8" thickBot="1">
+    <row r="14" spans="1:17" ht="13.5" thickBot="1">
       <c r="P14" s="16"/>
     </row>
-    <row r="15" spans="1:17" ht="16.2" thickBot="1">
-      <c r="B15" s="48" t="s">
+    <row r="15" spans="1:17" ht="16" thickBot="1">
+      <c r="B15" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="48"/>
-      <c r="D15" s="48"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="48"/>
-      <c r="H15" s="48"/>
-      <c r="I15" s="48"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="51"/>
       <c r="J15" s="12">
         <v>0.22</v>
       </c>
@@ -8652,31 +9024,31 @@
       </c>
       <c r="M15" s="24"/>
     </row>
-    <row r="16" spans="1:17" ht="16.2" thickBot="1">
-      <c r="B16" s="48"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="48"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="48"/>
+    <row r="16" spans="1:17" ht="16" thickBot="1">
+      <c r="B16" s="51"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="51"/>
+      <c r="I16" s="51"/>
       <c r="J16" s="12"/>
       <c r="K16" s="12"/>
       <c r="L16" s="25"/>
     </row>
-    <row r="17" spans="2:13" ht="13.8" thickBot="1"/>
-    <row r="18" spans="2:13" ht="16.2" thickBot="1">
-      <c r="B18" s="48" t="s">
+    <row r="17" spans="2:13" ht="13" thickBot="1"/>
+    <row r="18" spans="2:13" ht="16" thickBot="1">
+      <c r="B18" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="48"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="48"/>
-      <c r="G18" s="48"/>
-      <c r="H18" s="48"/>
-      <c r="I18" s="48"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="51"/>
       <c r="L18" s="27">
         <f>M10+L10+L13+L15</f>
         <v>3834.9</v>
@@ -8692,9 +9064,8 @@
     <mergeCell ref="M7:M8"/>
     <mergeCell ref="I7:I8"/>
     <mergeCell ref="H7:H8"/>
-    <mergeCell ref="G7:G8"/>
     <mergeCell ref="B13:I13"/>
-    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="B15:I15"/>
     <mergeCell ref="B16:I16"/>
     <mergeCell ref="A3:P3"/>
     <mergeCell ref="A7:A8"/>
@@ -8703,8 +9074,9 @@
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="E7:E8"/>
     <mergeCell ref="F7:F8"/>
-    <mergeCell ref="B15:I15"/>
+    <mergeCell ref="G7:G8"/>
     <mergeCell ref="N7:N8"/>
+    <mergeCell ref="P7:P8"/>
     <mergeCell ref="O7:O8"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -8721,130 +9093,130 @@
       <selection activeCell="A3" sqref="A3:P3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="3.44140625" customWidth="1"/>
-    <col min="2" max="2" width="17.88671875" customWidth="1"/>
-    <col min="3" max="3" width="13.5546875" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" customWidth="1"/>
+    <col min="1" max="1" width="3.453125" customWidth="1"/>
+    <col min="2" max="2" width="17.90625" customWidth="1"/>
+    <col min="3" max="3" width="13.54296875" customWidth="1"/>
+    <col min="4" max="4" width="10.6328125" customWidth="1"/>
     <col min="5" max="5" width="6" customWidth="1"/>
-    <col min="6" max="6" width="8.5546875" customWidth="1"/>
-    <col min="7" max="7" width="11.88671875" customWidth="1"/>
-    <col min="8" max="8" width="5.6640625" customWidth="1"/>
-    <col min="9" max="9" width="10.44140625" customWidth="1"/>
+    <col min="6" max="6" width="8.54296875" customWidth="1"/>
+    <col min="7" max="7" width="11.90625" customWidth="1"/>
+    <col min="8" max="8" width="5.6328125" customWidth="1"/>
+    <col min="9" max="9" width="10.453125" customWidth="1"/>
     <col min="10" max="10" width="10" customWidth="1"/>
-    <col min="11" max="11" width="8.109375" customWidth="1"/>
-    <col min="12" max="12" width="11.109375" customWidth="1"/>
-    <col min="13" max="13" width="11.33203125" customWidth="1"/>
-    <col min="14" max="14" width="8.44140625" customWidth="1"/>
-    <col min="15" max="15" width="9.33203125" customWidth="1"/>
-    <col min="16" max="16" width="11.6640625" customWidth="1"/>
-    <col min="19" max="19" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.08984375" customWidth="1"/>
+    <col min="12" max="12" width="11.08984375" customWidth="1"/>
+    <col min="13" max="13" width="11.36328125" customWidth="1"/>
+    <col min="14" max="14" width="8.453125" customWidth="1"/>
+    <col min="15" max="15" width="9.36328125" customWidth="1"/>
+    <col min="16" max="16" width="11.6328125" customWidth="1"/>
+    <col min="19" max="19" width="12.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:17" ht="27" customHeight="1">
       <c r="B2" s="7"/>
     </row>
-    <row r="3" spans="1:17" ht="20.399999999999999">
-      <c r="A3" s="49" t="s">
-        <v>72</v>
-      </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="49"/>
-      <c r="M3" s="49"/>
-      <c r="N3" s="49"/>
-      <c r="O3" s="49"/>
-      <c r="P3" s="49"/>
-    </row>
-    <row r="4" spans="1:17" ht="20.399999999999999">
+    <row r="3" spans="1:17" ht="20">
+      <c r="A3" s="47" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="47"/>
+      <c r="N3" s="47"/>
+      <c r="O3" s="47"/>
+      <c r="P3" s="47"/>
+    </row>
+    <row r="4" spans="1:17" ht="20">
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
     </row>
     <row r="5" spans="1:17" ht="15.75" customHeight="1"/>
     <row r="6" spans="1:17" ht="15.75" customHeight="1">
       <c r="F6">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="L6">
         <v>3180</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A7" s="47" t="s">
+      <c r="A7" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="47" t="s">
+      <c r="B7" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="47" t="s">
+      <c r="C7" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="47" t="s">
+      <c r="D7" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="50" t="s">
+      <c r="E7" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="F7" s="47" t="s">
+      <c r="F7" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="G7" s="47" t="s">
+      <c r="G7" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="47" t="s">
+      <c r="H7" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="I7" s="47" t="s">
+      <c r="I7" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="J7" s="47" t="s">
+      <c r="J7" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="K7" s="47" t="s">
+      <c r="K7" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="L7" s="47" t="s">
+      <c r="L7" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="M7" s="47" t="s">
+      <c r="M7" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="N7" s="47" t="s">
+      <c r="N7" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="O7" s="47" t="s">
+      <c r="O7" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="P7" s="47" t="s">
+      <c r="P7" s="48" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="48.75" customHeight="1">
-      <c r="A8" s="47"/>
-      <c r="B8" s="47"/>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="47"/>
-      <c r="K8" s="47"/>
-      <c r="L8" s="47"/>
-      <c r="M8" s="47"/>
-      <c r="N8" s="47"/>
-      <c r="O8" s="47"/>
-      <c r="P8" s="47"/>
+      <c r="A8" s="48"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="48"/>
+      <c r="I8" s="48"/>
+      <c r="J8" s="48"/>
+      <c r="K8" s="48"/>
+      <c r="L8" s="48"/>
+      <c r="M8" s="48"/>
+      <c r="N8" s="48"/>
+      <c r="O8" s="48"/>
+      <c r="P8" s="48"/>
     </row>
     <row r="9" spans="1:17" ht="31.5" customHeight="1">
       <c r="A9" s="3">
@@ -8863,7 +9235,7 @@
         <v>1</v>
       </c>
       <c r="F9" s="5">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="G9" s="10">
         <f>D9/F6*F9+I9</f>
@@ -8949,25 +9321,25 @@
       </c>
       <c r="Q10" s="9"/>
     </row>
-    <row r="11" spans="1:17" ht="15.6">
+    <row r="11" spans="1:17" ht="15">
       <c r="L11" s="11"/>
       <c r="P11" s="15">
         <f>P10+K10</f>
         <v>4878.3</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="13.8" thickBot="1"/>
-    <row r="13" spans="1:17" ht="16.2" thickBot="1">
-      <c r="B13" s="48" t="s">
+    <row r="12" spans="1:17" ht="13" thickBot="1"/>
+    <row r="13" spans="1:17" ht="16" thickBot="1">
+      <c r="B13" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="48"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="48"/>
-      <c r="I13" s="48"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="51"/>
       <c r="J13" s="12">
         <v>0.22</v>
       </c>
@@ -8983,20 +9355,20 @@
       </c>
       <c r="P13" s="16"/>
     </row>
-    <row r="14" spans="1:17" ht="13.8" thickBot="1">
+    <row r="14" spans="1:17" ht="13.5" thickBot="1">
       <c r="P14" s="16"/>
     </row>
-    <row r="15" spans="1:17" ht="16.2" thickBot="1">
-      <c r="B15" s="48" t="s">
+    <row r="15" spans="1:17" ht="16" thickBot="1">
+      <c r="B15" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="48"/>
-      <c r="D15" s="48"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="48"/>
-      <c r="H15" s="48"/>
-      <c r="I15" s="48"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="51"/>
       <c r="J15" s="12">
         <v>0.22</v>
       </c>
@@ -9006,31 +9378,31 @@
       </c>
       <c r="M15" s="24"/>
     </row>
-    <row r="16" spans="1:17" ht="16.2" thickBot="1">
-      <c r="B16" s="48"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="48"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="48"/>
+    <row r="16" spans="1:17" ht="16" thickBot="1">
+      <c r="B16" s="51"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="51"/>
+      <c r="I16" s="51"/>
       <c r="J16" s="12"/>
       <c r="K16" s="12"/>
       <c r="L16" s="25"/>
     </row>
-    <row r="17" spans="2:13" ht="13.8" thickBot="1"/>
-    <row r="18" spans="2:13" ht="16.2" thickBot="1">
-      <c r="B18" s="48" t="s">
+    <row r="17" spans="2:13" ht="13" thickBot="1"/>
+    <row r="18" spans="2:13" ht="16" thickBot="1">
+      <c r="B18" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="48"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="48"/>
-      <c r="G18" s="48"/>
-      <c r="H18" s="48"/>
-      <c r="I18" s="48"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="51"/>
       <c r="L18" s="27">
         <f>M10+L10+L13+L15</f>
         <v>3834.9</v>
@@ -9039,27 +9411,27 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="B16:I16"/>
+    <mergeCell ref="A3:P3"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="B15:I15"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="O7:O8"/>
     <mergeCell ref="B18:I18"/>
     <mergeCell ref="J7:J8"/>
     <mergeCell ref="K7:K8"/>
     <mergeCell ref="L7:L8"/>
     <mergeCell ref="M7:M8"/>
-    <mergeCell ref="B16:I16"/>
-    <mergeCell ref="B15:I15"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="G7:G8"/>
     <mergeCell ref="B13:I13"/>
-    <mergeCell ref="A3:P3"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="P7:P8"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
@@ -9075,130 +9447,130 @@
       <selection activeCell="A3" sqref="A3:P3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="3.44140625" customWidth="1"/>
-    <col min="2" max="2" width="17.88671875" customWidth="1"/>
-    <col min="3" max="3" width="13.5546875" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" customWidth="1"/>
+    <col min="1" max="1" width="3.453125" customWidth="1"/>
+    <col min="2" max="2" width="17.90625" customWidth="1"/>
+    <col min="3" max="3" width="13.54296875" customWidth="1"/>
+    <col min="4" max="4" width="10.6328125" customWidth="1"/>
     <col min="5" max="5" width="6" customWidth="1"/>
-    <col min="6" max="6" width="8.5546875" customWidth="1"/>
-    <col min="7" max="7" width="11.88671875" customWidth="1"/>
-    <col min="8" max="8" width="5.6640625" customWidth="1"/>
-    <col min="9" max="9" width="10.44140625" customWidth="1"/>
+    <col min="6" max="6" width="8.54296875" customWidth="1"/>
+    <col min="7" max="7" width="11.90625" customWidth="1"/>
+    <col min="8" max="8" width="5.6328125" customWidth="1"/>
+    <col min="9" max="9" width="10.453125" customWidth="1"/>
     <col min="10" max="10" width="10" customWidth="1"/>
-    <col min="11" max="11" width="8.109375" customWidth="1"/>
-    <col min="12" max="12" width="11.109375" customWidth="1"/>
-    <col min="13" max="13" width="11.33203125" customWidth="1"/>
-    <col min="14" max="14" width="8.44140625" customWidth="1"/>
-    <col min="15" max="15" width="9.33203125" customWidth="1"/>
-    <col min="16" max="16" width="11.6640625" customWidth="1"/>
-    <col min="19" max="19" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.08984375" customWidth="1"/>
+    <col min="12" max="12" width="11.08984375" customWidth="1"/>
+    <col min="13" max="13" width="11.36328125" customWidth="1"/>
+    <col min="14" max="14" width="8.453125" customWidth="1"/>
+    <col min="15" max="15" width="9.36328125" customWidth="1"/>
+    <col min="16" max="16" width="11.6328125" customWidth="1"/>
+    <col min="19" max="19" width="12.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:17" ht="27" customHeight="1">
       <c r="B2" s="7"/>
     </row>
-    <row r="3" spans="1:17" ht="20.399999999999999">
-      <c r="A3" s="49" t="s">
-        <v>73</v>
-      </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="49"/>
-      <c r="M3" s="49"/>
-      <c r="N3" s="49"/>
-      <c r="O3" s="49"/>
-      <c r="P3" s="49"/>
-    </row>
-    <row r="4" spans="1:17" ht="20.399999999999999">
+    <row r="3" spans="1:17" ht="20">
+      <c r="A3" s="47" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="47"/>
+      <c r="N3" s="47"/>
+      <c r="O3" s="47"/>
+      <c r="P3" s="47"/>
+    </row>
+    <row r="4" spans="1:17" ht="20">
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
     </row>
     <row r="5" spans="1:17" ht="15.75" customHeight="1"/>
     <row r="6" spans="1:17" ht="15.75" customHeight="1">
       <c r="F6">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="L6">
         <v>3180</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A7" s="47" t="s">
+      <c r="A7" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="47" t="s">
+      <c r="B7" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="47" t="s">
+      <c r="C7" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="47" t="s">
+      <c r="D7" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="50" t="s">
+      <c r="E7" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="F7" s="47" t="s">
+      <c r="F7" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="G7" s="47" t="s">
+      <c r="G7" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="47" t="s">
+      <c r="H7" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="I7" s="47" t="s">
+      <c r="I7" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="J7" s="47" t="s">
+      <c r="J7" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="K7" s="47" t="s">
+      <c r="K7" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="L7" s="47" t="s">
+      <c r="L7" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="M7" s="47" t="s">
+      <c r="M7" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="N7" s="47" t="s">
+      <c r="N7" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="O7" s="47" t="s">
+      <c r="O7" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="P7" s="47" t="s">
+      <c r="P7" s="48" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="48.75" customHeight="1">
-      <c r="A8" s="47"/>
-      <c r="B8" s="47"/>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="47"/>
-      <c r="K8" s="47"/>
-      <c r="L8" s="47"/>
-      <c r="M8" s="47"/>
-      <c r="N8" s="47"/>
-      <c r="O8" s="47"/>
-      <c r="P8" s="47"/>
+      <c r="A8" s="48"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="48"/>
+      <c r="I8" s="48"/>
+      <c r="J8" s="48"/>
+      <c r="K8" s="48"/>
+      <c r="L8" s="48"/>
+      <c r="M8" s="48"/>
+      <c r="N8" s="48"/>
+      <c r="O8" s="48"/>
+      <c r="P8" s="48"/>
     </row>
     <row r="9" spans="1:17" ht="31.5" customHeight="1">
       <c r="A9" s="3">
@@ -9217,42 +9589,42 @@
         <v>1</v>
       </c>
       <c r="F9" s="5">
-        <v>24</v>
+        <v>160</v>
       </c>
       <c r="G9" s="10">
         <f>D9/F6*F9+I9</f>
-        <v>4908.5388079470204</v>
+        <v>6060</v>
       </c>
       <c r="H9" s="5"/>
       <c r="I9" s="5">
-        <v>3945.36</v>
+        <v>0</v>
       </c>
       <c r="J9" s="46">
         <f>G9</f>
-        <v>4908.5388079470204</v>
+        <v>6060</v>
       </c>
       <c r="K9" s="10">
         <v>2000</v>
       </c>
       <c r="L9" s="5">
         <f>ROUND((G9)*18/100,2)</f>
-        <v>883.54</v>
+        <v>1090.8</v>
       </c>
       <c r="M9" s="5">
         <f>G9*0.015</f>
-        <v>73.628082119205303</v>
+        <v>90.899999999999991</v>
       </c>
       <c r="N9" s="5">
         <f>SUM(L9:M9)</f>
-        <v>957.16808211920522</v>
+        <v>1181.7</v>
       </c>
       <c r="O9" s="5">
         <f>G9-N9</f>
-        <v>3951.370725827815</v>
+        <v>4878.3</v>
       </c>
       <c r="P9" s="5">
         <f>O9-K9</f>
-        <v>1951.370725827815</v>
+        <v>2878.3</v>
       </c>
       <c r="Q9" s="9"/>
     </row>
@@ -9270,87 +9642,87 @@
       <c r="F10" s="15"/>
       <c r="G10" s="15">
         <f>SUM(G9:G9)</f>
-        <v>4908.5388079470204</v>
+        <v>6060</v>
       </c>
       <c r="H10" s="15"/>
       <c r="I10" s="15">
-        <f t="shared" ref="I10:P10" si="0">SUM(I9:I9)</f>
-        <v>3945.36</v>
+        <v>0</v>
       </c>
       <c r="J10" s="45"/>
       <c r="K10" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="K10:P10" si="0">SUM(K9:K9)</f>
         <v>2000</v>
       </c>
       <c r="L10" s="15">
         <f t="shared" si="0"/>
-        <v>883.54</v>
+        <v>1090.8</v>
       </c>
       <c r="M10" s="15">
         <f t="shared" si="0"/>
-        <v>73.628082119205303</v>
+        <v>90.899999999999991</v>
       </c>
       <c r="N10" s="15">
         <f t="shared" si="0"/>
-        <v>957.16808211920522</v>
+        <v>1181.7</v>
       </c>
       <c r="O10" s="15">
         <f t="shared" si="0"/>
-        <v>3951.370725827815</v>
+        <v>4878.3</v>
       </c>
       <c r="P10" s="15">
         <f t="shared" si="0"/>
-        <v>1951.370725827815</v>
+        <v>2878.3</v>
       </c>
       <c r="Q10" s="9"/>
     </row>
-    <row r="11" spans="1:17" ht="15.6">
+    <row r="11" spans="1:17" ht="15">
       <c r="L11" s="11"/>
       <c r="P11" s="15">
         <f>P10+K10</f>
-        <v>3951.370725827815</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" ht="13.8" thickBot="1"/>
-    <row r="13" spans="1:17" ht="16.2" thickBot="1">
-      <c r="B13" s="48" t="s">
+        <v>4878.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="13" thickBot="1"/>
+    <row r="13" spans="1:17" ht="16" thickBot="1">
+      <c r="B13" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="48"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="48"/>
-      <c r="I13" s="48"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="51"/>
       <c r="J13" s="12">
         <v>0.22</v>
       </c>
       <c r="K13" s="12"/>
       <c r="L13" s="26">
-        <v>1320</v>
+        <f>J9*0.22</f>
+        <v>1333.2</v>
       </c>
       <c r="M13" s="24"/>
       <c r="N13" s="35">
         <f>M10+L10+L13</f>
-        <v>2277.1680821192053</v>
+        <v>2514.9</v>
       </c>
       <c r="P13" s="16"/>
     </row>
-    <row r="14" spans="1:17" ht="13.8" thickBot="1">
+    <row r="14" spans="1:17" ht="13.5" thickBot="1">
       <c r="P14" s="16"/>
     </row>
-    <row r="15" spans="1:17" ht="16.2" thickBot="1">
-      <c r="B15" s="48" t="s">
+    <row r="15" spans="1:17" ht="16" thickBot="1">
+      <c r="B15" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="48"/>
-      <c r="D15" s="48"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="48"/>
-      <c r="H15" s="48"/>
-      <c r="I15" s="48"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="51"/>
       <c r="J15" s="12">
         <v>0.22</v>
       </c>
@@ -9360,34 +9732,34 @@
       </c>
       <c r="M15" s="24"/>
     </row>
-    <row r="16" spans="1:17" ht="16.2" thickBot="1">
-      <c r="B16" s="48"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="48"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="48"/>
+    <row r="16" spans="1:17" ht="16" thickBot="1">
+      <c r="B16" s="51"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="51"/>
+      <c r="I16" s="51"/>
       <c r="J16" s="12"/>
       <c r="K16" s="12"/>
       <c r="L16" s="25"/>
     </row>
-    <row r="17" spans="2:13" ht="13.8" thickBot="1"/>
-    <row r="18" spans="2:13" ht="16.2" thickBot="1">
-      <c r="B18" s="48" t="s">
+    <row r="17" spans="2:13" ht="13" thickBot="1"/>
+    <row r="18" spans="2:13" ht="16" thickBot="1">
+      <c r="B18" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="48"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="48"/>
-      <c r="G18" s="48"/>
-      <c r="H18" s="48"/>
-      <c r="I18" s="48"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="51"/>
       <c r="L18" s="27">
         <f>M10+L10+L13+L15</f>
-        <v>3597.1680821192053</v>
+        <v>3834.9</v>
       </c>
       <c r="M18" s="28"/>
     </row>
@@ -9398,22 +9770,22 @@
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="D7:D8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="I7:I8"/>
     <mergeCell ref="G7:G8"/>
     <mergeCell ref="P7:P8"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="I7:I8"/>
     <mergeCell ref="B18:I18"/>
     <mergeCell ref="J7:J8"/>
     <mergeCell ref="K7:K8"/>
     <mergeCell ref="L7:L8"/>
     <mergeCell ref="M7:M8"/>
-    <mergeCell ref="B13:I13"/>
     <mergeCell ref="B16:I16"/>
     <mergeCell ref="B15:I15"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="B13:I13"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
